--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -21047,10 +21047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21060,9 +21060,15 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f>64/3</f>
+        <v>21.333333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
     <sheet name="Weapon Formulas" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Ship Design Balancing" sheetId="5" r:id="rId3"/>
     <sheet name="gen_weapon_components" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="261">
   <si>
     <t># Lines starting with ”#” will be treated as comments.</t>
   </si>
@@ -776,6 +776,36 @@
   <si>
     <t>Corvettes</t>
   </si>
+  <si>
+    <t>Destroyer</t>
+  </si>
+  <si>
+    <t>Cruiser</t>
+  </si>
+  <si>
+    <t>Battleship</t>
+  </si>
+  <si>
+    <t>Should be 24</t>
+  </si>
+  <si>
+    <t>Weapon Slots</t>
+  </si>
+  <si>
+    <t>Utility Slots</t>
+  </si>
+  <si>
+    <t>Weapon Power Size Cost</t>
+  </si>
+  <si>
+    <t>Power/Size</t>
+  </si>
+  <si>
+    <t>Weapon Power/ Size</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
 </sst>
 </file>
 
@@ -861,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -884,6 +914,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1304,6 +1335,279 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="105"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-426.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-426.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-426.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-426.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-213.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-26.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-53.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-106.66666666666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11908,8 +12212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView topLeftCell="H100" workbookViewId="0">
-      <selection activeCell="O119" sqref="O119"/>
+    <sheetView topLeftCell="L94" workbookViewId="0">
+      <selection activeCell="W104" sqref="W104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12298,11 +12602,11 @@
       <c r="F8" s="12">
         <v>0.2</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8">
@@ -12420,7 +12724,9 @@
       <c r="T10" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="13" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
@@ -12494,7 +12800,10 @@
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="2"/>
+      <c r="U11" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C11)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D11+2)*(1+'Weapon Formulas'!B11))</f>
+        <v>-3.333333333333333</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
@@ -12568,7 +12877,10 @@
       <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="U12" s="2"/>
+      <c r="U12" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C12)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D12+2)*(1+'Weapon Formulas'!B12))</f>
+        <v>-6.6666666666666661</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
@@ -12642,7 +12954,10 @@
       <c r="T13" s="2">
         <v>0</v>
       </c>
-      <c r="U13" s="2"/>
+      <c r="U13" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C13)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D13+2)*(1+'Weapon Formulas'!B13))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
@@ -12716,7 +13031,10 @@
       <c r="T14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="2"/>
+      <c r="U14" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C14)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D14+2)*(1+'Weapon Formulas'!B14))</f>
+        <v>-6.6666666666666661</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
@@ -12790,7 +13108,10 @@
       <c r="T15" s="2">
         <v>0</v>
       </c>
-      <c r="U15" s="2"/>
+      <c r="U15" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C15)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D15+2)*(1+'Weapon Formulas'!B15))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
@@ -12864,7 +13185,10 @@
       <c r="T16" s="2">
         <v>0</v>
       </c>
-      <c r="U16" s="2"/>
+      <c r="U16" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C16)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D16+2)*(1+'Weapon Formulas'!B16))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
@@ -12938,7 +13262,10 @@
       <c r="T17" s="2">
         <v>0</v>
       </c>
-      <c r="U17" s="2"/>
+      <c r="U17" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C17)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D17+2)*(1+'Weapon Formulas'!B17))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
@@ -13012,7 +13339,10 @@
       <c r="T18" s="2">
         <v>0</v>
       </c>
-      <c r="U18" s="2"/>
+      <c r="U18" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C18)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D18+2)*(1+'Weapon Formulas'!B18))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
@@ -13086,7 +13416,10 @@
       <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="2"/>
+      <c r="U19" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C19)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D19+2)*(1+'Weapon Formulas'!B19))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
@@ -13160,7 +13493,10 @@
       <c r="T20" s="2">
         <v>0</v>
       </c>
-      <c r="U20" s="2"/>
+      <c r="U20" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C20)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D20+2)*(1+'Weapon Formulas'!B20))</f>
+        <v>-26.666666666666664</v>
+      </c>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
@@ -13236,7 +13572,10 @@
       <c r="T21" s="2">
         <v>0</v>
       </c>
-      <c r="U21" s="2"/>
+      <c r="U21" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C21)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D21+2)*(1+'Weapon Formulas'!B21))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
@@ -13310,7 +13649,10 @@
       <c r="T22" s="2">
         <v>0</v>
       </c>
-      <c r="U22" s="2"/>
+      <c r="U22" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C22)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D22+2)*(1+'Weapon Formulas'!B22))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
@@ -13384,7 +13726,10 @@
       <c r="T23" s="2">
         <v>0</v>
       </c>
-      <c r="U23" s="2"/>
+      <c r="U23" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C23)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D23+2)*(1+'Weapon Formulas'!B23))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
@@ -13458,7 +13803,10 @@
       <c r="T24" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="2"/>
+      <c r="U24" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C24)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D24+2)*(1+'Weapon Formulas'!B24))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
@@ -13532,7 +13880,10 @@
       <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="U25" s="2"/>
+      <c r="U25" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C25)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D25+2)*(1+'Weapon Formulas'!B25))</f>
+        <v>-213.33333333333331</v>
+      </c>
       <c r="W25" s="14" t="s">
         <v>220</v>
       </c>
@@ -13579,7 +13930,7 @@
       <c r="T26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="2"/>
+      <c r="U26" s="14"/>
       <c r="W26" s="14" t="s">
         <v>130</v>
       </c>
@@ -13734,7 +14085,10 @@
       <c r="T27" s="2">
         <v>0</v>
       </c>
-      <c r="U27" s="2"/>
+      <c r="U27" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C27)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D27+2)*(1+'Weapon Formulas'!B27))</f>
+        <v>-213.33333333333331</v>
+      </c>
       <c r="W27" s="14" t="s">
         <v>221</v>
       </c>
@@ -13890,7 +14244,10 @@
       <c r="T28" s="2">
         <v>0</v>
       </c>
-      <c r="U28" s="2"/>
+      <c r="U28" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C28)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D28+2)*(1+'Weapon Formulas'!B28))</f>
+        <v>-426.66666666666663</v>
+      </c>
       <c r="W28" s="14" t="s">
         <v>222</v>
       </c>
@@ -14011,7 +14368,7 @@
       <c r="T29" s="2">
         <v>0</v>
       </c>
-      <c r="U29" s="2"/>
+      <c r="U29" s="14"/>
       <c r="W29" s="14" t="s">
         <v>223</v>
       </c>
@@ -14164,7 +14521,10 @@
       <c r="T30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="2"/>
+      <c r="U30" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C30)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D30+2)*(1+'Weapon Formulas'!B30))</f>
+        <v>-13.333333333333332</v>
+      </c>
       <c r="W30" s="14" t="s">
         <v>224</v>
       </c>
@@ -14317,7 +14677,10 @@
       <c r="T31" s="2">
         <v>0</v>
       </c>
-      <c r="U31" s="2"/>
+      <c r="U31" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C31)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D31+2)*(1+'Weapon Formulas'!B31))</f>
+        <v>-26.666666666666664</v>
+      </c>
       <c r="W31" s="14" t="s">
         <v>225</v>
       </c>
@@ -14470,7 +14833,10 @@
       <c r="T32" s="2">
         <v>0</v>
       </c>
-      <c r="U32" s="2"/>
+      <c r="U32" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C32)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D32+2)*(1+'Weapon Formulas'!B32))</f>
+        <v>-53.333333333333329</v>
+      </c>
       <c r="W32" s="14" t="s">
         <v>226</v>
       </c>
@@ -14623,7 +14989,10 @@
       <c r="T33" s="2">
         <v>0</v>
       </c>
-      <c r="U33" s="2"/>
+      <c r="U33" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C33)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D33+2)*(1+'Weapon Formulas'!B33))</f>
+        <v>-26.666666666666664</v>
+      </c>
       <c r="W33" s="14" t="s">
         <v>227</v>
       </c>
@@ -14776,7 +15145,10 @@
       <c r="T34" s="2">
         <v>0</v>
       </c>
-      <c r="U34" s="2"/>
+      <c r="U34" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C34)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D34+2)*(1+'Weapon Formulas'!B34))</f>
+        <v>-53.333333333333329</v>
+      </c>
       <c r="W34" s="14" t="s">
         <v>228</v>
       </c>
@@ -14929,7 +15301,10 @@
       <c r="T35" s="2">
         <v>0</v>
       </c>
-      <c r="U35" s="2"/>
+      <c r="U35" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C35)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D35+2)*(1+'Weapon Formulas'!B35))</f>
+        <v>-106.66666666666666</v>
+      </c>
       <c r="W35" s="14" t="s">
         <v>229</v>
       </c>
@@ -15082,7 +15457,10 @@
       <c r="T36" s="2">
         <v>0</v>
       </c>
-      <c r="U36" s="2"/>
+      <c r="U36" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C36)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D36+2)*(1+'Weapon Formulas'!B36))</f>
+        <v>-53.333333333333329</v>
+      </c>
       <c r="W36" s="14" t="s">
         <v>230</v>
       </c>
@@ -15235,7 +15613,10 @@
       <c r="T37" s="2">
         <v>0</v>
       </c>
-      <c r="U37" s="2"/>
+      <c r="U37" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C37)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D37+2)*(1+'Weapon Formulas'!B37))</f>
+        <v>-106.66666666666666</v>
+      </c>
       <c r="W37" s="14" t="s">
         <v>231</v>
       </c>
@@ -15388,7 +15769,10 @@
       <c r="T38" s="2">
         <v>0</v>
       </c>
-      <c r="U38" s="2"/>
+      <c r="U38" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C38)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D38+2)*(1+'Weapon Formulas'!B38))</f>
+        <v>-213.33333333333331</v>
+      </c>
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
@@ -15430,7 +15814,7 @@
       <c r="T39" s="2">
         <v>0</v>
       </c>
-      <c r="U39" s="2"/>
+      <c r="U39" s="14"/>
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
@@ -15508,7 +15892,10 @@
       <c r="T40" s="2">
         <v>0</v>
       </c>
-      <c r="U40" s="2"/>
+      <c r="U40" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C40)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D40+2)*(1+'Weapon Formulas'!B40))</f>
+        <v>-213.33333333333331</v>
+      </c>
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
@@ -15586,7 +15973,10 @@
       <c r="T41" s="2">
         <v>0</v>
       </c>
-      <c r="U41" s="2"/>
+      <c r="U41" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C41)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D41+2)*(1+'Weapon Formulas'!B41))</f>
+        <v>-426.66666666666663</v>
+      </c>
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
@@ -15628,7 +16018,7 @@
       <c r="T42" s="2">
         <v>0</v>
       </c>
-      <c r="U42" s="2"/>
+      <c r="U42" s="14"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
@@ -15703,7 +16093,10 @@
       <c r="T43" s="2">
         <v>0</v>
       </c>
-      <c r="U43" s="2"/>
+      <c r="U43" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C43)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D43)*(1+'Weapon Formulas'!B43))</f>
+        <v>-13.333333333333332</v>
+      </c>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
@@ -15778,7 +16171,10 @@
       <c r="T44" s="2">
         <v>0</v>
       </c>
-      <c r="U44" s="2"/>
+      <c r="U44" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C44)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D44)*(1+'Weapon Formulas'!B44))</f>
+        <v>-26.666666666666664</v>
+      </c>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
@@ -15853,7 +16249,10 @@
       <c r="T45" s="2">
         <v>0</v>
       </c>
-      <c r="U45" s="2"/>
+      <c r="U45" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C45)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D45)*(1+'Weapon Formulas'!B45))</f>
+        <v>-53.333333333333329</v>
+      </c>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
@@ -15928,7 +16327,10 @@
       <c r="T46" s="2">
         <v>0</v>
       </c>
-      <c r="U46" s="2"/>
+      <c r="U46" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C46)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D46)*(1+'Weapon Formulas'!B46))</f>
+        <v>-26.666666666666664</v>
+      </c>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
@@ -16003,7 +16405,10 @@
       <c r="T47" s="2">
         <v>0</v>
       </c>
-      <c r="U47" s="2"/>
+      <c r="U47" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C47)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D47)*(1+'Weapon Formulas'!B47))</f>
+        <v>-53.333333333333329</v>
+      </c>
       <c r="W47" s="14"/>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
@@ -16078,7 +16483,10 @@
       <c r="T48" s="2">
         <v>0</v>
       </c>
-      <c r="U48" s="2"/>
+      <c r="U48" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C48)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D48)*(1+'Weapon Formulas'!B48))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
@@ -16152,7 +16560,10 @@
       <c r="T49" s="2">
         <v>0</v>
       </c>
-      <c r="U49" s="2"/>
+      <c r="U49" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C49)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D49)*(1+'Weapon Formulas'!B49))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
@@ -16226,7 +16637,10 @@
       <c r="T50" s="2">
         <v>0</v>
       </c>
-      <c r="U50" s="2"/>
+      <c r="U50" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C50)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D50)*(1+'Weapon Formulas'!B50))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
@@ -16300,7 +16714,10 @@
       <c r="T51" s="2">
         <v>0</v>
       </c>
-      <c r="U51" s="2"/>
+      <c r="U51" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C51)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D51)*(1+'Weapon Formulas'!B51))</f>
+        <v>-213.33333333333331</v>
+      </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
@@ -16341,7 +16758,7 @@
       <c r="T52" s="2">
         <v>0</v>
       </c>
-      <c r="U52" s="2"/>
+      <c r="U52" s="14"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
@@ -16419,7 +16836,10 @@
         <f>INDEX($T$2:$T$6,C53)</f>
         <v>7.5</v>
       </c>
-      <c r="U53" s="2"/>
+      <c r="U53" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C53)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D53+2)*(1+'Weapon Formulas'!B53))</f>
+        <v>-213.33333333333331</v>
+      </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
@@ -16497,7 +16917,10 @@
         <f>INDEX($T$2:$T$6,C54)</f>
         <v>10</v>
       </c>
-      <c r="U54" s="2"/>
+      <c r="U54" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C54)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D54+2)*(1+'Weapon Formulas'!B54))</f>
+        <v>-426.66666666666663</v>
+      </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
@@ -16538,7 +16961,7 @@
       <c r="T55" s="2">
         <v>0</v>
       </c>
-      <c r="U55" s="2"/>
+      <c r="U55" s="14"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
@@ -16611,7 +17034,10 @@
       <c r="T56" s="2">
         <v>0</v>
       </c>
-      <c r="U56" s="2"/>
+      <c r="U56" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C56)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D56+2)*(1+'Weapon Formulas'!B56))</f>
+        <v>-3.333333333333333</v>
+      </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
@@ -16684,7 +17110,10 @@
       <c r="T57" s="2">
         <v>0</v>
       </c>
-      <c r="U57" s="2"/>
+      <c r="U57" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C57)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D57+2)*(1+'Weapon Formulas'!B57))</f>
+        <v>-6.6666666666666661</v>
+      </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
@@ -16757,7 +17186,10 @@
       <c r="T58" s="2">
         <v>0</v>
       </c>
-      <c r="U58" s="2"/>
+      <c r="U58" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C58)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D58+2)*(1+'Weapon Formulas'!B58))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
@@ -16830,7 +17262,10 @@
       <c r="T59" s="2">
         <v>0</v>
       </c>
-      <c r="U59" s="2"/>
+      <c r="U59" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C59)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D59+2)*(1+'Weapon Formulas'!B59))</f>
+        <v>-6.6666666666666661</v>
+      </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
@@ -16903,7 +17338,10 @@
       <c r="T60" s="2">
         <v>0</v>
       </c>
-      <c r="U60" s="2"/>
+      <c r="U60" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C60)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D60+2)*(1+'Weapon Formulas'!B60))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
@@ -16976,7 +17414,10 @@
       <c r="T61" s="2">
         <v>0</v>
       </c>
-      <c r="U61" s="2"/>
+      <c r="U61" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C61)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D61+2)*(1+'Weapon Formulas'!B61))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
@@ -17049,7 +17490,10 @@
       <c r="T62" s="2">
         <v>0</v>
       </c>
-      <c r="U62" s="2"/>
+      <c r="U62" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C62)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D62+2)*(1+'Weapon Formulas'!B62))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
@@ -17122,7 +17566,10 @@
       <c r="T63" s="2">
         <v>0</v>
       </c>
-      <c r="U63" s="2"/>
+      <c r="U63" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C63)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D63+2)*(1+'Weapon Formulas'!B63))</f>
+        <v>-26.666666666666664</v>
+      </c>
       <c r="X63" s="14"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
@@ -17196,7 +17643,10 @@
       <c r="T64" s="2">
         <v>0</v>
       </c>
-      <c r="U64" s="2"/>
+      <c r="U64" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C64)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D64+2)*(1+'Weapon Formulas'!B64))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
@@ -17269,7 +17719,10 @@
       <c r="T65" s="2">
         <v>0</v>
       </c>
-      <c r="U65" s="2"/>
+      <c r="U65" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C65)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D65+2)*(1+'Weapon Formulas'!B65))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
@@ -17342,7 +17795,10 @@
       <c r="T66" s="2">
         <v>0</v>
       </c>
-      <c r="U66" s="2"/>
+      <c r="U66" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C66)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D66+2)*(1+'Weapon Formulas'!B66))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
@@ -17415,7 +17871,10 @@
       <c r="T67" s="2">
         <v>0</v>
       </c>
-      <c r="U67" s="2"/>
+      <c r="U67" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C67)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D67+2)*(1+'Weapon Formulas'!B67))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
@@ -17488,7 +17947,10 @@
       <c r="T68" s="2">
         <v>0</v>
       </c>
-      <c r="U68" s="2"/>
+      <c r="U68" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C68)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D68+2)*(1+'Weapon Formulas'!B68))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
@@ -17561,7 +18023,10 @@
       <c r="T69" s="2">
         <v>0</v>
       </c>
-      <c r="U69" s="2"/>
+      <c r="U69" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C69)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D69+2)*(1+'Weapon Formulas'!B69))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
@@ -17634,7 +18099,10 @@
       <c r="T70" s="2">
         <v>0</v>
       </c>
-      <c r="U70" s="2"/>
+      <c r="U70" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C70)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D70+2)*(1+'Weapon Formulas'!B70))</f>
+        <v>-213.33333333333331</v>
+      </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
@@ -17671,7 +18139,7 @@
       <c r="T71" s="2">
         <v>0</v>
       </c>
-      <c r="U71" s="2"/>
+      <c r="U71" s="14"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
@@ -17747,7 +18215,10 @@
       <c r="T72" s="2">
         <v>0</v>
       </c>
-      <c r="U72" s="2"/>
+      <c r="U72" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C72)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D72+2)*(1+'Weapon Formulas'!B72))</f>
+        <v>-213.33333333333331</v>
+      </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
@@ -17823,7 +18294,10 @@
       <c r="T73" s="2">
         <v>0</v>
       </c>
-      <c r="U73" s="2"/>
+      <c r="U73" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C73)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D73+2)*(1+'Weapon Formulas'!B73))</f>
+        <v>-426.66666666666663</v>
+      </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
@@ -17860,7 +18334,7 @@
       <c r="T74" s="2">
         <v>0</v>
       </c>
-      <c r="U74" s="2"/>
+      <c r="U74" s="14"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
@@ -17933,7 +18407,10 @@
       <c r="T75" s="2">
         <v>0</v>
       </c>
-      <c r="U75" s="2"/>
+      <c r="U75" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C75)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D75+2)*(1+'Weapon Formulas'!B75))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
@@ -18006,7 +18483,10 @@
       <c r="T76" s="2">
         <v>0</v>
       </c>
-      <c r="U76" s="2"/>
+      <c r="U76" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C76)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D76+2)*(1+'Weapon Formulas'!B76))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
@@ -18079,7 +18559,10 @@
       <c r="T77" s="2">
         <v>0</v>
       </c>
-      <c r="U77" s="2"/>
+      <c r="U77" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C77)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D77+2)*(1+'Weapon Formulas'!B77))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
@@ -18152,7 +18635,10 @@
       <c r="T78" s="2">
         <v>0</v>
       </c>
-      <c r="U78" s="2"/>
+      <c r="U78" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C78)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D78+2)*(1+'Weapon Formulas'!B78))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
@@ -18225,7 +18711,10 @@
       <c r="T79" s="2">
         <v>0</v>
       </c>
-      <c r="U79" s="2"/>
+      <c r="U79" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C79)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D79+2)*(1+'Weapon Formulas'!B79))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
@@ -18298,7 +18787,10 @@
       <c r="T80" s="2">
         <v>0</v>
       </c>
-      <c r="U80" s="2"/>
+      <c r="U80" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C80)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D80+2)*(1+'Weapon Formulas'!B80))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
@@ -18371,7 +18863,10 @@
       <c r="T81" s="2">
         <v>0</v>
       </c>
-      <c r="U81" s="2"/>
+      <c r="U81" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C81)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D81+2)*(1+'Weapon Formulas'!B81))</f>
+        <v>-53.333333333333329</v>
+      </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
@@ -18444,7 +18939,10 @@
       <c r="T82" s="2">
         <v>0</v>
       </c>
-      <c r="U82" s="2"/>
+      <c r="U82" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C82)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D82+2)*(1+'Weapon Formulas'!B82))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
@@ -18517,7 +19015,10 @@
       <c r="T83" s="2">
         <v>0</v>
       </c>
-      <c r="U83" s="2"/>
+      <c r="U83" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C83)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D83+2)*(1+'Weapon Formulas'!B83))</f>
+        <v>-213.33333333333331</v>
+      </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
@@ -18552,7 +19053,7 @@
       <c r="T84" s="2">
         <v>0</v>
       </c>
-      <c r="U84" s="2"/>
+      <c r="U84" s="14"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
@@ -18621,7 +19122,10 @@
       <c r="T85" s="2">
         <v>0</v>
       </c>
-      <c r="U85" s="2"/>
+      <c r="U85" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C85)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D85+2)*(1+'Weapon Formulas'!B85))</f>
+        <v>-106.66666666666666</v>
+      </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
@@ -18689,7 +19193,10 @@
       <c r="T86" s="2">
         <v>0</v>
       </c>
-      <c r="U86" s="2"/>
+      <c r="U86" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C86)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D86+2)*(1+'Weapon Formulas'!B86))</f>
+        <v>-213.33333333333331</v>
+      </c>
     </row>
     <row r="87" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
@@ -18805,7 +19312,10 @@
         <f>INDEX($T$2:$T$6,C88)</f>
         <v>2.5</v>
       </c>
-      <c r="U88" s="2"/>
+      <c r="U88" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C88)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D88+2)*(1+'Weapon Formulas'!B88))</f>
+        <v>-3.333333333333333</v>
+      </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
@@ -18879,7 +19389,10 @@
         <f t="shared" ref="T89:T115" si="72">INDEX($T$2:$T$6,C89)</f>
         <v>2.5</v>
       </c>
-      <c r="U89" s="2"/>
+      <c r="U89" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C89)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D89+2)*(1+'Weapon Formulas'!B89))</f>
+        <v>-6.6666666666666661</v>
+      </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
@@ -18953,7 +19466,10 @@
         <f t="shared" si="72"/>
         <v>2.5</v>
       </c>
-      <c r="U90" s="2"/>
+      <c r="U90" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C90)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D90+2)*(1+'Weapon Formulas'!B90))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
@@ -19027,7 +19543,10 @@
         <f t="shared" si="72"/>
         <v>3.75</v>
       </c>
-      <c r="U91" s="2"/>
+      <c r="U91" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C91)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D91+2)*(1+'Weapon Formulas'!B91))</f>
+        <v>-6.6666666666666661</v>
+      </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
@@ -19101,7 +19620,10 @@
         <f t="shared" si="72"/>
         <v>3.75</v>
       </c>
-      <c r="U92" s="2"/>
+      <c r="U92" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C92)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D92+2)*(1+'Weapon Formulas'!B92))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
@@ -19175,7 +19697,10 @@
         <f t="shared" si="72"/>
         <v>3.75</v>
       </c>
-      <c r="U93" s="2"/>
+      <c r="U93" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C93)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D93+2)*(1+'Weapon Formulas'!B93))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
@@ -19249,7 +19774,10 @@
         <f t="shared" si="72"/>
         <v>5</v>
       </c>
-      <c r="U94" s="2"/>
+      <c r="U94" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C94)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D94+2)*(1+'Weapon Formulas'!B94))</f>
+        <v>-13.333333333333332</v>
+      </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
@@ -19323,7 +19851,10 @@
         <f t="shared" si="72"/>
         <v>5</v>
       </c>
-      <c r="U95" s="2"/>
+      <c r="U95" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C95)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D95+2)*(1+'Weapon Formulas'!B95))</f>
+        <v>-26.666666666666664</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
@@ -19397,9 +19928,12 @@
         <f t="shared" si="72"/>
         <v>5</v>
       </c>
-      <c r="U96" s="2"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U96" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C96)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D96+2)*(1+'Weapon Formulas'!B96))</f>
+        <v>-53.333333333333329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <f t="shared" si="61"/>
         <v>-9.0000000000000011E-3</v>
@@ -19471,9 +20005,12 @@
         <f t="shared" si="72"/>
         <v>7.5</v>
       </c>
-      <c r="U97" s="2"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U97" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C97)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D97+2)*(1+'Weapon Formulas'!B97))</f>
+        <v>-26.666666666666664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -19545,9 +20082,12 @@
         <f t="shared" si="72"/>
         <v>7.5</v>
       </c>
-      <c r="U98" s="2"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U98" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C98)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D98+2)*(1+'Weapon Formulas'!B98))</f>
+        <v>-53.333333333333329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -19619,9 +20159,12 @@
         <f t="shared" si="72"/>
         <v>7.5</v>
       </c>
-      <c r="U99" s="2"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U99" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C99)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D99+2)*(1+'Weapon Formulas'!B99))</f>
+        <v>-106.66666666666666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <f t="shared" si="61"/>
         <v>-9.0000000000000011E-3</v>
@@ -19693,9 +20236,12 @@
         <f t="shared" si="72"/>
         <v>10</v>
       </c>
-      <c r="U100" s="2"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U100" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C100)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D100+2)*(1+'Weapon Formulas'!B100))</f>
+        <v>-53.333333333333329</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -19767,9 +20313,12 @@
         <f t="shared" si="72"/>
         <v>10</v>
       </c>
-      <c r="U101" s="2"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U101" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C101)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D101+2)*(1+'Weapon Formulas'!B101))</f>
+        <v>-106.66666666666666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -19841,9 +20390,12 @@
         <f t="shared" si="72"/>
         <v>10</v>
       </c>
-      <c r="U102" s="2"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U102" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C102)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D102+2)*(1+'Weapon Formulas'!B102))</f>
+        <v>-213.33333333333331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -19882,9 +20434,9 @@
       <c r="T103" s="2">
         <v>0</v>
       </c>
-      <c r="U103" s="2"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U103" s="14"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
         <f t="shared" si="61"/>
         <v>-9.0000000000000011E-3</v>
@@ -19956,13 +20508,12 @@
         <f t="shared" si="72"/>
         <v>5</v>
       </c>
-      <c r="U104" s="2"/>
-      <c r="W104">
-        <f>LOG(10,5)</f>
-        <v>1.4306765580733933</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U104" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C104)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D104+2)*(1+'Weapon Formulas'!B104))</f>
+        <v>-13.333333333333332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -20034,9 +20585,12 @@
         <f t="shared" si="72"/>
         <v>5</v>
       </c>
-      <c r="U105" s="2"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U105" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C105)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D105+2)*(1+'Weapon Formulas'!B105))</f>
+        <v>-26.666666666666664</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -20108,9 +20662,12 @@
         <f t="shared" si="72"/>
         <v>5</v>
       </c>
-      <c r="U106" s="2"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U106" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C106)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D106+2)*(1+'Weapon Formulas'!B106))</f>
+        <v>-53.333333333333329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <f t="shared" si="61"/>
         <v>-9.0000000000000011E-3</v>
@@ -20182,9 +20739,12 @@
         <f t="shared" si="72"/>
         <v>7.5</v>
       </c>
-      <c r="U107" s="2"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U107" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C107)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D107+2)*(1+'Weapon Formulas'!B107))</f>
+        <v>-26.666666666666664</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -20256,9 +20816,12 @@
         <f t="shared" si="72"/>
         <v>7.5</v>
       </c>
-      <c r="U108" s="2"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U108" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C108)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D108+2)*(1+'Weapon Formulas'!B108))</f>
+        <v>-53.333333333333329</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -20330,9 +20893,12 @@
         <f t="shared" si="72"/>
         <v>7.5</v>
       </c>
-      <c r="U109" s="2"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U109" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C109)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D109+2)*(1+'Weapon Formulas'!B109))</f>
+        <v>-106.66666666666666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
         <f t="shared" si="61"/>
         <v>-9.0000000000000011E-3</v>
@@ -20404,9 +20970,12 @@
         <f t="shared" si="72"/>
         <v>10</v>
       </c>
-      <c r="U110" s="2"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U110" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C110)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D110+2)*(1+'Weapon Formulas'!B110))</f>
+        <v>-53.333333333333329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -20478,9 +21047,12 @@
         <f t="shared" si="72"/>
         <v>10</v>
       </c>
-      <c r="U111" s="2"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U111" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C111)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D111+2)*(1+'Weapon Formulas'!B111))</f>
+        <v>-106.66666666666666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -20552,8 +21124,12 @@
         <f t="shared" si="72"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C112)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D112+2)*(1+'Weapon Formulas'!B112))</f>
+        <v>-213.33333333333331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -20591,8 +21167,9 @@
         <v>60</v>
       </c>
       <c r="T113" s="2"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="14"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -20667,8 +21244,12 @@
         <f t="shared" si="72"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C114)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D114+2)*(1+'Weapon Formulas'!B114))</f>
+        <v>-106.66666666666666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -20743,8 +21324,12 @@
         <f t="shared" si="72"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C115)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D115+2)*(1+'Weapon Formulas'!B115))</f>
+        <v>-213.33333333333331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
         <f t="shared" si="61"/>
         <v>-4.4999999999999998E-2</v>
@@ -20782,8 +21367,9 @@
         <v>60</v>
       </c>
       <c r="T116" s="2"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="14"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -20855,8 +21441,12 @@
       <c r="T117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C117)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D117+2)*(1+'Weapon Formulas'!B117))</f>
+        <v>-106.66666666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -20928,8 +21518,12 @@
       <c r="T118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C118)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D118+2)*(1+'Weapon Formulas'!B118))</f>
+        <v>-213.33333333333331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
         <f t="shared" si="61"/>
         <v>-8.1000000000000003E-2</v>
@@ -21001,8 +21595,12 @@
       <c r="T119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="14">
+        <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C119)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D119+2)*(1+'Weapon Formulas'!B119))</f>
+        <v>-426.66666666666663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K120" s="13" t="s">
         <v>142</v>
       </c>
@@ -21031,7 +21629,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L121" s="13"/>
       <c r="M121"/>
     </row>
@@ -21047,32 +21645,164 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I13"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I13">
-        <f>64/3</f>
-        <v>21.333333333333332</v>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <f>2/3*J2</f>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>J2*2</f>
+        <v>10</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" ref="K3:K6" si="0">2/3*J3</f>
+        <v>6.6666666666666661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4">
+        <f>B3/4</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="22">
+        <f t="shared" ref="C4:E4" si="1">C3/4</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J6" si="2">J3*2</f>
+        <v>20</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>26.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="0"/>
+        <v>53.333333333333329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21080,8 +21810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="U108" sqref="U108"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21183,7 +21913,7 @@
         <v>146</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="23"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -21212,7 +21942,7 @@
         <v>147</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="24"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -21261,7 +21991,7 @@
       <c r="O6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="24"/>
+      <c r="P6" s="25"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -21282,7 +22012,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="24"/>
+      <c r="P7" s="25"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -21293,7 +22023,8 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="5">
-        <v>-2.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C8),2)</f>
+        <v>-3.33</v>
       </c>
       <c r="D8" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D8),2)</f>
@@ -21347,7 +22078,8 @@
         <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C9),2)</f>
+        <v>-6.67</v>
       </c>
       <c r="D9" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D9),2)</f>
@@ -21401,7 +22133,8 @@
         <v>10</v>
       </c>
       <c r="C10" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C10),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D10" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D10),2)</f>
@@ -21455,7 +22188,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="5">
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C11),2)</f>
+        <v>-6.67</v>
       </c>
       <c r="D11" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D11),2)</f>
@@ -21509,7 +22243,8 @@
         <v>10</v>
       </c>
       <c r="C12" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C12),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D12" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D12),2)</f>
@@ -21563,7 +22298,8 @@
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C13),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D13" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D13),2)</f>
@@ -21617,7 +22353,8 @@
         <v>7.5</v>
       </c>
       <c r="C14" s="5">
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C14),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D14),2)</f>
@@ -21671,7 +22408,8 @@
         <v>15</v>
       </c>
       <c r="C15" s="5">
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C15),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D15),2)</f>
@@ -21725,7 +22463,8 @@
         <v>30</v>
       </c>
       <c r="C16" s="5">
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C16),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D16),2)</f>
@@ -21779,7 +22518,8 @@
         <v>10</v>
       </c>
       <c r="C17" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C17),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D17),2)</f>
@@ -21833,7 +22573,8 @@
         <v>20</v>
       </c>
       <c r="C18" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C18),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D18),2)</f>
@@ -21887,7 +22628,8 @@
         <v>40</v>
       </c>
       <c r="C19" s="5">
-        <v>-40</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C19),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D19),2)</f>
@@ -21941,7 +22683,8 @@
         <v>12.5</v>
       </c>
       <c r="C20" s="5">
-        <v>-12.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C20),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D20),2)</f>
@@ -21995,7 +22738,8 @@
         <v>25</v>
       </c>
       <c r="C21" s="5">
-        <v>-25</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C21),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D21),2)</f>
@@ -22049,7 +22793,8 @@
         <v>50</v>
       </c>
       <c r="C22" s="5">
-        <v>-50</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C22),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D22),2)</f>
@@ -22100,7 +22845,7 @@
         <v>150</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -22124,6 +22869,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C24),2)</f>
         <v>0</v>
       </c>
       <c r="D24" s="5">
@@ -22178,6 +22924,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C25),2)</f>
         <v>0</v>
       </c>
       <c r="D25" s="5">
@@ -22231,7 +22978,8 @@
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C26),2)</f>
         <v>0</v>
       </c>
       <c r="D26" s="5">
@@ -22307,7 +23055,8 @@
         <v>100</v>
       </c>
       <c r="C28" s="5">
-        <v>-100</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C28),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D28),2)</f>
@@ -22361,7 +23110,8 @@
         <v>120</v>
       </c>
       <c r="C29" s="5">
-        <v>-120</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C29),2)</f>
+        <v>-426.67</v>
       </c>
       <c r="D29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D29),2)</f>
@@ -22436,7 +23186,8 @@
         <v>7.5</v>
       </c>
       <c r="C31" s="5">
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C31),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D31),2)</f>
@@ -22490,7 +23241,8 @@
         <v>15</v>
       </c>
       <c r="C32" s="5">
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C32),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D32),2)</f>
@@ -22544,7 +23296,8 @@
         <v>30</v>
       </c>
       <c r="C33" s="5">
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C33),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D33),2)</f>
@@ -22598,7 +23351,8 @@
         <v>10</v>
       </c>
       <c r="C34" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C34),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D34),2)</f>
@@ -22652,7 +23406,8 @@
         <v>20</v>
       </c>
       <c r="C35" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C35),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D35),2)</f>
@@ -22705,8 +23460,9 @@
       <c r="B36" s="2">
         <v>40</v>
       </c>
-      <c r="C36" s="2">
-        <v>-40</v>
+      <c r="C36" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C36),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D36),2)</f>
@@ -22760,7 +23516,8 @@
         <v>12.5</v>
       </c>
       <c r="C37" s="5">
-        <v>-12.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C37),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D37),2)</f>
@@ -22814,7 +23571,8 @@
         <v>25</v>
       </c>
       <c r="C38" s="5">
-        <v>-25</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C38),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D38),2)</f>
@@ -22867,8 +23625,9 @@
       <c r="B39" s="2">
         <v>50</v>
       </c>
-      <c r="C39" s="2">
-        <v>-50</v>
+      <c r="C39" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C39),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D39),2)</f>
@@ -22943,7 +23702,8 @@
         <v>100</v>
       </c>
       <c r="C41" s="5">
-        <v>-100</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C41),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D41),2)</f>
@@ -22997,7 +23757,8 @@
         <v>120</v>
       </c>
       <c r="C42" s="5">
-        <v>-120</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C42),2)</f>
+        <v>-426.67</v>
       </c>
       <c r="D42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D42),2)</f>
@@ -23072,7 +23833,8 @@
         <v>7.5</v>
       </c>
       <c r="C44" s="5">
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C44),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D44),2)</f>
@@ -23126,7 +23888,8 @@
         <v>15</v>
       </c>
       <c r="C45" s="5">
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C45),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D45),2)</f>
@@ -23180,7 +23943,8 @@
         <v>30</v>
       </c>
       <c r="C46" s="5">
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C46),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D46),2)</f>
@@ -23234,7 +23998,8 @@
         <v>10</v>
       </c>
       <c r="C47" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C47),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D47),2)</f>
@@ -23288,7 +24053,8 @@
         <v>20</v>
       </c>
       <c r="C48" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C48),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D48),2)</f>
@@ -23341,8 +24107,9 @@
       <c r="B49" s="2">
         <v>40</v>
       </c>
-      <c r="C49" s="2">
-        <v>-40</v>
+      <c r="C49" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C49),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D49),2)</f>
@@ -23396,7 +24163,8 @@
         <v>12.5</v>
       </c>
       <c r="C50" s="5">
-        <v>-12.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C50),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D50),2)</f>
@@ -23450,7 +24218,8 @@
         <v>25</v>
       </c>
       <c r="C51" s="5">
-        <v>-25</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C51),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D51),2)</f>
@@ -23503,8 +24272,9 @@
       <c r="B52" s="2">
         <v>50</v>
       </c>
-      <c r="C52" s="2">
-        <v>-50</v>
+      <c r="C52" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C52),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D52),2)</f>
@@ -23579,7 +24349,8 @@
         <v>100</v>
       </c>
       <c r="C54" s="5">
-        <v>-100</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C54),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D54),2)</f>
@@ -23633,7 +24404,8 @@
         <v>120</v>
       </c>
       <c r="C55" s="5">
-        <v>-120</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C55),2)</f>
+        <v>-426.67</v>
       </c>
       <c r="D55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D55),2)</f>
@@ -23708,7 +24480,8 @@
         <v>2.5</v>
       </c>
       <c r="C57" s="5">
-        <v>-2.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C57),2)</f>
+        <v>-3.33</v>
       </c>
       <c r="D57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D57),2)</f>
@@ -23762,7 +24535,8 @@
         <v>5</v>
       </c>
       <c r="C58" s="5">
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C58),2)</f>
+        <v>-6.67</v>
       </c>
       <c r="D58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D58),2)</f>
@@ -23816,7 +24590,8 @@
         <v>10</v>
       </c>
       <c r="C59" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C59),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D59),2)</f>
@@ -23870,7 +24645,8 @@
         <v>5</v>
       </c>
       <c r="C60" s="5">
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C60),2)</f>
+        <v>-6.67</v>
       </c>
       <c r="D60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D60),2)</f>
@@ -23924,7 +24700,8 @@
         <v>10</v>
       </c>
       <c r="C61" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C61),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D61),2)</f>
@@ -23978,7 +24755,8 @@
         <v>20</v>
       </c>
       <c r="C62" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C62),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D62),2)</f>
@@ -24032,7 +24810,8 @@
         <v>7.5</v>
       </c>
       <c r="C63" s="5">
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C63),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D63),2)</f>
@@ -24086,7 +24865,8 @@
         <v>15</v>
       </c>
       <c r="C64" s="5">
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C64),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D64),2)</f>
@@ -24140,7 +24920,8 @@
         <v>30</v>
       </c>
       <c r="C65" s="5">
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C65),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D65),2)</f>
@@ -24194,7 +24975,8 @@
         <v>10</v>
       </c>
       <c r="C66" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C66),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D66),2)</f>
@@ -24248,7 +25030,8 @@
         <v>20</v>
       </c>
       <c r="C67" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C67),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D67),2)</f>
@@ -24301,8 +25084,9 @@
       <c r="B68" s="2">
         <v>40</v>
       </c>
-      <c r="C68" s="2">
-        <v>-40</v>
+      <c r="C68" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C68),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D68),2)</f>
@@ -24356,7 +25140,8 @@
         <v>12.5</v>
       </c>
       <c r="C69" s="5">
-        <v>-12.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C69),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D69),2)</f>
@@ -24410,7 +25195,8 @@
         <v>25</v>
       </c>
       <c r="C70" s="5">
-        <v>-25</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C70),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D70),2)</f>
@@ -24463,8 +25249,9 @@
       <c r="B71" s="2">
         <v>50</v>
       </c>
-      <c r="C71" s="2">
-        <v>-50</v>
+      <c r="C71" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C71),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D71),2)</f>
@@ -24539,6 +25326,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C73),2)</f>
         <v>0</v>
       </c>
       <c r="D73" s="5">
@@ -24593,6 +25381,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C74),2)</f>
         <v>0</v>
       </c>
       <c r="D74" s="5">
@@ -24647,6 +25436,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C75),2)</f>
         <v>0</v>
       </c>
       <c r="D75" s="5">
@@ -24722,7 +25512,8 @@
         <v>100</v>
       </c>
       <c r="C77" s="5">
-        <v>-100</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C77),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D77),2)</f>
@@ -24776,7 +25567,8 @@
         <v>120</v>
       </c>
       <c r="C78" s="5">
-        <v>-120</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C78),2)</f>
+        <v>-426.67</v>
       </c>
       <c r="D78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D78),2)</f>
@@ -24851,7 +25643,8 @@
         <v>5</v>
       </c>
       <c r="C80" s="5">
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C80),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D80),2)</f>
@@ -24904,8 +25697,9 @@
       <c r="B81" s="2">
         <v>10</v>
       </c>
-      <c r="C81" s="2">
-        <v>-10</v>
+      <c r="C81" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C81),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D81),2)</f>
@@ -24959,7 +25753,8 @@
         <v>20</v>
       </c>
       <c r="C82" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C82),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D82),2)</f>
@@ -25013,7 +25808,8 @@
         <v>7.5</v>
       </c>
       <c r="C83" s="5">
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C83),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D83),2)</f>
@@ -25066,8 +25862,9 @@
       <c r="B84" s="2">
         <v>15</v>
       </c>
-      <c r="C84" s="2">
-        <v>-15</v>
+      <c r="C84" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C84),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D84),2)</f>
@@ -25121,7 +25918,8 @@
         <v>30</v>
       </c>
       <c r="C85" s="5">
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C85),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D85),2)</f>
@@ -25175,7 +25973,8 @@
         <v>10</v>
       </c>
       <c r="C86" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C86),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D86),2)</f>
@@ -25229,7 +26028,8 @@
         <v>20</v>
       </c>
       <c r="C87" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C87),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D87),2)</f>
@@ -25283,7 +26083,8 @@
         <v>40</v>
       </c>
       <c r="C88" s="5">
-        <v>-40</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C88),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D88),2)</f>
@@ -25358,7 +26159,8 @@
         <v>50</v>
       </c>
       <c r="C90" s="5">
-        <v>-50</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C90),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D90" s="5">
         <v>2</v>
@@ -25409,7 +26211,8 @@
         <v>60</v>
       </c>
       <c r="C91" s="5">
-        <v>-60</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C91),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D91" s="5">
         <v>2</v>
@@ -25482,7 +26285,8 @@
         <v>2.5</v>
       </c>
       <c r="C93" s="5">
-        <v>-2.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C93),2)</f>
+        <v>-3.33</v>
       </c>
       <c r="D93" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D93),2)</f>
@@ -25536,7 +26340,8 @@
         <v>5</v>
       </c>
       <c r="C94" s="5">
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C94),2)</f>
+        <v>-6.67</v>
       </c>
       <c r="D94" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D94),2)</f>
@@ -25590,7 +26395,8 @@
         <v>10</v>
       </c>
       <c r="C95" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C95),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D95" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D95),2)</f>
@@ -25644,7 +26450,8 @@
         <v>5</v>
       </c>
       <c r="C96" s="5">
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C96),2)</f>
+        <v>-6.67</v>
       </c>
       <c r="D96" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D96),2)</f>
@@ -25698,7 +26505,8 @@
         <v>10</v>
       </c>
       <c r="C97" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C97),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D97" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D97),2)</f>
@@ -25752,7 +26560,8 @@
         <v>20</v>
       </c>
       <c r="C98" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C98),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D98" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D98),2)</f>
@@ -25806,7 +26615,8 @@
         <v>7.5</v>
       </c>
       <c r="C99" s="5">
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C99),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D99" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D99),2)</f>
@@ -25859,8 +26669,9 @@
       <c r="B100" s="2">
         <v>15</v>
       </c>
-      <c r="C100" s="2">
-        <v>-15</v>
+      <c r="C100" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C100),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D100" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D100),2)</f>
@@ -25914,7 +26725,8 @@
         <v>30</v>
       </c>
       <c r="C101" s="5">
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C101),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D101" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D101),2)</f>
@@ -25968,7 +26780,8 @@
         <v>10</v>
       </c>
       <c r="C102" s="5">
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C102),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D102" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D102),2)</f>
@@ -26022,7 +26835,8 @@
         <v>20</v>
       </c>
       <c r="C103" s="5">
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C103),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D103" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D103),2)</f>
@@ -26076,7 +26890,8 @@
         <v>40</v>
       </c>
       <c r="C104" s="5">
-        <v>-40</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C104),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D104" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D104),2)</f>
@@ -26130,7 +26945,8 @@
         <v>12.5</v>
       </c>
       <c r="C105" s="5">
-        <v>-12.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C105),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D105" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D105),2)</f>
@@ -26184,7 +27000,8 @@
         <v>25</v>
       </c>
       <c r="C106" s="5">
-        <v>-25</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C106),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D106" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D106),2)</f>
@@ -26238,7 +27055,8 @@
         <v>50</v>
       </c>
       <c r="C107" s="5">
-        <v>-50</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C107),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D107" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D107),2)</f>
@@ -26317,6 +27135,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C109),2)</f>
         <v>0</v>
       </c>
       <c r="D109" s="5">
@@ -26370,7 +27189,8 @@
       <c r="B110" s="2">
         <v>0</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C110),2)</f>
         <v>0</v>
       </c>
       <c r="D110" s="5">
@@ -26425,6 +27245,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C111),2)</f>
         <v>0</v>
       </c>
       <c r="D111" s="5">
@@ -26499,8 +27320,9 @@
       <c r="B113">
         <v>7.5</v>
       </c>
-      <c r="C113">
-        <v>-7.5</v>
+      <c r="C113" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C113),2)</f>
+        <v>-13.33</v>
       </c>
       <c r="D113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D113),2)</f>
@@ -26550,8 +27372,9 @@
       <c r="B114">
         <v>15</v>
       </c>
-      <c r="C114">
-        <v>-15</v>
+      <c r="C114" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C114),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D114),2)</f>
@@ -26601,8 +27424,9 @@
       <c r="B115">
         <v>30</v>
       </c>
-      <c r="C115">
-        <v>-30</v>
+      <c r="C115" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C115),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D115),2)</f>
@@ -26652,8 +27476,9 @@
       <c r="B116">
         <v>10</v>
       </c>
-      <c r="C116">
-        <v>-10</v>
+      <c r="C116" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C116),2)</f>
+        <v>-26.67</v>
       </c>
       <c r="D116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D116),2)</f>
@@ -26703,8 +27528,9 @@
       <c r="B117">
         <v>20</v>
       </c>
-      <c r="C117">
-        <v>-20</v>
+      <c r="C117" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C117),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D117),2)</f>
@@ -26754,8 +27580,9 @@
       <c r="B118">
         <v>40</v>
       </c>
-      <c r="C118">
-        <v>-40</v>
+      <c r="C118" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C118),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D118),2)</f>
@@ -26805,8 +27632,9 @@
       <c r="B119">
         <v>12.5</v>
       </c>
-      <c r="C119">
-        <v>-12.5</v>
+      <c r="C119" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C119),2)</f>
+        <v>-53.33</v>
       </c>
       <c r="D119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D119),2)</f>
@@ -26856,8 +27684,9 @@
       <c r="B120">
         <v>25</v>
       </c>
-      <c r="C120">
-        <v>-25</v>
+      <c r="C120" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C120),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D120),2)</f>
@@ -26907,8 +27736,9 @@
       <c r="B121">
         <v>50</v>
       </c>
-      <c r="C121">
-        <v>-50</v>
+      <c r="C121" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C121),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D121),2)</f>
@@ -26955,6 +27785,7 @@
       <c r="A122" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -26970,8 +27801,9 @@
       <c r="B123">
         <v>40</v>
       </c>
-      <c r="C123">
-        <v>-40</v>
+      <c r="C123" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C123),2)</f>
+        <v>-106.67</v>
       </c>
       <c r="D123" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D123),2)</f>
@@ -27021,8 +27853,9 @@
       <c r="B124">
         <v>50</v>
       </c>
-      <c r="C124">
-        <v>-50</v>
+      <c r="C124" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C124),2)</f>
+        <v>-213.33</v>
       </c>
       <c r="D124" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D124),2)</f>
@@ -27069,6 +27902,7 @@
       <c r="A125" s="15" t="s">
         <v>161</v>
       </c>
+      <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -27084,7 +27918,8 @@
       <c r="B126">
         <v>5</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C126),2)</f>
         <v>-5</v>
       </c>
       <c r="D126" s="5">
@@ -27135,7 +27970,8 @@
       <c r="B127">
         <v>20</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C127),2)</f>
         <v>-20</v>
       </c>
       <c r="D127" s="5">
@@ -27183,6 +28019,7 @@
       <c r="A128" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -27198,7 +28035,8 @@
       <c r="B129">
         <v>2.5</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C129),2)</f>
         <v>-2.5</v>
       </c>
       <c r="D129" s="5">
@@ -27249,7 +28087,8 @@
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C130),2)</f>
         <v>-5</v>
       </c>
       <c r="D130" s="5">
@@ -27300,7 +28139,8 @@
       <c r="B131">
         <v>10</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C131),2)</f>
         <v>-10</v>
       </c>
       <c r="D131" s="5">
@@ -27351,7 +28191,8 @@
       <c r="B132">
         <v>5</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C132),2)</f>
         <v>-5</v>
       </c>
       <c r="D132" s="5">
@@ -27402,7 +28243,8 @@
       <c r="B133">
         <v>10</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C133),2)</f>
         <v>-10</v>
       </c>
       <c r="D133" s="5">
@@ -27453,7 +28295,8 @@
       <c r="B134">
         <v>20</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C134),2)</f>
         <v>-20</v>
       </c>
       <c r="D134" s="5">
@@ -27504,7 +28347,8 @@
       <c r="B135">
         <v>7.5</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C135),2)</f>
         <v>-7.5</v>
       </c>
       <c r="D135" s="5">
@@ -27555,7 +28399,8 @@
       <c r="B136">
         <v>15</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C136),2)</f>
         <v>-15</v>
       </c>
       <c r="D136" s="5">
@@ -27606,7 +28451,8 @@
       <c r="B137">
         <v>30</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C137),2)</f>
         <v>-30</v>
       </c>
       <c r="D137" s="5">
@@ -27657,7 +28503,8 @@
       <c r="B138">
         <v>10</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C138),2)</f>
         <v>-10</v>
       </c>
       <c r="D138" s="5">
@@ -27708,7 +28555,8 @@
       <c r="B139">
         <v>20</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C139),2)</f>
         <v>-20</v>
       </c>
       <c r="D139" s="5">
@@ -27759,7 +28607,8 @@
       <c r="B140">
         <v>40</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C140),2)</f>
         <v>-40</v>
       </c>
       <c r="D140" s="5">
@@ -27810,7 +28659,8 @@
       <c r="B141">
         <v>2.5</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C141),2)</f>
         <v>-2.5</v>
       </c>
       <c r="D141" s="5">
@@ -27861,7 +28711,8 @@
       <c r="B142">
         <v>5</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C142),2)</f>
         <v>-5</v>
       </c>
       <c r="D142" s="5">
@@ -27912,7 +28763,8 @@
       <c r="B143">
         <v>10</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C143),2)</f>
         <v>-10</v>
       </c>
       <c r="D143" s="5">
@@ -27963,7 +28815,8 @@
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C144),2)</f>
         <v>-5</v>
       </c>
       <c r="D144" s="5">
@@ -28014,7 +28867,8 @@
       <c r="B145">
         <v>10</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C145),2)</f>
         <v>-10</v>
       </c>
       <c r="D145" s="5">
@@ -28065,7 +28919,8 @@
       <c r="B146">
         <v>20</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C146),2)</f>
         <v>-20</v>
       </c>
       <c r="D146" s="5">
@@ -28116,7 +28971,8 @@
       <c r="B147">
         <v>7.5</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C147),2)</f>
         <v>-7.5</v>
       </c>
       <c r="D147" s="5">
@@ -28167,7 +29023,8 @@
       <c r="B148">
         <v>15</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C148),2)</f>
         <v>-15</v>
       </c>
       <c r="D148" s="5">
@@ -28218,7 +29075,8 @@
       <c r="B149">
         <v>30</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C149),2)</f>
         <v>-30</v>
       </c>
       <c r="D149" s="5">
@@ -28269,7 +29127,8 @@
       <c r="B150">
         <v>10</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C150),2)</f>
         <v>-10</v>
       </c>
       <c r="D150" s="5">
@@ -28320,7 +29179,8 @@
       <c r="B151">
         <v>20</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C151),2)</f>
         <v>-20</v>
       </c>
       <c r="D151" s="5">
@@ -28371,7 +29231,8 @@
       <c r="B152">
         <v>40</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C152),2)</f>
         <v>-40</v>
       </c>
       <c r="D152" s="5">
@@ -28419,6 +29280,7 @@
       <c r="A153" s="15" t="s">
         <v>189</v>
       </c>
+      <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -28434,7 +29296,8 @@
       <c r="B154">
         <v>15</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C154),2)</f>
         <v>-15</v>
       </c>
       <c r="D154" s="5">
@@ -28485,7 +29348,8 @@
       <c r="B155">
         <v>5</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C155),2)</f>
         <v>-5</v>
       </c>
       <c r="D155" s="5">
@@ -28536,7 +29400,8 @@
       <c r="B156">
         <v>10</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C156),2)</f>
         <v>-10</v>
       </c>
       <c r="D156" s="5">
@@ -28587,7 +29452,8 @@
       <c r="B157">
         <v>20</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C157),2)</f>
         <v>-20</v>
       </c>
       <c r="D157" s="5">
@@ -28638,7 +29504,8 @@
       <c r="B158">
         <v>7.5</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C158),2)</f>
         <v>-7.5</v>
       </c>
       <c r="D158" s="5">
@@ -28689,7 +29556,8 @@
       <c r="B159">
         <v>15</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C159),2)</f>
         <v>-15</v>
       </c>
       <c r="D159" s="5">
@@ -28740,7 +29608,8 @@
       <c r="B160">
         <v>7.5</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C160),2)</f>
         <v>-7.5</v>
       </c>
       <c r="D160" s="5">
@@ -28791,7 +29660,8 @@
       <c r="B161">
         <v>15</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C161),2)</f>
         <v>-15</v>
       </c>
       <c r="D161" s="5">
@@ -28839,6 +29709,7 @@
       <c r="A162" s="15" t="s">
         <v>198</v>
       </c>
+      <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -28854,7 +29725,8 @@
       <c r="B163">
         <v>15</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C163),2)</f>
         <v>-15</v>
       </c>
       <c r="D163" s="5">
@@ -28905,7 +29777,8 @@
       <c r="B164">
         <v>30</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C164),2)</f>
         <v>-30</v>
       </c>
       <c r="D164" s="5">
@@ -28956,7 +29829,8 @@
       <c r="B165">
         <v>60</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C165),2)</f>
         <v>-60</v>
       </c>
       <c r="D165" s="5">
@@ -29004,6 +29878,7 @@
       <c r="A166" s="15" t="s">
         <v>202</v>
       </c>
+      <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -29019,7 +29894,8 @@
       <c r="B167">
         <v>0</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C167),2)</f>
         <v>0</v>
       </c>
       <c r="D167" s="5">
@@ -29070,7 +29946,8 @@
       <c r="B168">
         <v>0</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C168),2)</f>
         <v>0</v>
       </c>
       <c r="D168" s="5">
@@ -29121,7 +29998,8 @@
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C169),2)</f>
         <v>0</v>
       </c>
       <c r="D169" s="5">
@@ -29172,7 +30050,8 @@
       <c r="B170">
         <v>50</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C170),2)</f>
         <v>-50</v>
       </c>
       <c r="D170" s="5">
@@ -29223,7 +30102,8 @@
       <c r="B171">
         <v>12.5</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C171),2)</f>
         <v>-12.5</v>
       </c>
       <c r="D171" s="5">
@@ -29274,7 +30154,8 @@
       <c r="B172">
         <v>25</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C172),2)</f>
         <v>-25</v>
       </c>
       <c r="D172" s="5">
@@ -29322,6 +30203,7 @@
       <c r="A173" s="15" t="s">
         <v>209</v>
       </c>
+      <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
@@ -29337,7 +30219,8 @@
       <c r="B174">
         <v>0</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C174),2)</f>
         <v>0</v>
       </c>
       <c r="D174" s="5">
@@ -29385,6 +30268,7 @@
       <c r="A175" s="15" t="s">
         <v>211</v>
       </c>
+      <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -29400,7 +30284,8 @@
       <c r="B176">
         <v>5</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C176),2)</f>
         <v>-5</v>
       </c>
       <c r="D176" s="5">
@@ -29450,7 +30335,8 @@
       <c r="B177">
         <v>7.5</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C177),2)</f>
         <v>-7.5</v>
       </c>
       <c r="D177" s="5">
@@ -29500,7 +30386,8 @@
       <c r="B178">
         <v>10</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C178),2)</f>
         <v>-10</v>
       </c>
       <c r="D178" s="5">

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="262">
   <si>
     <t># Lines starting with ”#” will be treated as comments.</t>
   </si>
@@ -805,6 +805,9 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>Auras Cost</t>
   </si>
 </sst>
 </file>
@@ -21645,10 +21648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21800,6 +21803,15 @@
         <v>53.333333333333329</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10">
+        <f>64*0.25*J6</f>
+        <v>1280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21810,7 +21822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="275">
   <si>
     <t># Lines starting with ”#” will be treated as comments.</t>
   </si>
@@ -807,17 +807,57 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Auras Cost</t>
+    <t>Slots Left</t>
+  </si>
+  <si>
+    <t>Max Defense per tier</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>Evasion Mult</t>
+  </si>
+  <si>
+    <t>Armor Add</t>
+  </si>
+  <si>
+    <t>Per Slot</t>
+  </si>
+  <si>
+    <t>True Max Evasion</t>
+  </si>
+  <si>
+    <t>Normal Max Armor</t>
+  </si>
+  <si>
+    <t>Total Evasion</t>
+  </si>
+  <si>
+    <t>Total Armor Needed</t>
+  </si>
+  <si>
+    <t>Max Possible Armor</t>
+  </si>
+  <si>
+    <t>Max Possible Armor %</t>
+  </si>
+  <si>
+    <t>Normal Shield HP %</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
     <numFmt numFmtId="165" formatCode="#"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -894,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -918,6 +958,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12215,8 +12257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView topLeftCell="L94" workbookViewId="0">
-      <selection activeCell="W104" sqref="W104"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12605,11 +12647,11 @@
       <c r="F8" s="12">
         <v>0.2</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8">
@@ -21648,10 +21690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21662,7 +21704,7 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>250</v>
       </c>
@@ -21684,8 +21726,11 @@
       <c r="K1" s="14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
@@ -21714,8 +21759,17 @@
         <f>2/3*J2</f>
         <v>3.333333333333333</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>256</v>
       </c>
@@ -21742,8 +21796,21 @@
         <f t="shared" ref="K3:K6" si="0">2/3*J3</f>
         <v>6.6666666666666661</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S3">
+        <f>80/5</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>257</v>
       </c>
@@ -21774,10 +21841,39 @@
         <f t="shared" si="0"/>
         <v>13.333333333333332</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="M4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5">
+        <f>B3-B4</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" ref="C5:E5" si="3">C3-C4</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
       <c r="I5">
         <v>4</v>
       </c>
@@ -21789,8 +21885,36 @@
         <f t="shared" si="0"/>
         <v>26.666666666666664</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5" s="24">
+        <f>N3/$B5</f>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="O5" s="12">
+        <v>40</v>
+      </c>
+      <c r="P5" s="12">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <f>B6*2</f>
+        <v>600</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" ref="D6:E6" si="4">C6*2</f>
+        <v>1200</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
       <c r="I6">
         <v>5</v>
       </c>
@@ -21803,13 +21927,322 @@
         <v>53.333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>261</v>
-      </c>
-      <c r="J10">
-        <f>64*0.25*J6</f>
-        <v>1280</v>
+    <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <f>(C11/C8)-1</f>
+        <v>-0.625</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" ref="D7:E7" si="5">(D11/D8)-1</f>
+        <v>-0.875</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="5"/>
+        <v>-0.96875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="23">
+        <f>B3*$N$5</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C8" s="23">
+        <f>C3*$N$5</f>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="D8" s="23">
+        <f>D3*$N$5</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="E8" s="23">
+        <f>E3*$N$5</f>
+        <v>1.4933333333333334</v>
+      </c>
+      <c r="O8" s="23">
+        <f>O5/5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="23">
+        <f t="shared" ref="B9:D9" si="6">(B13-B14)</f>
+        <v>0.11963190184049211</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" si="6"/>
+        <v>8.2380952380952337</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="6"/>
+        <v>20.831460674157285</v>
+      </c>
+      <c r="E9" s="23">
+        <f>(E13-E14)</f>
+        <v>62.769230769230745</v>
+      </c>
+      <c r="P9">
+        <f>P5/5</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="24">
+        <f>B3*$N$5*B7</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C11" s="24">
+        <f>B11*(3/4)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D11" s="24">
+        <f>B11*(2/4)</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="E11" s="24">
+        <f>B11/4</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11">
+        <f>B3</f>
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.185</v>
+      </c>
+      <c r="C12" s="10">
+        <f>B12*2</f>
+        <v>0.37</v>
+      </c>
+      <c r="D12" s="10">
+        <f>B12*3</f>
+        <v>0.55499999999999994</v>
+      </c>
+      <c r="E12" s="10">
+        <f>B12*4</f>
+        <v>0.74</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <f>(($P$5*$I12)*J$11)/((($P$5*$I12)*J$11)+60)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" ref="K12:M16" si="7">(($P$5*$I12)*K$11)/((($P$5*$I12)*K$11)+60)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="23">
+        <f>-((60*B12)/(B12-1))</f>
+        <v>13.619631901840492</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ref="B13:D13" si="8">-((60*C12)/(C12-1))</f>
+        <v>35.238095238095234</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="8"/>
+        <v>74.831460674157285</v>
+      </c>
+      <c r="E13" s="23">
+        <f>-((60*E12)/(E12-1))</f>
+        <v>170.76923076923075</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" ref="J13:J16" si="9">(($P$5*$I13)*J$11)/((($P$5*$I13)*J$11)+60)</f>
+        <v>0.375</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="7"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="7"/>
+        <v>0.78260869565217395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="23">
+        <f>$P$5*B5</f>
+        <v>13.5</v>
+      </c>
+      <c r="C14" s="23">
+        <f>$P$5*C5</f>
+        <v>27</v>
+      </c>
+      <c r="D14" s="23">
+        <f>$P$5*D5</f>
+        <v>54</v>
+      </c>
+      <c r="E14" s="23">
+        <f>$P$5*E5</f>
+        <v>108</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="9"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="7"/>
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="7"/>
+        <v>0.72972972972972971</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="7"/>
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="10">
+        <f>((B3*$P$5)+B9)/((B3*$P$5)+60+B9)</f>
+        <v>0.23194722582165156</v>
+      </c>
+      <c r="C15" s="10">
+        <f>((C3*$P$5)+C9)/((C3*$P$5)+60+C9)</f>
+        <v>0.42439470077661029</v>
+      </c>
+      <c r="D15" s="10">
+        <f>((D3*$P$5)+D9)/((D3*$P$5)+60+D9)</f>
+        <v>0.60741067490074985</v>
+      </c>
+      <c r="E15" s="10">
+        <f>((E3*$P$5)+E9)/((E3*$P$5)+60+E9)</f>
+        <v>0.77508650519031153</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="9"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="7"/>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="7"/>
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16">
+        <f>(B5*$O$5)/B6</f>
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" ref="C16:E16" si="10">(C5*$O$5)/C6</f>
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="7"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="7"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -21822,7 +22255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -21925,7 +22358,7 @@
         <v>146</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="24"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -21954,7 +22387,7 @@
         <v>147</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="25"/>
+      <c r="P5" s="27"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -22003,7 +22436,7 @@
       <c r="O6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -22024,7 +22457,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="25"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -12927,7 +12927,7 @@
         <v>0.8</v>
       </c>
       <c r="S12" s="25">
-        <f t="shared" ref="S12:S27" si="14">($S$9)*(1+(D12*$F$8))*(1+((C12-1)*$J$3))</f>
+        <f t="shared" ref="S12:S25" si="14">($S$9)*(1+(D12*$F$8))*(1+((C12-1)*$J$3))</f>
         <v>30</v>
       </c>
       <c r="T12" s="2">
@@ -14418,7 +14418,7 @@
         <v>247</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" ref="S12:S29" si="21">$S$9*(1+(D29*$F$8))</f>
+        <f t="shared" ref="S29" si="21">$S$9*(1+(D29*$F$8))</f>
         <v>30</v>
       </c>
       <c r="T29" s="2">
@@ -14727,7 +14727,7 @@
         <v>0.8</v>
       </c>
       <c r="S31" s="25">
-        <f t="shared" ref="S31:S40" si="32">($S$29)*(1+(D31*$F$8))*(1+((C31-1)*$J$3))</f>
+        <f t="shared" ref="S31:S38" si="32">($S$29)*(1+(D31*$F$8))*(1+((C31-1)*$J$3))</f>
         <v>37.200000000000003</v>
       </c>
       <c r="T31" s="2">
@@ -16221,7 +16221,7 @@
         <v>0.8</v>
       </c>
       <c r="S44" s="25">
-        <f t="shared" ref="S44:S53" si="46">($S$42)*(1+(D44*$F$8))*(1+((C44-1)*$J$3))</f>
+        <f t="shared" ref="S44:S51" si="46">($S$42)*(1+(D44*$F$8))*(1+((C44-1)*$J$3))</f>
         <v>26.04</v>
       </c>
       <c r="T44" s="2">
@@ -17160,7 +17160,7 @@
         <v>0.72</v>
       </c>
       <c r="S57" s="25">
-        <f t="shared" ref="S57:S72" si="57">($S$55)*(1+(D57*$F$8))*(1+((C57-1)*$J$3))</f>
+        <f t="shared" ref="S57:S69" si="57">($S$55)*(1+(D57*$F$8))*(1+((C57-1)*$J$3))</f>
         <v>45</v>
       </c>
       <c r="T57" s="2">
@@ -19438,7 +19438,7 @@
         <v>1</v>
       </c>
       <c r="S89" s="25">
-        <f t="shared" ref="S89:S104" si="72">($S$87)*(1+(D89*$F$8))*(1+((C89-1)*$J$3))</f>
+        <f t="shared" ref="S89:S102" si="72">($S$87)*(1+(D89*$F$8))*(1+((C89-1)*$J$3))</f>
         <v>60</v>
       </c>
       <c r="T89" s="2">
@@ -20634,7 +20634,7 @@
         <v>1</v>
       </c>
       <c r="S105" s="25">
-        <f t="shared" ref="S105:S114" si="82">($S$103)*(1+(D105*$F$8))*(1+((C105-1)*$J$3))</f>
+        <f t="shared" ref="S105:S112" si="82">($S$103)*(1+(D105*$F$8))*(1+((C105-1)*$J$3))</f>
         <v>74.400000000000006</v>
       </c>
       <c r="T105" s="2">
@@ -21700,8 +21700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22263,7 +22263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="W139" sqref="W139"/>
     </sheetView>
   </sheetViews>

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -937,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -963,6 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,10 +1200,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.5</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -2027,61 +2028,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.8587619784946234</c:v>
+                  <c:v>6.937194193548387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4862196989247307</c:v>
+                  <c:v>7.6430841290322578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1136774193548398</c:v>
+                  <c:v>8.3489740645161294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7411351397849462</c:v>
+                  <c:v>9.0548640000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3685928602150543</c:v>
+                  <c:v>9.760753935483871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9960505806451625</c:v>
+                  <c:v>10.466643870967742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.623508301075269</c:v>
+                  <c:v>11.172533806451613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.250966021505377</c:v>
+                  <c:v>11.878423741935483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.878423741935483</c:v>
+                  <c:v>12.584313677419354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.505881462365593</c:v>
+                  <c:v>13.290203612903225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.133339182795702</c:v>
+                  <c:v>13.996093548387098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.760796903225808</c:v>
+                  <c:v>14.701983483870968</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.388254623655916</c:v>
+                  <c:v>15.407873419354839</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.015712344086023</c:v>
+                  <c:v>16.11376335483871</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.643170064516131</c:v>
+                  <c:v>16.819653290322581</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.270627784946239</c:v>
+                  <c:v>17.525543225806455</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.898085505376347</c:v>
+                  <c:v>18.231433161290326</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.525543225806459</c:v>
+                  <c:v>18.937323096774197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.153000946236567</c:v>
+                  <c:v>19.643213032258068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,61 +2194,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.4016313978494628</c:v>
+                  <c:v>6.5223024193548387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3669995698924726</c:v>
+                  <c:v>7.6083416129032253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3323677419354834</c:v>
+                  <c:v>8.6943808064516119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2977359139784941</c:v>
+                  <c:v>9.7804199999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.263104086021505</c:v>
+                  <c:v>10.866459193548385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.228472258064514</c:v>
+                  <c:v>11.952498387096771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.193840430107526</c:v>
+                  <c:v>13.038537580645157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.159208602150535</c:v>
+                  <c:v>14.124576774193544</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.124576774193546</c:v>
+                  <c:v>15.21061596774193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.089944946236557</c:v>
+                  <c:v>16.296655161290317</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.055313118279567</c:v>
+                  <c:v>17.382694354838705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.020681290322578</c:v>
+                  <c:v>18.468733548387092</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.986049462365589</c:v>
+                  <c:v>19.55477274193548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.951417634408603</c:v>
+                  <c:v>20.640811935483868</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.916785806451614</c:v>
+                  <c:v>21.726851129032255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.882153978494625</c:v>
+                  <c:v>22.812890322580646</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.847522150537632</c:v>
+                  <c:v>23.898929516129026</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.812890322580646</c:v>
+                  <c:v>24.984968709677418</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.77825849462366</c:v>
+                  <c:v>26.071007903225805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,61 +2360,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.9470928172043012</c:v>
+                  <c:v>6.1097506451612897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2483554408602151</c:v>
+                  <c:v>7.5736710967741931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5496180645161299</c:v>
+                  <c:v>9.0375915483870966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8508806881720421</c:v>
+                  <c:v>10.501512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.152143311827956</c:v>
+                  <c:v>11.965432451612902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.45340593548387</c:v>
+                  <c:v>13.429352903225805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.754668559139784</c:v>
+                  <c:v>14.893273354838707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.055931182795698</c:v>
+                  <c:v>16.357193806451608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.357193806451612</c:v>
+                  <c:v>17.821114258064512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.658456430107528</c:v>
+                  <c:v>19.285034709677419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.95971905376344</c:v>
+                  <c:v>20.748955161290318</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.260981677419352</c:v>
+                  <c:v>22.212875612903222</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.562244301075271</c:v>
+                  <c:v>23.676796064516125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.863506924731187</c:v>
+                  <c:v>25.140716516129032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.164769548387099</c:v>
+                  <c:v>26.604636967741936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.466032172043018</c:v>
+                  <c:v>28.068557419354843</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.76729479569893</c:v>
+                  <c:v>29.532477870967746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.068557419354846</c:v>
+                  <c:v>30.996398322580649</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.369820043010762</c:v>
+                  <c:v>32.460318774193553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,61 +2526,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.8660873333333345</c:v>
+                  <c:v>8.6569815000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7025106666666687</c:v>
+                  <c:v>9.2842990000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9.9116165000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10.538934000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.375357333333335</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.211780666666668</c:v>
+                  <c:v>11.166251500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>11.793569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4208865</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>13.048204</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.884627333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.721050666666669</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>13.6755215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.302839000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.930156500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>15.557474000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.393897333333332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.230320666666664</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>16.184791499999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.812109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.4394265</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>18.066744</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.903167333333336</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.739590666666668</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.576014000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.412437333333337</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.248860666666673</c:v>
+                  <c:v>18.6940615</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.085284000000009</c:v>
+                  <c:v>19.321379000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.921707333333341</c:v>
+                  <c:v>19.948696500000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2691,61 +2692,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.057759047619049</c:v>
+                  <c:v>7.7597650000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2497352380952389</c:v>
+                  <c:v>8.653747142857144</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9.5477292857142881</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10.441711428571431</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.633687619047619</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.82566380952381</c:v>
+                  <c:v>11.335693571428573</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>12.229675714285715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.123657857142858</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>14.017639999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.209616190476192</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.40159238095238</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>14.911622142857142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.805604285714287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.699586428571429</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>17.59356857142857</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.785544761904763</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.977520952380949</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.169497142857143</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.361473333333336</c:v>
+                  <c:v>18.487550714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.553449523809526</c:v>
+                  <c:v>19.381532857142858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.745425714285716</c:v>
+                  <c:v>20.275515000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.937401904761909</c:v>
+                  <c:v>21.169497142857146</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.129378095238099</c:v>
+                  <c:v>22.063479285714287</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.321354285714289</c:v>
+                  <c:v>22.957461428571431</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.513330476190479</c:v>
+                  <c:v>23.851443571428575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,61 +2858,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.25327761904762</c:v>
+                  <c:v>6.8668325000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7990580952380952</c:v>
+                  <c:v>8.0261678571428572</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9.1855032142857151</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10.344838571428571</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.890619047619049</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.436399523809525</c:v>
+                  <c:v>11.504173928571429</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>12.663509285714285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.822844642857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>14.98218</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.527960476190476</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.073740952380952</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>16.141515357142858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.300850714285712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.46018607142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>19.619521428571428</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.165301904761904</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.71108238095238</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>20.778856785714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.938192142857147</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.097527500000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>24.256862857142856</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.802643333333336</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.348423809523815</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.894204285714292</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.439984761904771</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.985765238095247</c:v>
+                  <c:v>25.416198214285721</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.531545714285727</c:v>
+                  <c:v>26.575533571428576</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.077326190476199</c:v>
+                  <c:v>27.734868928571441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,61 +3030,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10.677571797333334</c:v>
+                  <c:v>10.413639327999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.733301674666667</c:v>
+                  <c:v>11.205436735999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11.997234143999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.789031551999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.844761429333333</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.900491306666666</c:v>
+                  <c:v>13.580828959999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>14.372626367999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.164423775999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>15.956221183999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.011951061333331</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.067680938666665</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>16.748018591999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.539815999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.331613407999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>19.123410815999996</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.179140693333331</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.234870570666661</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>19.915208223999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.707005631999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.498803039999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>22.290600447999996</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.346330325333334</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.402060202666664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.457790079999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26.513519957333333</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.569249834666667</c:v>
+                  <c:v>23.082397856</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.624979712000005</c:v>
+                  <c:v>23.874195264000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.680709589333336</c:v>
+                  <c:v>24.665992671999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3201,61 +3202,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>9.4346917333333327</c:v>
+                  <c:v>9.0763067999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.868231466666666</c:v>
+                  <c:v>10.151461599999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11.226616400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>12.301771199999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.735310933333333</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.168850666666666</c:v>
+                  <c:v>13.376925999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>14.452080799999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.527235599999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>16.602390400000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.035930133333334</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.469469866666667</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>17.677545199999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.752699999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.827854799999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20.903009599999997</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.336549333333334</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.770089066666664</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>21.978164400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.053319200000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.128474000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>25.203628800000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.637168533333334</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.070708266666671</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29.504248000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.937787733333337</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.371327466666671</c:v>
+                  <c:v>26.278783600000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.804867200000011</c:v>
+                  <c:v>27.353938400000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.238406933333344</c:v>
+                  <c:v>28.429093200000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3373,61 +3374,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.1970117973333334</c:v>
+                  <c:v>7.7445793280000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.006741674666667</c:v>
+                  <c:v>9.1018767359999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.816471552000001</c:v>
+                  <c:v>10.459174144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.626201429333335</c:v>
+                  <c:v>11.816471551999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.435931306666667</c:v>
+                  <c:v>13.173768959999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>14.531066368000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.888363776</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>17.245661183999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.055391061333331</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.865120938666667</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>18.602958592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.960255999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.317553408000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>22.674850815999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.484580693333331</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26.294310570666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.104040447999999</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.913770325333331</c:v>
+                  <c:v>24.032148224000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.723500202666671</c:v>
+                  <c:v>25.389445632000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.53323008000001</c:v>
+                  <c:v>26.746743040000009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.342959957333342</c:v>
+                  <c:v>28.104040448000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.152689834666681</c:v>
+                  <c:v>29.461337856000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.962419712000013</c:v>
+                  <c:v>30.818635264000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.772149589333353</c:v>
+                  <c:v>32.175932672000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3545,61 +3546,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.2575911904761901</c:v>
+                  <c:v>6.8709162499999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8042909523809527</c:v>
+                  <c:v>8.0309410714285701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.350990714285714</c:v>
+                  <c:v>9.1909658928571414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.897690476190476</c:v>
+                  <c:v>10.350990714285713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.444390238095236</c:v>
+                  <c:v>11.511015535714284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.991090000000002</c:v>
+                  <c:v>12.671040357142855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.537789761904762</c:v>
+                  <c:v>13.831065178571425</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.084489523809523</c:v>
+                  <c:v>14.991089999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>16.151114821428568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.311139642857139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.47116446428571</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>19.631189285714285</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.177889047619047</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.724588809523809</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>20.791214107142856</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.951238928571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.111263750000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>24.271288571428578</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>25.817988333333336</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.364688095238098</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.911387857142863</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30.458087619047625</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.004787380952394</c:v>
+                  <c:v>25.431313392857149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.551487142857155</c:v>
+                  <c:v>26.59133821428572</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.098186904761917</c:v>
+                  <c:v>27.751363035714292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,61 +3718,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.2051725653333332</c:v>
+                  <c:v>7.7522896640000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.016704170666667</c:v>
+                  <c:v>9.1109383679999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10.469587071999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>11.828235776</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.639767381333334</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.451298986666666</c:v>
+                  <c:v>13.186884479999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>14.545533184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.904181888</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>17.262830592</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.074362197333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.885893802666665</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>18.621479296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.980127999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.338776704000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>22.697425407999997</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.50895701333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26.320488618666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.132020223999998</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.94355182933333</c:v>
+                  <c:v>24.056074112000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.75508343466667</c:v>
+                  <c:v>25.414722816000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.566615040000009</c:v>
+                  <c:v>26.773371520000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.378146645333338</c:v>
+                  <c:v>28.132020224000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.189678250666674</c:v>
+                  <c:v>29.490668928000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.00120985600001</c:v>
+                  <c:v>30.849317632000009</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.812741461333346</c:v>
+                  <c:v>32.207966336000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
@@ -12261,8 +12262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="S120" sqref="S120"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12462,12 +12463,11 @@
         <v>0.22499999999999998</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22499999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="2"/>
-        <v>0.44999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -12522,12 +12522,11 @@
         <v>0.3</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="T5">
         <v>7.5</v>
@@ -12578,12 +12577,11 @@
         <v>0.375</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>10</v>
@@ -12658,11 +12656,11 @@
       <c r="F8" s="12">
         <v>0.2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8">
@@ -13282,11 +13280,11 @@
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>-1.0740740740740744</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="12"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="M17" s="10">
         <v>0</v>
@@ -13359,11 +13357,11 @@
       </c>
       <c r="K18" s="10">
         <f t="shared" si="6"/>
-        <v>-1.5299145299145303</v>
+        <v>-1.8461538461538458</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="12"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="M18" s="10">
         <v>0</v>
@@ -13436,11 +13434,11 @@
       </c>
       <c r="K19" s="10">
         <f t="shared" ref="K19:K23" si="16">1-((1-(I19/G19))/INDEX($P$2:$P$6,C19))</f>
-        <v>-1.9206349206349209</v>
+        <v>-2.2857142857142856</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="12"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="M19" s="10">
         <v>0</v>
@@ -13513,11 +13511,11 @@
       </c>
       <c r="K20" s="10">
         <f t="shared" si="16"/>
-        <v>-0.89743589743589736</v>
+        <v>-0.42307692307692291</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -13592,11 +13590,11 @@
       </c>
       <c r="K21" s="10">
         <f t="shared" si="16"/>
-        <v>-1.1904761904761902</v>
+        <v>-0.64285714285714257</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M21" s="10">
         <v>0</v>
@@ -13669,11 +13667,11 @@
       </c>
       <c r="K22" s="10">
         <f t="shared" si="16"/>
-        <v>-1.4444444444444446</v>
+        <v>-0.83333333333333348</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="12"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -13746,11 +13744,11 @@
       </c>
       <c r="K23" s="10">
         <f t="shared" si="16"/>
-        <v>-0.75238095238095215</v>
+        <v>-0.31428571428571406</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="12"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M23" s="10">
         <v>0</v>
@@ -13823,11 +13821,11 @@
       </c>
       <c r="K24" s="10">
         <f>1-((1-(I24/G24))/INDEX($P$2:$P$6,C24))</f>
-        <v>-0.95555555555555571</v>
+        <v>-0.46666666666666679</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="12"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -13900,11 +13898,11 @@
       </c>
       <c r="K25" s="10">
         <f>1-((1-(I25/G25))/INDEX($P$2:$P$6,C25))</f>
-        <v>-1.1333333333333333</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="L25" s="10">
         <f>(INDEX($Q$2:$Q$6,C25)/((1/INDEX($F$4:$F$6,J$9))-1))</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M25" s="10">
         <v>0</v>
@@ -14105,11 +14103,11 @@
       </c>
       <c r="K27" s="10">
         <f>1-((1-(I27/G27))/INDEX($P$2:$P$6,C27))</f>
-        <v>6.4166666666666687</v>
+        <v>5.0625000000000009</v>
       </c>
       <c r="L27" s="10">
         <f>(INDEX($Q$2:$Q$6,C27)/((1/INDEX($F$4:$F$6,J$26))-1))</f>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M27" s="10">
         <v>0</v>
@@ -14150,79 +14148,79 @@
       </c>
       <c r="X27">
         <f>$G30*(1-(X$26*(1-$K30)))</f>
-        <v>6.8587619784946234</v>
+        <v>6.937194193548387</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" ref="Y27:AP27" si="19">$G30*(1-(Y$26*(1-$K30)))</f>
-        <v>7.4862196989247307</v>
+        <v>7.6430841290322578</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="19"/>
-        <v>8.1136774193548398</v>
+        <v>8.3489740645161294</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="19"/>
-        <v>8.7411351397849462</v>
+        <v>9.0548640000000002</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="19"/>
-        <v>9.3685928602150543</v>
+        <v>9.760753935483871</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="19"/>
-        <v>9.9960505806451625</v>
+        <v>10.466643870967742</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="19"/>
-        <v>10.623508301075269</v>
+        <v>11.172533806451613</v>
       </c>
       <c r="AE27" s="2">
         <f t="shared" si="19"/>
-        <v>11.250966021505377</v>
+        <v>11.878423741935483</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="19"/>
-        <v>11.878423741935483</v>
+        <v>12.584313677419354</v>
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="19"/>
-        <v>12.505881462365593</v>
+        <v>13.290203612903225</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="19"/>
-        <v>13.133339182795702</v>
+        <v>13.996093548387098</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="19"/>
-        <v>13.760796903225808</v>
+        <v>14.701983483870968</v>
       </c>
       <c r="AJ27" s="2">
         <f t="shared" si="19"/>
-        <v>14.388254623655916</v>
+        <v>15.407873419354839</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="19"/>
-        <v>15.015712344086023</v>
+        <v>16.11376335483871</v>
       </c>
       <c r="AL27" s="2">
         <f t="shared" si="19"/>
-        <v>15.643170064516131</v>
+        <v>16.819653290322581</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="19"/>
-        <v>16.270627784946239</v>
+        <v>17.525543225806455</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="19"/>
-        <v>16.898085505376347</v>
+        <v>18.231433161290326</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="19"/>
-        <v>17.525543225806459</v>
+        <v>18.937323096774197</v>
       </c>
       <c r="AP27" s="2">
         <f t="shared" si="19"/>
-        <v>18.153000946236567</v>
+        <v>19.643213032258068</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -14264,11 +14262,11 @@
       </c>
       <c r="K28" s="10">
         <f>1-((1-(I28/G28))/INDEX($P$2:$P$6,C28))</f>
-        <v>6.6666666666666679</v>
+        <v>5.2500000000000009</v>
       </c>
       <c r="L28" s="10">
         <f>(INDEX($Q$2:$Q$6,C28)/((1/INDEX($F$4:$F$6,J$26))-1))</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
@@ -14309,79 +14307,79 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" ref="X28:AP28" si="20">$G31*(1-(X$26*(1-$K31)))</f>
-        <v>6.4016313978494628</v>
+        <v>6.5223024193548387</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="20"/>
-        <v>7.3669995698924726</v>
+        <v>7.6083416129032253</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="20"/>
-        <v>8.3323677419354834</v>
+        <v>8.6943808064516119</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="20"/>
-        <v>9.2977359139784941</v>
+        <v>9.7804199999999994</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="20"/>
-        <v>10.263104086021505</v>
+        <v>10.866459193548385</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="20"/>
-        <v>11.228472258064514</v>
+        <v>11.952498387096771</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="20"/>
-        <v>12.193840430107526</v>
+        <v>13.038537580645157</v>
       </c>
       <c r="AE28" s="2">
         <f t="shared" si="20"/>
-        <v>13.159208602150535</v>
+        <v>14.124576774193544</v>
       </c>
       <c r="AF28" s="2">
         <f t="shared" si="20"/>
-        <v>14.124576774193546</v>
+        <v>15.21061596774193</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="20"/>
-        <v>15.089944946236557</v>
+        <v>16.296655161290317</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" si="20"/>
-        <v>16.055313118279567</v>
+        <v>17.382694354838705</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="20"/>
-        <v>17.020681290322578</v>
+        <v>18.468733548387092</v>
       </c>
       <c r="AJ28" s="2">
         <f t="shared" si="20"/>
-        <v>17.986049462365589</v>
+        <v>19.55477274193548</v>
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="20"/>
-        <v>18.951417634408603</v>
+        <v>20.640811935483868</v>
       </c>
       <c r="AL28" s="2">
         <f t="shared" si="20"/>
-        <v>19.916785806451614</v>
+        <v>21.726851129032255</v>
       </c>
       <c r="AM28" s="2">
         <f t="shared" si="20"/>
-        <v>20.882153978494625</v>
+        <v>22.812890322580646</v>
       </c>
       <c r="AN28" s="2">
         <f t="shared" si="20"/>
-        <v>21.847522150537632</v>
+        <v>23.898929516129026</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="20"/>
-        <v>22.812890322580646</v>
+        <v>24.984968709677418</v>
       </c>
       <c r="AP28" s="2">
         <f t="shared" si="20"/>
-        <v>23.77825849462366</v>
+        <v>26.071007903225805</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
@@ -14430,79 +14428,79 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" ref="X29:AP29" si="22">$G32*(1-(X$26*(1-$K32)))</f>
-        <v>5.9470928172043012</v>
+        <v>6.1097506451612897</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="22"/>
-        <v>7.2483554408602151</v>
+        <v>7.5736710967741931</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="22"/>
-        <v>8.5496180645161299</v>
+        <v>9.0375915483870966</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="22"/>
-        <v>9.8508806881720421</v>
+        <v>10.501512</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="22"/>
-        <v>11.152143311827956</v>
+        <v>11.965432451612902</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="22"/>
-        <v>12.45340593548387</v>
+        <v>13.429352903225805</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="22"/>
-        <v>13.754668559139784</v>
+        <v>14.893273354838707</v>
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="22"/>
-        <v>15.055931182795698</v>
+        <v>16.357193806451608</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="22"/>
-        <v>16.357193806451612</v>
+        <v>17.821114258064512</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="22"/>
-        <v>17.658456430107528</v>
+        <v>19.285034709677419</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="22"/>
-        <v>18.95971905376344</v>
+        <v>20.748955161290318</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="22"/>
-        <v>20.260981677419352</v>
+        <v>22.212875612903222</v>
       </c>
       <c r="AJ29" s="2">
         <f t="shared" si="22"/>
-        <v>21.562244301075271</v>
+        <v>23.676796064516125</v>
       </c>
       <c r="AK29" s="2">
         <f t="shared" si="22"/>
-        <v>22.863506924731187</v>
+        <v>25.140716516129032</v>
       </c>
       <c r="AL29" s="2">
         <f t="shared" si="22"/>
-        <v>24.164769548387099</v>
+        <v>26.604636967741936</v>
       </c>
       <c r="AM29" s="2">
         <f t="shared" si="22"/>
-        <v>25.466032172043018</v>
+        <v>28.068557419354843</v>
       </c>
       <c r="AN29" s="2">
         <f t="shared" si="22"/>
-        <v>26.76729479569893</v>
+        <v>29.532477870967746</v>
       </c>
       <c r="AO29" s="2">
         <f t="shared" si="22"/>
-        <v>28.068557419354846</v>
+        <v>30.996398322580649</v>
       </c>
       <c r="AP29" s="2">
         <f t="shared" si="22"/>
-        <v>29.369820043010762</v>
+        <v>32.460318774193553</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
@@ -14541,11 +14539,11 @@
       </c>
       <c r="K30" s="10">
         <f t="shared" ref="K30:K89" si="24">1-((1-(I30/G30))/INDEX($P$2:$P$6,C30))</f>
-        <v>3.0138888888888893</v>
+        <v>3.265625</v>
       </c>
       <c r="L30" s="10">
         <f>(INDEX($Q$2:$Q$6,C30)/((1/INDEX($F$4:$F$6,J$29))-1))</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="M30" s="10">
         <v>0</v>
@@ -14586,79 +14584,79 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" ref="X30:AP30" si="28">$G33*(1-(X$26*(1-$K33)))</f>
-        <v>8.8660873333333345</v>
+        <v>8.6569815000000006</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="28"/>
-        <v>9.7025106666666687</v>
+        <v>9.2842990000000007</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="28"/>
-        <v>10.538934000000001</v>
+        <v>9.9116165000000009</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="28"/>
-        <v>11.375357333333335</v>
+        <v>10.538934000000001</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="28"/>
-        <v>12.211780666666668</v>
+        <v>11.166251500000001</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="28"/>
-        <v>13.048204</v>
+        <v>11.793569</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="28"/>
-        <v>13.884627333333333</v>
+        <v>12.4208865</v>
       </c>
       <c r="AE30" s="2">
         <f t="shared" si="28"/>
-        <v>14.721050666666669</v>
+        <v>13.048204</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" si="28"/>
-        <v>15.557474000000001</v>
+        <v>13.6755215</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="28"/>
-        <v>16.393897333333332</v>
+        <v>14.302839000000001</v>
       </c>
       <c r="AH30" s="2">
         <f t="shared" si="28"/>
-        <v>17.230320666666664</v>
+        <v>14.930156500000001</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="28"/>
-        <v>18.066744</v>
+        <v>15.557474000000001</v>
       </c>
       <c r="AJ30" s="2">
         <f t="shared" si="28"/>
-        <v>18.903167333333336</v>
+        <v>16.184791499999999</v>
       </c>
       <c r="AK30" s="2">
         <f t="shared" si="28"/>
-        <v>19.739590666666668</v>
+        <v>16.812109</v>
       </c>
       <c r="AL30" s="2">
         <f t="shared" si="28"/>
-        <v>20.576014000000004</v>
+        <v>17.4394265</v>
       </c>
       <c r="AM30" s="2">
         <f t="shared" si="28"/>
-        <v>21.412437333333337</v>
+        <v>18.066744</v>
       </c>
       <c r="AN30" s="2">
         <f t="shared" si="28"/>
-        <v>22.248860666666673</v>
+        <v>18.6940615</v>
       </c>
       <c r="AO30" s="2">
         <f t="shared" si="28"/>
-        <v>23.085284000000009</v>
+        <v>19.321379000000004</v>
       </c>
       <c r="AP30" s="2">
         <f t="shared" si="28"/>
-        <v>23.921707333333341</v>
+        <v>19.948696500000004</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
@@ -14697,11 +14695,11 @@
       </c>
       <c r="K31" s="10">
         <f t="shared" si="24"/>
-        <v>4.5515873015873005</v>
+        <v>4.9955357142857126</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" ref="L31:L38" si="31">(INDEX($Q$2:$Q$6,C31)/((1/INDEX($F$4:$F$6,J$29))-1))</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="M31" s="10">
         <v>0</v>
@@ -14742,79 +14740,79 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" ref="X31:AP31" si="33">$G34*(1-(X$26*(1-$K34)))</f>
-        <v>8.057759047619049</v>
+        <v>7.7597650000000007</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="33"/>
-        <v>9.2497352380952389</v>
+        <v>8.653747142857144</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="33"/>
-        <v>10.441711428571431</v>
+        <v>9.5477292857142881</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="33"/>
-        <v>11.633687619047619</v>
+        <v>10.441711428571431</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="33"/>
-        <v>12.82566380952381</v>
+        <v>11.335693571428573</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="33"/>
-        <v>14.017639999999998</v>
+        <v>12.229675714285715</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="33"/>
-        <v>15.209616190476192</v>
+        <v>13.123657857142858</v>
       </c>
       <c r="AE31" s="2">
         <f t="shared" si="33"/>
-        <v>16.40159238095238</v>
+        <v>14.017639999999998</v>
       </c>
       <c r="AF31" s="2">
         <f t="shared" si="33"/>
-        <v>17.59356857142857</v>
+        <v>14.911622142857142</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="33"/>
-        <v>18.785544761904763</v>
+        <v>15.805604285714287</v>
       </c>
       <c r="AH31" s="2">
         <f t="shared" si="33"/>
-        <v>19.977520952380949</v>
+        <v>16.699586428571429</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="33"/>
-        <v>21.169497142857143</v>
+        <v>17.59356857142857</v>
       </c>
       <c r="AJ31" s="2">
         <f t="shared" si="33"/>
-        <v>22.361473333333336</v>
+        <v>18.487550714285714</v>
       </c>
       <c r="AK31" s="2">
         <f t="shared" si="33"/>
-        <v>23.553449523809526</v>
+        <v>19.381532857142858</v>
       </c>
       <c r="AL31" s="2">
         <f t="shared" si="33"/>
-        <v>24.745425714285716</v>
+        <v>20.275515000000002</v>
       </c>
       <c r="AM31" s="2">
         <f t="shared" si="33"/>
-        <v>25.937401904761909</v>
+        <v>21.169497142857146</v>
       </c>
       <c r="AN31" s="2">
         <f t="shared" si="33"/>
-        <v>27.129378095238099</v>
+        <v>22.063479285714287</v>
       </c>
       <c r="AO31" s="2">
         <f t="shared" si="33"/>
-        <v>28.321354285714289</v>
+        <v>22.957461428571431</v>
       </c>
       <c r="AP31" s="2">
         <f t="shared" si="33"/>
-        <v>29.513330476190479</v>
+        <v>23.851443571428575</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
@@ -14853,11 +14851,11 @@
       </c>
       <c r="K32" s="10">
         <f t="shared" si="24"/>
-        <v>6.6018518518518521</v>
+        <v>7.3020833333333321</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="31"/>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="M32" s="10">
         <v>0</v>
@@ -14898,79 +14896,79 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" ref="X32:AP32" si="34">$G35*(1-(X$26*(1-$K35)))</f>
-        <v>7.25327761904762</v>
+        <v>6.8668325000000001</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="34"/>
-        <v>8.7990580952380952</v>
+        <v>8.0261678571428572</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="34"/>
-        <v>10.344838571428571</v>
+        <v>9.1855032142857151</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="34"/>
-        <v>11.890619047619049</v>
+        <v>10.344838571428571</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="34"/>
-        <v>13.436399523809525</v>
+        <v>11.504173928571429</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="34"/>
-        <v>14.98218</v>
+        <v>12.663509285714285</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="34"/>
-        <v>16.527960476190476</v>
+        <v>13.822844642857143</v>
       </c>
       <c r="AE32" s="2">
         <f t="shared" si="34"/>
-        <v>18.073740952380952</v>
+        <v>14.98218</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" si="34"/>
-        <v>19.619521428571428</v>
+        <v>16.141515357142858</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="34"/>
-        <v>21.165301904761904</v>
+        <v>17.300850714285712</v>
       </c>
       <c r="AH32" s="2">
         <f t="shared" si="34"/>
-        <v>22.71108238095238</v>
+        <v>18.46018607142857</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="34"/>
-        <v>24.256862857142856</v>
+        <v>19.619521428571428</v>
       </c>
       <c r="AJ32" s="2">
         <f t="shared" si="34"/>
-        <v>25.802643333333336</v>
+        <v>20.778856785714286</v>
       </c>
       <c r="AK32" s="2">
         <f t="shared" si="34"/>
-        <v>27.348423809523815</v>
+        <v>21.938192142857147</v>
       </c>
       <c r="AL32" s="2">
         <f t="shared" si="34"/>
-        <v>28.894204285714292</v>
+        <v>23.097527500000002</v>
       </c>
       <c r="AM32" s="2">
         <f t="shared" si="34"/>
-        <v>30.439984761904771</v>
+        <v>24.256862857142856</v>
       </c>
       <c r="AN32" s="2">
         <f t="shared" si="34"/>
-        <v>31.985765238095247</v>
+        <v>25.416198214285721</v>
       </c>
       <c r="AO32" s="2">
         <f t="shared" si="34"/>
-        <v>33.531545714285727</v>
+        <v>26.575533571428576</v>
       </c>
       <c r="AP32" s="2">
         <f t="shared" si="34"/>
-        <v>35.077326190476199</v>
+        <v>27.734868928571441</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
@@ -15009,11 +15007,11 @@
       </c>
       <c r="K33" s="10">
         <f t="shared" si="24"/>
-        <v>3.0833333333333335</v>
+        <v>2.5625</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M33" s="10">
         <v>0</v>
@@ -15054,79 +15052,79 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" ref="X33:AP33" si="35">$G36*(1-(X$26*(1-$K36)))</f>
-        <v>10.677571797333334</v>
+        <v>10.413639327999999</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="35"/>
-        <v>11.733301674666667</v>
+        <v>11.205436735999999</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="35"/>
-        <v>12.789031551999999</v>
+        <v>11.997234143999998</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="35"/>
-        <v>13.844761429333333</v>
+        <v>12.789031551999999</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="35"/>
-        <v>14.900491306666666</v>
+        <v>13.580828959999998</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="35"/>
-        <v>15.956221183999999</v>
+        <v>14.372626367999999</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="35"/>
-        <v>17.011951061333331</v>
+        <v>15.164423775999998</v>
       </c>
       <c r="AE33" s="2">
         <f t="shared" si="35"/>
-        <v>18.067680938666665</v>
+        <v>15.956221183999999</v>
       </c>
       <c r="AF33" s="2">
         <f t="shared" si="35"/>
-        <v>19.123410815999996</v>
+        <v>16.748018591999998</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="35"/>
-        <v>20.179140693333331</v>
+        <v>17.539815999999998</v>
       </c>
       <c r="AH33" s="2">
         <f t="shared" si="35"/>
-        <v>21.234870570666661</v>
+        <v>18.331613407999996</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="35"/>
-        <v>22.290600447999996</v>
+        <v>19.123410815999996</v>
       </c>
       <c r="AJ33" s="2">
         <f t="shared" si="35"/>
-        <v>23.346330325333334</v>
+        <v>19.915208223999993</v>
       </c>
       <c r="AK33" s="2">
         <f t="shared" si="35"/>
-        <v>24.402060202666664</v>
+        <v>20.707005631999998</v>
       </c>
       <c r="AL33" s="2">
         <f t="shared" si="35"/>
-        <v>25.457790079999999</v>
+        <v>21.498803039999999</v>
       </c>
       <c r="AM33" s="2">
         <f t="shared" si="35"/>
-        <v>26.513519957333333</v>
+        <v>22.290600447999996</v>
       </c>
       <c r="AN33" s="2">
         <f t="shared" si="35"/>
-        <v>27.569249834666667</v>
+        <v>23.082397856</v>
       </c>
       <c r="AO33" s="2">
         <f t="shared" si="35"/>
-        <v>28.624979712000005</v>
+        <v>23.874195264000001</v>
       </c>
       <c r="AP33" s="2">
         <f t="shared" si="35"/>
-        <v>29.680709589333336</v>
+        <v>24.665992671999998</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
@@ -15165,11 +15163,11 @@
       </c>
       <c r="K34" s="10">
         <f t="shared" si="24"/>
-        <v>4.4722222222222214</v>
+        <v>3.6041666666666661</v>
       </c>
       <c r="L34" s="10">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M34" s="10">
         <v>0</v>
@@ -15210,79 +15208,79 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" ref="X34:AP34" si="36">$G37*(1-(X$26*(1-$K37)))</f>
-        <v>9.4346917333333327</v>
+        <v>9.0763067999999993</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="36"/>
-        <v>10.868231466666666</v>
+        <v>10.151461599999999</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="36"/>
-        <v>12.301771199999999</v>
+        <v>11.226616400000001</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="36"/>
-        <v>13.735310933333333</v>
+        <v>12.301771199999999</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="36"/>
-        <v>15.168850666666666</v>
+        <v>13.376925999999999</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="36"/>
-        <v>16.602390400000001</v>
+        <v>14.452080799999997</v>
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="36"/>
-        <v>18.035930133333334</v>
+        <v>15.527235599999997</v>
       </c>
       <c r="AE34" s="2">
         <f t="shared" si="36"/>
-        <v>19.469469866666667</v>
+        <v>16.602390400000001</v>
       </c>
       <c r="AF34" s="2">
         <f t="shared" si="36"/>
-        <v>20.903009599999997</v>
+        <v>17.677545199999997</v>
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="36"/>
-        <v>22.336549333333334</v>
+        <v>18.752699999999997</v>
       </c>
       <c r="AH34" s="2">
         <f t="shared" si="36"/>
-        <v>23.770089066666664</v>
+        <v>19.827854799999997</v>
       </c>
       <c r="AI34" s="2">
         <f t="shared" si="36"/>
-        <v>25.203628800000001</v>
+        <v>20.903009599999997</v>
       </c>
       <c r="AJ34" s="2">
         <f t="shared" si="36"/>
-        <v>26.637168533333334</v>
+        <v>21.978164400000001</v>
       </c>
       <c r="AK34" s="2">
         <f t="shared" si="36"/>
-        <v>28.070708266666671</v>
+        <v>23.053319200000001</v>
       </c>
       <c r="AL34" s="2">
         <f t="shared" si="36"/>
-        <v>29.504248000000004</v>
+        <v>24.128474000000001</v>
       </c>
       <c r="AM34" s="2">
         <f t="shared" si="36"/>
-        <v>30.937787733333337</v>
+        <v>25.203628800000001</v>
       </c>
       <c r="AN34" s="2">
         <f t="shared" si="36"/>
-        <v>32.371327466666671</v>
+        <v>26.278783600000004</v>
       </c>
       <c r="AO34" s="2">
         <f t="shared" si="36"/>
-        <v>33.804867200000011</v>
+        <v>27.353938400000004</v>
       </c>
       <c r="AP34" s="2">
         <f t="shared" si="36"/>
-        <v>35.238406933333344</v>
+        <v>28.429093200000004</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
@@ -15321,11 +15319,11 @@
       </c>
       <c r="K35" s="10">
         <f t="shared" si="24"/>
-        <v>6.416666666666667</v>
+        <v>5.0625</v>
       </c>
       <c r="L35" s="10">
         <f t="shared" si="31"/>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M35" s="10">
         <v>0</v>
@@ -15366,79 +15364,79 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" ref="X35:AP35" si="37">$G38*(1-(X$26*(1-$K38)))</f>
-        <v>8.1970117973333334</v>
+        <v>7.7445793280000004</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="37"/>
-        <v>10.006741674666667</v>
+        <v>9.1018767359999995</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="37"/>
-        <v>11.816471552000001</v>
+        <v>10.459174144</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="37"/>
-        <v>13.626201429333335</v>
+        <v>11.816471551999999</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="37"/>
-        <v>15.435931306666667</v>
+        <v>13.173768959999999</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="37"/>
-        <v>17.245661183999999</v>
+        <v>14.531066368000001</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="37"/>
-        <v>19.055391061333331</v>
+        <v>15.888363776</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="37"/>
-        <v>20.865120938666667</v>
+        <v>17.245661183999999</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="37"/>
-        <v>22.674850815999999</v>
+        <v>18.602958592</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="37"/>
-        <v>24.484580693333331</v>
+        <v>19.960255999999998</v>
       </c>
       <c r="AH35" s="2">
         <f t="shared" si="37"/>
-        <v>26.294310570666667</v>
+        <v>21.317553408000002</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="37"/>
-        <v>28.104040447999999</v>
+        <v>22.674850815999999</v>
       </c>
       <c r="AJ35" s="2">
         <f t="shared" si="37"/>
-        <v>29.913770325333331</v>
+        <v>24.032148224000004</v>
       </c>
       <c r="AK35" s="2">
         <f t="shared" si="37"/>
-        <v>31.723500202666671</v>
+        <v>25.389445632000005</v>
       </c>
       <c r="AL35" s="2">
         <f t="shared" si="37"/>
-        <v>33.53323008000001</v>
+        <v>26.746743040000009</v>
       </c>
       <c r="AM35" s="2">
         <f t="shared" si="37"/>
-        <v>35.342959957333342</v>
+        <v>28.104040448000006</v>
       </c>
       <c r="AN35" s="2">
         <f t="shared" si="37"/>
-        <v>37.152689834666681</v>
+        <v>29.461337856000007</v>
       </c>
       <c r="AO35" s="2">
         <f t="shared" si="37"/>
-        <v>38.962419712000013</v>
+        <v>30.818635264000012</v>
       </c>
       <c r="AP35" s="2">
         <f t="shared" si="37"/>
-        <v>40.772149589333353</v>
+        <v>32.175932672000009</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
@@ -15477,11 +15475,11 @@
       </c>
       <c r="K36" s="10">
         <f t="shared" si="24"/>
-        <v>3.1944444444444442</v>
+        <v>2.645833333333333</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" si="31"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M36" s="10">
         <v>0</v>
@@ -15522,79 +15520,79 @@
       </c>
       <c r="X36" s="2">
         <f>($G27*(1-(X$26*(1-$K27))))/2</f>
-        <v>7.2575911904761901</v>
+        <v>6.8709162499999987</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" ref="Y36:AP36" si="38">($G27*(1-(Y$26*(1-$K27))))/2</f>
-        <v>8.8042909523809527</v>
+        <v>8.0309410714285701</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="38"/>
-        <v>10.350990714285714</v>
+        <v>9.1909658928571414</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="38"/>
-        <v>11.897690476190476</v>
+        <v>10.350990714285713</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="38"/>
-        <v>13.444390238095236</v>
+        <v>11.511015535714284</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="38"/>
-        <v>14.991090000000002</v>
+        <v>12.671040357142855</v>
       </c>
       <c r="AD36" s="2">
         <f t="shared" si="38"/>
-        <v>16.537789761904762</v>
+        <v>13.831065178571425</v>
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="38"/>
-        <v>18.084489523809523</v>
+        <v>14.991089999999996</v>
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="38"/>
-        <v>19.631189285714285</v>
+        <v>16.151114821428568</v>
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="38"/>
-        <v>21.177889047619047</v>
+        <v>17.311139642857139</v>
       </c>
       <c r="AH36" s="2">
         <f t="shared" si="38"/>
-        <v>22.724588809523809</v>
+        <v>18.47116446428571</v>
       </c>
       <c r="AI36" s="2">
         <f t="shared" si="38"/>
-        <v>24.271288571428578</v>
+        <v>19.631189285714285</v>
       </c>
       <c r="AJ36" s="2">
         <f t="shared" si="38"/>
-        <v>25.817988333333336</v>
+        <v>20.791214107142856</v>
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="38"/>
-        <v>27.364688095238098</v>
+        <v>21.951238928571428</v>
       </c>
       <c r="AL36" s="2">
         <f t="shared" si="38"/>
-        <v>28.911387857142863</v>
+        <v>23.111263750000006</v>
       </c>
       <c r="AM36" s="2">
         <f t="shared" si="38"/>
-        <v>30.458087619047625</v>
+        <v>24.271288571428578</v>
       </c>
       <c r="AN36" s="2">
         <f t="shared" si="38"/>
-        <v>32.004787380952394</v>
+        <v>25.431313392857149</v>
       </c>
       <c r="AO36" s="2">
         <f t="shared" si="38"/>
-        <v>33.551487142857155</v>
+        <v>26.59133821428572</v>
       </c>
       <c r="AP36" s="2">
         <f t="shared" si="38"/>
-        <v>35.098186904761917</v>
+        <v>27.751363035714292</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
@@ -15633,11 +15631,11 @@
       </c>
       <c r="K37" s="10">
         <f t="shared" si="24"/>
-        <v>4.5833333333333339</v>
+        <v>3.6875</v>
       </c>
       <c r="L37" s="10">
         <f t="shared" si="31"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M37" s="10">
         <v>0</v>
@@ -15678,79 +15676,79 @@
       </c>
       <c r="X37" s="2">
         <f>($G28*(1-(X$26*(1-$K28))))/2</f>
-        <v>8.2051725653333332</v>
+        <v>7.7522896640000001</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" ref="Y37:AP37" si="39">($G28*(1-(Y$26*(1-$K28))))/2</f>
-        <v>10.016704170666667</v>
+        <v>9.1109383679999993</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="39"/>
-        <v>11.828235776</v>
+        <v>10.469587071999999</v>
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="39"/>
-        <v>13.639767381333334</v>
+        <v>11.828235776</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="39"/>
-        <v>15.451298986666666</v>
+        <v>13.186884479999998</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="39"/>
-        <v>17.262830592</v>
+        <v>14.545533184</v>
       </c>
       <c r="AD37" s="2">
         <f t="shared" si="39"/>
-        <v>19.074362197333333</v>
+        <v>15.904181888</v>
       </c>
       <c r="AE37" s="2">
         <f t="shared" si="39"/>
-        <v>20.885893802666665</v>
+        <v>17.262830592</v>
       </c>
       <c r="AF37" s="2">
         <f t="shared" si="39"/>
-        <v>22.697425407999997</v>
+        <v>18.621479296</v>
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="39"/>
-        <v>24.50895701333333</v>
+        <v>19.980127999999997</v>
       </c>
       <c r="AH37" s="2">
         <f t="shared" si="39"/>
-        <v>26.320488618666666</v>
+        <v>21.338776704000001</v>
       </c>
       <c r="AI37" s="2">
         <f t="shared" si="39"/>
-        <v>28.132020223999998</v>
+        <v>22.697425407999997</v>
       </c>
       <c r="AJ37" s="2">
         <f t="shared" si="39"/>
-        <v>29.94355182933333</v>
+        <v>24.056074112000001</v>
       </c>
       <c r="AK37" s="2">
         <f t="shared" si="39"/>
-        <v>31.75508343466667</v>
+        <v>25.414722816000001</v>
       </c>
       <c r="AL37" s="2">
         <f t="shared" si="39"/>
-        <v>33.566615040000009</v>
+        <v>26.773371520000008</v>
       </c>
       <c r="AM37" s="2">
         <f t="shared" si="39"/>
-        <v>35.378146645333338</v>
+        <v>28.132020224000005</v>
       </c>
       <c r="AN37" s="2">
         <f t="shared" si="39"/>
-        <v>37.189678250666674</v>
+        <v>29.490668928000005</v>
       </c>
       <c r="AO37" s="2">
         <f t="shared" si="39"/>
-        <v>39.00120985600001</v>
+        <v>30.849317632000009</v>
       </c>
       <c r="AP37" s="2">
         <f t="shared" si="39"/>
-        <v>40.812741461333346</v>
+        <v>32.207966336000013</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
@@ -15789,11 +15787,11 @@
       </c>
       <c r="K38" s="10">
         <f t="shared" si="24"/>
-        <v>6.6666666666666679</v>
+        <v>5.2500000000000009</v>
       </c>
       <c r="L38" s="10">
         <f t="shared" si="31"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M38" s="10">
         <v>0</v>
@@ -15912,11 +15910,11 @@
       </c>
       <c r="K40" s="10">
         <f t="shared" si="24"/>
-        <v>-1.7111111111111112</v>
+        <v>-1.0333333333333332</v>
       </c>
       <c r="L40" s="10">
         <f>(INDEX($Q$2:$Q$6,C40)/((1/INDEX($F$4:$F$6,J$39))-1))</f>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M40" s="10">
         <v>0</v>
@@ -15993,11 +15991,11 @@
       </c>
       <c r="K41" s="10">
         <f t="shared" si="24"/>
-        <v>-1.3333333333333335</v>
+        <v>-0.75</v>
       </c>
       <c r="L41" s="10">
         <f>(INDEX($Q$2:$Q$6,C41)/((1/INDEX($F$4:$F$6,J$39))-1))</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M41" s="10">
         <v>0</v>
@@ -16113,11 +16111,11 @@
       </c>
       <c r="K43" s="10">
         <f>1-((1-(I43/G43))/INDEX($P$2:$P$6,C43))</f>
-        <v>-2.5833333333333339</v>
+        <v>-3.03125</v>
       </c>
       <c r="L43" s="10">
         <f>(INDEX($Q$2:$Q$6,C43)/((1/INDEX($F$4:$F$6,J$42))-1))</f>
-        <v>1.7999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="M43" s="10">
         <v>0</v>
@@ -16191,11 +16189,11 @@
       </c>
       <c r="K44" s="10">
         <f t="shared" si="24"/>
-        <v>-2.5833333333333339</v>
+        <v>-3.03125</v>
       </c>
       <c r="L44" s="10">
         <f t="shared" ref="L44:L51" si="44">(INDEX($Q$2:$Q$6,C44)/((1/INDEX($F$4:$F$6,J$42))-1))</f>
-        <v>1.7999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="M44" s="10">
         <v>0</v>
@@ -16269,11 +16267,11 @@
       </c>
       <c r="K45" s="10">
         <f>1-((1-(I45/G45))/INDEX($P$2:$P$6,C45))</f>
-        <v>-2.5833333333333339</v>
+        <v>-3.03125</v>
       </c>
       <c r="L45" s="10">
         <f t="shared" si="44"/>
-        <v>1.7999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="M45" s="10">
         <v>0</v>
@@ -16347,11 +16345,11 @@
       </c>
       <c r="K46" s="10">
         <f t="shared" si="24"/>
-        <v>-1.75</v>
+        <v>-1.0624999999999996</v>
       </c>
       <c r="L46" s="10">
         <f t="shared" si="44"/>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46" s="10">
         <v>0</v>
@@ -16425,11 +16423,11 @@
       </c>
       <c r="K47" s="10">
         <f t="shared" si="24"/>
-        <v>-1.75</v>
+        <v>-1.0624999999999996</v>
       </c>
       <c r="L47" s="10">
         <f t="shared" si="44"/>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="M47" s="10">
         <v>0</v>
@@ -16503,11 +16501,11 @@
       </c>
       <c r="K48" s="10">
         <f t="shared" si="24"/>
-        <v>-1.75</v>
+        <v>-1.0624999999999996</v>
       </c>
       <c r="L48" s="10">
         <f t="shared" si="44"/>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="M48" s="10">
         <v>0</v>
@@ -16580,11 +16578,11 @@
       </c>
       <c r="K49" s="10">
         <f t="shared" si="24"/>
-        <v>-1.25</v>
+        <v>-0.6875</v>
       </c>
       <c r="L49" s="10">
         <f t="shared" si="44"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" s="10">
         <v>0</v>
@@ -16657,11 +16655,11 @@
       </c>
       <c r="K50" s="10">
         <f t="shared" si="24"/>
-        <v>-1.25</v>
+        <v>-0.6875</v>
       </c>
       <c r="L50" s="10">
         <f t="shared" si="44"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" s="10">
         <v>0</v>
@@ -16734,11 +16732,11 @@
       </c>
       <c r="K51" s="10">
         <f>1-((1-(I51/G51))/INDEX($P$2:$P$6,C51))</f>
-        <v>-1.25</v>
+        <v>-0.6875</v>
       </c>
       <c r="L51" s="10">
         <f t="shared" si="44"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
@@ -16855,11 +16853,11 @@
       </c>
       <c r="K53" s="10">
         <f>1-((1-(I53/G53))/INDEX($P$2:$P$6,C53))</f>
-        <v>-1.4444444444444446</v>
+        <v>-0.83333333333333348</v>
       </c>
       <c r="L53" s="10">
         <f>(INDEX($Q$2:$Q$6,C53)/((1/INDEX($F$4:$F$6,J$52))-1))</f>
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M53" s="10">
         <v>0</v>
@@ -16889,8 +16887,8 @@
         <v>97.919999999999987</v>
       </c>
       <c r="T53" s="2">
-        <f>INDEX($T$2:$T$6,C53)</f>
-        <v>7.5</v>
+        <f>7.5*1.5</f>
+        <v>11.25</v>
       </c>
       <c r="U53" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C53)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D53+2)*(1+'Weapon Formulas'!B53))</f>
@@ -16936,11 +16934,11 @@
       </c>
       <c r="K54" s="10">
         <f>1-((1-(I54/G54))/INDEX($P$2:$P$6,C54))</f>
-        <v>-1.1333333333333333</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="L54" s="10">
         <f>(INDEX($Q$2:$Q$6,C54)/((1/INDEX($F$4:$F$6,J$52))-1))</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M54" s="10">
         <v>0</v>
@@ -16970,8 +16968,7 @@
         <v>106.56</v>
       </c>
       <c r="T54" s="2">
-        <f>INDEX($T$2:$T$6,C54)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U54" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C54)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D54+2)*(1+'Weapon Formulas'!B54))</f>
@@ -17194,7 +17191,7 @@
         <v>1.4971675675675675</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" ref="H58:H70" si="58">$F58*(0.68-(0.12*$D58))</f>
+        <f t="shared" ref="H58:H72" si="58">$F58*(0.68-(0.12*$D58))</f>
         <v>1.3848800000000001</v>
       </c>
       <c r="I58" s="2">
@@ -17511,7 +17508,7 @@
       </c>
       <c r="K62" s="10">
         <f t="shared" si="51"/>
-        <v>-2.5833333333333339</v>
+        <v>-3.03125</v>
       </c>
       <c r="L62" s="10">
         <v>0</v>
@@ -17587,7 +17584,7 @@
       </c>
       <c r="K63" s="10">
         <f t="shared" si="51"/>
-        <v>-1.8235294117647061</v>
+        <v>-2.1764705882352939</v>
       </c>
       <c r="L63" s="10">
         <v>0</v>
@@ -17664,7 +17661,7 @@
       </c>
       <c r="K64" s="10">
         <f t="shared" si="51"/>
-        <v>-0.73809523809523903</v>
+        <v>-0.95535714285714368</v>
       </c>
       <c r="L64" s="10">
         <v>0</v>
@@ -17740,7 +17737,7 @@
       </c>
       <c r="K65" s="10">
         <f t="shared" si="51"/>
-        <v>-1.75</v>
+        <v>-1.0624999999999996</v>
       </c>
       <c r="L65" s="10">
         <v>0</v>
@@ -17816,7 +17813,7 @@
       </c>
       <c r="K66" s="10">
         <f t="shared" si="51"/>
-        <v>-1.2352941176470593</v>
+        <v>-0.67647058823529416</v>
       </c>
       <c r="L66" s="10">
         <v>0</v>
@@ -17892,7 +17889,7 @@
       </c>
       <c r="K67" s="10">
         <f t="shared" si="51"/>
-        <v>-0.50000000000000022</v>
+        <v>-0.125</v>
       </c>
       <c r="L67" s="10">
         <v>0</v>
@@ -17968,7 +17965,7 @@
       </c>
       <c r="K68" s="10">
         <f t="shared" si="51"/>
-        <v>-1.25</v>
+        <v>-0.6875</v>
       </c>
       <c r="L68" s="10">
         <v>0</v>
@@ -18044,7 +18041,7 @@
       </c>
       <c r="K69" s="10">
         <f t="shared" si="51"/>
-        <v>-0.88235294117647078</v>
+        <v>-0.41176470588235303</v>
       </c>
       <c r="L69" s="10">
         <v>0</v>
@@ -18120,7 +18117,7 @@
       </c>
       <c r="K70" s="10">
         <f t="shared" si="51"/>
-        <v>-0.35714285714285743</v>
+        <v>-1.7857142857143016E-2</v>
       </c>
       <c r="L70" s="10">
         <v>0</v>
@@ -18163,7 +18160,7 @@
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <f t="shared" si="9"/>
-        <v>-4.4999999999999998E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>84</v>
@@ -18174,10 +18171,14 @@
       <c r="G71" s="2">
         <v>0</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
       <c r="J71" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
@@ -18190,7 +18191,7 @@
         <v>247</v>
       </c>
       <c r="S71" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T71" s="2">
         <v>0</v>
@@ -18200,7 +18201,7 @@
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <f t="shared" si="9"/>
-        <v>-0.15875999999999996</v>
+        <v>-0.20771999999999999</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -18218,47 +18219,47 @@
         <f t="shared" ref="F72:F75" si="59">($F$2+(C72*$F$1))*(B72+1)</f>
         <v>20</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="26">
         <f>IF(G$71=1,H72,H72/(1-INDEX($O$2:$O$6,C72)))</f>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="H72" s="2">
-        <f>F72*0.5</f>
-        <v>10</v>
-      </c>
-      <c r="I72" s="2">
-        <f>F72*0.5</f>
-        <v>10</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="50"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="H72" s="26">
+        <f>$F72*(INDEX($F$3:$F$5,H$71)+(($C72+($D72*$F$7))*INDEX($G$3:$G$5,H$71)))</f>
+        <v>30</v>
+      </c>
+      <c r="I72" s="26">
+        <f t="shared" ref="I72:J73" si="60">$F72*(INDEX($F$3:$F$5,I$71)+(($C72+($D72*$F$7))*INDEX($G$3:$G$5,I$71)))</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="J72" s="26">
+        <f t="shared" si="60"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="K72" s="10">
         <f>1-((1-(I72/G72))/INDEX($P$2:$P$6,C72))</f>
-        <v>0</v>
+        <v>-1.3833333333333333</v>
       </c>
       <c r="L72" s="10">
-        <v>1</v>
+        <f>(INDEX($Q$2:$Q$6,C72)/((1/INDEX($F$4:$F$6,J$71))-1))</f>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M72" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" s="2">
         <f>(AVERAGE(O72,P72)*R72)/Q72</f>
-        <v>57.142857142857146</v>
+        <v>171.42857142857144</v>
       </c>
       <c r="O72" s="2">
         <f>0.75*(((G72*INDEX($R$1:$R$3,$D72+2))*Q72)/R72)</f>
-        <v>489.79591836734699</v>
+        <v>1836.7346938775513</v>
       </c>
       <c r="P72" s="2">
         <f>1.25*(((G72*INDEX($R$1:$R$3,$D72+2))*Q72)/R72)</f>
-        <v>816.32653061224505</v>
+        <v>3061.2244897959185</v>
       </c>
       <c r="Q72" s="2">
-        <f>(AVERAGE(VLOOKUP(E72,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E72,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E72,weapon_components!$A$8:$M$178,11,0))/10</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R72" s="2">
         <f>VLOOKUP(E72,weapon_components!$A$8:$M$178,13,0)</f>
@@ -18266,7 +18267,7 @@
       </c>
       <c r="S72" s="25">
         <f>($S$71)*(1+(D72*$F$8))*(1+((C72-1)*$J$3))</f>
-        <v>97.919999999999987</v>
+        <v>114.24</v>
       </c>
       <c r="T72" s="2">
         <v>0</v>
@@ -18279,7 +18280,7 @@
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <f t="shared" si="9"/>
-        <v>-0.18468000000000001</v>
+        <v>-0.23795999999999998</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -18299,45 +18300,45 @@
       </c>
       <c r="G73" s="2">
         <f>IF(G$71=1,H73,H73/(1-INDEX($O$2:$O$6,C73)))</f>
-        <v>20</v>
-      </c>
-      <c r="H73" s="2">
-        <f>F73*0.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="I73" s="2">
-        <f>F73*0.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="J73" s="2">
-        <f t="shared" si="50"/>
+        <v>64</v>
+      </c>
+      <c r="H73" s="26">
+        <f>$F73*(INDEX($F$3:$F$5,H$71)+(($C73+($D73*$F$7))*INDEX($G$3:$G$5,H$71)))</f>
+        <v>40</v>
+      </c>
+      <c r="I73" s="26">
+        <f t="shared" si="60"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="J73" s="26">
+        <f t="shared" si="60"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="K73" s="10">
         <f>1-((1-(I73/G73))/INDEX($P$2:$P$6,C73))</f>
-        <v>0</v>
+        <v>-0.9375</v>
       </c>
       <c r="L73" s="10">
-        <v>0</v>
+        <f>(INDEX($Q$2:$Q$6,C73)/((1/INDEX($F$4:$F$6,J$71))-1))</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M73" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="49"/>
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="O73" s="2">
         <f>0.75*(((G73*INDEX($R$1:$R$3,$D73+2))*Q73)/R73)</f>
-        <v>685.71428571428578</v>
+        <v>2742.8571428571431</v>
       </c>
       <c r="P73" s="2">
         <f>1.25*(((G73*INDEX($R$1:$R$3,$D73+2))*Q73)/R73)</f>
-        <v>1142.8571428571429</v>
+        <v>4571.4285714285716</v>
       </c>
       <c r="Q73" s="2">
-        <f>(AVERAGE(VLOOKUP(E73,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E73,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E73,weapon_components!$A$8:$M$178,11,0))/10</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R73" s="2">
         <f>VLOOKUP(E73,weapon_components!$A$8:$M$178,13,0)</f>
@@ -18345,7 +18346,7 @@
       </c>
       <c r="S73" s="25">
         <f>($S$71)*(1+(D73*$F$8))*(1+((C73-1)*$J$3))</f>
-        <v>106.56</v>
+        <v>124.32</v>
       </c>
       <c r="T73" s="2">
         <v>0</v>
@@ -18428,7 +18429,7 @@
       </c>
       <c r="K75" s="10">
         <f t="shared" si="24"/>
-        <v>0.93939393939393978</v>
+        <v>0.93181818181818221</v>
       </c>
       <c r="L75" s="10">
         <v>0</v>
@@ -18441,11 +18442,11 @@
         <v>4.258064516129032</v>
       </c>
       <c r="O75" s="2">
-        <f t="shared" ref="O75:O83" si="60">0.75*(((G75*INDEX($R$1:$R$3,$D75+2))*Q75)/R75)</f>
+        <f t="shared" ref="O75:O83" si="61">0.75*(((G75*INDEX($R$1:$R$3,$D75+2))*Q75)/R75)</f>
         <v>12.267899291896143</v>
       </c>
       <c r="P75" s="2">
-        <f t="shared" ref="P75:P83" si="61">1.25*(((G75*INDEX($R$1:$R$3,$D75+2))*Q75)/R75)</f>
+        <f t="shared" ref="P75:P83" si="62">1.25*(((G75*INDEX($R$1:$R$3,$D75+2))*Q75)/R75)</f>
         <v>20.446498819826907</v>
       </c>
       <c r="Q75" s="2">
@@ -18470,7 +18471,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
-        <f t="shared" ref="A76:A119" si="62">(S76-$I$2)*$J$2</f>
+        <f t="shared" ref="A76:A119" si="63">(S76-$I$2)*$J$2</f>
         <v>-3.2399999999999991E-2</v>
       </c>
       <c r="C76" s="2">
@@ -18483,28 +18484,28 @@
         <v>89</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" ref="F76:F115" si="63">($F$2+(C76*$F$1))*(B76+1)</f>
+        <f t="shared" ref="F76:F115" si="64">($F$2+(C76*$F$1))*(B76+1)</f>
         <v>7.5</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" ref="G76:G83" si="64">IF(G$74=1,H76,H76/(1-INDEX($O$2:$O$6,C76)))</f>
+        <f t="shared" ref="G76:G83" si="65">IF(G$74=1,H76,H76/(1-INDEX($O$2:$O$6,C76)))</f>
         <v>3.096774193548387</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" ref="H76:H83" si="65">$F76*(0.32-(0.12*$D76))</f>
+        <f t="shared" ref="H76:H83" si="66">$F76*(0.32-(0.12*$D76))</f>
         <v>2.4</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" ref="I76:I83" si="66">$F76*(0.68+(0.12*D76))</f>
+        <f t="shared" ref="I76:I83" si="67">$F76*(0.68+(0.12*D76))</f>
         <v>5.1000000000000005</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" ref="H76:J86" si="67">$F76*(INDEX($F$3:$F$5,J$9)+(($C76+($D76*$F$7))*INDEX($G$3:$G$5,J$9)))</f>
+        <f t="shared" ref="H76:J86" si="68">$F76*(INDEX($F$3:$F$5,J$9)+(($C76+($D76*$F$7))*INDEX($G$3:$G$5,J$9)))</f>
         <v>1.05</v>
       </c>
       <c r="K76" s="10">
         <f t="shared" si="24"/>
-        <v>3.8750000000000018</v>
+        <v>4.2343750000000018</v>
       </c>
       <c r="L76" s="10">
         <v>0</v>
@@ -18517,11 +18518,11 @@
         <v>6.193548387096774</v>
       </c>
       <c r="O76" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>18.29032258064516</v>
       </c>
       <c r="P76" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30.483870967741929</v>
       </c>
       <c r="Q76" s="2">
@@ -18533,7 +18534,7 @@
         <v>0.8</v>
       </c>
       <c r="S76" s="25">
-        <f t="shared" ref="S76:S83" si="68">($S$74)*(1+(D76*$F$8))*(1+((C76-1)*$J$3))</f>
+        <f t="shared" ref="S76:S83" si="69">($S$74)*(1+(D76*$F$8))*(1+((C76-1)*$J$3))</f>
         <v>55.8</v>
       </c>
       <c r="T76" s="2">
@@ -18546,7 +18547,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-6.587999999999998E-2</v>
       </c>
       <c r="C77" s="2">
@@ -18559,28 +18560,28 @@
         <v>90</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.5</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.9354838709677418</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.5</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>6</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="K77" s="10">
         <f t="shared" si="24"/>
-        <v>10.333333333333334</v>
+        <v>11.5</v>
       </c>
       <c r="L77" s="10">
         <v>0</v>
@@ -18593,11 +18594,11 @@
         <v>7.7419354838709671</v>
       </c>
       <c r="O77" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>24.387096774193544</v>
       </c>
       <c r="P77" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>40.645161290322569</v>
       </c>
       <c r="Q77" s="2">
@@ -18609,7 +18610,7 @@
         <v>0.75</v>
       </c>
       <c r="S77" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>66.959999999999994</v>
       </c>
       <c r="T77" s="2">
@@ -18622,7 +18623,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1.1879999999999981E-2</v>
       </c>
       <c r="C78" s="2">
@@ -18635,28 +18636,28 @@
         <v>91</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6.2857142857142865</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="K78" s="10">
         <f t="shared" si="24"/>
-        <v>0.63636363636363624</v>
+        <v>0.72727272727272718</v>
       </c>
       <c r="L78" s="10">
         <v>0</v>
@@ -18669,11 +18670,11 @@
         <v>6.2857142857142865</v>
       </c>
       <c r="O78" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>18.109756097560975</v>
       </c>
       <c r="P78" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30.182926829268297</v>
       </c>
       <c r="Q78" s="2">
@@ -18685,7 +18686,7 @@
         <v>0.82</v>
       </c>
       <c r="S78" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>48.959999999999994</v>
       </c>
       <c r="T78" s="2">
@@ -18698,7 +18699,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.859999999999999E-2</v>
       </c>
       <c r="C79" s="2">
@@ -18711,28 +18712,28 @@
         <v>92</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.5714285714285721</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3.2</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.2</v>
       </c>
       <c r="K79" s="10">
         <f t="shared" si="24"/>
-        <v>2.625</v>
+        <v>2.21875</v>
       </c>
       <c r="L79" s="10">
         <v>0</v>
@@ -18745,11 +18746,11 @@
         <v>9.1428571428571441</v>
       </c>
       <c r="O79" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>27</v>
       </c>
       <c r="P79" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>45</v>
       </c>
       <c r="Q79" s="2">
@@ -18761,7 +18762,7 @@
         <v>0.8</v>
       </c>
       <c r="S79" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>61.199999999999996</v>
       </c>
       <c r="T79" s="2">
@@ -18774,7 +18775,7 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-8.5319999999999993E-2</v>
       </c>
       <c r="C80" s="2">
@@ -18787,28 +18788,28 @@
         <v>93</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>8</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K80" s="10">
         <f t="shared" si="24"/>
-        <v>7</v>
+        <v>5.4999999999999991</v>
       </c>
       <c r="L80" s="10">
         <v>0</v>
@@ -18821,11 +18822,11 @@
         <v>11.428571428571429</v>
       </c>
       <c r="O80" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>36</v>
       </c>
       <c r="P80" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>60</v>
       </c>
       <c r="Q80" s="2">
@@ -18837,7 +18838,7 @@
         <v>0.75</v>
       </c>
       <c r="S80" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>73.44</v>
       </c>
       <c r="T80" s="2">
@@ -18850,7 +18851,7 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-2.4840000000000004E-2</v>
       </c>
       <c r="C81" s="2">
@@ -18863,28 +18864,28 @@
         <v>94</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5.5</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.5</v>
       </c>
       <c r="K81" s="10">
         <f t="shared" si="24"/>
-        <v>0.4545454545454547</v>
+        <v>0.59090909090909105</v>
       </c>
       <c r="L81" s="10">
         <v>0</v>
@@ -18897,11 +18898,11 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="O81" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>25.353658536585371</v>
       </c>
       <c r="P81" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>42.256097560975618</v>
       </c>
       <c r="Q81" s="2">
@@ -18913,7 +18914,7 @@
         <v>0.82</v>
       </c>
       <c r="S81" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>53.28</v>
       </c>
       <c r="T81" s="2">
@@ -18926,7 +18927,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-6.4799999999999983E-2</v>
       </c>
       <c r="C82" s="2">
@@ -18939,28 +18940,28 @@
         <v>95</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6.4</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>8.5</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.25</v>
       </c>
       <c r="K82" s="10">
         <f t="shared" si="24"/>
-        <v>1.875</v>
+        <v>1.65625</v>
       </c>
       <c r="L82" s="10">
         <v>0</v>
@@ -18973,11 +18974,11 @@
         <v>12.8</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>37.799999999999997</v>
       </c>
       <c r="P82" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>63</v>
       </c>
       <c r="Q82" s="2">
@@ -18989,7 +18990,7 @@
         <v>0.8</v>
       </c>
       <c r="S82" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>66.599999999999994</v>
       </c>
       <c r="T82" s="2">
@@ -19002,7 +19003,7 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.10476000000000001</v>
       </c>
       <c r="C83" s="2">
@@ -19015,28 +19016,28 @@
         <v>96</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>2.5</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>10</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K83" s="10">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L83" s="10">
         <v>0</v>
@@ -19049,11 +19050,11 @@
         <v>16.000000000000004</v>
       </c>
       <c r="O83" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>50.400000000000006</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>84</v>
       </c>
       <c r="Q83" s="2">
@@ -19065,7 +19066,7 @@
         <v>0.75</v>
       </c>
       <c r="S83" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>79.92</v>
       </c>
       <c r="T83" s="2">
@@ -19078,7 +19079,7 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -19113,7 +19114,7 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.09</v>
       </c>
       <c r="C85">
@@ -19126,7 +19127,7 @@
         <v>98</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G85" s="2">
@@ -19134,22 +19135,22 @@
         <v>21.428571428571431</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>15</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K85" s="10">
         <v>-1</v>
       </c>
       <c r="L85" s="10">
-        <f t="shared" ref="L85" si="69">J85/F85</f>
+        <f t="shared" ref="L85" si="70">J85/F85</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="M85" s="10">
@@ -19185,7 +19186,7 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C86">
@@ -19198,7 +19199,7 @@
         <v>99</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G86" s="2">
@@ -19206,15 +19207,15 @@
         <v>32</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>20</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K86" s="10">
@@ -19256,7 +19257,7 @@
     </row>
     <row r="87" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="B87" s="13"/>
@@ -19298,7 +19299,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-9.0000000000000011E-3</v>
       </c>
       <c r="C88" s="2">
@@ -19311,7 +19312,7 @@
         <v>101</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.5</v>
       </c>
       <c r="G88" s="2">
@@ -19323,7 +19324,7 @@
         <v>2.5</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" ref="H88:J102" si="70">$F88*(INDEX($F$3:$F$5,I$87)+(($C88+($D88*$F$7))*INDEX($G$3:$G$5,I$9)))</f>
+        <f t="shared" ref="H88:J102" si="71">$F88*(INDEX($F$3:$F$5,I$87)+(($C88+($D88*$F$7))*INDEX($G$3:$G$5,I$9)))</f>
         <v>2</v>
       </c>
       <c r="J88" s="2">
@@ -19375,7 +19376,7 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="C89" s="2">
@@ -19388,23 +19389,23 @@
         <v>102</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.5</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" ref="G89:G102" si="71">IF(G$87=1,H89,H89/(1-INDEX($O$2:$O$6,C89)))</f>
+        <f t="shared" ref="G89:G102" si="72">IF(G$87=1,H89,H89/(1-INDEX($O$2:$O$6,C89)))</f>
         <v>2.75</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.75</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="K89" s="10">
@@ -19438,11 +19439,11 @@
         <v>1</v>
       </c>
       <c r="S89" s="25">
-        <f t="shared" ref="S89:S102" si="72">($S$87)*(1+(D89*$F$8))*(1+((C89-1)*$J$3))</f>
+        <f t="shared" ref="S89:S102" si="73">($S$87)*(1+(D89*$F$8))*(1+((C89-1)*$J$3))</f>
         <v>60</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" ref="T89:T115" si="73">INDEX($T$2:$T$6,C89)</f>
+        <f t="shared" ref="T89:T115" si="74">INDEX($T$2:$T$6,C89)</f>
         <v>2.5</v>
       </c>
       <c r="U89" s="14">
@@ -19452,7 +19453,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-8.1000000000000003E-2</v>
       </c>
       <c r="C90" s="2">
@@ -19469,23 +19470,23 @@
         <v>2.5</v>
       </c>
       <c r="G90" s="2">
+        <f t="shared" si="72"/>
+        <v>3</v>
+      </c>
+      <c r="H90" s="2">
         <f t="shared" si="71"/>
         <v>3</v>
       </c>
-      <c r="H90" s="2">
-        <f t="shared" si="70"/>
-        <v>3</v>
-      </c>
       <c r="I90" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1.6</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.4</v>
       </c>
       <c r="K90" s="10">
-        <f t="shared" ref="K90:K102" si="74">1-((1-(I90/G90))/INDEX($P$2:$P$6,C90))</f>
+        <f t="shared" ref="K90:K102" si="75">1-((1-(I90/G90))/INDEX($P$2:$P$6,C90))</f>
         <v>-5.2222222222222223</v>
       </c>
       <c r="L90" s="10">
@@ -19495,15 +19496,15 @@
         <v>1</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" ref="N90:N115" si="75">(AVERAGE(O90,P90)*R90)/Q90</f>
+        <f t="shared" ref="N90:N115" si="76">(AVERAGE(O90,P90)*R90)/Q90</f>
         <v>12</v>
       </c>
       <c r="O90" s="2">
-        <f t="shared" ref="O90:O115" si="76">0.75*(((G90*INDEX($R$1:$R$3,$D90+2))*Q90)/R90)</f>
+        <f t="shared" ref="O90:O115" si="77">0.75*(((G90*INDEX($R$1:$R$3,$D90+2))*Q90)/R90)</f>
         <v>49.5</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" ref="P90:P115" si="77">1.25*(((G90*INDEX($R$1:$R$3,$D90+2))*Q90)/R90)</f>
+        <f t="shared" ref="P90:P115" si="78">1.25*(((G90*INDEX($R$1:$R$3,$D90+2))*Q90)/R90)</f>
         <v>82.5</v>
       </c>
       <c r="Q90" s="2">
@@ -19515,11 +19516,11 @@
         <v>1</v>
       </c>
       <c r="S90" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>72</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2.5</v>
       </c>
       <c r="U90" s="14">
@@ -19529,7 +19530,7 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-2.6280000000000015E-2</v>
       </c>
       <c r="C91" s="2">
@@ -19542,45 +19543,45 @@
         <v>104</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5</v>
       </c>
       <c r="G91" s="2">
+        <f t="shared" si="72"/>
+        <v>5.5</v>
+      </c>
+      <c r="H91" s="2">
         <f t="shared" si="71"/>
         <v>5.5</v>
       </c>
-      <c r="H91" s="2">
-        <f t="shared" si="70"/>
+      <c r="I91" s="2">
+        <f t="shared" si="71"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="71"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K91" s="10">
+        <f t="shared" si="75"/>
+        <v>-1.3030303030303041</v>
+      </c>
+      <c r="L91" s="10">
+        <v>0</v>
+      </c>
+      <c r="M91" s="10">
+        <v>1</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="76"/>
         <v>5.5</v>
       </c>
-      <c r="I91" s="2">
-        <f t="shared" si="70"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="J91" s="2">
-        <f t="shared" si="70"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K91" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.3030303030303041</v>
-      </c>
-      <c r="L91" s="10">
-        <v>0</v>
-      </c>
-      <c r="M91" s="10">
-        <v>1</v>
-      </c>
-      <c r="N91" s="2">
-        <f t="shared" si="75"/>
-        <v>5.5</v>
-      </c>
       <c r="O91" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>22.6875</v>
       </c>
       <c r="P91" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>37.8125</v>
       </c>
       <c r="Q91" s="2">
@@ -19592,11 +19593,11 @@
         <v>1</v>
       </c>
       <c r="S91" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>53.760000000000005</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.75</v>
       </c>
       <c r="U91" s="14">
@@ -19606,7 +19607,7 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-6.6600000000000006E-2</v>
       </c>
       <c r="C92" s="2">
@@ -19619,27 +19620,27 @@
         <v>105</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5</v>
       </c>
       <c r="G92" s="2">
+        <f t="shared" si="72"/>
+        <v>6</v>
+      </c>
+      <c r="H92" s="2">
         <f t="shared" si="71"/>
         <v>6</v>
       </c>
-      <c r="H92" s="2">
-        <f t="shared" si="70"/>
-        <v>6</v>
-      </c>
       <c r="I92" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3.2</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4.8</v>
       </c>
       <c r="K92" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-2.1111111111111112</v>
       </c>
       <c r="L92" s="10">
@@ -19649,15 +19650,15 @@
         <v>1</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>12</v>
       </c>
       <c r="O92" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>49.5</v>
       </c>
       <c r="P92" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>82.5</v>
       </c>
       <c r="Q92" s="2">
@@ -19669,11 +19670,11 @@
         <v>1</v>
       </c>
       <c r="S92" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>67.2</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.75</v>
       </c>
       <c r="U92" s="14">
@@ -19683,7 +19684,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.10692000000000004</v>
       </c>
       <c r="C93" s="2">
@@ -19696,27 +19697,27 @@
         <v>106</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5</v>
       </c>
       <c r="G93" s="2">
+        <f t="shared" si="72"/>
+        <v>6.5</v>
+      </c>
+      <c r="H93" s="2">
         <f t="shared" si="71"/>
         <v>6.5</v>
       </c>
-      <c r="H93" s="2">
-        <f t="shared" si="70"/>
-        <v>6.5</v>
-      </c>
       <c r="I93" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="K93" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-2.7948717948717947</v>
       </c>
       <c r="L93" s="10">
@@ -19726,15 +19727,15 @@
         <v>1</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>26</v>
       </c>
       <c r="O93" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>107.25</v>
       </c>
       <c r="P93" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>178.75</v>
       </c>
       <c r="Q93" s="2">
@@ -19746,11 +19747,11 @@
         <v>1</v>
       </c>
       <c r="S93" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>80.640000000000015</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3.75</v>
       </c>
       <c r="U93" s="14">
@@ -19760,7 +19761,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.3559999999999988E-2</v>
       </c>
       <c r="C94" s="2">
@@ -19773,45 +19774,45 @@
         <v>107</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.5</v>
       </c>
       <c r="G94" s="2">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+      <c r="H94" s="2">
         <f t="shared" si="71"/>
         <v>9</v>
       </c>
-      <c r="H94" s="2">
-        <f t="shared" si="70"/>
+      <c r="I94" s="2">
+        <f t="shared" si="71"/>
+        <v>4.8</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="71"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K94" s="10">
+        <f t="shared" si="75"/>
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="L94" s="10">
+        <v>0</v>
+      </c>
+      <c r="M94" s="10">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
-      <c r="I94" s="2">
-        <f t="shared" si="70"/>
-        <v>4.8</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" si="70"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="K94" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.0740740740740744</v>
-      </c>
-      <c r="L94" s="10">
-        <v>0</v>
-      </c>
-      <c r="M94" s="10">
-        <v>1</v>
-      </c>
-      <c r="N94" s="2">
-        <f t="shared" si="75"/>
-        <v>9</v>
-      </c>
       <c r="O94" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>37.125</v>
       </c>
       <c r="P94" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>61.875</v>
       </c>
       <c r="Q94" s="2">
@@ -19823,11 +19824,11 @@
         <v>1</v>
       </c>
       <c r="S94" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>59.519999999999996</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="U94" s="14">
@@ -19837,7 +19838,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-8.8200000000000014E-2</v>
       </c>
       <c r="C95" s="2">
@@ -19850,28 +19851,28 @@
         <v>108</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.5</v>
       </c>
       <c r="G95" s="2">
+        <f t="shared" si="72"/>
+        <v>9.75</v>
+      </c>
+      <c r="H95" s="2">
         <f t="shared" si="71"/>
         <v>9.75</v>
       </c>
-      <c r="H95" s="2">
-        <f t="shared" si="70"/>
-        <v>9.75</v>
-      </c>
       <c r="I95" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4.2</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>7.05</v>
       </c>
       <c r="K95" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.5299145299145303</v>
+        <f t="shared" si="75"/>
+        <v>-1.8461538461538458</v>
       </c>
       <c r="L95" s="10">
         <v>0</v>
@@ -19880,15 +19881,15 @@
         <v>1</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>19.5</v>
       </c>
       <c r="O95" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>80.4375</v>
       </c>
       <c r="P95" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>134.0625</v>
       </c>
       <c r="Q95" s="2">
@@ -19900,11 +19901,11 @@
         <v>1</v>
       </c>
       <c r="S95" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>74.400000000000006</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="U95" s="14">
@@ -19914,7 +19915,7 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.13284000000000001</v>
       </c>
       <c r="C96" s="2">
@@ -19927,28 +19928,28 @@
         <v>109</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.5</v>
       </c>
       <c r="G96" s="2">
+        <f t="shared" si="72"/>
+        <v>10.5</v>
+      </c>
+      <c r="H96" s="2">
         <f t="shared" si="71"/>
         <v>10.5</v>
       </c>
-      <c r="H96" s="2">
-        <f t="shared" si="70"/>
-        <v>10.5</v>
-      </c>
       <c r="I96" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6.8999999999999995</v>
       </c>
       <c r="K96" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.9206349206349214</v>
+        <f t="shared" si="75"/>
+        <v>-2.285714285714286</v>
       </c>
       <c r="L96" s="10">
         <v>0</v>
@@ -19957,15 +19958,15 @@
         <v>1</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>42</v>
       </c>
       <c r="O96" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>173.25</v>
       </c>
       <c r="P96" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>288.75</v>
       </c>
       <c r="Q96" s="2">
@@ -19977,11 +19978,11 @@
         <v>1</v>
       </c>
       <c r="S96" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>89.28</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="U96" s="14">
@@ -19991,7 +19992,7 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-6.0840000000000005E-2</v>
       </c>
       <c r="C97" s="2">
@@ -20004,45 +20005,45 @@
         <v>110</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G97" s="2">
+        <f t="shared" si="72"/>
+        <v>13</v>
+      </c>
+      <c r="H97" s="2">
         <f t="shared" si="71"/>
         <v>13</v>
       </c>
-      <c r="H97" s="2">
-        <f t="shared" si="70"/>
+      <c r="I97" s="2">
+        <f t="shared" si="71"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="71"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="K97" s="10">
+        <f t="shared" si="75"/>
+        <v>-0.42307692307692291</v>
+      </c>
+      <c r="L97" s="10">
+        <v>0</v>
+      </c>
+      <c r="M97" s="10">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="76"/>
         <v>13</v>
       </c>
-      <c r="I97" s="2">
-        <f t="shared" si="70"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" si="70"/>
-        <v>9.3999999999999986</v>
-      </c>
-      <c r="K97" s="10">
-        <f t="shared" si="74"/>
-        <v>-0.89743589743589736</v>
-      </c>
-      <c r="L97" s="10">
-        <v>0</v>
-      </c>
-      <c r="M97" s="10">
-        <v>1</v>
-      </c>
-      <c r="N97" s="2">
-        <f t="shared" si="75"/>
-        <v>13</v>
-      </c>
       <c r="O97" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>53.625</v>
       </c>
       <c r="P97" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>89.375</v>
       </c>
       <c r="Q97" s="2">
@@ -20054,11 +20055,11 @@
         <v>1</v>
       </c>
       <c r="S97" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>65.28</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5</v>
       </c>
       <c r="U97" s="14">
@@ -20068,7 +20069,7 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.10979999999999998</v>
       </c>
       <c r="C98" s="2">
@@ -20081,28 +20082,28 @@
         <v>111</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G98" s="2">
+        <f t="shared" si="72"/>
+        <v>14</v>
+      </c>
+      <c r="H98" s="2">
         <f t="shared" si="71"/>
         <v>14</v>
       </c>
-      <c r="H98" s="2">
-        <f t="shared" si="70"/>
-        <v>14</v>
-      </c>
       <c r="I98" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4.8</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="K98" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.1904761904761907</v>
+        <f t="shared" si="75"/>
+        <v>-0.64285714285714279</v>
       </c>
       <c r="L98" s="10">
         <v>0</v>
@@ -20111,15 +20112,15 @@
         <v>1</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>28</v>
       </c>
       <c r="O98" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>115.5</v>
       </c>
       <c r="P98" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>192.5</v>
       </c>
       <c r="Q98" s="2">
@@ -20131,11 +20132,11 @@
         <v>1</v>
       </c>
       <c r="S98" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>81.599999999999994</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5</v>
       </c>
       <c r="U98" s="14">
@@ -20145,7 +20146,7 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.15875999999999996</v>
       </c>
       <c r="C99" s="2">
@@ -20158,28 +20159,28 @@
         <v>112</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G99" s="2">
+        <f t="shared" si="72"/>
+        <v>15</v>
+      </c>
+      <c r="H99" s="2">
         <f t="shared" si="71"/>
         <v>15</v>
       </c>
-      <c r="H99" s="2">
-        <f t="shared" si="70"/>
-        <v>15</v>
-      </c>
       <c r="I99" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9</v>
       </c>
       <c r="K99" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.4444444444444446</v>
+        <f t="shared" si="75"/>
+        <v>-0.83333333333333348</v>
       </c>
       <c r="L99" s="10">
         <v>0</v>
@@ -20188,15 +20189,15 @@
         <v>1</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>60</v>
       </c>
       <c r="O99" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>247.5</v>
       </c>
       <c r="P99" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>412.5</v>
       </c>
       <c r="Q99" s="2">
@@ -20208,11 +20209,11 @@
         <v>1</v>
       </c>
       <c r="S99" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>97.919999999999987</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5</v>
       </c>
       <c r="U99" s="14">
@@ -20222,7 +20223,7 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-7.8119999999999981E-2</v>
       </c>
       <c r="C100" s="2">
@@ -20235,45 +20236,45 @@
         <v>113</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G100" s="2">
+        <f t="shared" si="72"/>
+        <v>17.5</v>
+      </c>
+      <c r="H100" s="2">
         <f t="shared" si="71"/>
         <v>17.5</v>
       </c>
-      <c r="H100" s="2">
-        <f t="shared" si="70"/>
+      <c r="I100" s="2">
+        <f t="shared" si="71"/>
+        <v>6</v>
+      </c>
+      <c r="J100" s="2">
+        <f t="shared" si="71"/>
+        <v>11.5</v>
+      </c>
+      <c r="K100" s="10">
+        <f t="shared" si="75"/>
+        <v>-0.31428571428571428</v>
+      </c>
+      <c r="L100" s="10">
+        <v>0</v>
+      </c>
+      <c r="M100" s="10">
+        <v>1</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="76"/>
         <v>17.5</v>
       </c>
-      <c r="I100" s="2">
-        <f t="shared" si="70"/>
-        <v>6</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" si="70"/>
-        <v>11.5</v>
-      </c>
-      <c r="K100" s="10">
-        <f t="shared" si="74"/>
-        <v>-0.75238095238095237</v>
-      </c>
-      <c r="L100" s="10">
-        <v>0</v>
-      </c>
-      <c r="M100" s="10">
-        <v>1</v>
-      </c>
-      <c r="N100" s="2">
-        <f t="shared" si="75"/>
-        <v>17.5</v>
-      </c>
       <c r="O100" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>72.1875</v>
       </c>
       <c r="P100" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>120.3125</v>
       </c>
       <c r="Q100" s="2">
@@ -20285,11 +20286,11 @@
         <v>1</v>
       </c>
       <c r="S100" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>71.039999999999992</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="U100" s="14">
@@ -20299,7 +20300,7 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.13139999999999999</v>
       </c>
       <c r="C101" s="2">
@@ -20312,28 +20313,28 @@
         <v>114</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G101" s="2">
+        <f t="shared" si="72"/>
+        <v>18.75</v>
+      </c>
+      <c r="H101" s="2">
         <f t="shared" si="71"/>
         <v>18.75</v>
       </c>
-      <c r="H101" s="2">
-        <f t="shared" si="70"/>
-        <v>18.75</v>
-      </c>
       <c r="I101" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>11.25</v>
       </c>
       <c r="K101" s="10">
-        <f t="shared" si="74"/>
-        <v>-0.95555555555555571</v>
+        <f t="shared" si="75"/>
+        <v>-0.46666666666666679</v>
       </c>
       <c r="L101" s="10">
         <v>0</v>
@@ -20342,15 +20343,15 @@
         <v>1</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>37.5</v>
       </c>
       <c r="O101" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>154.6875</v>
       </c>
       <c r="P101" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>257.8125</v>
       </c>
       <c r="Q101" s="2">
@@ -20362,11 +20363,11 @@
         <v>1</v>
       </c>
       <c r="S101" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>88.8</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="U101" s="14">
@@ -20376,7 +20377,7 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.18468000000000001</v>
       </c>
       <c r="C102" s="2">
@@ -20389,28 +20390,28 @@
         <v>115</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G102" s="2">
+        <f t="shared" si="72"/>
+        <v>20</v>
+      </c>
+      <c r="H102" s="2">
         <f t="shared" si="71"/>
         <v>20</v>
       </c>
-      <c r="H102" s="2">
-        <f t="shared" si="70"/>
-        <v>20</v>
-      </c>
       <c r="I102" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>11</v>
       </c>
       <c r="K102" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.1333333333333333</v>
+        <f t="shared" si="75"/>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="L102" s="10">
         <v>0</v>
@@ -20419,15 +20420,15 @@
         <v>1</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>80</v>
       </c>
       <c r="O102" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>330</v>
       </c>
       <c r="P102" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>550</v>
       </c>
       <c r="Q102" s="2">
@@ -20439,11 +20440,11 @@
         <v>1</v>
       </c>
       <c r="S102" s="25">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>106.56</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="U102" s="14">
@@ -20453,7 +20454,7 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -20494,7 +20495,7 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.3559999999999988E-2</v>
       </c>
       <c r="C104">
@@ -20507,7 +20508,7 @@
         <v>117</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.5</v>
       </c>
       <c r="G104" s="2">
@@ -20527,25 +20528,26 @@
         <v>5.7</v>
       </c>
       <c r="K104" s="10">
-        <f t="shared" ref="K104:K112" si="78">1-((1-(I104/G104))/INDEX($P$2:$P$6,C104))</f>
-        <v>-0.3333333333333337</v>
+        <f t="shared" ref="K104:K112" si="79">1-((1-(I104/G104))/INDEX($P$2:$P$6,C104))</f>
+        <v>-0.50000000000000022</v>
       </c>
       <c r="L104" s="10">
         <v>0</v>
       </c>
       <c r="M104" s="10">
-        <v>1</v>
+        <f>J104/F104</f>
+        <v>0.76</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>9</v>
       </c>
       <c r="O104" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>56.362499999999997</v>
       </c>
       <c r="P104" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>93.937499999999986</v>
       </c>
       <c r="Q104" s="2">
@@ -20561,7 +20563,7 @@
         <v>59.519999999999996</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="U104" s="14">
@@ -20571,7 +20573,7 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-8.8200000000000014E-2</v>
       </c>
       <c r="C105">
@@ -20584,45 +20586,46 @@
         <v>118</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.5</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" ref="G105:G112" si="79">H105</f>
+        <f t="shared" ref="G105:G112" si="80">H105</f>
         <v>9.75</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" ref="H105:H112" si="80">$F105*(INDEX($F$3:$F$5,H$103)+(($C105+($D105*$F$7))*INDEX($G$3:$G$5,H$9)))</f>
+        <f t="shared" ref="H105:H112" si="81">$F105*(INDEX($F$3:$F$5,H$103)+(($C105+($D105*$F$7))*INDEX($G$3:$G$5,H$9)))</f>
         <v>9.75</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" ref="I105:J112" si="81">$F105*(INDEX($F$3:$F$5,I$103)+(($C105+($D105*$F$7))*INDEX($G$3:$G$5,I$9)))</f>
+        <f t="shared" ref="I105:J112" si="82">$F105*(INDEX($F$3:$F$5,I$103)+(($C105+($D105*$F$7))*INDEX($G$3:$G$5,I$9)))</f>
         <v>5.7</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.55</v>
       </c>
       <c r="K105" s="10">
+        <f t="shared" si="79"/>
+        <v>-1.0769230769230766</v>
+      </c>
+      <c r="L105" s="10">
+        <v>0</v>
+      </c>
+      <c r="M105" s="10">
+        <f t="shared" ref="M105:M112" si="83">J105/F105</f>
+        <v>0.74</v>
+      </c>
+      <c r="N105" s="2">
+        <f t="shared" si="76"/>
+        <v>19.5</v>
+      </c>
+      <c r="O105" s="2">
+        <f t="shared" si="77"/>
+        <v>122.11874999999999</v>
+      </c>
+      <c r="P105" s="2">
         <f t="shared" si="78"/>
-        <v>-0.84615384615384626</v>
-      </c>
-      <c r="L105" s="10">
-        <v>0</v>
-      </c>
-      <c r="M105" s="10">
-        <v>1</v>
-      </c>
-      <c r="N105" s="2">
-        <f t="shared" si="75"/>
-        <v>19.5</v>
-      </c>
-      <c r="O105" s="2">
-        <f t="shared" si="76"/>
-        <v>122.11874999999999</v>
-      </c>
-      <c r="P105" s="2">
-        <f t="shared" si="77"/>
         <v>203.53125</v>
       </c>
       <c r="Q105" s="2">
@@ -20634,11 +20637,11 @@
         <v>1</v>
       </c>
       <c r="S105" s="25">
-        <f t="shared" ref="S105:S112" si="82">($S$103)*(1+(D105*$F$8))*(1+((C105-1)*$J$3))</f>
+        <f t="shared" ref="S105:S112" si="84">($S$103)*(1+(D105*$F$8))*(1+((C105-1)*$J$3))</f>
         <v>74.400000000000006</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="U105" s="14">
@@ -20648,7 +20651,7 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.13284000000000001</v>
       </c>
       <c r="C106">
@@ -20661,45 +20664,46 @@
         <v>119</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.5</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="79"/>
-        <v>10.5</v>
-      </c>
-      <c r="H106" s="2">
         <f t="shared" si="80"/>
         <v>10.5</v>
       </c>
+      <c r="H106" s="2">
+        <f t="shared" si="81"/>
+        <v>10.5</v>
+      </c>
       <c r="I106" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.3999999999999995</v>
       </c>
       <c r="K106" s="10">
+        <f t="shared" si="79"/>
+        <v>-1.5714285714285716</v>
+      </c>
+      <c r="L106" s="10">
+        <v>0</v>
+      </c>
+      <c r="M106" s="10">
+        <f t="shared" si="83"/>
+        <v>0.72</v>
+      </c>
+      <c r="N106" s="2">
+        <f t="shared" si="76"/>
+        <v>42</v>
+      </c>
+      <c r="O106" s="2">
+        <f t="shared" si="77"/>
+        <v>263.02499999999998</v>
+      </c>
+      <c r="P106" s="2">
         <f t="shared" si="78"/>
-        <v>-1.285714285714286</v>
-      </c>
-      <c r="L106" s="10">
-        <v>0</v>
-      </c>
-      <c r="M106" s="10">
-        <v>1</v>
-      </c>
-      <c r="N106" s="2">
-        <f t="shared" si="75"/>
-        <v>42</v>
-      </c>
-      <c r="O106" s="2">
-        <f t="shared" si="76"/>
-        <v>263.02499999999998</v>
-      </c>
-      <c r="P106" s="2">
-        <f t="shared" si="77"/>
         <v>438.375</v>
       </c>
       <c r="Q106" s="2">
@@ -20711,11 +20715,11 @@
         <v>1</v>
       </c>
       <c r="S106" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>89.28</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="U106" s="14">
@@ -20725,7 +20729,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-6.0840000000000005E-2</v>
       </c>
       <c r="C107">
@@ -20738,45 +20742,46 @@
         <v>120</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="79"/>
-        <v>13</v>
-      </c>
-      <c r="H107" s="2">
         <f t="shared" si="80"/>
         <v>13</v>
       </c>
+      <c r="H107" s="2">
+        <f t="shared" si="81"/>
+        <v>13</v>
+      </c>
       <c r="I107" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>7.6</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>7.4</v>
       </c>
       <c r="K107" s="10">
+        <f t="shared" si="79"/>
+        <v>-3.8461538461538547E-2</v>
+      </c>
+      <c r="L107" s="10">
+        <v>0</v>
+      </c>
+      <c r="M107" s="10">
+        <f t="shared" si="83"/>
+        <v>0.74</v>
+      </c>
+      <c r="N107" s="2">
+        <f t="shared" si="76"/>
+        <v>13</v>
+      </c>
+      <c r="O107" s="2">
+        <f t="shared" si="77"/>
+        <v>81.412499999999994</v>
+      </c>
+      <c r="P107" s="2">
         <f t="shared" si="78"/>
-        <v>-0.38461538461538503</v>
-      </c>
-      <c r="L107" s="10">
-        <v>0</v>
-      </c>
-      <c r="M107" s="10">
-        <v>1</v>
-      </c>
-      <c r="N107" s="2">
-        <f t="shared" si="75"/>
-        <v>13</v>
-      </c>
-      <c r="O107" s="2">
-        <f t="shared" si="76"/>
-        <v>81.412499999999994</v>
-      </c>
-      <c r="P107" s="2">
-        <f t="shared" si="77"/>
         <v>135.6875</v>
       </c>
       <c r="Q107" s="2">
@@ -20788,11 +20793,11 @@
         <v>1</v>
       </c>
       <c r="S107" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>65.28</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5</v>
       </c>
       <c r="U107" s="14">
@@ -20802,7 +20807,7 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.10979999999999998</v>
       </c>
       <c r="C108">
@@ -20815,45 +20820,46 @@
         <v>121</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="79"/>
-        <v>14</v>
-      </c>
-      <c r="H108" s="2">
         <f t="shared" si="80"/>
         <v>14</v>
       </c>
+      <c r="H108" s="2">
+        <f t="shared" si="81"/>
+        <v>14</v>
+      </c>
       <c r="I108" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>6.7999999999999989</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="K108" s="10">
+        <f t="shared" si="79"/>
+        <v>-0.28571428571428581</v>
+      </c>
+      <c r="L108" s="10">
+        <v>0</v>
+      </c>
+      <c r="M108" s="10">
+        <f t="shared" si="83"/>
+        <v>0.72</v>
+      </c>
+      <c r="N108" s="2">
+        <f t="shared" si="76"/>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="O108" s="2">
+        <f t="shared" si="77"/>
+        <v>175.35</v>
+      </c>
+      <c r="P108" s="2">
         <f t="shared" si="78"/>
-        <v>-0.71428571428571463</v>
-      </c>
-      <c r="L108" s="10">
-        <v>0</v>
-      </c>
-      <c r="M108" s="10">
-        <v>1</v>
-      </c>
-      <c r="N108" s="2">
-        <f t="shared" si="75"/>
-        <v>28.000000000000004</v>
-      </c>
-      <c r="O108" s="2">
-        <f t="shared" si="76"/>
-        <v>175.35</v>
-      </c>
-      <c r="P108" s="2">
-        <f t="shared" si="77"/>
         <v>292.25</v>
       </c>
       <c r="Q108" s="2">
@@ -20865,11 +20871,11 @@
         <v>1</v>
       </c>
       <c r="S108" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>81.599999999999994</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5</v>
       </c>
       <c r="U108" s="14">
@@ -20879,7 +20885,7 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.15875999999999996</v>
       </c>
       <c r="C109">
@@ -20892,45 +20898,46 @@
         <v>122</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="79"/>
-        <v>15</v>
-      </c>
-      <c r="H109" s="2">
         <f t="shared" si="80"/>
         <v>15</v>
       </c>
+      <c r="H109" s="2">
+        <f t="shared" si="81"/>
+        <v>15</v>
+      </c>
       <c r="I109" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.9999999999999982</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="K109" s="10">
+        <f t="shared" si="79"/>
+        <v>-0.50000000000000022</v>
+      </c>
+      <c r="L109" s="10">
+        <v>0</v>
+      </c>
+      <c r="M109" s="10">
+        <f t="shared" si="83"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="N109" s="2">
+        <f t="shared" si="76"/>
+        <v>60</v>
+      </c>
+      <c r="O109" s="2">
+        <f t="shared" si="77"/>
+        <v>375.75</v>
+      </c>
+      <c r="P109" s="2">
         <f t="shared" si="78"/>
-        <v>-1.0000000000000004</v>
-      </c>
-      <c r="L109" s="10">
-        <v>0</v>
-      </c>
-      <c r="M109" s="10">
-        <v>1</v>
-      </c>
-      <c r="N109" s="2">
-        <f t="shared" si="75"/>
-        <v>60</v>
-      </c>
-      <c r="O109" s="2">
-        <f t="shared" si="76"/>
-        <v>375.75</v>
-      </c>
-      <c r="P109" s="2">
-        <f t="shared" si="77"/>
         <v>626.25</v>
       </c>
       <c r="Q109" s="2">
@@ -20942,11 +20949,11 @@
         <v>1</v>
       </c>
       <c r="S109" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>97.919999999999987</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5</v>
       </c>
       <c r="U109" s="14">
@@ -20956,7 +20963,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-7.8119999999999981E-2</v>
       </c>
       <c r="C110">
@@ -20969,45 +20976,46 @@
         <v>123</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="79"/>
-        <v>17.5</v>
-      </c>
-      <c r="H110" s="2">
         <f t="shared" si="80"/>
         <v>17.5</v>
       </c>
+      <c r="H110" s="2">
+        <f t="shared" si="81"/>
+        <v>17.5</v>
+      </c>
       <c r="I110" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>8.5</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>9</v>
       </c>
       <c r="K110" s="10">
+        <f t="shared" si="79"/>
+        <v>-2.857142857142847E-2</v>
+      </c>
+      <c r="L110" s="10">
+        <v>0</v>
+      </c>
+      <c r="M110" s="10">
+        <f t="shared" si="83"/>
+        <v>0.72</v>
+      </c>
+      <c r="N110" s="2">
+        <f t="shared" si="76"/>
+        <v>17.5</v>
+      </c>
+      <c r="O110" s="2">
+        <f t="shared" si="77"/>
+        <v>109.59375</v>
+      </c>
+      <c r="P110" s="2">
         <f t="shared" si="78"/>
-        <v>-0.37142857142857122</v>
-      </c>
-      <c r="L110" s="10">
-        <v>0</v>
-      </c>
-      <c r="M110" s="10">
-        <v>1</v>
-      </c>
-      <c r="N110" s="2">
-        <f t="shared" si="75"/>
-        <v>17.5</v>
-      </c>
-      <c r="O110" s="2">
-        <f t="shared" si="76"/>
-        <v>109.59375</v>
-      </c>
-      <c r="P110" s="2">
-        <f t="shared" si="77"/>
         <v>182.65625</v>
       </c>
       <c r="Q110" s="2">
@@ -21019,11 +21027,11 @@
         <v>1</v>
       </c>
       <c r="S110" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>71.039999999999992</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="U110" s="14">
@@ -21033,7 +21041,7 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.13139999999999999</v>
       </c>
       <c r="C111">
@@ -21046,41 +21054,42 @@
         <v>124</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="79"/>
-        <v>18.75</v>
-      </c>
-      <c r="H111" s="2">
         <f t="shared" si="80"/>
         <v>18.75</v>
       </c>
+      <c r="H111" s="2">
+        <f t="shared" si="81"/>
+        <v>18.75</v>
+      </c>
       <c r="I111" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>7.4999999999999982</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>8.75</v>
       </c>
       <c r="K111" s="10">
-        <f t="shared" si="78"/>
-        <v>-0.60000000000000031</v>
+        <f t="shared" si="79"/>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="L111" s="10">
         <v>0</v>
       </c>
       <c r="M111" s="10">
-        <v>1</v>
+        <f t="shared" si="83"/>
+        <v>0.7</v>
       </c>
       <c r="N111" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>37.5</v>
       </c>
       <c r="O111" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>234.84375</v>
       </c>
       <c r="P111" s="2">
@@ -21096,11 +21105,11 @@
         <v>1</v>
       </c>
       <c r="S111" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>88.8</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="U111" s="14">
@@ -21110,7 +21119,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.18468000000000001</v>
       </c>
       <c r="C112">
@@ -21123,45 +21132,46 @@
         <v>125</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>12.5</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="79"/>
-        <v>20</v>
-      </c>
-      <c r="H112" s="2">
         <f t="shared" si="80"/>
         <v>20</v>
       </c>
+      <c r="H112" s="2">
+        <f t="shared" si="81"/>
+        <v>20</v>
+      </c>
       <c r="I112" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>6.4999999999999991</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>8.5</v>
       </c>
       <c r="K112" s="10">
+        <f t="shared" si="79"/>
+        <v>-0.35000000000000009</v>
+      </c>
+      <c r="L112" s="10">
+        <v>0</v>
+      </c>
+      <c r="M112" s="10">
+        <f t="shared" si="83"/>
+        <v>0.68</v>
+      </c>
+      <c r="N112" s="2">
+        <f t="shared" si="76"/>
+        <v>80</v>
+      </c>
+      <c r="O112" s="2">
+        <f t="shared" si="77"/>
+        <v>501</v>
+      </c>
+      <c r="P112" s="2">
         <f t="shared" si="78"/>
-        <v>-0.8</v>
-      </c>
-      <c r="L112" s="10">
-        <v>0</v>
-      </c>
-      <c r="M112" s="10">
-        <v>1</v>
-      </c>
-      <c r="N112" s="2">
-        <f t="shared" si="75"/>
-        <v>80</v>
-      </c>
-      <c r="O112" s="2">
-        <f t="shared" si="76"/>
-        <v>501</v>
-      </c>
-      <c r="P112" s="2">
-        <f t="shared" si="77"/>
         <v>835</v>
       </c>
       <c r="Q112" s="2">
@@ -21173,11 +21183,11 @@
         <v>1</v>
       </c>
       <c r="S112" s="25">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>106.56</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="U112" s="14">
@@ -21187,7 +21197,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="D113" s="2"/>
@@ -21227,7 +21237,7 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.10979999999999998</v>
       </c>
       <c r="B114" s="2">
@@ -21243,7 +21253,7 @@
         <v>127</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>20</v>
       </c>
       <c r="G114" s="2">
@@ -21255,16 +21265,16 @@
         <v>28</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" ref="I114:J115" si="83">$F114*(INDEX($F$3:$F$5,I$113)+(($C114+($D114*$F$7))*INDEX($G$3:$G$5,I$113)))</f>
+        <f t="shared" ref="I114:J115" si="85">$F114*(INDEX($F$3:$F$5,I$113)+(($C114+($D114*$F$7))*INDEX($G$3:$G$5,I$113)))</f>
         <v>9.6</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>28</v>
       </c>
       <c r="K114" s="10">
         <f>1-((1-(I114/G114))/INDEX($P$2:$P$6,C114))</f>
-        <v>-1.1904761904761907</v>
+        <v>-0.64285714285714279</v>
       </c>
       <c r="L114" s="10">
         <v>0</v>
@@ -21273,15 +21283,15 @@
         <v>1</v>
       </c>
       <c r="N114" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>56</v>
       </c>
       <c r="O114" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>105</v>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>175</v>
       </c>
       <c r="Q114" s="2">
@@ -21297,7 +21307,7 @@
         <v>81.599999999999994</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.5</v>
       </c>
       <c r="U114" s="14">
@@ -21307,7 +21317,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.13139999999999999</v>
       </c>
       <c r="B115" s="2">
@@ -21323,7 +21333,7 @@
         <v>128</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>25</v>
       </c>
       <c r="G115" s="2">
@@ -21335,16 +21345,16 @@
         <v>37.5</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>10</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>37.5</v>
       </c>
       <c r="K115" s="10">
         <f>1-((1-(I115/G115))/INDEX($P$2:$P$6,C115))</f>
-        <v>-0.95555555555555571</v>
+        <v>-0.46666666666666679</v>
       </c>
       <c r="L115" s="10">
         <v>0</v>
@@ -21353,15 +21363,15 @@
         <v>1</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>75</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>140.625</v>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>234.375</v>
       </c>
       <c r="Q115" s="2">
@@ -21377,7 +21387,7 @@
         <v>88.8</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10</v>
       </c>
       <c r="U115" s="14">
@@ -21387,7 +21397,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="D116" s="2"/>
@@ -21427,7 +21437,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.129</v>
       </c>
       <c r="B117" s="2">
@@ -21443,28 +21453,28 @@
         <v>234</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" ref="F117:F119" si="84">($F$2+(C117*$F$1))*(B117+1)</f>
+        <f t="shared" ref="F117:F119" si="86">($F$2+(C117*$F$1))*(B117+1)</f>
         <v>15</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" ref="G117:G119" si="85">IF(G$116=1,H117,H117/(1-INDEX($O$2:$O$6,C117)))</f>
+        <f t="shared" ref="G117:G119" si="87">IF(G$116=1,H117,H117/(1-INDEX($O$2:$O$6,C117)))</f>
         <v>9.2903225806451601</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" ref="H117:H119" si="86">$F117*(INDEX($F$3:$F$5,H$116)+(($C117+($D117*$F$7))*INDEX($G$3:$G$5,H$116)))</f>
+        <f t="shared" ref="H117:H119" si="88">$F117*(INDEX($F$3:$F$5,H$116)+(($C117+($D117*$F$7))*INDEX($G$3:$G$5,H$116)))</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="I117" s="2">
-        <f t="shared" ref="I117:J119" si="87">$F117*(INDEX($F$3:$F$5,I$116)+(($C117+($D117*$F$7))*INDEX($G$3:$G$5,I$116)))</f>
+        <f t="shared" ref="I117:J119" si="89">$F117*(INDEX($F$3:$F$5,I$116)+(($C117+($D117*$F$7))*INDEX($G$3:$G$5,I$116)))</f>
         <v>21</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>21</v>
       </c>
       <c r="K117" s="10">
-        <f t="shared" ref="K117:K119" si="88">1-((1-(I117/G117))/INDEX($P$2:$P$6,C117))</f>
-        <v>6.6018518518518539</v>
+        <f t="shared" ref="K117:K119" si="90">1-((1-(I117/G117))/INDEX($P$2:$P$6,C117))</f>
+        <v>7.3020833333333348</v>
       </c>
       <c r="L117" s="10">
         <v>0</v>
@@ -21473,15 +21483,15 @@
         <v>1</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" ref="N117:N119" si="89">(AVERAGE(O117,P117)*R117)/Q117</f>
+        <f t="shared" ref="N117:N119" si="91">(AVERAGE(O117,P117)*R117)/Q117</f>
         <v>9.2903225806451584</v>
       </c>
       <c r="O117" s="2">
-        <f t="shared" ref="O117:O118" si="90">0.75*(((G117*INDEX($R$1:$R$3,$D117+2))*Q117)/R117)/4</f>
+        <f t="shared" ref="O117:O118" si="92">0.75*(((G117*INDEX($R$1:$R$3,$D117+2))*Q117)/R117)/4</f>
         <v>92.903225806451601</v>
       </c>
       <c r="P117" s="2">
-        <f t="shared" ref="P117:P118" si="91">1.25*(((G117*INDEX($R$1:$R$3,$D117+2))*Q117)/R117)/4</f>
+        <f t="shared" ref="P117:P118" si="93">1.25*(((G117*INDEX($R$1:$R$3,$D117+2))*Q117)/R117)/4</f>
         <v>154.83870967741933</v>
       </c>
       <c r="Q117" s="2">
@@ -21503,7 +21513,7 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.129</v>
       </c>
       <c r="B118" s="2">
@@ -21519,28 +21529,28 @@
         <v>235</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>20</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>11.428571428571429</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="I118" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>30</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>30</v>
       </c>
       <c r="K118" s="10">
-        <f t="shared" si="88"/>
-        <v>6.416666666666667</v>
+        <f t="shared" si="90"/>
+        <v>5.0625</v>
       </c>
       <c r="L118" s="10">
         <v>0</v>
@@ -21549,15 +21559,15 @@
         <v>1</v>
       </c>
       <c r="N118" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>11.428571428571427</v>
       </c>
       <c r="O118" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>114.28571428571428</v>
       </c>
       <c r="P118" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>190.47619047619048</v>
       </c>
       <c r="Q118" s="2">
@@ -21579,7 +21589,7 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.129</v>
       </c>
       <c r="B119" s="2">
@@ -21595,28 +21605,28 @@
         <v>236</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>25</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>12.799999999999999</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>40</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>40</v>
       </c>
       <c r="K119" s="10">
-        <f t="shared" si="88"/>
-        <v>6.6666666666666679</v>
+        <f t="shared" si="90"/>
+        <v>5.2500000000000009</v>
       </c>
       <c r="L119" s="10">
         <v>0</v>
@@ -21625,7 +21635,7 @@
         <v>1</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>12.8</v>
       </c>
       <c r="O119" s="2">
@@ -21700,8 +21710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22263,8 +22273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="W139" sqref="W139"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22366,7 +22376,7 @@
         <v>146</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="27"/>
+      <c r="P4" s="28"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -22395,7 +22405,7 @@
         <v>147</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="28"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -22444,7 +22454,7 @@
       <c r="O6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="28"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -22465,7 +22475,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="28"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -22819,7 +22829,7 @@
       </c>
       <c r="F14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F14),2)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G14),2)</f>
@@ -22827,7 +22837,7 @@
       </c>
       <c r="H14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H14),2)</f>
-        <v>-1.07</v>
+        <v>-1.33</v>
       </c>
       <c r="I14" s="5">
         <v>2</v>
@@ -22874,7 +22884,7 @@
       </c>
       <c r="F15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F15),2)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G15),2)</f>
@@ -22882,7 +22892,7 @@
       </c>
       <c r="H15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H15),2)</f>
-        <v>-1.53</v>
+        <v>-1.85</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
@@ -22929,7 +22939,7 @@
       </c>
       <c r="F16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F16),2)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G16),2)</f>
@@ -22937,7 +22947,7 @@
       </c>
       <c r="H16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H16),2)</f>
-        <v>-1.92</v>
+        <v>-2.29</v>
       </c>
       <c r="I16" s="5">
         <v>2</v>
@@ -22984,7 +22994,7 @@
       </c>
       <c r="F17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F17),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G17),2)</f>
@@ -22992,7 +23002,7 @@
       </c>
       <c r="H17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H17),2)</f>
-        <v>-0.9</v>
+        <v>-0.42</v>
       </c>
       <c r="I17" s="5">
         <v>2</v>
@@ -23039,7 +23049,7 @@
       </c>
       <c r="F18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F18),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G18),2)</f>
@@ -23047,7 +23057,7 @@
       </c>
       <c r="H18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H18),2)</f>
-        <v>-1.19</v>
+        <v>-0.64</v>
       </c>
       <c r="I18" s="5">
         <v>2</v>
@@ -23094,7 +23104,7 @@
       </c>
       <c r="F19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F19),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G19),2)</f>
@@ -23102,7 +23112,7 @@
       </c>
       <c r="H19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H19),2)</f>
-        <v>-1.44</v>
+        <v>-0.83</v>
       </c>
       <c r="I19" s="5">
         <v>2</v>
@@ -23149,7 +23159,7 @@
       </c>
       <c r="F20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F20),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G20),2)</f>
@@ -23157,7 +23167,7 @@
       </c>
       <c r="H20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H20),2)</f>
-        <v>-0.75</v>
+        <v>-0.31</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -23204,7 +23214,7 @@
       </c>
       <c r="F21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F21),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G21),2)</f>
@@ -23212,7 +23222,7 @@
       </c>
       <c r="H21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H21),2)</f>
-        <v>-0.96</v>
+        <v>-0.47</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
@@ -23259,7 +23269,7 @@
       </c>
       <c r="F22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F22),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G22),2)</f>
@@ -23267,7 +23277,7 @@
       </c>
       <c r="H22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H22),2)</f>
-        <v>-1.1299999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>
@@ -23521,7 +23531,7 @@
       </c>
       <c r="F28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F28),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G28),2)</f>
@@ -23529,7 +23539,7 @@
       </c>
       <c r="H28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H28),2)</f>
-        <v>6.42</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I28" s="5">
         <v>22</v>
@@ -23576,7 +23586,7 @@
       </c>
       <c r="F29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F29),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G29),2)</f>
@@ -23584,7 +23594,7 @@
       </c>
       <c r="H29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H29),2)</f>
-        <v>6.67</v>
+        <v>5.25</v>
       </c>
       <c r="I29" s="5">
         <v>22</v>
@@ -23652,7 +23662,7 @@
       </c>
       <c r="F31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F31),2)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G31),2)</f>
@@ -23660,7 +23670,7 @@
       </c>
       <c r="H31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H31),2)</f>
-        <v>3.01</v>
+        <v>3.27</v>
       </c>
       <c r="I31" s="5">
         <v>2</v>
@@ -23707,7 +23717,7 @@
       </c>
       <c r="F32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F32),2)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G32),2)</f>
@@ -23715,7 +23725,7 @@
       </c>
       <c r="H32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H32),2)</f>
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="I32" s="5">
         <v>2</v>
@@ -23762,7 +23772,7 @@
       </c>
       <c r="F33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F33),2)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G33),2)</f>
@@ -23770,7 +23780,7 @@
       </c>
       <c r="H33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H33),2)</f>
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="I33" s="5">
         <v>2</v>
@@ -23817,7 +23827,7 @@
       </c>
       <c r="F34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F34),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G34),2)</f>
@@ -23825,7 +23835,7 @@
       </c>
       <c r="H34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H34),2)</f>
-        <v>3.08</v>
+        <v>2.56</v>
       </c>
       <c r="I34" s="5">
         <v>2</v>
@@ -23872,7 +23882,7 @@
       </c>
       <c r="F35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F35),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G35),2)</f>
@@ -23880,7 +23890,7 @@
       </c>
       <c r="H35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H35),2)</f>
-        <v>4.47</v>
+        <v>3.6</v>
       </c>
       <c r="I35" s="5">
         <v>2</v>
@@ -23927,7 +23937,7 @@
       </c>
       <c r="F36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F36),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G36),2)</f>
@@ -23935,7 +23945,7 @@
       </c>
       <c r="H36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H36),2)</f>
-        <v>6.42</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="I36" s="5">
         <v>2</v>
@@ -23982,7 +23992,7 @@
       </c>
       <c r="F37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F37),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G37),2)</f>
@@ -23990,7 +24000,7 @@
       </c>
       <c r="H37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H37),2)</f>
-        <v>3.19</v>
+        <v>2.65</v>
       </c>
       <c r="I37" s="5">
         <v>2</v>
@@ -24037,7 +24047,7 @@
       </c>
       <c r="F38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F38),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G38),2)</f>
@@ -24045,7 +24055,7 @@
       </c>
       <c r="H38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H38),2)</f>
-        <v>4.58</v>
+        <v>3.69</v>
       </c>
       <c r="I38" s="5">
         <v>2</v>
@@ -24092,7 +24102,7 @@
       </c>
       <c r="F39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F39),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G39),2)</f>
@@ -24100,7 +24110,7 @@
       </c>
       <c r="H39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H39),2)</f>
-        <v>6.67</v>
+        <v>5.25</v>
       </c>
       <c r="I39" s="5">
         <v>2</v>
@@ -24168,7 +24178,7 @@
       </c>
       <c r="F41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F41),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G41),2)</f>
@@ -24176,7 +24186,7 @@
       </c>
       <c r="H41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H41),2)</f>
-        <v>-1.71</v>
+        <v>-1.03</v>
       </c>
       <c r="I41" s="5">
         <v>22</v>
@@ -24223,7 +24233,7 @@
       </c>
       <c r="F42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F42),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G42),2)</f>
@@ -24231,7 +24241,7 @@
       </c>
       <c r="H42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H42),2)</f>
-        <v>-1.33</v>
+        <v>-0.75</v>
       </c>
       <c r="I42" s="5">
         <v>22</v>
@@ -24299,7 +24309,7 @@
       </c>
       <c r="F44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F44),2)</f>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G44),2)</f>
@@ -24307,7 +24317,7 @@
       </c>
       <c r="H44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H44),2)</f>
-        <v>-2.58</v>
+        <v>-3.03</v>
       </c>
       <c r="I44" s="5">
         <v>2</v>
@@ -24354,7 +24364,7 @@
       </c>
       <c r="F45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F45),2)</f>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G45),2)</f>
@@ -24362,7 +24372,7 @@
       </c>
       <c r="H45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H45),2)</f>
-        <v>-2.58</v>
+        <v>-3.03</v>
       </c>
       <c r="I45" s="5">
         <v>2</v>
@@ -24409,7 +24419,7 @@
       </c>
       <c r="F46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F46),2)</f>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G46),2)</f>
@@ -24417,7 +24427,7 @@
       </c>
       <c r="H46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H46),2)</f>
-        <v>-2.58</v>
+        <v>-3.03</v>
       </c>
       <c r="I46" s="5">
         <v>2</v>
@@ -24464,7 +24474,7 @@
       </c>
       <c r="F47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F47),2)</f>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="G47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G47),2)</f>
@@ -24472,7 +24482,7 @@
       </c>
       <c r="H47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H47),2)</f>
-        <v>-1.75</v>
+        <v>-1.06</v>
       </c>
       <c r="I47" s="5">
         <v>2</v>
@@ -24519,7 +24529,7 @@
       </c>
       <c r="F48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F48),2)</f>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="G48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G48),2)</f>
@@ -24527,7 +24537,7 @@
       </c>
       <c r="H48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H48),2)</f>
-        <v>-1.75</v>
+        <v>-1.06</v>
       </c>
       <c r="I48" s="5">
         <v>2</v>
@@ -24574,7 +24584,7 @@
       </c>
       <c r="F49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F49),2)</f>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="G49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G49),2)</f>
@@ -24582,7 +24592,7 @@
       </c>
       <c r="H49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H49),2)</f>
-        <v>-1.75</v>
+        <v>-1.06</v>
       </c>
       <c r="I49" s="5">
         <v>2</v>
@@ -24629,7 +24639,7 @@
       </c>
       <c r="F50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F50),2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G50),2)</f>
@@ -24637,7 +24647,7 @@
       </c>
       <c r="H50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H50),2)</f>
-        <v>-1.25</v>
+        <v>-0.69</v>
       </c>
       <c r="I50" s="5">
         <v>2</v>
@@ -24684,7 +24694,7 @@
       </c>
       <c r="F51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F51),2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G51),2)</f>
@@ -24692,7 +24702,7 @@
       </c>
       <c r="H51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H51),2)</f>
-        <v>-1.25</v>
+        <v>-0.69</v>
       </c>
       <c r="I51" s="5">
         <v>2</v>
@@ -24739,7 +24749,7 @@
       </c>
       <c r="F52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F52),2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G52),2)</f>
@@ -24747,7 +24757,7 @@
       </c>
       <c r="H52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H52),2)</f>
-        <v>-1.25</v>
+        <v>-0.69</v>
       </c>
       <c r="I52" s="5">
         <v>2</v>
@@ -24815,7 +24825,7 @@
       </c>
       <c r="F54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F54),2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G54),2)</f>
@@ -24823,7 +24833,7 @@
       </c>
       <c r="H54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H54),2)</f>
-        <v>-1.44</v>
+        <v>-0.83</v>
       </c>
       <c r="I54" s="5">
         <v>2</v>
@@ -24843,7 +24853,7 @@
       </c>
       <c r="N54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$W$115,16,0),weapon_components!N54),2)</f>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="6"/>
@@ -24870,7 +24880,7 @@
       </c>
       <c r="F55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F55),2)</f>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G55),2)</f>
@@ -24878,7 +24888,7 @@
       </c>
       <c r="H55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H55),2)</f>
-        <v>-1.1299999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="I55" s="5">
         <v>2</v>
@@ -24898,7 +24908,7 @@
       </c>
       <c r="N55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$W$115,16,0),weapon_components!N55),2)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="6"/>
@@ -25284,7 +25294,7 @@
       </c>
       <c r="H63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H63),2)</f>
-        <v>-2.58</v>
+        <v>-3.03</v>
       </c>
       <c r="I63" s="5">
         <v>2</v>
@@ -25339,7 +25349,7 @@
       </c>
       <c r="H64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H64),2)</f>
-        <v>-1.82</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="I64" s="5">
         <v>2</v>
@@ -25394,7 +25404,7 @@
       </c>
       <c r="H65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H65),2)</f>
-        <v>-0.74</v>
+        <v>-0.96</v>
       </c>
       <c r="I65" s="5">
         <v>2</v>
@@ -25449,7 +25459,7 @@
       </c>
       <c r="H66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H66),2)</f>
-        <v>-1.75</v>
+        <v>-1.06</v>
       </c>
       <c r="I66" s="5">
         <v>2</v>
@@ -25504,7 +25514,7 @@
       </c>
       <c r="H67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H67),2)</f>
-        <v>-1.24</v>
+        <v>-0.68</v>
       </c>
       <c r="I67" s="5">
         <v>2</v>
@@ -25559,7 +25569,7 @@
       </c>
       <c r="H68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H68),2)</f>
-        <v>-0.5</v>
+        <v>-0.13</v>
       </c>
       <c r="I68" s="5">
         <v>2</v>
@@ -25614,7 +25624,7 @@
       </c>
       <c r="H69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H69),2)</f>
-        <v>-1.25</v>
+        <v>-0.69</v>
       </c>
       <c r="I69" s="5">
         <v>2</v>
@@ -25669,7 +25679,7 @@
       </c>
       <c r="H70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H70),2)</f>
-        <v>-0.88</v>
+        <v>-0.41</v>
       </c>
       <c r="I70" s="5">
         <v>2</v>
@@ -25724,7 +25734,7 @@
       </c>
       <c r="H71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H71),2)</f>
-        <v>-0.36</v>
+        <v>-0.02</v>
       </c>
       <c r="I71" s="5">
         <v>2</v>
@@ -25970,36 +25980,36 @@
       </c>
       <c r="D77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D77),2)</f>
-        <v>489.8</v>
+        <v>1836.73</v>
       </c>
       <c r="E77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E77),2)</f>
-        <v>816.33</v>
+        <v>3061.22</v>
       </c>
       <c r="F77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F77),2)</f>
-        <v>1</v>
+        <v>0.09</v>
       </c>
       <c r="G77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G77),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H77),2)</f>
-        <v>0</v>
+        <v>-1.38</v>
       </c>
       <c r="I77" s="5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="J77" s="5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K77" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="L77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Z$115,15,0),weapon_components!L77),1)</f>
-        <v>97.9</v>
+        <v>114.2</v>
       </c>
       <c r="M77" s="2">
         <v>0.7</v>
@@ -26025,36 +26035,36 @@
       </c>
       <c r="D78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D78),2)</f>
-        <v>685.71</v>
+        <v>2742.86</v>
       </c>
       <c r="E78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E78),2)</f>
-        <v>1142.8599999999999</v>
+        <v>4571.43</v>
       </c>
       <c r="F78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F78),2)</f>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G78),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H78),2)</f>
-        <v>0</v>
+        <v>-0.94</v>
       </c>
       <c r="I78" s="5">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="J78" s="5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K78" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="L78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Z$115,15,0),weapon_components!L78),1)</f>
-        <v>106.6</v>
+        <v>124.3</v>
       </c>
       <c r="M78" s="2">
         <v>0.7</v>
@@ -26117,7 +26127,7 @@
       </c>
       <c r="H80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H80),2)</f>
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="I80" s="5">
         <v>2</v>
@@ -26172,7 +26182,7 @@
       </c>
       <c r="H81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H81),2)</f>
-        <v>3.88</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I81" s="5">
         <v>2</v>
@@ -26227,7 +26237,7 @@
       </c>
       <c r="H82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H82),2)</f>
-        <v>10.33</v>
+        <v>11.5</v>
       </c>
       <c r="I82" s="5">
         <v>2</v>
@@ -26282,7 +26292,7 @@
       </c>
       <c r="H83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H83),2)</f>
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
       <c r="I83" s="5">
         <v>2</v>
@@ -26337,7 +26347,7 @@
       </c>
       <c r="H84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H84),2)</f>
-        <v>2.63</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I84" s="5">
         <v>2</v>
@@ -26392,7 +26402,7 @@
       </c>
       <c r="H85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H85),2)</f>
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="I85" s="5">
         <v>2</v>
@@ -26447,7 +26457,7 @@
       </c>
       <c r="H86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H86),2)</f>
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="I86" s="5">
         <v>2</v>
@@ -26502,7 +26512,7 @@
       </c>
       <c r="H87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H87),2)</f>
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="I87" s="5">
         <v>2</v>
@@ -26557,7 +26567,7 @@
       </c>
       <c r="H88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H88),2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I88" s="5">
         <v>2</v>
@@ -27090,7 +27100,7 @@
       </c>
       <c r="H99" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H99),2)</f>
-        <v>-1.07</v>
+        <v>-1.33</v>
       </c>
       <c r="I99" s="5">
         <v>20</v>
@@ -27145,7 +27155,7 @@
       </c>
       <c r="H100" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H100),2)</f>
-        <v>-1.53</v>
+        <v>-1.85</v>
       </c>
       <c r="I100" s="5">
         <v>20</v>
@@ -27200,7 +27210,7 @@
       </c>
       <c r="H101" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H101),2)</f>
-        <v>-1.92</v>
+        <v>-2.29</v>
       </c>
       <c r="I101" s="5">
         <v>20</v>
@@ -27255,7 +27265,7 @@
       </c>
       <c r="H102" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H102),2)</f>
-        <v>-0.9</v>
+        <v>-0.42</v>
       </c>
       <c r="I102" s="5">
         <v>20</v>
@@ -27310,7 +27320,7 @@
       </c>
       <c r="H103" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H103),2)</f>
-        <v>-1.19</v>
+        <v>-0.64</v>
       </c>
       <c r="I103" s="5">
         <v>20</v>
@@ -27365,7 +27375,7 @@
       </c>
       <c r="H104" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H104),2)</f>
-        <v>-1.44</v>
+        <v>-0.83</v>
       </c>
       <c r="I104" s="5">
         <v>20</v>
@@ -27420,7 +27430,7 @@
       </c>
       <c r="H105" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H105),2)</f>
-        <v>-0.75</v>
+        <v>-0.31</v>
       </c>
       <c r="I105" s="5">
         <v>20</v>
@@ -27475,7 +27485,7 @@
       </c>
       <c r="H106" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H106),2)</f>
-        <v>-0.96</v>
+        <v>-0.47</v>
       </c>
       <c r="I106" s="5">
         <v>20</v>
@@ -27530,7 +27540,7 @@
       </c>
       <c r="H107" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H107),2)</f>
-        <v>-1.1299999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="I107" s="5">
         <v>20</v>
@@ -27788,11 +27798,11 @@
       </c>
       <c r="G113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G113),2)</f>
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="H113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H113),2)</f>
-        <v>-0.33</v>
+        <v>-0.5</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -27840,11 +27850,11 @@
       </c>
       <c r="G114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G114),2)</f>
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="H114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H114),2)</f>
-        <v>-0.85</v>
+        <v>-1.08</v>
       </c>
       <c r="I114">
         <v>2</v>
@@ -27892,11 +27902,11 @@
       </c>
       <c r="G115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G115),2)</f>
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="H115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H115),2)</f>
-        <v>-1.29</v>
+        <v>-1.57</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -27944,11 +27954,11 @@
       </c>
       <c r="G116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G116),2)</f>
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="H116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H116),2)</f>
-        <v>-0.38</v>
+        <v>-0.04</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -27996,11 +28006,11 @@
       </c>
       <c r="G117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G117),2)</f>
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="H117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H117),2)</f>
-        <v>-0.71</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -28048,11 +28058,11 @@
       </c>
       <c r="G118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G118),2)</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H118),2)</f>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -28100,11 +28110,11 @@
       </c>
       <c r="G119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G119),2)</f>
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="H119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H119),2)</f>
-        <v>-0.37</v>
+        <v>-0.03</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -28152,11 +28162,11 @@
       </c>
       <c r="G120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G120),2)</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H120),2)</f>
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="I120">
         <v>2</v>
@@ -28204,11 +28214,11 @@
       </c>
       <c r="G121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G121),2)</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="H121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H121),2)</f>
-        <v>-0.8</v>
+        <v>-0.35</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -28273,7 +28283,7 @@
       </c>
       <c r="H123" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H123),2)</f>
-        <v>-1.19</v>
+        <v>-0.64</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -28325,7 +28335,7 @@
       </c>
       <c r="H124" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H124),2)</f>
-        <v>-0.96</v>
+        <v>-0.47</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -30735,8 +30745,7 @@
         <v>5</v>
       </c>
       <c r="C176" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C176),2)</f>
-        <v>-5</v>
+        <v>-6.66</v>
       </c>
       <c r="D176" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D176),2)</f>
@@ -30787,8 +30796,7 @@
         <v>7.5</v>
       </c>
       <c r="C177" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C177),2)</f>
-        <v>-7.5</v>
+        <v>-26.66</v>
       </c>
       <c r="D177" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D177),2)</f>
@@ -30839,8 +30847,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C178),2)</f>
-        <v>-10</v>
+        <v>-106.66</v>
       </c>
       <c r="D178" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D178),2)</f>

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="277">
   <si>
     <t># Lines starting with ”#” will be treated as comments.</t>
   </si>
@@ -819,37 +819,40 @@
     <t>Evasion Mult</t>
   </si>
   <si>
-    <t>Armor Add</t>
-  </si>
-  <si>
     <t>Per Slot</t>
   </si>
   <si>
-    <t>True Max Evasion</t>
-  </si>
-  <si>
-    <t>Normal Max Armor</t>
-  </si>
-  <si>
     <t>Total Evasion</t>
-  </si>
-  <si>
-    <t>Total Armor Needed</t>
-  </si>
-  <si>
-    <t>Max Possible Armor</t>
-  </si>
-  <si>
-    <t>Max Possible Armor %</t>
-  </si>
-  <si>
-    <t>Normal Shield HP %</t>
   </si>
   <si>
     <t>HP</t>
   </si>
   <si>
     <t>Tier Range Effect</t>
+  </si>
+  <si>
+    <t>Armor Per Tier</t>
+  </si>
+  <si>
+    <t>True Max Evasion/ Tier</t>
+  </si>
+  <si>
+    <t>Goal Max Armor%/Tier</t>
+  </si>
+  <si>
+    <t>Armor Mult</t>
+  </si>
+  <si>
+    <t>Armor Points Needed for Max</t>
+  </si>
+  <si>
+    <t>Points Needed for  3/4 Max</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Possible 3/4 Armor Points</t>
   </si>
 </sst>
 </file>
@@ -937,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -965,6 +968,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,6 +976,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2028,61 +2033,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.937194193548387</c:v>
+                  <c:v>6.6033009620253154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6430841290322578</c:v>
+                  <c:v>7.0936135696202536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3489740645161294</c:v>
+                  <c:v>7.5839261772151909</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.0742387848101274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5645513924050629</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9.0548640000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.760753935483871</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.466643870967742</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.172533806451613</c:v>
+                  <c:v>9.5451766075949376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.878423741935483</c:v>
+                  <c:v>10.035489215189873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.584313677419354</c:v>
+                  <c:v>10.525801822784809</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.290203612903225</c:v>
+                  <c:v>11.016114430379744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.996093548387098</c:v>
+                  <c:v>11.506427037974682</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.701983483870968</c:v>
+                  <c:v>11.996739645569621</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.407873419354839</c:v>
+                  <c:v>12.487052253164558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.11376335483871</c:v>
+                  <c:v>12.977364860759495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.819653290322581</c:v>
+                  <c:v>13.467677468354431</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.525543225806455</c:v>
+                  <c:v>13.957990075949366</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.231433161290326</c:v>
+                  <c:v>14.448302683544306</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.937323096774197</c:v>
+                  <c:v>14.938615291139245</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.643213032258068</c:v>
+                  <c:v>15.42892789873418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,61 +2199,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.5223024193548387</c:v>
+                  <c:v>6.074272531645569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6083416129032253</c:v>
+                  <c:v>6.8155020253164551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6943808064516119</c:v>
+                  <c:v>7.5567315189873421</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.2979610126582273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0391905063291134</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9.7804199999999994</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.866459193548385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.952498387096771</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.038537580645157</c:v>
+                  <c:v>10.521649493670884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.124576774193544</c:v>
+                  <c:v>11.26287898734177</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.21061596774193</c:v>
+                  <c:v>12.004108481012656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.296655161290317</c:v>
+                  <c:v>12.745337974683542</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.382694354838705</c:v>
+                  <c:v>13.486567468354426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.468733548387092</c:v>
+                  <c:v>14.227796962025314</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.55477274193548</c:v>
+                  <c:v>14.969026455696202</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.640811935483868</c:v>
+                  <c:v>15.710255949367086</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.726851129032255</c:v>
+                  <c:v>16.451485443037971</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.812890322580646</c:v>
+                  <c:v>17.19271493670886</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.898929516129026</c:v>
+                  <c:v>17.933944430379746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.984968709677418</c:v>
+                  <c:v>18.675173924050632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.071007903225805</c:v>
+                  <c:v>19.416403417721519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,61 +2365,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.1097506451612897</c:v>
+                  <c:v>5.5482671898734175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5736710967741931</c:v>
+                  <c:v>6.538916151898734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0375915483870966</c:v>
+                  <c:v>7.5295651139240514</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8.520214075949367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5108630379746817</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10.501512</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.965432451612902</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.429352903225805</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.893273354838707</c:v>
+                  <c:v>11.492160962025316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.357193806451608</c:v>
+                  <c:v>12.482809924050633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.821114258064512</c:v>
+                  <c:v>13.473458886075948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.285034709677419</c:v>
+                  <c:v>14.464107848101262</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.748955161290318</c:v>
+                  <c:v>15.454756810126581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.212875612903222</c:v>
+                  <c:v>16.445405772151897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.676796064516125</c:v>
+                  <c:v>17.436054734177215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.140716516129032</c:v>
+                  <c:v>18.426703696202534</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.604636967741936</c:v>
+                  <c:v>19.417352658227852</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.068557419354843</c:v>
+                  <c:v>20.408001620253167</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.532477870967746</c:v>
+                  <c:v>21.398650582278485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.996398322580649</c:v>
+                  <c:v>22.389299544303803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.460318774193553</c:v>
+                  <c:v>23.379948506329118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,61 +2531,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.6569815000000006</c:v>
+                  <c:v>8.6130156581196591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2842990000000007</c:v>
+                  <c:v>9.4194135384615389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9116165000000009</c:v>
+                  <c:v>10.225811418803419</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.538934000000001</c:v>
+                  <c:v>11.032209299145299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.166251500000001</c:v>
+                  <c:v>11.83860717948718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.793569</c:v>
+                  <c:v>12.645005059829058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.4208865</c:v>
+                  <c:v>13.451402940170938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.048204</c:v>
+                  <c:v>14.25780082051282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.6755215</c:v>
+                  <c:v>15.064198700854698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.302839000000001</c:v>
+                  <c:v>15.870596581196578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.930156500000001</c:v>
+                  <c:v>16.67699446153846</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.557474000000001</c:v>
+                  <c:v>17.483392341880339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.184791499999999</c:v>
+                  <c:v>18.289790222222219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.812109</c:v>
+                  <c:v>19.096188102564103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.4394265</c:v>
+                  <c:v>19.902585982905983</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.066744</c:v>
+                  <c:v>20.708983863247859</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.6940615</c:v>
+                  <c:v>21.515381743589746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.321379000000004</c:v>
+                  <c:v>22.321779623931622</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.948696500000004</c:v>
+                  <c:v>23.128177504273506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,61 +2697,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.7597650000000007</c:v>
+                  <c:v>7.8046933333333337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.653747142857144</c:v>
+                  <c:v>8.9343200000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5477292857142881</c:v>
+                  <c:v>10.063946666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.441711428571431</c:v>
+                  <c:v>11.193573333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.335693571428573</c:v>
+                  <c:v>12.3232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.229675714285715</c:v>
+                  <c:v>13.452826666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.123657857142858</c:v>
+                  <c:v>14.582453333333332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.017639999999998</c:v>
+                  <c:v>15.71208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.911622142857142</c:v>
+                  <c:v>16.841706666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.805604285714287</c:v>
+                  <c:v>17.97133333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.699586428571429</c:v>
+                  <c:v>19.100959999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.59356857142857</c:v>
+                  <c:v>20.230586666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.487550714285714</c:v>
+                  <c:v>21.360213333333331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.381532857142858</c:v>
+                  <c:v>22.489839999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.275515000000002</c:v>
+                  <c:v>23.619466666666668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.169497142857146</c:v>
+                  <c:v>24.749093333333331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.063479285714287</c:v>
+                  <c:v>25.878720000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.957461428571431</c:v>
+                  <c:v>27.008346666666672</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.851443571428575</c:v>
+                  <c:v>28.137973333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,61 +2863,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.8668325000000001</c:v>
+                  <c:v>7.0002208547008546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0261678571428572</c:v>
+                  <c:v>8.4514861538461528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1855032142857151</c:v>
+                  <c:v>9.9027514529914527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.344838571428571</c:v>
+                  <c:v>11.354016752136751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.504173928571429</c:v>
+                  <c:v>12.805282051282051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.663509285714285</c:v>
+                  <c:v>14.256547350427349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.822844642857143</c:v>
+                  <c:v>15.707812649572649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.98218</c:v>
+                  <c:v>17.159077948717947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.141515357142858</c:v>
+                  <c:v>18.610343247863245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.300850714285712</c:v>
+                  <c:v>20.061608547008543</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.46018607142857</c:v>
+                  <c:v>21.512873846153841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.619521428571428</c:v>
+                  <c:v>22.964139145299143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.778856785714286</c:v>
+                  <c:v>24.415404444444441</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.938192142857147</c:v>
+                  <c:v>25.866669743589739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.097527500000002</c:v>
+                  <c:v>27.317935042735044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.256862857142856</c:v>
+                  <c:v>28.769200341880342</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.416198214285721</c:v>
+                  <c:v>30.220465641025644</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.575533571428576</c:v>
+                  <c:v>31.671730940170942</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.734868928571441</c:v>
+                  <c:v>33.122996239316244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3030,61 +3035,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10.413639327999999</c:v>
+                  <c:v>10.356843733333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.205436735999999</c:v>
+                  <c:v>11.461916389743591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.997234143999998</c:v>
+                  <c:v>12.566989046153845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.789031551999999</c:v>
+                  <c:v>13.672061702564102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.580828959999998</c:v>
+                  <c:v>14.777134358974356</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.372626367999999</c:v>
+                  <c:v>15.882207015384614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.164423775999998</c:v>
+                  <c:v>16.98727967179487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.956221183999999</c:v>
+                  <c:v>18.092352328205124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.748018591999998</c:v>
+                  <c:v>19.197424984615377</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.539815999999998</c:v>
+                  <c:v>20.302497641025635</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.331613407999996</c:v>
+                  <c:v>21.407570297435893</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.123410815999996</c:v>
+                  <c:v>22.51264295384615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.915208223999993</c:v>
+                  <c:v>23.617715610256404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.707005631999998</c:v>
+                  <c:v>24.722788266666662</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.498803039999999</c:v>
+                  <c:v>25.827860923076919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.290600447999996</c:v>
+                  <c:v>26.932933579487177</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.082397856</c:v>
+                  <c:v>28.038006235897438</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.874195264000001</c:v>
+                  <c:v>29.143078892307692</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.665992671999998</c:v>
+                  <c:v>30.248151548717949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3202,61 +3207,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>9.0763067999999993</c:v>
+                  <c:v>9.1679866666666676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.151461599999999</c:v>
+                  <c:v>10.642557948717949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.226616400000001</c:v>
+                  <c:v>12.117129230769232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.301771199999999</c:v>
+                  <c:v>13.591700512820513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.376925999999999</c:v>
+                  <c:v>15.066271794871794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.452080799999997</c:v>
+                  <c:v>16.540843076923075</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.527235599999997</c:v>
+                  <c:v>18.015414358974354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.602390400000001</c:v>
+                  <c:v>19.489985641025637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.677545199999997</c:v>
+                  <c:v>20.964556923076916</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.752699999999997</c:v>
+                  <c:v>22.439128205128203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.827854799999997</c:v>
+                  <c:v>23.913699487179482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.903009599999997</c:v>
+                  <c:v>25.388270769230765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.978164400000001</c:v>
+                  <c:v>26.862842051282044</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.053319200000001</c:v>
+                  <c:v>28.33741333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.128474000000001</c:v>
+                  <c:v>29.811984615384613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.203628800000001</c:v>
+                  <c:v>31.286555897435896</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.278783600000004</c:v>
+                  <c:v>32.761127179487175</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.353938400000004</c:v>
+                  <c:v>34.235698461538455</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.429093200000004</c:v>
+                  <c:v>35.710269743589741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,61 +3379,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.7445793280000004</c:v>
+                  <c:v>7.9841024000000012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1018767359999995</c:v>
+                  <c:v>9.8265875692307709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.459174144</c:v>
+                  <c:v>11.669072738461541</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.816471551999999</c:v>
+                  <c:v>13.51155790769231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.173768959999999</c:v>
+                  <c:v>15.354043076923078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.531066368000001</c:v>
+                  <c:v>17.196528246153846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.888363776</c:v>
+                  <c:v>19.039013415384616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.245661183999999</c:v>
+                  <c:v>20.881498584615386</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.602958592</c:v>
+                  <c:v>22.723983753846156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.960255999999998</c:v>
+                  <c:v>24.566468923076922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.317553408000002</c:v>
+                  <c:v>26.408954092307695</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.674850815999999</c:v>
+                  <c:v>28.251439261538462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.032148224000004</c:v>
+                  <c:v>30.093924430769235</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.389445632000005</c:v>
+                  <c:v>31.936409600000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.746743040000009</c:v>
+                  <c:v>33.778894769230781</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.104040448000006</c:v>
+                  <c:v>35.621379938461544</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.461337856000007</c:v>
+                  <c:v>37.463865107692321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.818635264000012</c:v>
+                  <c:v>39.306350276923091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.175932672000009</c:v>
+                  <c:v>41.148835446153861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,61 +3551,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.8709162499999987</c:v>
+                  <c:v>7.0043839316239307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0309410714285701</c:v>
+                  <c:v>8.4565123076923072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1909658928571414</c:v>
+                  <c:v>9.9086406837606837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.350990714285713</c:v>
+                  <c:v>11.360769059829058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.511015535714284</c:v>
+                  <c:v>12.812897435897433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.671040357142855</c:v>
+                  <c:v>14.26502581196581</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.831065178571425</c:v>
+                  <c:v>15.717154188034185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.991089999999996</c:v>
+                  <c:v>17.169282564102559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.151114821428568</c:v>
+                  <c:v>18.621410940170936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.311139642857139</c:v>
+                  <c:v>20.073539316239312</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.47116446428571</c:v>
+                  <c:v>21.525667692307689</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.631189285714285</c:v>
+                  <c:v>22.977796068376062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.791214107142856</c:v>
+                  <c:v>24.429924444444445</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.951238928571428</c:v>
+                  <c:v>25.882052820512818</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.111263750000006</c:v>
+                  <c:v>27.334181196581195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.271288571428578</c:v>
+                  <c:v>28.786309572649575</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.431313392857149</c:v>
+                  <c:v>30.238437948717952</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.59133821428572</c:v>
+                  <c:v>31.690566324786328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.751363035714292</c:v>
+                  <c:v>33.142694700854712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,61 +3723,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>7.7522896640000001</c:v>
+                  <c:v>7.9920512000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1109383679999993</c:v>
+                  <c:v>9.8363707076923088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.469587071999999</c:v>
+                  <c:v>11.680690215384617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.828235776</c:v>
+                  <c:v>13.525009723076924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.186884479999998</c:v>
+                  <c:v>15.369329230769232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.545533184</c:v>
+                  <c:v>17.213648738461536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.904181888</c:v>
+                  <c:v>19.057968246153845</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.262830592</c:v>
+                  <c:v>20.902287753846153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.621479296</c:v>
+                  <c:v>22.746607261538461</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.980127999999997</c:v>
+                  <c:v>24.590926769230766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.338776704000001</c:v>
+                  <c:v>26.435246276923078</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.697425407999997</c:v>
+                  <c:v>28.279565784615382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.056074112000001</c:v>
+                  <c:v>30.123885292307694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.414722816000001</c:v>
+                  <c:v>31.968204800000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.773371520000008</c:v>
+                  <c:v>33.812524307692314</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28.132020224000005</c:v>
+                  <c:v>35.656843815384619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.490668928000005</c:v>
+                  <c:v>37.501163323076931</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.849317632000009</c:v>
+                  <c:v>39.345482830769235</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.207966336000013</c:v>
+                  <c:v>41.189802338461554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,6 +4000,644 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% Armor per Tech Tier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$J$11:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0697674418604654E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8212290502793311E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11290322580645162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1450777202072539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22047244094488189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5088-4387-BD20-FAED52639891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$K$11:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.722222222222221E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17721518987341772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24418604651162792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30107526881720431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41791044776119401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5088-4387-BD20-FAED52639891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$L$11:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.18103448275862061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30656934306569333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39873417721518978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46927374301675967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59574468085106369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5088-4387-BD20-FAED52639891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ship Design Balancing'!$M$11:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31818181818181812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48275862068965514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65116279069767435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75675675675675669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5088-4387-BD20-FAED52639891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="388370888"/>
+        <c:axId val="388372200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="388370888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388372200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="388372200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388370888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4036,6 +4679,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5107,6 +5790,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5164,6 +6363,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5471,7 +6705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
@@ -12262,8 +13496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP121"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12329,22 +13563,21 @@
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="M2" s="2">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" s="2">
         <f>M2/2</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P2" s="2">
-        <f>M2/2</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q2">
         <f>P2*2</f>
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -12383,29 +13616,29 @@
         <v>0.1</v>
       </c>
       <c r="I3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J3">
         <f>0.12</f>
         <v>0.12</v>
       </c>
       <c r="M3" s="2">
-        <v>0.3</v>
+        <f>M2+0.14</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O6" si="0">M3/2</f>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P6" si="1">M3/2</f>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q6" si="2">P3*2</f>
-        <v>0.3</v>
+        <f t="shared" ref="Q3:Q6" si="1">P3*2</f>
+        <v>0.36</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -12421,23 +13654,23 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:AC3" si="3">(Y$2*$W3)-$W3</f>
+        <f t="shared" ref="Y3:AC3" si="2">(Y$2*$W3)-$W3</f>
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -12452,22 +13685,23 @@
         <f>-F4*F$6</f>
         <v>-8.0000000000000016E-2</v>
       </c>
-      <c r="M4" s="2">
-        <v>0.44999999999999996</v>
+      <c r="M4" s="27">
+        <f t="shared" ref="M4:M6" si="3">M3+0.14</f>
+        <v>0.42000000000000004</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>0.22499999999999998</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="P4" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -12511,22 +13745,23 @@
         <f>-F5*F$6</f>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.6</v>
+      <c r="M5" s="27">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P5" s="2">
-        <v>0.4</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.65</v>
       </c>
       <c r="T5">
         <v>7.5</v>
@@ -12566,22 +13801,23 @@
       <c r="F6" s="10">
         <v>0.1</v>
       </c>
-      <c r="M6" s="2">
-        <v>0.75</v>
+      <c r="M6" s="27">
+        <f t="shared" si="3"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="P6" s="2">
         <v>0.375</v>
       </c>
-      <c r="P6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="Q6" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="T6">
         <v>10</v>
@@ -12656,11 +13892,11 @@
       <c r="F8" s="12">
         <v>0.2</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8">
@@ -12818,11 +14054,11 @@
       </c>
       <c r="K11" s="10">
         <f t="shared" ref="K11:K18" si="6">1-((1-(I11/G11))/INDEX($P$2:$P$6,C11))</f>
-        <v>-1.6666666666666661</v>
+        <v>-3.9999999999999991</v>
       </c>
       <c r="L11" s="20">
         <f>(INDEX($Q$2:$Q$6,C11)/((1/INDEX($F$4:$F$6,J$9))-1))</f>
-        <v>1.6666666666666666E-2</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="M11" s="10">
         <v>0</v>
@@ -12895,11 +14131,11 @@
       </c>
       <c r="K12" s="10">
         <f t="shared" si="6"/>
-        <v>-3.6060606060606082</v>
+        <v>-7.6363636363636385</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" ref="L12:L24" si="12">(INDEX($Q$2:$Q$6,C12)/((1/INDEX($F$4:$F$6,J$9))-1))</f>
-        <v>1.6666666666666666E-2</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="M12" s="10">
         <v>0</v>
@@ -12972,11 +14208,11 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="6"/>
-        <v>-5.2222222222222223</v>
+        <v>-10.666666666666666</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="12"/>
-        <v>1.6666666666666666E-2</v>
+        <v>8.8888888888888889E-3</v>
       </c>
       <c r="M13" s="10">
         <v>0</v>
@@ -13049,11 +14285,11 @@
       </c>
       <c r="K14" s="10">
         <f t="shared" si="6"/>
-        <v>-1.3030303030303041</v>
+        <v>-0.91919191919192</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="12"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
@@ -13126,11 +14362,11 @@
       </c>
       <c r="K15" s="10">
         <f t="shared" si="6"/>
-        <v>-2.1111111111111107</v>
+        <v>-1.5925925925925921</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="12"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M15" s="10">
         <v>0</v>
@@ -13203,11 +14439,11 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" si="6"/>
-        <v>-2.7948717948717947</v>
+        <v>-2.1623931623931623</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="12"/>
-        <v>3.3333333333333333E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M16" s="10">
         <v>0</v>
@@ -13280,11 +14516,11 @@
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>-1.333333333333333</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="12"/>
-        <v>4.4444444444444446E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M17" s="10">
         <v>0</v>
@@ -13357,11 +14593,11 @@
       </c>
       <c r="K18" s="10">
         <f t="shared" si="6"/>
-        <v>-1.8461538461538458</v>
+        <v>-0.89743589743589736</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="12"/>
-        <v>4.4444444444444446E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M18" s="10">
         <v>0</v>
@@ -13434,11 +14670,11 @@
       </c>
       <c r="K19" s="10">
         <f t="shared" ref="K19:K23" si="16">1-((1-(I19/G19))/INDEX($P$2:$P$6,C19))</f>
-        <v>-2.2857142857142856</v>
+        <v>-1.1904761904761907</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="12"/>
-        <v>4.4444444444444446E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M19" s="10">
         <v>0</v>
@@ -13511,11 +14747,11 @@
       </c>
       <c r="K20" s="10">
         <f t="shared" si="16"/>
-        <v>-0.42307692307692291</v>
+        <v>-0.75147928994082824</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="12"/>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M20" s="10">
         <v>0</v>
@@ -13590,11 +14826,11 @@
       </c>
       <c r="K21" s="10">
         <f t="shared" si="16"/>
-        <v>-0.64285714285714257</v>
+        <v>-1.0219780219780215</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="12"/>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M21" s="10">
         <v>0</v>
@@ -13667,11 +14903,11 @@
       </c>
       <c r="K22" s="10">
         <f t="shared" si="16"/>
-        <v>-0.83333333333333348</v>
+        <v>-1.2564102564102564</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="12"/>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M22" s="10">
         <v>0</v>
@@ -13744,11 +14980,11 @@
       </c>
       <c r="K23" s="10">
         <f t="shared" si="16"/>
-        <v>-0.31428571428571406</v>
+        <v>-0.75238095238095215</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="12"/>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M23" s="10">
         <v>0</v>
@@ -13821,11 +15057,11 @@
       </c>
       <c r="K24" s="10">
         <f>1-((1-(I24/G24))/INDEX($P$2:$P$6,C24))</f>
-        <v>-0.46666666666666679</v>
+        <v>-0.95555555555555571</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="12"/>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M24" s="10">
         <v>0</v>
@@ -13898,11 +15134,11 @@
       </c>
       <c r="K25" s="10">
         <f>1-((1-(I25/G25))/INDEX($P$2:$P$6,C25))</f>
-        <v>-0.60000000000000009</v>
+        <v>-1.1333333333333333</v>
       </c>
       <c r="L25" s="10">
         <f>(INDEX($Q$2:$Q$6,C25)/((1/INDEX($F$4:$F$6,J$9))-1))</f>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M25" s="10">
         <v>0</v>
@@ -14087,7 +15323,7 @@
       </c>
       <c r="G27" s="2">
         <f>IF(G$26=1,H27,H27/(1-INDEX($O$2:$O$6,C27)))</f>
-        <v>11.421782857142855</v>
+        <v>11.10451111111111</v>
       </c>
       <c r="H27" s="2">
         <f>$F27*(INDEX($F$3:$F$5,H$26)+(($C27+($D27*$F$7))*INDEX($G$3:$G$5,H$26)))</f>
@@ -14103,26 +15339,26 @@
       </c>
       <c r="K27" s="10">
         <f>1-((1-(I27/G27))/INDEX($P$2:$P$6,C27))</f>
-        <v>5.0625000000000009</v>
+        <v>6.2307692307692308</v>
       </c>
       <c r="L27" s="10">
         <f>(INDEX($Q$2:$Q$6,C27)/((1/INDEX($F$4:$F$6,J$26))-1))</f>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M27" s="10">
         <v>0</v>
       </c>
       <c r="N27" s="2">
         <f>((AVERAGE(O27,P27)*R27)/Q27)/INDEX($R$1:$R$3,D27+2)</f>
-        <v>11.421782857142855</v>
+        <v>11.10451111111111</v>
       </c>
       <c r="O27" s="2">
         <f>0.75*(((G27*INDEX($R$1:$R$3,$D27+2))*Q27)/R27)</f>
-        <v>336.94259428571416</v>
+        <v>327.5830777777777</v>
       </c>
       <c r="P27" s="2">
         <f>1.25*(((G27*INDEX($R$1:$R$3,$D27+2))*Q27)/R27)</f>
-        <v>561.57099047619022</v>
+        <v>545.97179629629625</v>
       </c>
       <c r="Q27" s="2">
         <f>(AVERAGE(VLOOKUP(E27,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E27,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E27,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -14148,79 +15384,79 @@
       </c>
       <c r="X27">
         <f>$G30*(1-(X$26*(1-$K30)))</f>
-        <v>6.937194193548387</v>
+        <v>6.6033009620253154</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" ref="Y27:AP27" si="19">$G30*(1-(Y$26*(1-$K30)))</f>
-        <v>7.6430841290322578</v>
+        <v>7.0936135696202536</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="19"/>
-        <v>8.3489740645161294</v>
+        <v>7.5839261772151909</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="19"/>
-        <v>9.0548640000000002</v>
+        <v>8.0742387848101274</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="19"/>
-        <v>9.760753935483871</v>
+        <v>8.5645513924050629</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="19"/>
-        <v>10.466643870967742</v>
+        <v>9.0548640000000002</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="19"/>
-        <v>11.172533806451613</v>
+        <v>9.5451766075949376</v>
       </c>
       <c r="AE27" s="2">
         <f t="shared" si="19"/>
-        <v>11.878423741935483</v>
+        <v>10.035489215189873</v>
       </c>
       <c r="AF27" s="2">
         <f t="shared" si="19"/>
-        <v>12.584313677419354</v>
+        <v>10.525801822784809</v>
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="19"/>
-        <v>13.290203612903225</v>
+        <v>11.016114430379744</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" si="19"/>
-        <v>13.996093548387098</v>
+        <v>11.506427037974682</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="19"/>
-        <v>14.701983483870968</v>
+        <v>11.996739645569621</v>
       </c>
       <c r="AJ27" s="2">
         <f t="shared" si="19"/>
-        <v>15.407873419354839</v>
+        <v>12.487052253164558</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="19"/>
-        <v>16.11376335483871</v>
+        <v>12.977364860759495</v>
       </c>
       <c r="AL27" s="2">
         <f t="shared" si="19"/>
-        <v>16.819653290322581</v>
+        <v>13.467677468354431</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="19"/>
-        <v>17.525543225806455</v>
+        <v>13.957990075949366</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="19"/>
-        <v>18.231433161290326</v>
+        <v>14.448302683544306</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="19"/>
-        <v>18.937323096774197</v>
+        <v>14.938615291139245</v>
       </c>
       <c r="AP27" s="2">
         <f t="shared" si="19"/>
-        <v>19.643213032258068</v>
+        <v>15.42892789873418</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -14246,7 +15482,7 @@
       </c>
       <c r="G28" s="2">
         <f>IF(G$26=1,H28,H28/(1-INDEX($O$2:$O$6,C28)))</f>
-        <v>12.787281919999998</v>
+        <v>12.295463384615385</v>
       </c>
       <c r="H28" s="2">
         <f>$F28*(INDEX($F$3:$F$5,H$26)+(($C28+($D28*$F$7))*INDEX($G$3:$G$5,H$26)))</f>
@@ -14262,26 +15498,26 @@
       </c>
       <c r="K28" s="10">
         <f>1-((1-(I28/G28))/INDEX($P$2:$P$6,C28))</f>
-        <v>5.2500000000000009</v>
+        <v>7</v>
       </c>
       <c r="L28" s="10">
         <f>(INDEX($Q$2:$Q$6,C28)/((1/INDEX($F$4:$F$6,J$26))-1))</f>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M28" s="10">
         <v>0</v>
       </c>
       <c r="N28" s="2">
         <f>((AVERAGE(O28,P28)*R28)/Q28)/INDEX($R$1:$R$3,D28+2)</f>
-        <v>12.787281919999998</v>
+        <v>12.295463384615386</v>
       </c>
       <c r="O28" s="2">
         <f>0.75*(((G28*INDEX($R$1:$R$3,$D28+2))*Q28)/R28)</f>
-        <v>377.22481663999991</v>
+        <v>362.71616984615383</v>
       </c>
       <c r="P28" s="2">
         <f>1.25*(((G28*INDEX($R$1:$R$3,$D28+2))*Q28)/R28)</f>
-        <v>628.70802773333321</v>
+        <v>604.52694974358974</v>
       </c>
       <c r="Q28" s="2">
         <f>(AVERAGE(VLOOKUP(E28,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E28,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E28,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -14307,79 +15543,79 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" ref="X28:AP28" si="20">$G31*(1-(X$26*(1-$K31)))</f>
-        <v>6.5223024193548387</v>
+        <v>6.074272531645569</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="20"/>
-        <v>7.6083416129032253</v>
+        <v>6.8155020253164551</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="20"/>
-        <v>8.6943808064516119</v>
+        <v>7.5567315189873421</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="20"/>
-        <v>9.7804199999999994</v>
+        <v>8.2979610126582273</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="20"/>
-        <v>10.866459193548385</v>
+        <v>9.0391905063291134</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="20"/>
-        <v>11.952498387096771</v>
+        <v>9.7804199999999994</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="20"/>
-        <v>13.038537580645157</v>
+        <v>10.521649493670884</v>
       </c>
       <c r="AE28" s="2">
         <f t="shared" si="20"/>
-        <v>14.124576774193544</v>
+        <v>11.26287898734177</v>
       </c>
       <c r="AF28" s="2">
         <f t="shared" si="20"/>
-        <v>15.21061596774193</v>
+        <v>12.004108481012656</v>
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="20"/>
-        <v>16.296655161290317</v>
+        <v>12.745337974683542</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" si="20"/>
-        <v>17.382694354838705</v>
+        <v>13.486567468354426</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="20"/>
-        <v>18.468733548387092</v>
+        <v>14.227796962025314</v>
       </c>
       <c r="AJ28" s="2">
         <f t="shared" si="20"/>
-        <v>19.55477274193548</v>
+        <v>14.969026455696202</v>
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="20"/>
-        <v>20.640811935483868</v>
+        <v>15.710255949367086</v>
       </c>
       <c r="AL28" s="2">
         <f t="shared" si="20"/>
-        <v>21.726851129032255</v>
+        <v>16.451485443037971</v>
       </c>
       <c r="AM28" s="2">
         <f t="shared" si="20"/>
-        <v>22.812890322580646</v>
+        <v>17.19271493670886</v>
       </c>
       <c r="AN28" s="2">
         <f t="shared" si="20"/>
-        <v>23.898929516129026</v>
+        <v>17.933944430379746</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="20"/>
-        <v>24.984968709677418</v>
+        <v>18.675173924050632</v>
       </c>
       <c r="AP28" s="2">
         <f t="shared" si="20"/>
-        <v>26.071007903225805</v>
+        <v>19.416403417721519</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
@@ -14428,79 +15664,79 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" ref="X29:AP29" si="22">$G32*(1-(X$26*(1-$K32)))</f>
-        <v>6.1097506451612897</v>
+        <v>5.5482671898734175</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="22"/>
-        <v>7.5736710967741931</v>
+        <v>6.538916151898734</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="22"/>
-        <v>9.0375915483870966</v>
+        <v>7.5295651139240514</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="22"/>
-        <v>10.501512</v>
+        <v>8.520214075949367</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="22"/>
-        <v>11.965432451612902</v>
+        <v>9.5108630379746817</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="22"/>
-        <v>13.429352903225805</v>
+        <v>10.501512</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="22"/>
-        <v>14.893273354838707</v>
+        <v>11.492160962025316</v>
       </c>
       <c r="AE29" s="2">
         <f t="shared" si="22"/>
-        <v>16.357193806451608</v>
+        <v>12.482809924050633</v>
       </c>
       <c r="AF29" s="2">
         <f t="shared" si="22"/>
-        <v>17.821114258064512</v>
+        <v>13.473458886075948</v>
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="22"/>
-        <v>19.285034709677419</v>
+        <v>14.464107848101262</v>
       </c>
       <c r="AH29" s="2">
         <f t="shared" si="22"/>
-        <v>20.748955161290318</v>
+        <v>15.454756810126581</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="22"/>
-        <v>22.212875612903222</v>
+        <v>16.445405772151897</v>
       </c>
       <c r="AJ29" s="2">
         <f t="shared" si="22"/>
-        <v>23.676796064516125</v>
+        <v>17.436054734177215</v>
       </c>
       <c r="AK29" s="2">
         <f t="shared" si="22"/>
-        <v>25.140716516129032</v>
+        <v>18.426703696202534</v>
       </c>
       <c r="AL29" s="2">
         <f t="shared" si="22"/>
-        <v>26.604636967741936</v>
+        <v>19.417352658227852</v>
       </c>
       <c r="AM29" s="2">
         <f t="shared" si="22"/>
-        <v>28.068557419354843</v>
+        <v>20.408001620253167</v>
       </c>
       <c r="AN29" s="2">
         <f t="shared" si="22"/>
-        <v>29.532477870967746</v>
+        <v>21.398650582278485</v>
       </c>
       <c r="AO29" s="2">
         <f t="shared" si="22"/>
-        <v>30.996398322580649</v>
+        <v>22.389299544303803</v>
       </c>
       <c r="AP29" s="2">
         <f t="shared" si="22"/>
-        <v>32.460318774193553</v>
+        <v>23.379948506329118</v>
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
@@ -14523,7 +15759,7 @@
       </c>
       <c r="G30" s="2">
         <f>IF(G$29=1,H30,H30/(1-INDEX($O$2:$O$6,C30)))</f>
-        <v>6.2313042580645162</v>
+        <v>6.1129883544303798</v>
       </c>
       <c r="H30" s="2">
         <f>$F30*(INDEX($F$3:$F$5,H$29)+(($C30+($D30*$F$7))*INDEX($G$3:$G$5,H$29)))</f>
@@ -14539,26 +15775,26 @@
       </c>
       <c r="K30" s="10">
         <f t="shared" ref="K30:K89" si="24">1-((1-(I30/G30))/INDEX($P$2:$P$6,C30))</f>
-        <v>3.265625</v>
+        <v>2.6041666666666665</v>
       </c>
       <c r="L30" s="10">
         <f>(INDEX($Q$2:$Q$6,C30)/((1/INDEX($F$4:$F$6,J$29))-1))</f>
-        <v>4.4444444444444446E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M30" s="10">
         <v>0</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" ref="N30:N38" si="25">((AVERAGE(O30,P30)*R30)/Q30)/INDEX($R$1:$R$3,D30+2)</f>
-        <v>6.2313042580645162</v>
+        <v>6.1129883544303798</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" ref="O30:O38" si="26">0.75*(((G30*INDEX($R$1:$R$3,$D30+2))*Q30)/R30)</f>
-        <v>24.792231880409126</v>
+        <v>24.321493300401357</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ref="P30:P38" si="27">1.25*(((G30*INDEX($R$1:$R$3,$D30+2))*Q30)/R30)</f>
-        <v>41.320386467348548</v>
+        <v>40.535822167335596</v>
       </c>
       <c r="Q30" s="2">
         <f>(AVERAGE(VLOOKUP(E30,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E30,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E30,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -14584,79 +15820,79 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" ref="X30:AP30" si="28">$G33*(1-(X$26*(1-$K33)))</f>
-        <v>8.6569815000000006</v>
+        <v>8.6130156581196591</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="28"/>
-        <v>9.2842990000000007</v>
+        <v>9.4194135384615389</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="28"/>
-        <v>9.9116165000000009</v>
+        <v>10.225811418803419</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="28"/>
-        <v>10.538934000000001</v>
+        <v>11.032209299145299</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="28"/>
-        <v>11.166251500000001</v>
+        <v>11.83860717948718</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="28"/>
-        <v>11.793569</v>
+        <v>12.645005059829058</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="28"/>
-        <v>12.4208865</v>
+        <v>13.451402940170938</v>
       </c>
       <c r="AE30" s="2">
         <f t="shared" si="28"/>
-        <v>13.048204</v>
+        <v>14.25780082051282</v>
       </c>
       <c r="AF30" s="2">
         <f t="shared" si="28"/>
-        <v>13.6755215</v>
+        <v>15.064198700854698</v>
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="28"/>
-        <v>14.302839000000001</v>
+        <v>15.870596581196578</v>
       </c>
       <c r="AH30" s="2">
         <f t="shared" si="28"/>
-        <v>14.930156500000001</v>
+        <v>16.67699446153846</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="28"/>
-        <v>15.557474000000001</v>
+        <v>17.483392341880339</v>
       </c>
       <c r="AJ30" s="2">
         <f t="shared" si="28"/>
-        <v>16.184791499999999</v>
+        <v>18.289790222222219</v>
       </c>
       <c r="AK30" s="2">
         <f t="shared" si="28"/>
-        <v>16.812109</v>
+        <v>19.096188102564103</v>
       </c>
       <c r="AL30" s="2">
         <f t="shared" si="28"/>
-        <v>17.4394265</v>
+        <v>19.902585982905983</v>
       </c>
       <c r="AM30" s="2">
         <f t="shared" si="28"/>
-        <v>18.066744</v>
+        <v>20.708983863247859</v>
       </c>
       <c r="AN30" s="2">
         <f t="shared" si="28"/>
-        <v>18.6940615</v>
+        <v>21.515381743589746</v>
       </c>
       <c r="AO30" s="2">
         <f t="shared" si="28"/>
-        <v>19.321379000000004</v>
+        <v>22.321779623931622</v>
       </c>
       <c r="AP30" s="2">
         <f t="shared" si="28"/>
-        <v>19.948696500000004</v>
+        <v>23.128177504273506</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
@@ -14679,7 +15915,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" ref="G31:G38" si="29">IF(G$29=1,H31,H31/(1-INDEX($O$2:$O$6,C31)))</f>
-        <v>5.436263225806452</v>
+        <v>5.3330430379746838</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:H38" si="30">$F31*(INDEX($F$3:$F$5,H$29)+(($C31+($D31*$F$7))*INDEX($G$3:$G$5,H$29)))</f>
@@ -14695,26 +15931,26 @@
       </c>
       <c r="K31" s="10">
         <f t="shared" si="24"/>
-        <v>4.9955357142857126</v>
+        <v>3.7797619047619038</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" ref="L31:L38" si="31">(INDEX($Q$2:$Q$6,C31)/((1/INDEX($F$4:$F$6,J$29))-1))</f>
-        <v>4.4444444444444446E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M31" s="10">
         <v>0</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="25"/>
-        <v>5.436263225806452</v>
+        <v>5.3330430379746838</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="26"/>
-        <v>44.339521935483873</v>
+        <v>43.497632278481007</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="27"/>
-        <v>73.899203225806446</v>
+        <v>72.496053797468349</v>
       </c>
       <c r="Q31" s="2">
         <f>(AVERAGE(VLOOKUP(E31,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E31,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E31,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -14740,79 +15976,79 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" ref="X31:AP31" si="33">$G34*(1-(X$26*(1-$K34)))</f>
-        <v>7.7597650000000007</v>
+        <v>7.8046933333333337</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="33"/>
-        <v>8.653747142857144</v>
+        <v>8.9343200000000014</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="33"/>
-        <v>9.5477292857142881</v>
+        <v>10.063946666666668</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="33"/>
-        <v>10.441711428571431</v>
+        <v>11.193573333333333</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="33"/>
-        <v>11.335693571428573</v>
+        <v>12.3232</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="33"/>
-        <v>12.229675714285715</v>
+        <v>13.452826666666665</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="33"/>
-        <v>13.123657857142858</v>
+        <v>14.582453333333332</v>
       </c>
       <c r="AE31" s="2">
         <f t="shared" si="33"/>
-        <v>14.017639999999998</v>
+        <v>15.71208</v>
       </c>
       <c r="AF31" s="2">
         <f t="shared" si="33"/>
-        <v>14.911622142857142</v>
+        <v>16.841706666666663</v>
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="33"/>
-        <v>15.805604285714287</v>
+        <v>17.97133333333333</v>
       </c>
       <c r="AH31" s="2">
         <f t="shared" si="33"/>
-        <v>16.699586428571429</v>
+        <v>19.100959999999993</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="33"/>
-        <v>17.59356857142857</v>
+        <v>20.230586666666664</v>
       </c>
       <c r="AJ31" s="2">
         <f t="shared" si="33"/>
-        <v>18.487550714285714</v>
+        <v>21.360213333333331</v>
       </c>
       <c r="AK31" s="2">
         <f t="shared" si="33"/>
-        <v>19.381532857142858</v>
+        <v>22.489839999999997</v>
       </c>
       <c r="AL31" s="2">
         <f t="shared" si="33"/>
-        <v>20.275515000000002</v>
+        <v>23.619466666666668</v>
       </c>
       <c r="AM31" s="2">
         <f t="shared" si="33"/>
-        <v>21.169497142857146</v>
+        <v>24.749093333333331</v>
       </c>
       <c r="AN31" s="2">
         <f t="shared" si="33"/>
-        <v>22.063479285714287</v>
+        <v>25.878720000000001</v>
       </c>
       <c r="AO31" s="2">
         <f t="shared" si="33"/>
-        <v>22.957461428571431</v>
+        <v>27.008346666666672</v>
       </c>
       <c r="AP31" s="2">
         <f t="shared" si="33"/>
-        <v>23.851443571428575</v>
+        <v>28.137973333333335</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
@@ -14835,7 +16071,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" si="29"/>
-        <v>4.6458301935483872</v>
+        <v>4.557618227848101</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="30"/>
@@ -14851,26 +16087,26 @@
       </c>
       <c r="K32" s="10">
         <f t="shared" si="24"/>
-        <v>7.3020833333333321</v>
+        <v>5.3472222222222223</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="31"/>
-        <v>4.4444444444444446E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M32" s="10">
         <v>0</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="25"/>
-        <v>4.6458301935483872</v>
+        <v>4.5576182278481001</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="26"/>
-        <v>80.837445367741935</v>
+        <v>79.302557164556944</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="27"/>
-        <v>134.72907561290322</v>
+        <v>132.1709286075949</v>
       </c>
       <c r="Q32" s="2">
         <f>(AVERAGE(VLOOKUP(E32,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E32,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E32,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -14896,79 +16132,79 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" ref="X32:AP32" si="34">$G35*(1-(X$26*(1-$K35)))</f>
-        <v>6.8668325000000001</v>
+        <v>7.0002208547008546</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="34"/>
-        <v>8.0261678571428572</v>
+        <v>8.4514861538461528</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="34"/>
-        <v>9.1855032142857151</v>
+        <v>9.9027514529914527</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="34"/>
-        <v>10.344838571428571</v>
+        <v>11.354016752136751</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="34"/>
-        <v>11.504173928571429</v>
+        <v>12.805282051282051</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="34"/>
-        <v>12.663509285714285</v>
+        <v>14.256547350427349</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="34"/>
-        <v>13.822844642857143</v>
+        <v>15.707812649572649</v>
       </c>
       <c r="AE32" s="2">
         <f t="shared" si="34"/>
-        <v>14.98218</v>
+        <v>17.159077948717947</v>
       </c>
       <c r="AF32" s="2">
         <f t="shared" si="34"/>
-        <v>16.141515357142858</v>
+        <v>18.610343247863245</v>
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="34"/>
-        <v>17.300850714285712</v>
+        <v>20.061608547008543</v>
       </c>
       <c r="AH32" s="2">
         <f t="shared" si="34"/>
-        <v>18.46018607142857</v>
+        <v>21.512873846153841</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="34"/>
-        <v>19.619521428571428</v>
+        <v>22.964139145299143</v>
       </c>
       <c r="AJ32" s="2">
         <f t="shared" si="34"/>
-        <v>20.778856785714286</v>
+        <v>24.415404444444441</v>
       </c>
       <c r="AK32" s="2">
         <f t="shared" si="34"/>
-        <v>21.938192142857147</v>
+        <v>25.866669743589739</v>
       </c>
       <c r="AL32" s="2">
         <f t="shared" si="34"/>
-        <v>23.097527500000002</v>
+        <v>27.317935042735044</v>
       </c>
       <c r="AM32" s="2">
         <f t="shared" si="34"/>
-        <v>24.256862857142856</v>
+        <v>28.769200341880342</v>
       </c>
       <c r="AN32" s="2">
         <f t="shared" si="34"/>
-        <v>25.416198214285721</v>
+        <v>30.220465641025644</v>
       </c>
       <c r="AO32" s="2">
         <f t="shared" si="34"/>
-        <v>26.575533571428576</v>
+        <v>31.671730940170942</v>
       </c>
       <c r="AP32" s="2">
         <f t="shared" si="34"/>
-        <v>27.734868928571441</v>
+        <v>33.122996239316244</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
@@ -14991,7 +16227,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" si="29"/>
-        <v>8.0296640000000004</v>
+        <v>7.8066177777777783</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="30"/>
@@ -15007,26 +16243,26 @@
       </c>
       <c r="K33" s="10">
         <f t="shared" si="24"/>
-        <v>2.5625</v>
+        <v>3.0659340659340653</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" si="31"/>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M33" s="10">
         <v>0</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="25"/>
-        <v>8.0296640000000004</v>
+        <v>7.8066177777777783</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="26"/>
-        <v>31.947291219512195</v>
+        <v>31.059866463414636</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="27"/>
-        <v>53.245485365853654</v>
+        <v>51.766444105691065</v>
       </c>
       <c r="Q33" s="2">
         <f>(AVERAGE(VLOOKUP(E33,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E33,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E33,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -15052,79 +16288,79 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" ref="X33:AP33" si="35">$G36*(1-(X$26*(1-$K36)))</f>
-        <v>10.413639327999999</v>
+        <v>10.356843733333335</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="35"/>
-        <v>11.205436735999999</v>
+        <v>11.461916389743591</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="35"/>
-        <v>11.997234143999998</v>
+        <v>12.566989046153845</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="35"/>
-        <v>12.789031551999999</v>
+        <v>13.672061702564102</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="35"/>
-        <v>13.580828959999998</v>
+        <v>14.777134358974356</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="35"/>
-        <v>14.372626367999999</v>
+        <v>15.882207015384614</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="35"/>
-        <v>15.164423775999998</v>
+        <v>16.98727967179487</v>
       </c>
       <c r="AE33" s="2">
         <f t="shared" si="35"/>
-        <v>15.956221183999999</v>
+        <v>18.092352328205124</v>
       </c>
       <c r="AF33" s="2">
         <f t="shared" si="35"/>
-        <v>16.748018591999998</v>
+        <v>19.197424984615377</v>
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="35"/>
-        <v>17.539815999999998</v>
+        <v>20.302497641025635</v>
       </c>
       <c r="AH33" s="2">
         <f t="shared" si="35"/>
-        <v>18.331613407999996</v>
+        <v>21.407570297435893</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="35"/>
-        <v>19.123410815999996</v>
+        <v>22.51264295384615</v>
       </c>
       <c r="AJ33" s="2">
         <f t="shared" si="35"/>
-        <v>19.915208223999993</v>
+        <v>23.617715610256404</v>
       </c>
       <c r="AK33" s="2">
         <f t="shared" si="35"/>
-        <v>20.707005631999998</v>
+        <v>24.722788266666662</v>
       </c>
       <c r="AL33" s="2">
         <f t="shared" si="35"/>
-        <v>21.498803039999999</v>
+        <v>25.827860923076919</v>
       </c>
       <c r="AM33" s="2">
         <f t="shared" si="35"/>
-        <v>22.290600447999996</v>
+        <v>26.932933579487177</v>
       </c>
       <c r="AN33" s="2">
         <f t="shared" si="35"/>
-        <v>23.082397856</v>
+        <v>28.038006235897438</v>
       </c>
       <c r="AO33" s="2">
         <f t="shared" si="35"/>
-        <v>23.874195264000001</v>
+        <v>29.143078892307692</v>
       </c>
       <c r="AP33" s="2">
         <f t="shared" si="35"/>
-        <v>24.665992671999998</v>
+        <v>30.248151548717949</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
@@ -15147,7 +16383,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" si="29"/>
-        <v>6.8657828571428583</v>
+        <v>6.6750666666666678</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="30"/>
@@ -15163,26 +16399,26 @@
       </c>
       <c r="K34" s="10">
         <f t="shared" si="24"/>
-        <v>3.6041666666666661</v>
+        <v>4.3846153846153832</v>
       </c>
       <c r="L34" s="10">
         <f t="shared" si="31"/>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M34" s="10">
         <v>0</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="25"/>
-        <v>6.8657828571428583</v>
+        <v>6.6750666666666678</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="26"/>
-        <v>55.999041428571431</v>
+        <v>54.443512500000004</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="27"/>
-        <v>93.331735714285728</v>
+        <v>90.739187500000014</v>
       </c>
       <c r="Q34" s="2">
         <f>(AVERAGE(VLOOKUP(E34,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E34,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E34,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -15208,79 +16444,79 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" ref="X34:AP34" si="36">$G37*(1-(X$26*(1-$K37)))</f>
-        <v>9.0763067999999993</v>
+        <v>9.1679866666666676</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="36"/>
-        <v>10.151461599999999</v>
+        <v>10.642557948717949</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="36"/>
-        <v>11.226616400000001</v>
+        <v>12.117129230769232</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="36"/>
-        <v>12.301771199999999</v>
+        <v>13.591700512820513</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="36"/>
-        <v>13.376925999999999</v>
+        <v>15.066271794871794</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="36"/>
-        <v>14.452080799999997</v>
+        <v>16.540843076923075</v>
       </c>
       <c r="AD34" s="2">
         <f t="shared" si="36"/>
-        <v>15.527235599999997</v>
+        <v>18.015414358974354</v>
       </c>
       <c r="AE34" s="2">
         <f t="shared" si="36"/>
-        <v>16.602390400000001</v>
+        <v>19.489985641025637</v>
       </c>
       <c r="AF34" s="2">
         <f t="shared" si="36"/>
-        <v>17.677545199999997</v>
+        <v>20.964556923076916</v>
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="36"/>
-        <v>18.752699999999997</v>
+        <v>22.439128205128203</v>
       </c>
       <c r="AH34" s="2">
         <f t="shared" si="36"/>
-        <v>19.827854799999997</v>
+        <v>23.913699487179482</v>
       </c>
       <c r="AI34" s="2">
         <f t="shared" si="36"/>
-        <v>20.903009599999997</v>
+        <v>25.388270769230765</v>
       </c>
       <c r="AJ34" s="2">
         <f t="shared" si="36"/>
-        <v>21.978164400000001</v>
+        <v>26.862842051282044</v>
       </c>
       <c r="AK34" s="2">
         <f t="shared" si="36"/>
-        <v>23.053319200000001</v>
+        <v>28.33741333333333</v>
       </c>
       <c r="AL34" s="2">
         <f t="shared" si="36"/>
-        <v>24.128474000000001</v>
+        <v>29.811984615384613</v>
       </c>
       <c r="AM34" s="2">
         <f t="shared" si="36"/>
-        <v>25.203628800000001</v>
+        <v>31.286555897435896</v>
       </c>
       <c r="AN34" s="2">
         <f t="shared" si="36"/>
-        <v>26.278783600000004</v>
+        <v>32.761127179487175</v>
       </c>
       <c r="AO34" s="2">
         <f t="shared" si="36"/>
-        <v>27.353938400000004</v>
+        <v>34.235698461538455</v>
       </c>
       <c r="AP34" s="2">
         <f t="shared" si="36"/>
-        <v>28.429093200000004</v>
+        <v>35.710269743589741</v>
       </c>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
@@ -15303,7 +16539,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" si="29"/>
-        <v>5.707497142857143</v>
+        <v>5.5489555555555556</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="30"/>
@@ -15319,26 +16555,26 @@
       </c>
       <c r="K35" s="10">
         <f t="shared" si="24"/>
-        <v>5.0625</v>
+        <v>6.2307692307692299</v>
       </c>
       <c r="L35" s="10">
         <f t="shared" si="31"/>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M35" s="10">
         <v>0</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="25"/>
-        <v>5.7074971428571439</v>
+        <v>5.5489555555555565</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="26"/>
-        <v>99.310450285714296</v>
+        <v>96.55182666666667</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="27"/>
-        <v>165.51741714285714</v>
+        <v>160.9197111111111</v>
       </c>
       <c r="Q35" s="2">
         <f>(AVERAGE(VLOOKUP(E35,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E35,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E35,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -15364,79 +16600,79 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" ref="X35:AP35" si="37">$G38*(1-(X$26*(1-$K38)))</f>
-        <v>7.7445793280000004</v>
+        <v>7.9841024000000012</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="37"/>
-        <v>9.1018767359999995</v>
+        <v>9.8265875692307709</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="37"/>
-        <v>10.459174144</v>
+        <v>11.669072738461541</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="37"/>
-        <v>11.816471551999999</v>
+        <v>13.51155790769231</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="37"/>
-        <v>13.173768959999999</v>
+        <v>15.354043076923078</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="37"/>
-        <v>14.531066368000001</v>
+        <v>17.196528246153846</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="37"/>
-        <v>15.888363776</v>
+        <v>19.039013415384616</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="37"/>
-        <v>17.245661183999999</v>
+        <v>20.881498584615386</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="37"/>
-        <v>18.602958592</v>
+        <v>22.723983753846156</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="37"/>
-        <v>19.960255999999998</v>
+        <v>24.566468923076922</v>
       </c>
       <c r="AH35" s="2">
         <f t="shared" si="37"/>
-        <v>21.317553408000002</v>
+        <v>26.408954092307695</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="37"/>
-        <v>22.674850815999999</v>
+        <v>28.251439261538462</v>
       </c>
       <c r="AJ35" s="2">
         <f t="shared" si="37"/>
-        <v>24.032148224000004</v>
+        <v>30.093924430769235</v>
       </c>
       <c r="AK35" s="2">
         <f t="shared" si="37"/>
-        <v>25.389445632000005</v>
+        <v>31.936409600000005</v>
       </c>
       <c r="AL35" s="2">
         <f t="shared" si="37"/>
-        <v>26.746743040000009</v>
+        <v>33.778894769230781</v>
       </c>
       <c r="AM35" s="2">
         <f t="shared" si="37"/>
-        <v>28.104040448000006</v>
+        <v>35.621379938461544</v>
       </c>
       <c r="AN35" s="2">
         <f t="shared" si="37"/>
-        <v>29.461337856000007</v>
+        <v>37.463865107692321</v>
       </c>
       <c r="AO35" s="2">
         <f t="shared" si="37"/>
-        <v>30.818635264000012</v>
+        <v>39.306350276923091</v>
       </c>
       <c r="AP35" s="2">
         <f t="shared" si="37"/>
-        <v>32.175932672000009</v>
+        <v>41.148835446153861</v>
       </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
@@ -15459,7 +16695,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" si="29"/>
-        <v>9.6218419199999996</v>
+        <v>9.2517710769230774</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="30"/>
@@ -15475,26 +16711,26 @@
       </c>
       <c r="K36" s="10">
         <f t="shared" si="24"/>
-        <v>2.645833333333333</v>
+        <v>3.388888888888888</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" si="31"/>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M36" s="10">
         <v>0</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="25"/>
-        <v>9.6218419199999996</v>
+        <v>9.2517710769230774</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="26"/>
-        <v>38.282023492682924</v>
+        <v>36.809637973733587</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="27"/>
-        <v>63.803372487804879</v>
+        <v>61.349396622889302</v>
       </c>
       <c r="Q36" s="2">
         <f>(AVERAGE(VLOOKUP(E36,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E36,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E36,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -15520,79 +16756,79 @@
       </c>
       <c r="X36" s="2">
         <f>($G27*(1-(X$26*(1-$K27))))/2</f>
-        <v>6.8709162499999987</v>
+        <v>7.0043839316239307</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" ref="Y36:AP36" si="38">($G27*(1-(Y$26*(1-$K27))))/2</f>
-        <v>8.0309410714285701</v>
+        <v>8.4565123076923072</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="38"/>
-        <v>9.1909658928571414</v>
+        <v>9.9086406837606837</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="38"/>
-        <v>10.350990714285713</v>
+        <v>11.360769059829058</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="38"/>
-        <v>11.511015535714284</v>
+        <v>12.812897435897433</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="38"/>
-        <v>12.671040357142855</v>
+        <v>14.26502581196581</v>
       </c>
       <c r="AD36" s="2">
         <f t="shared" si="38"/>
-        <v>13.831065178571425</v>
+        <v>15.717154188034185</v>
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="38"/>
-        <v>14.991089999999996</v>
+        <v>17.169282564102559</v>
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="38"/>
-        <v>16.151114821428568</v>
+        <v>18.621410940170936</v>
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="38"/>
-        <v>17.311139642857139</v>
+        <v>20.073539316239312</v>
       </c>
       <c r="AH36" s="2">
         <f t="shared" si="38"/>
-        <v>18.47116446428571</v>
+        <v>21.525667692307689</v>
       </c>
       <c r="AI36" s="2">
         <f t="shared" si="38"/>
-        <v>19.631189285714285</v>
+        <v>22.977796068376062</v>
       </c>
       <c r="AJ36" s="2">
         <f t="shared" si="38"/>
-        <v>20.791214107142856</v>
+        <v>24.429924444444445</v>
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="38"/>
-        <v>21.951238928571428</v>
+        <v>25.882052820512818</v>
       </c>
       <c r="AL36" s="2">
         <f t="shared" si="38"/>
-        <v>23.111263750000006</v>
+        <v>27.334181196581195</v>
       </c>
       <c r="AM36" s="2">
         <f t="shared" si="38"/>
-        <v>24.271288571428578</v>
+        <v>28.786309572649575</v>
       </c>
       <c r="AN36" s="2">
         <f t="shared" si="38"/>
-        <v>25.431313392857149</v>
+        <v>30.238437948717952</v>
       </c>
       <c r="AO36" s="2">
         <f t="shared" si="38"/>
-        <v>26.59133821428572</v>
+        <v>31.690566324786328</v>
       </c>
       <c r="AP36" s="2">
         <f t="shared" si="38"/>
-        <v>27.751363035714292</v>
+        <v>33.142694700854712</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
@@ -15615,7 +16851,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" si="29"/>
-        <v>8.0011519999999994</v>
+        <v>7.6934153846153848</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="30"/>
@@ -15631,26 +16867,26 @@
       </c>
       <c r="K37" s="10">
         <f t="shared" si="24"/>
-        <v>3.6875</v>
+        <v>4.8333333333333321</v>
       </c>
       <c r="L37" s="10">
         <f t="shared" si="31"/>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M37" s="10">
         <v>0</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="25"/>
-        <v>8.0011519999999994</v>
+        <v>7.6934153846153848</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="26"/>
-        <v>65.259395999999995</v>
+        <v>62.749419230769227</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="27"/>
-        <v>108.76565999999998</v>
+        <v>104.58236538461537</v>
       </c>
       <c r="Q37" s="2">
         <f>(AVERAGE(VLOOKUP(E37,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E37,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E37,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -15676,79 +16912,79 @@
       </c>
       <c r="X37" s="2">
         <f>($G28*(1-(X$26*(1-$K28))))/2</f>
-        <v>7.7522896640000001</v>
+        <v>7.9920512000000006</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" ref="Y37:AP37" si="39">($G28*(1-(Y$26*(1-$K28))))/2</f>
-        <v>9.1109383679999993</v>
+        <v>9.8363707076923088</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="39"/>
-        <v>10.469587071999999</v>
+        <v>11.680690215384617</v>
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="39"/>
-        <v>11.828235776</v>
+        <v>13.525009723076924</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="39"/>
-        <v>13.186884479999998</v>
+        <v>15.369329230769232</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="39"/>
-        <v>14.545533184</v>
+        <v>17.213648738461536</v>
       </c>
       <c r="AD37" s="2">
         <f t="shared" si="39"/>
-        <v>15.904181888</v>
+        <v>19.057968246153845</v>
       </c>
       <c r="AE37" s="2">
         <f t="shared" si="39"/>
-        <v>17.262830592</v>
+        <v>20.902287753846153</v>
       </c>
       <c r="AF37" s="2">
         <f t="shared" si="39"/>
-        <v>18.621479296</v>
+        <v>22.746607261538461</v>
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="39"/>
-        <v>19.980127999999997</v>
+        <v>24.590926769230766</v>
       </c>
       <c r="AH37" s="2">
         <f t="shared" si="39"/>
-        <v>21.338776704000001</v>
+        <v>26.435246276923078</v>
       </c>
       <c r="AI37" s="2">
         <f t="shared" si="39"/>
-        <v>22.697425407999997</v>
+        <v>28.279565784615382</v>
       </c>
       <c r="AJ37" s="2">
         <f t="shared" si="39"/>
-        <v>24.056074112000001</v>
+        <v>30.123885292307694</v>
       </c>
       <c r="AK37" s="2">
         <f t="shared" si="39"/>
-        <v>25.414722816000001</v>
+        <v>31.968204800000002</v>
       </c>
       <c r="AL37" s="2">
         <f t="shared" si="39"/>
-        <v>26.773371520000008</v>
+        <v>33.812524307692314</v>
       </c>
       <c r="AM37" s="2">
         <f t="shared" si="39"/>
-        <v>28.132020224000005</v>
+        <v>35.656843815384619</v>
       </c>
       <c r="AN37" s="2">
         <f t="shared" si="39"/>
-        <v>29.490668928000005</v>
+        <v>37.501163323076931</v>
       </c>
       <c r="AO37" s="2">
         <f t="shared" si="39"/>
-        <v>30.849317632000009</v>
+        <v>39.345482830769235</v>
       </c>
       <c r="AP37" s="2">
         <f t="shared" si="39"/>
-        <v>32.207966336000013</v>
+        <v>41.189802338461554</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
@@ -15771,7 +17007,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" si="29"/>
-        <v>6.3872819199999995</v>
+        <v>6.1416172307692314</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="30"/>
@@ -15787,26 +17023,26 @@
       </c>
       <c r="K38" s="10">
         <f t="shared" si="24"/>
-        <v>5.2500000000000009</v>
+        <v>7</v>
       </c>
       <c r="L38" s="10">
         <f t="shared" si="31"/>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M38" s="10">
         <v>0</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="25"/>
-        <v>6.3872819199999995</v>
+        <v>6.1416172307692314</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="26"/>
-        <v>111.13870540799998</v>
+        <v>106.86413981538462</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="27"/>
-        <v>185.23117567999998</v>
+        <v>178.10689969230768</v>
       </c>
       <c r="Q38" s="2">
         <f>(AVERAGE(VLOOKUP(E38,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E38,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E38,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -15894,7 +17130,7 @@
       </c>
       <c r="G40" s="2">
         <f>IF(G$39=1,H40,H40/(1-INDEX($O$2:$O$6,C40)))</f>
-        <v>42.831685714285719</v>
+        <v>41.641916666666667</v>
       </c>
       <c r="H40" s="2">
         <f>$F40*(INDEX($F$3:$F$5,H$39)+(($C40+($D40*$F$7))*INDEX($G$3:$G$5,H$39)))</f>
@@ -15910,26 +17146,26 @@
       </c>
       <c r="K40" s="10">
         <f t="shared" si="24"/>
-        <v>-1.0333333333333332</v>
+        <v>-1.4861538461538464</v>
       </c>
       <c r="L40" s="10">
         <f>(INDEX($Q$2:$Q$6,C40)/((1/INDEX($F$4:$F$6,J$39))-1))</f>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M40" s="10">
         <v>0</v>
       </c>
       <c r="N40" s="2">
         <f>((AVERAGE(O40,P40)*R40)/Q40)/INDEX($R$1:$R$3,D40+2)</f>
-        <v>42.831685714285719</v>
+        <v>41.64191666666666</v>
       </c>
       <c r="O40" s="2">
         <f>0.75*(((G40*INDEX($R$1:$R$3,$D40+2))*Q40)/R40)</f>
-        <v>848.06737714285725</v>
+        <v>824.50994999999989</v>
       </c>
       <c r="P40" s="2">
         <f>1.25*(((G40*INDEX($R$1:$R$3,$D40+2))*Q40)/R40)</f>
-        <v>1413.4456285714286</v>
+        <v>1374.1832499999998</v>
       </c>
       <c r="Q40" s="2">
         <f>(AVERAGE(VLOOKUP(E40,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E40,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E40,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -15975,7 +17211,7 @@
       </c>
       <c r="G41" s="2">
         <f>IF(G$39=1,H41,H41/(1-INDEX($O$2:$O$6,C41)))</f>
-        <v>63.936409600000005</v>
+        <v>61.477316923076934</v>
       </c>
       <c r="H41" s="2">
         <f>$F41*(INDEX($F$3:$F$5,H$39)+(($C41+($D41*$F$7))*INDEX($G$3:$G$5,H$39)))</f>
@@ -15991,26 +17227,26 @@
       </c>
       <c r="K41" s="10">
         <f t="shared" si="24"/>
-        <v>-0.75</v>
+        <v>-1.3200000000000003</v>
       </c>
       <c r="L41" s="10">
         <f>(INDEX($Q$2:$Q$6,C41)/((1/INDEX($F$4:$F$6,J$39))-1))</f>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M41" s="10">
         <v>0</v>
       </c>
       <c r="N41" s="2">
         <f>((AVERAGE(O41,P41)*R41)/Q41)/INDEX($R$1:$R$3,D41+2)</f>
-        <v>63.936409600000005</v>
+        <v>61.477316923076941</v>
       </c>
       <c r="O41" s="2">
         <f>0.75*(((G41*INDEX($R$1:$R$3,$D41+2))*Q41)/R41)</f>
-        <v>1265.9409100799999</v>
+        <v>1217.2508750769234</v>
       </c>
       <c r="P41" s="2">
         <f>1.25*(((G41*INDEX($R$1:$R$3,$D41+2))*Q41)/R41)</f>
-        <v>2109.9015168000001</v>
+        <v>2028.7514584615387</v>
       </c>
       <c r="Q41" s="2">
         <f>(AVERAGE(VLOOKUP(E41,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E41,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E41,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16095,7 +17331,7 @@
       </c>
       <c r="G43" s="2">
         <f>IF(G$42=1,H43,H43/(1-INDEX($O$2:$O$6,C43)))</f>
-        <v>4.687302193548387</v>
+        <v>4.5983027848101266</v>
       </c>
       <c r="H43" s="2">
         <f>$F43*(INDEX($F$3:$F$5,H$42)+(($C43+($D43*$F$7))*INDEX($G$3:$G$5,H$42)))</f>
@@ -16111,26 +17347,26 @@
       </c>
       <c r="K43" s="10">
         <f>1-((1-(I43/G43))/INDEX($P$2:$P$6,C43))</f>
-        <v>-3.03125</v>
+        <v>-1.6750000000000003</v>
       </c>
       <c r="L43" s="10">
         <f>(INDEX($Q$2:$Q$6,C43)/((1/INDEX($F$4:$F$6,J$42))-1))</f>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M43" s="10">
         <v>0</v>
       </c>
       <c r="N43" s="2">
         <f>((AVERAGE(O43,P43)*R43)/Q43)/INDEX($R$1:$R$3,D43)</f>
-        <v>18.749208774193551</v>
+        <v>18.393211139240506</v>
       </c>
       <c r="O43" s="2">
         <f>0.75*(((G43*INDEX($R$1:$R$3,$D43+2))*Q43)/R43)</f>
-        <v>61.735199622344616</v>
+        <v>60.563012287743135</v>
       </c>
       <c r="P43" s="2">
         <f>1.25*(((G43*INDEX($R$1:$R$3,$D43+2))*Q43)/R43)</f>
-        <v>102.89199937057435</v>
+        <v>100.93835381290523</v>
       </c>
       <c r="Q43" s="2">
         <f>(AVERAGE(VLOOKUP(E43,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E43,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E43,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16173,7 +17409,7 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" ref="G44:G51" si="42">IF(G$42=1,H44,H44/(1-INDEX($O$2:$O$6,C44)))</f>
-        <v>3.900325161290322</v>
+        <v>3.826268354430379</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" ref="H44:H51" si="43">$F44*(INDEX($F$3:$F$5,H$42)+(($C44+($D44*$F$7))*INDEX($G$3:$G$5,H$42)))</f>
@@ -16189,26 +17425,26 @@
       </c>
       <c r="K44" s="10">
         <f t="shared" si="24"/>
-        <v>-3.03125</v>
+        <v>-1.6750000000000003</v>
       </c>
       <c r="L44" s="10">
         <f t="shared" ref="L44:L51" si="44">(INDEX($Q$2:$Q$6,C44)/((1/INDEX($F$4:$F$6,J$42))-1))</f>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M44" s="10">
         <v>0</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" ref="N44:N51" si="45">((AVERAGE(O44,P44)*R44)/Q44)/INDEX($R$1:$R$3,D44)</f>
-        <v>3.9003251612903216</v>
+        <v>3.826268354430379</v>
       </c>
       <c r="O44" s="2">
         <f>0.75*(((G44*INDEX($R$1:$R$3,$D44))*Q44)/R44)</f>
-        <v>26.327194838709673</v>
+        <v>25.827311392405058</v>
       </c>
       <c r="P44" s="2">
         <f>1.25*(((G44*INDEX($R$1:$R$3,$D44))*Q44)/R44)</f>
-        <v>43.878658064516117</v>
+        <v>43.045518987341758</v>
       </c>
       <c r="Q44" s="2">
         <f>(AVERAGE(VLOOKUP(E44,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E44,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E44,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16251,7 +17487,7 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" si="42"/>
-        <v>3.1156521290322576</v>
+        <v>3.0564941772151895</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="43"/>
@@ -16267,26 +17503,26 @@
       </c>
       <c r="K45" s="10">
         <f>1-((1-(I45/G45))/INDEX($P$2:$P$6,C45))</f>
-        <v>-3.03125</v>
+        <v>-1.6750000000000003</v>
       </c>
       <c r="L45" s="10">
         <f t="shared" si="44"/>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="M45" s="10">
         <v>0</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="45"/>
-        <v>3.1156521290322576</v>
+        <v>3.0564941772151895</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" ref="O45:O51" si="47">0.75*(((G45*INDEX($R$1:$R$3,$D45))*Q45)/R45)</f>
-        <v>44.865390658064513</v>
+        <v>44.013516151898727</v>
       </c>
       <c r="P45" s="2">
         <f>1.25*(((G45*INDEX($R$1:$R$3,$D45))*Q45)/R45)</f>
-        <v>74.775651096774183</v>
+        <v>73.35586025316455</v>
       </c>
       <c r="Q45" s="2">
         <f>(AVERAGE(VLOOKUP(E45,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E45,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E45,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16329,7 +17565,7 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" si="42"/>
-        <v>5.7494628571428565</v>
+        <v>5.5897555555555547</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="43"/>
@@ -16345,26 +17581,26 @@
       </c>
       <c r="K46" s="10">
         <f t="shared" si="24"/>
-        <v>-1.0624999999999996</v>
+        <v>-1.523076923076923</v>
       </c>
       <c r="L46" s="10">
         <f t="shared" si="44"/>
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M46" s="10">
         <v>0</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="45"/>
-        <v>5.7494628571428565</v>
+        <v>5.5897555555555547</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="47"/>
-        <v>18.931158188153312</v>
+        <v>18.405292682926827</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" ref="P46:P51" si="48">1.25*(((G46*INDEX($R$1:$R$3,$D46))*Q46)/R46)</f>
-        <v>31.551930313588848</v>
+        <v>30.675487804878045</v>
       </c>
       <c r="Q46" s="2">
         <f>(AVERAGE(VLOOKUP(E46,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E46,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E46,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16407,7 +17643,7 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" si="42"/>
-        <v>4.5939748571428565</v>
+        <v>4.4663644444444435</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="43"/>
@@ -16423,26 +17659,26 @@
       </c>
       <c r="K47" s="10">
         <f t="shared" si="24"/>
-        <v>-1.0624999999999996</v>
+        <v>-1.523076923076923</v>
       </c>
       <c r="L47" s="10">
         <f t="shared" si="44"/>
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M47" s="10">
         <v>0</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="45"/>
-        <v>4.5939748571428565</v>
+        <v>4.4663644444444435</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="47"/>
-        <v>31.009330285714277</v>
+        <v>30.147959999999991</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="48"/>
-        <v>51.682217142857134</v>
+        <v>50.24659999999998</v>
       </c>
       <c r="Q47" s="2">
         <f>(AVERAGE(VLOOKUP(E47,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E47,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E47,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16485,7 +17721,7 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" si="42"/>
-        <v>3.4412845714285716</v>
+        <v>3.3456933333333336</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="43"/>
@@ -16501,26 +17737,26 @@
       </c>
       <c r="K48" s="10">
         <f t="shared" si="24"/>
-        <v>-1.0624999999999996</v>
+        <v>-1.523076923076923</v>
       </c>
       <c r="L48" s="10">
         <f t="shared" si="44"/>
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M48" s="10">
         <v>0</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="45"/>
-        <v>3.4412845714285716</v>
+        <v>3.3456933333333332</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="47"/>
-        <v>49.554497828571435</v>
+        <v>48.177984000000002</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="48"/>
-        <v>82.590829714285718</v>
+        <v>80.296639999999996</v>
       </c>
       <c r="Q48" s="2">
         <f>(AVERAGE(VLOOKUP(E48,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E48,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E48,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16562,7 +17798,7 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" si="42"/>
-        <v>6.4282009599999999</v>
+        <v>6.1809624615384617</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="43"/>
@@ -16578,26 +17814,26 @@
       </c>
       <c r="K49" s="10">
         <f t="shared" si="24"/>
-        <v>-0.6875</v>
+        <v>-1.2333333333333334</v>
       </c>
       <c r="L49" s="10">
         <f t="shared" si="44"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" s="10">
         <v>0</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="45"/>
-        <v>6.4282009599999999</v>
+        <v>6.1809624615384626</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="47"/>
-        <v>21.166027551219514</v>
+        <v>20.351949568480304</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="48"/>
-        <v>35.276712585365857</v>
+        <v>33.919915947467175</v>
       </c>
       <c r="Q49" s="2">
         <f>(AVERAGE(VLOOKUP(E49,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E49,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E49,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16639,7 +17875,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" si="42"/>
-        <v>4.8160358399999996</v>
+        <v>4.6308036923076932</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="43"/>
@@ -16655,26 +17891,26 @@
       </c>
       <c r="K50" s="10">
         <f t="shared" si="24"/>
-        <v>-0.6875</v>
+        <v>-1.2333333333333334</v>
       </c>
       <c r="L50" s="10">
         <f t="shared" si="44"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" s="10">
         <v>0</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="45"/>
-        <v>4.8160358399999996</v>
+        <v>4.6308036923076932</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="47"/>
-        <v>32.508241919999996</v>
+        <v>31.257924923076928</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="48"/>
-        <v>54.180403199999994</v>
+        <v>52.096541538461551</v>
       </c>
       <c r="Q50" s="2">
         <f>(AVERAGE(VLOOKUP(E50,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E50,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E50,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16716,7 +17952,7 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" si="42"/>
-        <v>3.2072806399999982</v>
+        <v>3.0839236923076911</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="43"/>
@@ -16732,26 +17968,26 @@
       </c>
       <c r="K51" s="10">
         <f>1-((1-(I51/G51))/INDEX($P$2:$P$6,C51))</f>
-        <v>-0.6875</v>
+        <v>-1.2333333333333334</v>
       </c>
       <c r="L51" s="10">
         <f t="shared" si="44"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="45"/>
-        <v>3.2072806399999978</v>
+        <v>3.0839236923076916</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="47"/>
-        <v>46.184841215999974</v>
+        <v>44.408501169230753</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="48"/>
-        <v>76.974735359999954</v>
+        <v>74.014168615384591</v>
       </c>
       <c r="Q51" s="2">
         <f>(AVERAGE(VLOOKUP(E51,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E51,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E51,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -16853,11 +18089,11 @@
       </c>
       <c r="K53" s="10">
         <f>1-((1-(I53/G53))/INDEX($P$2:$P$6,C53))</f>
-        <v>-0.83333333333333348</v>
+        <v>-1.2564102564102564</v>
       </c>
       <c r="L53" s="10">
         <f>(INDEX($Q$2:$Q$6,C53)/((1/INDEX($F$4:$F$6,J$52))-1))</f>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M53" s="10">
         <v>0</v>
@@ -16934,11 +18170,11 @@
       </c>
       <c r="K54" s="10">
         <f>1-((1-(I54/G54))/INDEX($P$2:$P$6,C54))</f>
-        <v>-0.60000000000000009</v>
+        <v>-1.1333333333333333</v>
       </c>
       <c r="L54" s="10">
         <f>(INDEX($Q$2:$Q$6,C54)/((1/INDEX($F$4:$F$6,J$52))-1))</f>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M54" s="10">
         <v>0</v>
@@ -17036,7 +18272,7 @@
       </c>
       <c r="G56" s="2">
         <f>IF(G$55=1,H56,H56/(1-INDEX($O$2:$O$6,C56)))</f>
-        <v>2.1855135135135138</v>
+        <v>2.1737634408602156</v>
       </c>
       <c r="H56" s="2">
         <f>$F56*(0.68-(0.12*$D56))</f>
@@ -17052,7 +18288,7 @@
       </c>
       <c r="K56" s="10">
         <f t="shared" ref="K56:K70" si="51">1-((1-(I56/G56))/INDEX($P$2:$P$6,C56))</f>
-        <v>-9.2500000000000018</v>
+        <v>-18.1875</v>
       </c>
       <c r="L56" s="10">
         <v>0</v>
@@ -17062,15 +18298,15 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="49"/>
-        <v>2.1855135135135138</v>
+        <v>2.1737634408602156</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" ref="O56:O70" si="52">0.75*(((G56*INDEX($R$1:$R$3,$D56+2))*Q56)/R56)</f>
-        <v>8.0878378378378386</v>
+        <v>8.0443548387096797</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" ref="P56:P70" si="53">1.25*(((G56*INDEX($R$1:$R$3,$D56+2))*Q56)/R56)</f>
-        <v>13.479729729729733</v>
+        <v>13.407258064516132</v>
       </c>
       <c r="Q56" s="2">
         <f>(AVERAGE(VLOOKUP(E56,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E56,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E56,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17112,7 +18348,7 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" ref="G57:G70" si="54">IF(G$55=1,H57,H57/(1-INDEX($O$2:$O$6,C57)))</f>
-        <v>1.8378378378378379</v>
+        <v>1.8279569892473122</v>
       </c>
       <c r="H57" s="2">
         <f>$F57*(0.68-(0.12*$D57))</f>
@@ -17128,7 +18364,7 @@
       </c>
       <c r="K57" s="10">
         <f t="shared" si="51"/>
-        <v>-6.5294117647058822</v>
+        <v>-13.058823529411768</v>
       </c>
       <c r="L57" s="10">
         <v>0</v>
@@ -17138,15 +18374,15 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="49"/>
-        <v>3.6756756756756759</v>
+        <v>3.6559139784946248</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="52"/>
-        <v>14.358108108108109</v>
+        <v>14.280913978494628</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="53"/>
-        <v>23.930180180180184</v>
+        <v>23.801523297491048</v>
       </c>
       <c r="Q57" s="2">
         <f>(AVERAGE(VLOOKUP(E57,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E57,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E57,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17188,10 +18424,10 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" si="54"/>
-        <v>1.4971675675675675</v>
+        <v>1.4891182795698927</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" ref="H58:H72" si="58">$F58*(0.68-(0.12*$D58))</f>
+        <f t="shared" ref="H58:H70" si="58">$F58*(0.68-(0.12*$D58))</f>
         <v>1.3848800000000001</v>
       </c>
       <c r="I58" s="2">
@@ -17204,7 +18440,7 @@
       </c>
       <c r="K58" s="10">
         <f t="shared" si="51"/>
-        <v>-2.6428571428571432</v>
+        <v>-5.7321428571428612</v>
       </c>
       <c r="L58" s="10">
         <v>0</v>
@@ -17214,15 +18450,15 @@
       </c>
       <c r="N58" s="2">
         <f t="shared" si="49"/>
-        <v>5.9886702702702701</v>
+        <v>5.9564731182795718</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="52"/>
-        <v>25.139007664380795</v>
+        <v>25.00385170919596</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="53"/>
-        <v>41.898346107301322</v>
+        <v>41.67308618199327</v>
       </c>
       <c r="Q58" s="2">
         <f>(AVERAGE(VLOOKUP(E58,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E58,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E58,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17264,7 +18500,7 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" si="54"/>
-        <v>4.7190964705882354</v>
+        <v>4.6642232558139529</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="58"/>
@@ -17280,7 +18516,7 @@
       </c>
       <c r="K59" s="10">
         <f t="shared" si="51"/>
-        <v>-4.2500000000000009</v>
+        <v>-3.3611111111111116</v>
       </c>
       <c r="L59" s="10">
         <v>0</v>
@@ -17290,15 +18526,15 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="49"/>
-        <v>4.7190964705882354</v>
+        <v>4.6642232558139529</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="52"/>
-        <v>17.46376160990712</v>
+        <v>17.260694614443082</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" si="53"/>
-        <v>29.106269349845203</v>
+        <v>28.767824357405139</v>
       </c>
       <c r="Q59" s="2">
         <f>(AVERAGE(VLOOKUP(E59,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E59,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E59,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17340,7 +18576,7 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" si="54"/>
-        <v>3.9870399999999999</v>
+        <v>3.9406790697674419</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="58"/>
@@ -17356,7 +18592,7 @@
       </c>
       <c r="K60" s="10">
         <f t="shared" si="51"/>
-        <v>-3.0000000000000009</v>
+        <v>-2.3071895424836604</v>
       </c>
       <c r="L60" s="10">
         <v>0</v>
@@ -17366,15 +18602,15 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="49"/>
-        <v>7.9740799999999998</v>
+        <v>7.8813581395348837</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="52"/>
-        <v>31.14875</v>
+        <v>30.78655523255814</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" si="53"/>
-        <v>51.914583333333333</v>
+        <v>51.310925387596896</v>
       </c>
       <c r="Q60" s="2">
         <f>(AVERAGE(VLOOKUP(E60,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E60,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E60,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17416,7 +18652,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" si="54"/>
-        <v>3.2635218823529417</v>
+        <v>3.2255739534883725</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="58"/>
@@ -17432,7 +18668,7 @@
       </c>
       <c r="K61" s="10">
         <f t="shared" si="51"/>
-        <v>-1.2142857142857149</v>
+        <v>-0.80158730158730163</v>
       </c>
       <c r="L61" s="10">
         <v>0</v>
@@ -17442,15 +18678,15 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="49"/>
-        <v>13.054087529411767</v>
+        <v>12.902295813953492</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="52"/>
-        <v>54.797942054433719</v>
+        <v>54.160756681707753</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="53"/>
-        <v>91.329903424056198</v>
+        <v>90.267927802846245</v>
       </c>
       <c r="Q61" s="2">
         <f>(AVERAGE(VLOOKUP(E61,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E61,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E61,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17492,7 +18728,7 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" si="54"/>
-        <v>7.7430503225806451</v>
+        <v>7.5960303797468347</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="58"/>
@@ -17508,7 +18744,7 @@
       </c>
       <c r="K62" s="10">
         <f t="shared" si="51"/>
-        <v>-3.03125</v>
+        <v>-1.6750000000000003</v>
       </c>
       <c r="L62" s="10">
         <v>0</v>
@@ -17518,15 +18754,15 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="49"/>
-        <v>7.7430503225806451</v>
+        <v>7.5960303797468347</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="52"/>
-        <v>28.654380305602718</v>
+        <v>28.110309793471018</v>
       </c>
       <c r="P62" s="2">
         <f t="shared" si="53"/>
-        <v>47.757300509337867</v>
+        <v>46.850516322451696</v>
       </c>
       <c r="Q62" s="2">
         <f>(AVERAGE(VLOOKUP(E62,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E62,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E62,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17568,7 +18804,7 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" si="54"/>
-        <v>6.5522167741935489</v>
+        <v>6.4278075949367093</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="58"/>
@@ -17584,7 +18820,7 @@
       </c>
       <c r="K63" s="10">
         <f t="shared" si="51"/>
-        <v>-2.1764705882352939</v>
+        <v>-1.0941176470588236</v>
       </c>
       <c r="L63" s="10">
         <v>0</v>
@@ -17594,15 +18830,15 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="49"/>
-        <v>13.104433548387096</v>
+        <v>12.855615189873419</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="52"/>
-        <v>51.189193548387095</v>
+        <v>50.217246835443042</v>
       </c>
       <c r="P63" s="2">
         <f t="shared" si="53"/>
-        <v>85.315322580645159</v>
+        <v>83.695411392405077</v>
       </c>
       <c r="Q63" s="2">
         <f>(AVERAGE(VLOOKUP(E63,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E63,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E63,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17645,7 +18881,7 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" si="54"/>
-        <v>5.3717512258064524</v>
+        <v>5.2697559493670889</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="58"/>
@@ -17661,7 +18897,7 @@
       </c>
       <c r="K64" s="10">
         <f t="shared" si="51"/>
-        <v>-0.95535714285714368</v>
+        <v>-0.26428571428571446</v>
       </c>
       <c r="L64" s="10">
         <v>0</v>
@@ -17671,15 +18907,15 @@
       </c>
       <c r="N64" s="2">
         <f t="shared" si="49"/>
-        <v>21.487004903225809</v>
+        <v>21.079023797468356</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="52"/>
-        <v>90.197315358690432</v>
+        <v>88.48470810504439</v>
       </c>
       <c r="P64" s="2">
         <f t="shared" si="53"/>
-        <v>150.32885893115071</v>
+        <v>147.47451350840731</v>
       </c>
       <c r="Q64" s="2">
         <f>(AVERAGE(VLOOKUP(E64,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E64,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E64,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17721,7 +18957,7 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" si="54"/>
-        <v>11.414994285714286</v>
+        <v>11.097911111111111</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="58"/>
@@ -17737,7 +18973,7 @@
       </c>
       <c r="K65" s="10">
         <f t="shared" si="51"/>
-        <v>-1.0624999999999996</v>
+        <v>-1.523076923076923</v>
       </c>
       <c r="L65" s="10">
         <v>0</v>
@@ -17747,15 +18983,15 @@
       </c>
       <c r="N65" s="2">
         <f t="shared" si="49"/>
-        <v>11.414994285714284</v>
+        <v>11.097911111111111</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="52"/>
-        <v>42.242988721804515</v>
+        <v>41.069572368421056</v>
       </c>
       <c r="P65" s="2">
         <f t="shared" si="53"/>
-        <v>70.404981203007523</v>
+        <v>68.449287280701753</v>
       </c>
       <c r="Q65" s="2">
         <f>(AVERAGE(VLOOKUP(E65,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E65,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E65,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17797,7 +19033,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" si="54"/>
-        <v>9.6670742857142855</v>
+        <v>9.398544444444445</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="58"/>
@@ -17813,7 +19049,7 @@
       </c>
       <c r="K66" s="10">
         <f t="shared" si="51"/>
-        <v>-0.67647058823529416</v>
+        <v>-1.0343891402714935</v>
       </c>
       <c r="L66" s="10">
         <v>0</v>
@@ -17823,15 +19059,15 @@
       </c>
       <c r="N66" s="2">
         <f t="shared" si="49"/>
-        <v>19.334148571428571</v>
+        <v>18.79708888888889</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="52"/>
-        <v>75.524017857142866</v>
+        <v>73.426128472222231</v>
       </c>
       <c r="P66" s="2">
         <f t="shared" si="53"/>
-        <v>125.87336309523809</v>
+        <v>122.37688078703705</v>
       </c>
       <c r="Q66" s="2">
         <f>(AVERAGE(VLOOKUP(E66,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E66,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E66,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17873,7 +19109,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" si="54"/>
-        <v>7.931744000000001</v>
+        <v>7.711417777777779</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="58"/>
@@ -17889,7 +19125,7 @@
       </c>
       <c r="K67" s="10">
         <f t="shared" si="51"/>
-        <v>-0.125</v>
+        <v>-0.33626373626373662</v>
       </c>
       <c r="L67" s="10">
         <v>0</v>
@@ -17899,15 +19135,15 @@
       </c>
       <c r="N67" s="2">
         <f t="shared" si="49"/>
-        <v>31.726976000000004</v>
+        <v>30.84567111111112</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="52"/>
-        <v>133.18226865671642</v>
+        <v>129.48276119402988</v>
       </c>
       <c r="P67" s="2">
         <f t="shared" si="53"/>
-        <v>221.97044776119407</v>
+        <v>215.80460199004978</v>
       </c>
       <c r="Q67" s="2">
         <f>(AVERAGE(VLOOKUP(E67,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E67,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E67,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -17949,7 +19185,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" si="54"/>
-        <v>15.968204800000001</v>
+        <v>15.35404307692308</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="58"/>
@@ -17965,7 +19201,7 @@
       </c>
       <c r="K68" s="10">
         <f t="shared" si="51"/>
-        <v>-0.6875</v>
+        <v>-1.2333333333333334</v>
       </c>
       <c r="L68" s="10">
         <v>0</v>
@@ -17975,15 +19211,15 @@
       </c>
       <c r="N68" s="2">
         <f t="shared" si="49"/>
-        <v>15.968204800000001</v>
+        <v>15.35404307692308</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="52"/>
-        <v>59.09286315789474</v>
+        <v>56.820060728744949</v>
       </c>
       <c r="P68" s="2">
         <f t="shared" si="53"/>
-        <v>98.488105263157891</v>
+        <v>94.700101214574914</v>
       </c>
       <c r="Q68" s="2">
         <f>(AVERAGE(VLOOKUP(E68,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E68,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E68,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18025,7 +19261,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" si="54"/>
-        <v>13.529497600000003</v>
+        <v>13.009132307692312</v>
       </c>
       <c r="H69" s="2">
         <f>$F69*(0.68-(0.12*$D69))</f>
@@ -18041,7 +19277,7 @@
       </c>
       <c r="K69" s="10">
         <f t="shared" si="51"/>
-        <v>-0.41176470588235303</v>
+        <v>-0.85098039215686305</v>
       </c>
       <c r="L69" s="10">
         <v>0</v>
@@ -18051,15 +19287,15 @@
       </c>
       <c r="N69" s="2">
         <f t="shared" si="49"/>
-        <v>27.058995200000005</v>
+        <v>26.018264615384627</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" si="52"/>
-        <v>105.69920000000002</v>
+        <v>101.63384615384621</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" si="53"/>
-        <v>176.16533333333336</v>
+        <v>169.38974358974366</v>
       </c>
       <c r="Q69" s="2">
         <f>(AVERAGE(VLOOKUP(E69,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E69,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E69,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18101,7 +19337,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" si="54"/>
-        <v>11.106135040000002</v>
+        <v>10.678976000000002</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="58"/>
@@ -18117,7 +19353,7 @@
       </c>
       <c r="K70" s="10">
         <f t="shared" si="51"/>
-        <v>-1.7857142857143016E-2</v>
+        <v>-0.30476190476190523</v>
       </c>
       <c r="L70" s="10">
         <v>0</v>
@@ -18127,15 +19363,15 @@
       </c>
       <c r="N70" s="2">
         <f t="shared" si="49"/>
-        <v>44.424540160000006</v>
+        <v>42.715904000000009</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" si="52"/>
-        <v>186.48361074626865</v>
+        <v>179.31116417910451</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="53"/>
-        <v>310.80601791044779</v>
+        <v>298.85194029850754</v>
       </c>
       <c r="Q70" s="2">
         <f>(AVERAGE(VLOOKUP(E70,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E70,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E70,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18221,7 +19457,7 @@
       </c>
       <c r="G72" s="26">
         <f>IF(G$71=1,H72,H72/(1-INDEX($O$2:$O$6,C72)))</f>
-        <v>42.857142857142861</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="H72" s="26">
         <f>$F72*(INDEX($F$3:$F$5,H$71)+(($C72+($D72*$F$7))*INDEX($G$3:$G$5,H$71)))</f>
@@ -18237,26 +19473,26 @@
       </c>
       <c r="K72" s="10">
         <f>1-((1-(I72/G72))/INDEX($P$2:$P$6,C72))</f>
-        <v>-1.3833333333333333</v>
+        <v>-1.9292307692307689</v>
       </c>
       <c r="L72" s="10">
         <f>(INDEX($Q$2:$Q$6,C72)/((1/INDEX($F$4:$F$6,J$71))-1))</f>
-        <v>8.8888888888888892E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
       <c r="M72" s="10">
         <v>0</v>
       </c>
       <c r="N72" s="2">
         <f>(AVERAGE(O72,P72)*R72)/Q72</f>
-        <v>171.42857142857144</v>
+        <v>166.66666666666669</v>
       </c>
       <c r="O72" s="2">
         <f>0.75*(((G72*INDEX($R$1:$R$3,$D72+2))*Q72)/R72)</f>
-        <v>1836.7346938775513</v>
+        <v>1785.7142857142862</v>
       </c>
       <c r="P72" s="2">
         <f>1.25*(((G72*INDEX($R$1:$R$3,$D72+2))*Q72)/R72)</f>
-        <v>3061.2244897959185</v>
+        <v>2976.1904761904771</v>
       </c>
       <c r="Q72" s="2">
         <v>10</v>
@@ -18300,7 +19536,7 @@
       </c>
       <c r="G73" s="2">
         <f>IF(G$71=1,H73,H73/(1-INDEX($O$2:$O$6,C73)))</f>
-        <v>64</v>
+        <v>61.538461538461547</v>
       </c>
       <c r="H73" s="26">
         <f>$F73*(INDEX($F$3:$F$5,H$71)+(($C73+($D73*$F$7))*INDEX($G$3:$G$5,H$71)))</f>
@@ -18316,26 +19552,26 @@
       </c>
       <c r="K73" s="10">
         <f>1-((1-(I73/G73))/INDEX($P$2:$P$6,C73))</f>
-        <v>-0.9375</v>
+        <v>-1.58</v>
       </c>
       <c r="L73" s="10">
         <f>(INDEX($Q$2:$Q$6,C73)/((1/INDEX($F$4:$F$6,J$71))-1))</f>
-        <v>0.1111111111111111</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M73" s="10">
         <v>0</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="49"/>
-        <v>256</v>
+        <v>246.15384615384625</v>
       </c>
       <c r="O73" s="2">
         <f>0.75*(((G73*INDEX($R$1:$R$3,$D73+2))*Q73)/R73)</f>
-        <v>2742.8571428571431</v>
+        <v>2637.362637362638</v>
       </c>
       <c r="P73" s="2">
         <f>1.25*(((G73*INDEX($R$1:$R$3,$D73+2))*Q73)/R73)</f>
-        <v>4571.4285714285716</v>
+        <v>4395.6043956043968</v>
       </c>
       <c r="Q73" s="2">
         <v>10</v>
@@ -18413,7 +19649,7 @@
       </c>
       <c r="G75" s="2">
         <f>IF(G$74=1,H75,H75/(1-INDEX($O$2:$O$6,C75)))</f>
-        <v>4.258064516129032</v>
+        <v>4.1772151898734169</v>
       </c>
       <c r="H75" s="2">
         <f>$F75*(0.32-(0.12*$D75))</f>
@@ -18429,7 +19665,7 @@
       </c>
       <c r="K75" s="10">
         <f t="shared" si="24"/>
-        <v>0.93181818181818221</v>
+        <v>1.0181818181818187</v>
       </c>
       <c r="L75" s="10">
         <v>0</v>
@@ -18439,15 +19675,15 @@
       </c>
       <c r="N75" s="2">
         <f t="shared" si="49"/>
-        <v>4.258064516129032</v>
+        <v>4.1772151898734169</v>
       </c>
       <c r="O75" s="2">
         <f t="shared" ref="O75:O83" si="61">0.75*(((G75*INDEX($R$1:$R$3,$D75+2))*Q75)/R75)</f>
-        <v>12.267899291896143</v>
+        <v>12.03496449521457</v>
       </c>
       <c r="P75" s="2">
         <f t="shared" ref="P75:P83" si="62">1.25*(((G75*INDEX($R$1:$R$3,$D75+2))*Q75)/R75)</f>
-        <v>20.446498819826907</v>
+        <v>20.058274158690953</v>
       </c>
       <c r="Q75" s="2">
         <f>(AVERAGE(VLOOKUP(E75,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E75,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E75,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18489,7 +19725,7 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" ref="G76:G83" si="65">IF(G$74=1,H76,H76/(1-INDEX($O$2:$O$6,C76)))</f>
-        <v>3.096774193548387</v>
+        <v>3.0379746835443036</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" ref="H76:H83" si="66">$F76*(0.32-(0.12*$D76))</f>
@@ -18505,7 +19741,7 @@
       </c>
       <c r="K76" s="10">
         <f t="shared" si="24"/>
-        <v>4.2343750000000018</v>
+        <v>3.2625000000000015</v>
       </c>
       <c r="L76" s="10">
         <v>0</v>
@@ -18515,15 +19751,15 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="49"/>
-        <v>6.193548387096774</v>
+        <v>6.0759493670886071</v>
       </c>
       <c r="O76" s="2">
         <f t="shared" si="61"/>
-        <v>18.29032258064516</v>
+        <v>17.943037974683541</v>
       </c>
       <c r="P76" s="2">
         <f t="shared" si="62"/>
-        <v>30.483870967741929</v>
+        <v>29.905063291139236</v>
       </c>
       <c r="Q76" s="2">
         <f>(AVERAGE(VLOOKUP(E76,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E76,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E76,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18565,7 +19801,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" si="65"/>
-        <v>1.9354838709677418</v>
+        <v>1.8987341772151898</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="66"/>
@@ -18581,7 +19817,7 @@
       </c>
       <c r="K77" s="10">
         <f t="shared" si="24"/>
-        <v>11.5</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="L77" s="10">
         <v>0</v>
@@ -18591,15 +19827,15 @@
       </c>
       <c r="N77" s="2">
         <f t="shared" si="49"/>
-        <v>7.7419354838709671</v>
+        <v>7.59493670886076</v>
       </c>
       <c r="O77" s="2">
         <f t="shared" si="61"/>
-        <v>24.387096774193544</v>
+        <v>23.924050632911392</v>
       </c>
       <c r="P77" s="2">
         <f t="shared" si="62"/>
-        <v>40.645161290322569</v>
+        <v>39.87341772151899</v>
       </c>
       <c r="Q77" s="2">
         <f>(AVERAGE(VLOOKUP(E77,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E77,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E77,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18641,7 +19877,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" si="65"/>
-        <v>6.2857142857142865</v>
+        <v>6.1111111111111116</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="66"/>
@@ -18657,7 +19893,7 @@
       </c>
       <c r="K78" s="10">
         <f t="shared" si="24"/>
-        <v>0.72727272727272718</v>
+        <v>0.74265734265734273</v>
       </c>
       <c r="L78" s="10">
         <v>0</v>
@@ -18667,15 +19903,15 @@
       </c>
       <c r="N78" s="2">
         <f t="shared" si="49"/>
-        <v>6.2857142857142865</v>
+        <v>6.1111111111111116</v>
       </c>
       <c r="O78" s="2">
         <f t="shared" si="61"/>
-        <v>18.109756097560975</v>
+        <v>17.606707317073173</v>
       </c>
       <c r="P78" s="2">
         <f t="shared" si="62"/>
-        <v>30.182926829268297</v>
+        <v>29.344512195121951</v>
       </c>
       <c r="Q78" s="2">
         <f>(AVERAGE(VLOOKUP(E78,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E78,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E78,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18717,7 +19953,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" si="65"/>
-        <v>4.5714285714285721</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="66"/>
@@ -18733,7 +19969,7 @@
       </c>
       <c r="K79" s="10">
         <f t="shared" si="24"/>
-        <v>2.21875</v>
+        <v>2.6307692307692307</v>
       </c>
       <c r="L79" s="10">
         <v>0</v>
@@ -18743,15 +19979,15 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="49"/>
-        <v>9.1428571428571441</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="O79" s="2">
         <f t="shared" si="61"/>
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="P79" s="2">
         <f t="shared" si="62"/>
-        <v>45</v>
+        <v>43.75</v>
       </c>
       <c r="Q79" s="2">
         <f>(AVERAGE(VLOOKUP(E79,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E79,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E79,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18793,7 +20029,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" si="65"/>
-        <v>2.8571428571428572</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="66"/>
@@ -18809,7 +20045,7 @@
       </c>
       <c r="K80" s="10">
         <f t="shared" si="24"/>
-        <v>5.4999999999999991</v>
+        <v>6.7846153846153845</v>
       </c>
       <c r="L80" s="10">
         <v>0</v>
@@ -18819,15 +20055,15 @@
       </c>
       <c r="N80" s="2">
         <f t="shared" si="49"/>
-        <v>11.428571428571429</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="O80" s="2">
         <f t="shared" si="61"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P80" s="2">
         <f t="shared" si="62"/>
-        <v>60</v>
+        <v>58.333333333333329</v>
       </c>
       <c r="Q80" s="2">
         <f>(AVERAGE(VLOOKUP(E80,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E80,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E80,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18869,7 +20105,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" si="65"/>
-        <v>8.8000000000000007</v>
+        <v>8.4615384615384635</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="66"/>
@@ -18885,7 +20121,7 @@
       </c>
       <c r="K81" s="10">
         <f t="shared" si="24"/>
-        <v>0.59090909090909105</v>
+        <v>0.53939393939393909</v>
       </c>
       <c r="L81" s="10">
         <v>0</v>
@@ -18895,15 +20131,15 @@
       </c>
       <c r="N81" s="2">
         <f t="shared" si="49"/>
-        <v>8.8000000000000007</v>
+        <v>8.4615384615384652</v>
       </c>
       <c r="O81" s="2">
         <f t="shared" si="61"/>
-        <v>25.353658536585371</v>
+        <v>24.378517823639783</v>
       </c>
       <c r="P81" s="2">
         <f t="shared" si="62"/>
-        <v>42.256097560975618</v>
+        <v>40.630863039399642</v>
       </c>
       <c r="Q81" s="2">
         <f>(AVERAGE(VLOOKUP(E81,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E81,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E81,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -18945,7 +20181,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" si="65"/>
-        <v>6.4</v>
+        <v>6.1538461538461551</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="66"/>
@@ -18961,7 +20197,7 @@
       </c>
       <c r="K82" s="10">
         <f t="shared" si="24"/>
-        <v>1.65625</v>
+        <v>2.0166666666666657</v>
       </c>
       <c r="L82" s="10">
         <v>0</v>
@@ -18971,15 +20207,15 @@
       </c>
       <c r="N82" s="2">
         <f t="shared" si="49"/>
-        <v>12.8</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="O82" s="2">
         <f t="shared" si="61"/>
-        <v>37.799999999999997</v>
+        <v>36.346153846153854</v>
       </c>
       <c r="P82" s="2">
         <f t="shared" si="62"/>
-        <v>63</v>
+        <v>60.57692307692308</v>
       </c>
       <c r="Q82" s="2">
         <f>(AVERAGE(VLOOKUP(E82,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E82,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E82,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -19021,7 +20257,7 @@
       </c>
       <c r="G83" s="2">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>3.8461538461538467</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="66"/>
@@ -19037,7 +20273,7 @@
       </c>
       <c r="K83" s="10">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5.2666666666666657</v>
       </c>
       <c r="L83" s="10">
         <v>0</v>
@@ -19047,15 +20283,15 @@
       </c>
       <c r="N83" s="2">
         <f t="shared" si="49"/>
-        <v>16.000000000000004</v>
+        <v>15.384615384615387</v>
       </c>
       <c r="O83" s="2">
         <f t="shared" si="61"/>
-        <v>50.400000000000006</v>
+        <v>48.461538461538467</v>
       </c>
       <c r="P83" s="2">
         <f t="shared" si="62"/>
-        <v>84</v>
+        <v>80.769230769230788</v>
       </c>
       <c r="Q83" s="2">
         <f>(AVERAGE(VLOOKUP(E83,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E83,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E83,weapon_components!$A$8:$M$178,11,0))/10</f>
@@ -19132,7 +20368,7 @@
       </c>
       <c r="G85" s="2">
         <f>IF(G$84=1,H85,H85/(1-INDEX($O$2:$O$6,C85)))</f>
-        <v>21.428571428571431</v>
+        <v>20.833333333333336</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="68"/>
@@ -19204,7 +20440,7 @@
       </c>
       <c r="G86" s="2">
         <f>IF(G$84=1,H86,H86/(1-INDEX($O$2:$O$6,C86)))</f>
-        <v>32</v>
+        <v>30.769230769230774</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="68"/>
@@ -19333,7 +20569,7 @@
       </c>
       <c r="K88" s="10">
         <f t="shared" si="24"/>
-        <v>-1.6666666666666661</v>
+        <v>-3.9999999999999991</v>
       </c>
       <c r="L88" s="10">
         <v>0</v>
@@ -19410,7 +20646,7 @@
       </c>
       <c r="K89" s="10">
         <f t="shared" si="24"/>
-        <v>-3.6060606060606082</v>
+        <v>-7.6363636363636385</v>
       </c>
       <c r="L89" s="10">
         <v>0</v>
@@ -19487,7 +20723,7 @@
       </c>
       <c r="K90" s="10">
         <f t="shared" ref="K90:K102" si="75">1-((1-(I90/G90))/INDEX($P$2:$P$6,C90))</f>
-        <v>-5.2222222222222223</v>
+        <v>-10.666666666666666</v>
       </c>
       <c r="L90" s="10">
         <v>0</v>
@@ -19564,7 +20800,7 @@
       </c>
       <c r="K91" s="10">
         <f t="shared" si="75"/>
-        <v>-1.3030303030303041</v>
+        <v>-0.91919191919192</v>
       </c>
       <c r="L91" s="10">
         <v>0</v>
@@ -19641,7 +20877,7 @@
       </c>
       <c r="K92" s="10">
         <f t="shared" si="75"/>
-        <v>-2.1111111111111112</v>
+        <v>-1.5925925925925926</v>
       </c>
       <c r="L92" s="10">
         <v>0</v>
@@ -19718,7 +20954,7 @@
       </c>
       <c r="K93" s="10">
         <f t="shared" si="75"/>
-        <v>-2.7948717948717947</v>
+        <v>-2.1623931623931623</v>
       </c>
       <c r="L93" s="10">
         <v>0</v>
@@ -19795,7 +21031,7 @@
       </c>
       <c r="K94" s="10">
         <f t="shared" si="75"/>
-        <v>-1.333333333333333</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="L94" s="10">
         <v>0</v>
@@ -19872,7 +21108,7 @@
       </c>
       <c r="K95" s="10">
         <f t="shared" si="75"/>
-        <v>-1.8461538461538458</v>
+        <v>-0.89743589743589736</v>
       </c>
       <c r="L95" s="10">
         <v>0</v>
@@ -19949,7 +21185,7 @@
       </c>
       <c r="K96" s="10">
         <f t="shared" si="75"/>
-        <v>-2.285714285714286</v>
+        <v>-1.1904761904761911</v>
       </c>
       <c r="L96" s="10">
         <v>0</v>
@@ -20026,7 +21262,7 @@
       </c>
       <c r="K97" s="10">
         <f t="shared" si="75"/>
-        <v>-0.42307692307692291</v>
+        <v>-0.75147928994082824</v>
       </c>
       <c r="L97" s="10">
         <v>0</v>
@@ -20103,7 +21339,7 @@
       </c>
       <c r="K98" s="10">
         <f t="shared" si="75"/>
-        <v>-0.64285714285714279</v>
+        <v>-1.0219780219780219</v>
       </c>
       <c r="L98" s="10">
         <v>0</v>
@@ -20180,7 +21416,7 @@
       </c>
       <c r="K99" s="10">
         <f t="shared" si="75"/>
-        <v>-0.83333333333333348</v>
+        <v>-1.2564102564102564</v>
       </c>
       <c r="L99" s="10">
         <v>0</v>
@@ -20257,7 +21493,7 @@
       </c>
       <c r="K100" s="10">
         <f t="shared" si="75"/>
-        <v>-0.31428571428571428</v>
+        <v>-0.75238095238095237</v>
       </c>
       <c r="L100" s="10">
         <v>0</v>
@@ -20334,7 +21570,7 @@
       </c>
       <c r="K101" s="10">
         <f t="shared" si="75"/>
-        <v>-0.46666666666666679</v>
+        <v>-0.95555555555555571</v>
       </c>
       <c r="L101" s="10">
         <v>0</v>
@@ -20411,7 +21647,7 @@
       </c>
       <c r="K102" s="10">
         <f t="shared" si="75"/>
-        <v>-0.60000000000000009</v>
+        <v>-1.1333333333333333</v>
       </c>
       <c r="L102" s="10">
         <v>0</v>
@@ -20529,7 +21765,7 @@
       </c>
       <c r="K104" s="10">
         <f t="shared" ref="K104:K112" si="79">1-((1-(I104/G104))/INDEX($P$2:$P$6,C104))</f>
-        <v>-0.50000000000000022</v>
+        <v>0</v>
       </c>
       <c r="L104" s="10">
         <v>0</v>
@@ -20607,7 +21843,7 @@
       </c>
       <c r="K105" s="10">
         <f t="shared" si="79"/>
-        <v>-1.0769230769230766</v>
+        <v>-0.38461538461538458</v>
       </c>
       <c r="L105" s="10">
         <v>0</v>
@@ -20685,7 +21921,7 @@
       </c>
       <c r="K106" s="10">
         <f t="shared" si="79"/>
-        <v>-1.5714285714285716</v>
+        <v>-0.71428571428571463</v>
       </c>
       <c r="L106" s="10">
         <v>0</v>
@@ -20763,7 +21999,7 @@
       </c>
       <c r="K107" s="10">
         <f t="shared" si="79"/>
-        <v>-3.8461538461538547E-2</v>
+        <v>-0.27810650887573973</v>
       </c>
       <c r="L107" s="10">
         <v>0</v>
@@ -20841,7 +22077,7 @@
       </c>
       <c r="K108" s="10">
         <f t="shared" si="79"/>
-        <v>-0.28571428571428581</v>
+        <v>-0.58241758241758257</v>
       </c>
       <c r="L108" s="10">
         <v>0</v>
@@ -20919,7 +22155,7 @@
       </c>
       <c r="K109" s="10">
         <f t="shared" si="79"/>
-        <v>-0.50000000000000022</v>
+        <v>-0.84615384615384626</v>
       </c>
       <c r="L109" s="10">
         <v>0</v>
@@ -20997,7 +22233,7 @@
       </c>
       <c r="K110" s="10">
         <f t="shared" si="79"/>
-        <v>-2.857142857142847E-2</v>
+        <v>-0.37142857142857122</v>
       </c>
       <c r="L110" s="10">
         <v>0</v>
@@ -21075,7 +22311,7 @@
       </c>
       <c r="K111" s="10">
         <f t="shared" si="79"/>
-        <v>-0.20000000000000018</v>
+        <v>-0.60000000000000031</v>
       </c>
       <c r="L111" s="10">
         <v>0</v>
@@ -21153,7 +22389,7 @@
       </c>
       <c r="K112" s="10">
         <f t="shared" si="79"/>
-        <v>-0.35000000000000009</v>
+        <v>-0.8</v>
       </c>
       <c r="L112" s="10">
         <v>0</v>
@@ -21274,7 +22510,7 @@
       </c>
       <c r="K114" s="10">
         <f>1-((1-(I114/G114))/INDEX($P$2:$P$6,C114))</f>
-        <v>-0.64285714285714279</v>
+        <v>-1.0219780219780219</v>
       </c>
       <c r="L114" s="10">
         <v>0</v>
@@ -21354,7 +22590,7 @@
       </c>
       <c r="K115" s="10">
         <f>1-((1-(I115/G115))/INDEX($P$2:$P$6,C115))</f>
-        <v>-0.46666666666666679</v>
+        <v>-0.95555555555555571</v>
       </c>
       <c r="L115" s="10">
         <v>0</v>
@@ -21458,7 +22694,7 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" ref="G117:G119" si="87">IF(G$116=1,H117,H117/(1-INDEX($O$2:$O$6,C117)))</f>
-        <v>9.2903225806451601</v>
+        <v>9.1139240506329102</v>
       </c>
       <c r="H117" s="2">
         <f t="shared" ref="H117:H119" si="88">$F117*(INDEX($F$3:$F$5,H$116)+(($C117+($D117*$F$7))*INDEX($G$3:$G$5,H$116)))</f>
@@ -21474,7 +22710,7 @@
       </c>
       <c r="K117" s="10">
         <f t="shared" ref="K117:K119" si="90">1-((1-(I117/G117))/INDEX($P$2:$P$6,C117))</f>
-        <v>7.3020833333333348</v>
+        <v>5.3472222222222241</v>
       </c>
       <c r="L117" s="10">
         <v>0</v>
@@ -21484,15 +22720,15 @@
       </c>
       <c r="N117" s="2">
         <f t="shared" ref="N117:N119" si="91">(AVERAGE(O117,P117)*R117)/Q117</f>
-        <v>9.2903225806451584</v>
+        <v>9.113924050632912</v>
       </c>
       <c r="O117" s="2">
         <f t="shared" ref="O117:O118" si="92">0.75*(((G117*INDEX($R$1:$R$3,$D117+2))*Q117)/R117)/4</f>
-        <v>92.903225806451601</v>
+        <v>91.139240506329102</v>
       </c>
       <c r="P117" s="2">
         <f t="shared" ref="P117:P118" si="93">1.25*(((G117*INDEX($R$1:$R$3,$D117+2))*Q117)/R117)/4</f>
-        <v>154.83870967741933</v>
+        <v>151.89873417721518</v>
       </c>
       <c r="Q117" s="2">
         <v>10</v>
@@ -21534,7 +22770,7 @@
       </c>
       <c r="G118" s="2">
         <f t="shared" si="87"/>
-        <v>11.428571428571429</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="H118" s="2">
         <f t="shared" si="88"/>
@@ -21550,7 +22786,7 @@
       </c>
       <c r="K118" s="10">
         <f t="shared" si="90"/>
-        <v>5.0625</v>
+        <v>6.2307692307692308</v>
       </c>
       <c r="L118" s="10">
         <v>0</v>
@@ -21560,15 +22796,15 @@
       </c>
       <c r="N118" s="2">
         <f t="shared" si="91"/>
-        <v>11.428571428571427</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="O118" s="2">
         <f t="shared" si="92"/>
-        <v>114.28571428571428</v>
+        <v>111.11111111111111</v>
       </c>
       <c r="P118" s="2">
         <f t="shared" si="93"/>
-        <v>190.47619047619048</v>
+        <v>185.18518518518519</v>
       </c>
       <c r="Q118" s="2">
         <v>10</v>
@@ -21610,7 +22846,7 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" si="87"/>
-        <v>12.799999999999999</v>
+        <v>12.307692307692308</v>
       </c>
       <c r="H119" s="2">
         <f t="shared" si="88"/>
@@ -21626,7 +22862,7 @@
       </c>
       <c r="K119" s="10">
         <f t="shared" si="90"/>
-        <v>5.2500000000000009</v>
+        <v>7</v>
       </c>
       <c r="L119" s="10">
         <v>0</v>
@@ -21636,15 +22872,15 @@
       </c>
       <c r="N119" s="2">
         <f t="shared" si="91"/>
-        <v>12.8</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="O119" s="2">
         <f>0.75*(((G119*INDEX($R$1:$R$3,$D119+2))*Q119)/R119)/4</f>
-        <v>128</v>
+        <v>123.07692307692309</v>
       </c>
       <c r="P119" s="2">
         <f>1.25*(((G119*INDEX($R$1:$R$3,$D119+2))*Q119)/R119)/4</f>
-        <v>213.33333333333331</v>
+        <v>205.12820512820514</v>
       </c>
       <c r="Q119" s="2">
         <v>10</v>
@@ -21710,13 +22946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -21860,7 +23096,7 @@
         <v>13.333333333333332</v>
       </c>
       <c r="M4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>23</v>
@@ -21911,12 +23147,13 @@
         <v>40</v>
       </c>
       <c r="P5" s="12">
+        <f>P6*5</f>
         <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -21944,6 +23181,13 @@
         <f t="shared" si="0"/>
         <v>53.333333333333329</v>
       </c>
+      <c r="N6">
+        <f>N5*6</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="7" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
@@ -21953,21 +23197,21 @@
         <v>1</v>
       </c>
       <c r="C7" s="23">
-        <f>(C11/C8)-1</f>
+        <f>(C9/C8)-1</f>
         <v>-0.625</v>
       </c>
       <c r="D7" s="23">
-        <f t="shared" ref="D7:E7" si="5">(D11/D8)-1</f>
+        <f>(D9/D8)-1</f>
         <v>-0.875</v>
       </c>
       <c r="E7" s="23">
-        <f t="shared" si="5"/>
+        <f>(E9/E8)-1</f>
         <v>-0.96875</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B8" s="23">
         <f>B3*$N$5</f>
@@ -21985,287 +23229,288 @@
         <f>E3*$N$5</f>
         <v>1.4933333333333334</v>
       </c>
-      <c r="O8" s="23">
-        <f>O5/5</f>
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="23">
-        <f t="shared" ref="B9:D9" si="6">(B13-B14)</f>
-        <v>0.11963190184049211</v>
-      </c>
-      <c r="C9" s="23">
-        <f t="shared" si="6"/>
-        <v>8.2380952380952337</v>
-      </c>
-      <c r="D9" s="23">
-        <f t="shared" si="6"/>
-        <v>20.831460674157285</v>
-      </c>
-      <c r="E9" s="23">
-        <f>(E13-E14)</f>
-        <v>62.769230769230745</v>
-      </c>
-      <c r="P9">
-        <f>P5/5</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="I10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="24">
+        <v>270</v>
+      </c>
+      <c r="B9" s="24">
         <f>B3*$N$5*B7</f>
         <v>0.18666666666666668</v>
       </c>
-      <c r="C11" s="24">
-        <f>B11*(3/4)</f>
+      <c r="C9" s="24">
+        <f>B9*(3/4)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="D11" s="24">
-        <f>B11*(2/4)</f>
+      <c r="D9" s="24">
+        <f>B9*(2/4)</f>
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="E11" s="24">
-        <f>B11/4</f>
+      <c r="E9" s="24">
+        <f>B9/4</f>
         <v>4.6666666666666669E-2</v>
       </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11">
-        <f>B3</f>
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>12</v>
-      </c>
-      <c r="L11">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="27">
+        <f t="shared" ref="B10:D10" si="5">B14/B13</f>
+        <v>0.9427609427609428</v>
+      </c>
+      <c r="C10" s="27">
+        <f t="shared" si="5"/>
+        <v>1.1965811965811965</v>
+      </c>
+      <c r="D10" s="27">
+        <f t="shared" si="5"/>
+        <v>1.2280701754385959</v>
+      </c>
+      <c r="E10">
+        <f>E14/E13</f>
+        <v>1.2962962962962961</v>
+      </c>
+      <c r="I10" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11">
+        <f>E11*(0.25)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C11">
+        <f>E11*(0.5)</f>
+        <v>0.35</v>
+      </c>
+      <c r="D11">
+        <f>E11*(3/4)</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="E11" s="31">
+        <f>B9*5*3/4</f>
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <f>18.7*0.75*5</f>
+        <v>70.125</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10">
+        <f>($P$6*$I11*B$5*B$10)/(($P$6*$I11*B$5*B$10)+60)</f>
+        <v>4.0697674418604654E-2</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" ref="K11:M15" si="6">($P$6*$I11*C$5*C$10)/(($P$6*$I11*C$5*C$10)+60)</f>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.18103448275862061</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="6"/>
+        <v>0.31818181818181812</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.185</v>
-      </c>
-      <c r="C12" s="10">
-        <f>B12*2</f>
-        <v>0.37</v>
-      </c>
-      <c r="D12" s="10">
-        <f>B12*3</f>
-        <v>0.55499999999999994</v>
-      </c>
-      <c r="E12" s="10">
-        <f>B12*4</f>
-        <v>0.74</v>
+      <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12">
+        <f>-(60*B11)/(B11-1)</f>
+        <v>12.727272727272728</v>
+      </c>
+      <c r="C12" s="27">
+        <f t="shared" ref="C12:E12" si="7">-(60*C11)/(C11-1)</f>
+        <v>32.307692307692307</v>
+      </c>
+      <c r="D12" s="27">
+        <f t="shared" si="7"/>
+        <v>66.315789473684177</v>
+      </c>
+      <c r="E12" s="27">
+        <f>-(60*E11)/(E11-1)</f>
+        <v>139.99999999999997</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="10">
-        <f>(($P$5*$I12)*J$11)/((($P$5*$I12)*J$11)+60)</f>
-        <v>0.23076923076923078</v>
+        <f t="shared" ref="J12:J16" si="8">($P$6*$I12*B$5*B$10)/(($P$6*$I12*B$5*B$10)+60)</f>
+        <v>7.8212290502793311E-2</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" ref="K12:M16" si="7">(($P$5*$I12)*K$11)/((($P$5*$I12)*K$11)+60)</f>
-        <v>0.31034482758620691</v>
+        <f>($P$6*$I12*C$5*C$10)/(($P$6*$I12*C$5*C$10)+60)</f>
+        <v>0.17721518987341772</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" si="7"/>
-        <v>0.47368421052631576</v>
+        <f t="shared" si="6"/>
+        <v>0.30656934306569333</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" si="7"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="6"/>
+        <v>0.48275862068965514</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="23">
-        <f>-((60*B12)/(B12-1))</f>
-        <v>13.619631901840492</v>
-      </c>
-      <c r="C13" s="23">
-        <f t="shared" ref="C13:D13" si="8">-((60*C12)/(C12-1))</f>
-        <v>35.238095238095234</v>
-      </c>
-      <c r="D13" s="23">
-        <f t="shared" si="8"/>
-        <v>74.831460674157285</v>
-      </c>
-      <c r="E13" s="23">
-        <f>-((60*E12)/(E12-1))</f>
-        <v>170.76923076923075</v>
+        <v>276</v>
+      </c>
+      <c r="B13" s="12">
+        <f>$P$5*B5</f>
+        <v>13.5</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:E13" si="9">$P$5*C5</f>
+        <v>27</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="12">
+        <f>$P$5*E5</f>
+        <v>108</v>
       </c>
       <c r="F13" s="23"/>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" ref="J13:J16" si="9">(($P$5*$I13)*J$11)/((($P$5*$I13)*J$11)+60)</f>
-        <v>0.375</v>
+        <f t="shared" si="8"/>
+        <v>0.11290322580645162</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="7"/>
-        <v>0.47368421052631576</v>
+        <f t="shared" si="6"/>
+        <v>0.24418604651162792</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="7"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="6"/>
+        <v>0.39873417721518978</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="7"/>
-        <v>0.78260869565217395</v>
+        <f>($P$6*$I13*E$5*E$10)/(($P$6*$I13*E$5*E$10)+60)</f>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B14" s="23">
-        <f>$P$5*B5</f>
-        <v>13.5</v>
-      </c>
-      <c r="C14" s="23">
-        <f>$P$5*C5</f>
-        <v>27</v>
-      </c>
-      <c r="D14" s="23">
-        <f>$P$5*D5</f>
-        <v>54</v>
-      </c>
-      <c r="E14" s="23">
-        <f>$P$5*E5</f>
-        <v>108</v>
+        <f>-(60*(B11))/((B11)-1)</f>
+        <v>12.727272727272728</v>
+      </c>
+      <c r="C14" s="27">
+        <f t="shared" ref="C14:E14" si="10">-(60*(C11))/((C11)-1)</f>
+        <v>32.307692307692307</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" si="10"/>
+        <v>66.315789473684177</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="10"/>
+        <v>139.99999999999997</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="9"/>
-        <v>0.47368421052631576</v>
+        <f t="shared" si="8"/>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="7"/>
-        <v>0.57446808510638303</v>
+        <f t="shared" si="6"/>
+        <v>0.30107526881720431</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" si="7"/>
-        <v>0.72972972972972971</v>
+        <f t="shared" si="6"/>
+        <v>0.46927374301675967</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="7"/>
-        <v>0.84375</v>
+        <f>($P$6*$I14*E$5*E$10)/(($P$6*$I14*E$5*E$10)+60)</f>
+        <v>0.65116279069767435</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="10">
-        <f>((B3*$P$5)+B9)/((B3*$P$5)+60+B9)</f>
-        <v>0.23194722582165156</v>
-      </c>
-      <c r="C15" s="10">
-        <f>((C3*$P$5)+C9)/((C3*$P$5)+60+C9)</f>
-        <v>0.42439470077661029</v>
-      </c>
-      <c r="D15" s="10">
-        <f>((D3*$P$5)+D9)/((D3*$P$5)+60+D9)</f>
-        <v>0.60741067490074985</v>
-      </c>
-      <c r="E15" s="10">
-        <f>((E3*$P$5)+E9)/((E3*$P$5)+60+E9)</f>
-        <v>0.77508650519031153</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="I15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="9"/>
-        <v>0.54545454545454541</v>
+        <f t="shared" si="8"/>
+        <v>0.17499999999999999</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="7"/>
-        <v>0.6428571428571429</v>
+        <f t="shared" si="6"/>
+        <v>0.35</v>
       </c>
       <c r="L15" s="10">
-        <f t="shared" si="7"/>
-        <v>0.78260869565217395</v>
+        <f t="shared" si="6"/>
+        <v>0.52499999999999991</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="7"/>
-        <v>0.87804878048780488</v>
+        <f>($P$6*$I15*E$5*E$10)/(($P$6*$I15*E$5*E$10)+60)</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16">
-        <f>(B5*$O$5)/B6</f>
-        <v>0.8</v>
-      </c>
-      <c r="C16" s="23">
-        <f t="shared" ref="C16:E16" si="10">(C5*$O$5)/C6</f>
-        <v>0.8</v>
-      </c>
-      <c r="D16" s="23">
-        <f t="shared" si="10"/>
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="23">
-        <f t="shared" si="10"/>
-        <v>0.8</v>
-      </c>
+      <c r="A16" s="14"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="23"/>
+      <c r="H16" t="s">
+        <v>275</v>
+      </c>
       <c r="I16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f>($P$6*$I15*B$3*B$10)/(($P$6*$I15*B$3*B$10)+60)</f>
+        <v>0.22047244094488189</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="7"/>
-        <v>0.69230769230769229</v>
+        <f t="shared" ref="K16:M16" si="11">($P$6*$I15*C$3*C$10)/(($P$6*$I15*C$3*C$10)+60)</f>
+        <v>0.41791044776119401</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="7"/>
-        <v>0.81818181818181823</v>
+        <f t="shared" si="11"/>
+        <v>0.59574468085106369</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
+        <f>($P$6*$I15*E$3*E$10)/(($P$6*$I15*E$3*E$10)+60)</f>
+        <v>0.75675675675675669</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -22273,8 +23518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H93" sqref="A1:O178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22376,7 +23621,7 @@
         <v>146</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="28"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -22405,7 +23650,7 @@
         <v>147</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="29"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -22454,7 +23699,7 @@
       <c r="O6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -22475,7 +23720,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="29"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -22499,7 +23744,7 @@
       </c>
       <c r="F8" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F8),2)</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G8),2)</f>
@@ -22507,7 +23752,7 @@
       </c>
       <c r="H8" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H8),2)</f>
-        <v>-1.67</v>
+        <v>-4</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -22554,7 +23799,7 @@
       </c>
       <c r="F9" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F9),2)</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G9),2)</f>
@@ -22562,7 +23807,7 @@
       </c>
       <c r="H9" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H9),2)</f>
-        <v>-3.61</v>
+        <v>-7.64</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -22609,7 +23854,7 @@
       </c>
       <c r="F10" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F10),2)</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G10),2)</f>
@@ -22617,7 +23862,7 @@
       </c>
       <c r="H10" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H10),2)</f>
-        <v>-5.22</v>
+        <v>-10.67</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -22664,7 +23909,7 @@
       </c>
       <c r="F11" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F11),2)</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G11" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G11),2)</f>
@@ -22672,7 +23917,7 @@
       </c>
       <c r="H11" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H11),2)</f>
-        <v>-1.3</v>
+        <v>-0.92</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -22719,7 +23964,7 @@
       </c>
       <c r="F12" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F12),2)</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G12" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G12),2)</f>
@@ -22727,7 +23972,7 @@
       </c>
       <c r="H12" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H12),2)</f>
-        <v>-2.11</v>
+        <v>-1.59</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -22774,7 +24019,7 @@
       </c>
       <c r="F13" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F13),2)</f>
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G13" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G13),2)</f>
@@ -22782,7 +24027,7 @@
       </c>
       <c r="H13" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H13),2)</f>
-        <v>-2.79</v>
+        <v>-2.16</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -22829,7 +24074,7 @@
       </c>
       <c r="F14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F14),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G14),2)</f>
@@ -22837,7 +24082,7 @@
       </c>
       <c r="H14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H14),2)</f>
-        <v>-1.33</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="I14" s="5">
         <v>2</v>
@@ -22884,7 +24129,7 @@
       </c>
       <c r="F15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F15),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G15),2)</f>
@@ -22892,7 +24137,7 @@
       </c>
       <c r="H15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H15),2)</f>
-        <v>-1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
@@ -22939,7 +24184,7 @@
       </c>
       <c r="F16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F16),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G16),2)</f>
@@ -22947,7 +24192,7 @@
       </c>
       <c r="H16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H16),2)</f>
-        <v>-2.29</v>
+        <v>-1.19</v>
       </c>
       <c r="I16" s="5">
         <v>2</v>
@@ -22994,7 +24239,7 @@
       </c>
       <c r="F17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F17),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G17),2)</f>
@@ -23002,7 +24247,7 @@
       </c>
       <c r="H17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H17),2)</f>
-        <v>-0.42</v>
+        <v>-0.75</v>
       </c>
       <c r="I17" s="5">
         <v>2</v>
@@ -23049,7 +24294,7 @@
       </c>
       <c r="F18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F18),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G18),2)</f>
@@ -23057,7 +24302,7 @@
       </c>
       <c r="H18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H18),2)</f>
-        <v>-0.64</v>
+        <v>-1.02</v>
       </c>
       <c r="I18" s="5">
         <v>2</v>
@@ -23104,7 +24349,7 @@
       </c>
       <c r="F19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F19),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G19),2)</f>
@@ -23112,7 +24357,7 @@
       </c>
       <c r="H19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H19),2)</f>
-        <v>-0.83</v>
+        <v>-1.26</v>
       </c>
       <c r="I19" s="5">
         <v>2</v>
@@ -23159,7 +24404,7 @@
       </c>
       <c r="F20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F20),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G20),2)</f>
@@ -23167,7 +24412,7 @@
       </c>
       <c r="H20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H20),2)</f>
-        <v>-0.31</v>
+        <v>-0.75</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -23214,7 +24459,7 @@
       </c>
       <c r="F21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F21),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G21),2)</f>
@@ -23222,7 +24467,7 @@
       </c>
       <c r="H21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H21),2)</f>
-        <v>-0.47</v>
+        <v>-0.96</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
@@ -23269,7 +24514,7 @@
       </c>
       <c r="F22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F22),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G22),2)</f>
@@ -23277,7 +24522,7 @@
       </c>
       <c r="H22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H22),2)</f>
-        <v>-0.6</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>
@@ -23523,15 +24768,15 @@
       </c>
       <c r="D28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D28),2)</f>
-        <v>336.94</v>
+        <v>327.58</v>
       </c>
       <c r="E28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E28),2)</f>
-        <v>561.57000000000005</v>
+        <v>545.97</v>
       </c>
       <c r="F28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F28),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G28),2)</f>
@@ -23539,7 +24784,7 @@
       </c>
       <c r="H28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H28),2)</f>
-        <v>5.0599999999999996</v>
+        <v>6.23</v>
       </c>
       <c r="I28" s="5">
         <v>22</v>
@@ -23578,15 +24823,15 @@
       </c>
       <c r="D29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D29),2)</f>
-        <v>377.22</v>
+        <v>362.72</v>
       </c>
       <c r="E29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E29),2)</f>
-        <v>628.71</v>
+        <v>604.53</v>
       </c>
       <c r="F29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F29),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G29),2)</f>
@@ -23594,7 +24839,7 @@
       </c>
       <c r="H29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H29),2)</f>
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="I29" s="5">
         <v>22</v>
@@ -23654,15 +24899,15 @@
       </c>
       <c r="D31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D31),2)</f>
-        <v>24.79</v>
+        <v>24.32</v>
       </c>
       <c r="E31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E31),2)</f>
-        <v>41.32</v>
+        <v>40.54</v>
       </c>
       <c r="F31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F31),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G31),2)</f>
@@ -23670,7 +24915,7 @@
       </c>
       <c r="H31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H31),2)</f>
-        <v>3.27</v>
+        <v>2.6</v>
       </c>
       <c r="I31" s="5">
         <v>2</v>
@@ -23709,15 +24954,15 @@
       </c>
       <c r="D32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D32),2)</f>
-        <v>44.34</v>
+        <v>43.5</v>
       </c>
       <c r="E32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E32),2)</f>
-        <v>73.900000000000006</v>
+        <v>72.5</v>
       </c>
       <c r="F32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F32),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G32),2)</f>
@@ -23725,7 +24970,7 @@
       </c>
       <c r="H32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H32),2)</f>
-        <v>5</v>
+        <v>3.78</v>
       </c>
       <c r="I32" s="5">
         <v>2</v>
@@ -23764,15 +25009,15 @@
       </c>
       <c r="D33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D33),2)</f>
-        <v>80.84</v>
+        <v>79.3</v>
       </c>
       <c r="E33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E33),2)</f>
-        <v>134.72999999999999</v>
+        <v>132.16999999999999</v>
       </c>
       <c r="F33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F33),2)</f>
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G33),2)</f>
@@ -23780,7 +25025,7 @@
       </c>
       <c r="H33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H33),2)</f>
-        <v>7.3</v>
+        <v>5.35</v>
       </c>
       <c r="I33" s="5">
         <v>2</v>
@@ -23819,15 +25064,15 @@
       </c>
       <c r="D34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D34),2)</f>
-        <v>31.95</v>
+        <v>31.06</v>
       </c>
       <c r="E34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E34),2)</f>
-        <v>53.25</v>
+        <v>51.77</v>
       </c>
       <c r="F34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F34),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G34),2)</f>
@@ -23835,7 +25080,7 @@
       </c>
       <c r="H34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H34),2)</f>
-        <v>2.56</v>
+        <v>3.07</v>
       </c>
       <c r="I34" s="5">
         <v>2</v>
@@ -23874,15 +25119,15 @@
       </c>
       <c r="D35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D35),2)</f>
-        <v>56</v>
+        <v>54.44</v>
       </c>
       <c r="E35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E35),2)</f>
-        <v>93.33</v>
+        <v>90.74</v>
       </c>
       <c r="F35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F35),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G35),2)</f>
@@ -23890,7 +25135,7 @@
       </c>
       <c r="H35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H35),2)</f>
-        <v>3.6</v>
+        <v>4.38</v>
       </c>
       <c r="I35" s="5">
         <v>2</v>
@@ -23929,15 +25174,15 @@
       </c>
       <c r="D36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D36),2)</f>
-        <v>99.31</v>
+        <v>96.55</v>
       </c>
       <c r="E36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E36),2)</f>
-        <v>165.52</v>
+        <v>160.91999999999999</v>
       </c>
       <c r="F36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F36),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G36),2)</f>
@@ -23945,7 +25190,7 @@
       </c>
       <c r="H36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H36),2)</f>
-        <v>5.0599999999999996</v>
+        <v>6.23</v>
       </c>
       <c r="I36" s="5">
         <v>2</v>
@@ -23984,15 +25229,15 @@
       </c>
       <c r="D37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D37),2)</f>
-        <v>38.28</v>
+        <v>36.81</v>
       </c>
       <c r="E37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E37),2)</f>
-        <v>63.8</v>
+        <v>61.35</v>
       </c>
       <c r="F37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F37),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G37),2)</f>
@@ -24000,7 +25245,7 @@
       </c>
       <c r="H37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H37),2)</f>
-        <v>2.65</v>
+        <v>3.39</v>
       </c>
       <c r="I37" s="5">
         <v>2</v>
@@ -24039,15 +25284,15 @@
       </c>
       <c r="D38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D38),2)</f>
-        <v>65.260000000000005</v>
+        <v>62.75</v>
       </c>
       <c r="E38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E38),2)</f>
-        <v>108.77</v>
+        <v>104.58</v>
       </c>
       <c r="F38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F38),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G38),2)</f>
@@ -24055,7 +25300,7 @@
       </c>
       <c r="H38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H38),2)</f>
-        <v>3.69</v>
+        <v>4.83</v>
       </c>
       <c r="I38" s="5">
         <v>2</v>
@@ -24094,15 +25339,15 @@
       </c>
       <c r="D39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D39),2)</f>
-        <v>111.14</v>
+        <v>106.86</v>
       </c>
       <c r="E39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E39),2)</f>
-        <v>185.23</v>
+        <v>178.11</v>
       </c>
       <c r="F39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F39),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G39),2)</f>
@@ -24110,7 +25355,7 @@
       </c>
       <c r="H39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H39),2)</f>
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="I39" s="5">
         <v>2</v>
@@ -24170,15 +25415,15 @@
       </c>
       <c r="D41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D41),2)</f>
-        <v>848.07</v>
+        <v>824.51</v>
       </c>
       <c r="E41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E41),2)</f>
-        <v>1413.45</v>
+        <v>1374.18</v>
       </c>
       <c r="F41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F41),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G41),2)</f>
@@ -24186,7 +25431,7 @@
       </c>
       <c r="H41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H41),2)</f>
-        <v>-1.03</v>
+        <v>-1.49</v>
       </c>
       <c r="I41" s="5">
         <v>22</v>
@@ -24225,15 +25470,15 @@
       </c>
       <c r="D42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D42),2)</f>
-        <v>1265.94</v>
+        <v>1217.25</v>
       </c>
       <c r="E42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E42),2)</f>
-        <v>2109.9</v>
+        <v>2028.75</v>
       </c>
       <c r="F42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F42),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G42),2)</f>
@@ -24241,7 +25486,7 @@
       </c>
       <c r="H42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H42),2)</f>
-        <v>-0.75</v>
+        <v>-1.32</v>
       </c>
       <c r="I42" s="5">
         <v>22</v>
@@ -24301,15 +25546,15 @@
       </c>
       <c r="D44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D44),2)</f>
-        <v>61.74</v>
+        <v>60.56</v>
       </c>
       <c r="E44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E44),2)</f>
-        <v>102.89</v>
+        <v>100.94</v>
       </c>
       <c r="F44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F44),2)</f>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G44),2)</f>
@@ -24317,7 +25562,7 @@
       </c>
       <c r="H44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H44),2)</f>
-        <v>-3.03</v>
+        <v>-1.68</v>
       </c>
       <c r="I44" s="5">
         <v>2</v>
@@ -24356,15 +25601,15 @@
       </c>
       <c r="D45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D45),2)</f>
-        <v>26.33</v>
+        <v>25.83</v>
       </c>
       <c r="E45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E45),2)</f>
-        <v>43.88</v>
+        <v>43.05</v>
       </c>
       <c r="F45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F45),2)</f>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G45),2)</f>
@@ -24372,7 +25617,7 @@
       </c>
       <c r="H45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H45),2)</f>
-        <v>-3.03</v>
+        <v>-1.68</v>
       </c>
       <c r="I45" s="5">
         <v>2</v>
@@ -24411,15 +25656,15 @@
       </c>
       <c r="D46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D46),2)</f>
-        <v>44.87</v>
+        <v>44.01</v>
       </c>
       <c r="E46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E46),2)</f>
-        <v>74.78</v>
+        <v>73.36</v>
       </c>
       <c r="F46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F46),2)</f>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G46),2)</f>
@@ -24427,7 +25672,7 @@
       </c>
       <c r="H46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H46),2)</f>
-        <v>-3.03</v>
+        <v>-1.68</v>
       </c>
       <c r="I46" s="5">
         <v>2</v>
@@ -24466,15 +25711,15 @@
       </c>
       <c r="D47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D47),2)</f>
-        <v>18.93</v>
+        <v>18.41</v>
       </c>
       <c r="E47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E47),2)</f>
-        <v>31.55</v>
+        <v>30.68</v>
       </c>
       <c r="F47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F47),2)</f>
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G47),2)</f>
@@ -24482,7 +25727,7 @@
       </c>
       <c r="H47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H47),2)</f>
-        <v>-1.06</v>
+        <v>-1.52</v>
       </c>
       <c r="I47" s="5">
         <v>2</v>
@@ -24521,15 +25766,15 @@
       </c>
       <c r="D48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D48),2)</f>
-        <v>31.01</v>
+        <v>30.15</v>
       </c>
       <c r="E48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E48),2)</f>
-        <v>51.68</v>
+        <v>50.25</v>
       </c>
       <c r="F48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F48),2)</f>
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G48),2)</f>
@@ -24537,7 +25782,7 @@
       </c>
       <c r="H48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H48),2)</f>
-        <v>-1.06</v>
+        <v>-1.52</v>
       </c>
       <c r="I48" s="5">
         <v>2</v>
@@ -24576,15 +25821,15 @@
       </c>
       <c r="D49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D49),2)</f>
-        <v>49.55</v>
+        <v>48.18</v>
       </c>
       <c r="E49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E49),2)</f>
-        <v>82.59</v>
+        <v>80.3</v>
       </c>
       <c r="F49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F49),2)</f>
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G49),2)</f>
@@ -24592,7 +25837,7 @@
       </c>
       <c r="H49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H49),2)</f>
-        <v>-1.06</v>
+        <v>-1.52</v>
       </c>
       <c r="I49" s="5">
         <v>2</v>
@@ -24631,15 +25876,15 @@
       </c>
       <c r="D50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D50),2)</f>
-        <v>21.17</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E50),2)</f>
-        <v>35.28</v>
+        <v>33.92</v>
       </c>
       <c r="F50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F50),2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G50),2)</f>
@@ -24647,7 +25892,7 @@
       </c>
       <c r="H50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H50),2)</f>
-        <v>-0.69</v>
+        <v>-1.23</v>
       </c>
       <c r="I50" s="5">
         <v>2</v>
@@ -24686,15 +25931,15 @@
       </c>
       <c r="D51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D51),2)</f>
-        <v>32.51</v>
+        <v>31.26</v>
       </c>
       <c r="E51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E51),2)</f>
-        <v>54.18</v>
+        <v>52.1</v>
       </c>
       <c r="F51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F51),2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G51),2)</f>
@@ -24702,7 +25947,7 @@
       </c>
       <c r="H51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H51),2)</f>
-        <v>-0.69</v>
+        <v>-1.23</v>
       </c>
       <c r="I51" s="5">
         <v>2</v>
@@ -24741,15 +25986,15 @@
       </c>
       <c r="D52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D52),2)</f>
-        <v>46.18</v>
+        <v>44.41</v>
       </c>
       <c r="E52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E52),2)</f>
-        <v>76.97</v>
+        <v>74.010000000000005</v>
       </c>
       <c r="F52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F52),2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G52),2)</f>
@@ -24757,7 +26002,7 @@
       </c>
       <c r="H52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H52),2)</f>
-        <v>-0.69</v>
+        <v>-1.23</v>
       </c>
       <c r="I52" s="5">
         <v>2</v>
@@ -24825,7 +26070,7 @@
       </c>
       <c r="F54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F54),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G54),2)</f>
@@ -24833,7 +26078,7 @@
       </c>
       <c r="H54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H54),2)</f>
-        <v>-0.83</v>
+        <v>-1.26</v>
       </c>
       <c r="I54" s="5">
         <v>2</v>
@@ -24880,7 +26125,7 @@
       </c>
       <c r="F55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F55),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G55),2)</f>
@@ -24888,7 +26133,7 @@
       </c>
       <c r="H55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H55),2)</f>
-        <v>-0.6</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="I55" s="5">
         <v>2</v>
@@ -24948,11 +26193,11 @@
       </c>
       <c r="D57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D57),2)</f>
-        <v>8.09</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="E57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E57),2)</f>
-        <v>13.48</v>
+        <v>13.41</v>
       </c>
       <c r="F57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F57),2)</f>
@@ -24964,7 +26209,7 @@
       </c>
       <c r="H57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H57),2)</f>
-        <v>-9.25</v>
+        <v>-18.190000000000001</v>
       </c>
       <c r="I57" s="5">
         <v>2</v>
@@ -25003,11 +26248,11 @@
       </c>
       <c r="D58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D58),2)</f>
-        <v>14.36</v>
+        <v>14.28</v>
       </c>
       <c r="E58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E58),2)</f>
-        <v>23.93</v>
+        <v>23.8</v>
       </c>
       <c r="F58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F58),2)</f>
@@ -25019,7 +26264,7 @@
       </c>
       <c r="H58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H58),2)</f>
-        <v>-6.53</v>
+        <v>-13.06</v>
       </c>
       <c r="I58" s="5">
         <v>2</v>
@@ -25058,11 +26303,11 @@
       </c>
       <c r="D59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D59),2)</f>
-        <v>25.14</v>
+        <v>25</v>
       </c>
       <c r="E59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E59),2)</f>
-        <v>41.9</v>
+        <v>41.67</v>
       </c>
       <c r="F59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F59),2)</f>
@@ -25074,7 +26319,7 @@
       </c>
       <c r="H59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H59),2)</f>
-        <v>-2.64</v>
+        <v>-5.73</v>
       </c>
       <c r="I59" s="5">
         <v>2</v>
@@ -25113,11 +26358,11 @@
       </c>
       <c r="D60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D60),2)</f>
-        <v>17.46</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="E60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E60),2)</f>
-        <v>29.11</v>
+        <v>28.77</v>
       </c>
       <c r="F60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F60),2)</f>
@@ -25129,7 +26374,7 @@
       </c>
       <c r="H60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H60),2)</f>
-        <v>-4.25</v>
+        <v>-3.36</v>
       </c>
       <c r="I60" s="5">
         <v>2</v>
@@ -25168,11 +26413,11 @@
       </c>
       <c r="D61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D61),2)</f>
-        <v>31.15</v>
+        <v>30.79</v>
       </c>
       <c r="E61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E61),2)</f>
-        <v>51.91</v>
+        <v>51.31</v>
       </c>
       <c r="F61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F61),2)</f>
@@ -25184,7 +26429,7 @@
       </c>
       <c r="H61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H61),2)</f>
-        <v>-3</v>
+        <v>-2.31</v>
       </c>
       <c r="I61" s="5">
         <v>2</v>
@@ -25223,11 +26468,11 @@
       </c>
       <c r="D62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D62),2)</f>
-        <v>54.8</v>
+        <v>54.16</v>
       </c>
       <c r="E62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E62),2)</f>
-        <v>91.33</v>
+        <v>90.27</v>
       </c>
       <c r="F62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F62),2)</f>
@@ -25239,7 +26484,7 @@
       </c>
       <c r="H62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H62),2)</f>
-        <v>-1.21</v>
+        <v>-0.8</v>
       </c>
       <c r="I62" s="5">
         <v>2</v>
@@ -25278,11 +26523,11 @@
       </c>
       <c r="D63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D63),2)</f>
-        <v>28.65</v>
+        <v>28.11</v>
       </c>
       <c r="E63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E63),2)</f>
-        <v>47.76</v>
+        <v>46.85</v>
       </c>
       <c r="F63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F63),2)</f>
@@ -25294,7 +26539,7 @@
       </c>
       <c r="H63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H63),2)</f>
-        <v>-3.03</v>
+        <v>-1.68</v>
       </c>
       <c r="I63" s="5">
         <v>2</v>
@@ -25333,11 +26578,11 @@
       </c>
       <c r="D64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D64),2)</f>
-        <v>51.19</v>
+        <v>50.22</v>
       </c>
       <c r="E64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E64),2)</f>
-        <v>85.32</v>
+        <v>83.7</v>
       </c>
       <c r="F64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F64),2)</f>
@@ -25349,7 +26594,7 @@
       </c>
       <c r="H64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H64),2)</f>
-        <v>-2.1800000000000002</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="I64" s="5">
         <v>2</v>
@@ -25388,11 +26633,11 @@
       </c>
       <c r="D65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D65),2)</f>
-        <v>90.2</v>
+        <v>88.48</v>
       </c>
       <c r="E65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E65),2)</f>
-        <v>150.33000000000001</v>
+        <v>147.47</v>
       </c>
       <c r="F65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F65),2)</f>
@@ -25404,7 +26649,7 @@
       </c>
       <c r="H65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H65),2)</f>
-        <v>-0.96</v>
+        <v>-0.26</v>
       </c>
       <c r="I65" s="5">
         <v>2</v>
@@ -25443,11 +26688,11 @@
       </c>
       <c r="D66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D66),2)</f>
-        <v>42.24</v>
+        <v>41.07</v>
       </c>
       <c r="E66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E66),2)</f>
-        <v>70.400000000000006</v>
+        <v>68.45</v>
       </c>
       <c r="F66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F66),2)</f>
@@ -25459,7 +26704,7 @@
       </c>
       <c r="H66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H66),2)</f>
-        <v>-1.06</v>
+        <v>-1.52</v>
       </c>
       <c r="I66" s="5">
         <v>2</v>
@@ -25498,11 +26743,11 @@
       </c>
       <c r="D67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D67),2)</f>
-        <v>75.52</v>
+        <v>73.430000000000007</v>
       </c>
       <c r="E67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E67),2)</f>
-        <v>125.87</v>
+        <v>122.38</v>
       </c>
       <c r="F67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F67),2)</f>
@@ -25514,7 +26759,7 @@
       </c>
       <c r="H67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H67),2)</f>
-        <v>-0.68</v>
+        <v>-1.03</v>
       </c>
       <c r="I67" s="5">
         <v>2</v>
@@ -25553,11 +26798,11 @@
       </c>
       <c r="D68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D68),2)</f>
-        <v>133.18</v>
+        <v>129.47999999999999</v>
       </c>
       <c r="E68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E68),2)</f>
-        <v>221.97</v>
+        <v>215.8</v>
       </c>
       <c r="F68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F68),2)</f>
@@ -25569,7 +26814,7 @@
       </c>
       <c r="H68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H68),2)</f>
-        <v>-0.13</v>
+        <v>-0.34</v>
       </c>
       <c r="I68" s="5">
         <v>2</v>
@@ -25608,11 +26853,11 @@
       </c>
       <c r="D69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D69),2)</f>
-        <v>59.09</v>
+        <v>56.82</v>
       </c>
       <c r="E69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E69),2)</f>
-        <v>98.49</v>
+        <v>94.7</v>
       </c>
       <c r="F69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F69),2)</f>
@@ -25624,7 +26869,7 @@
       </c>
       <c r="H69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H69),2)</f>
-        <v>-0.69</v>
+        <v>-1.23</v>
       </c>
       <c r="I69" s="5">
         <v>2</v>
@@ -25663,11 +26908,11 @@
       </c>
       <c r="D70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D70),2)</f>
-        <v>105.7</v>
+        <v>101.63</v>
       </c>
       <c r="E70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E70),2)</f>
-        <v>176.17</v>
+        <v>169.39</v>
       </c>
       <c r="F70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F70),2)</f>
@@ -25679,7 +26924,7 @@
       </c>
       <c r="H70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H70),2)</f>
-        <v>-0.41</v>
+        <v>-0.85</v>
       </c>
       <c r="I70" s="5">
         <v>2</v>
@@ -25718,11 +26963,11 @@
       </c>
       <c r="D71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D71),2)</f>
-        <v>186.48</v>
+        <v>179.31</v>
       </c>
       <c r="E71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E71),2)</f>
-        <v>310.81</v>
+        <v>298.85000000000002</v>
       </c>
       <c r="F71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F71),2)</f>
@@ -25734,7 +26979,7 @@
       </c>
       <c r="H71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H71),2)</f>
-        <v>-0.02</v>
+        <v>-0.3</v>
       </c>
       <c r="I71" s="5">
         <v>2</v>
@@ -25980,15 +27225,15 @@
       </c>
       <c r="D77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D77),2)</f>
-        <v>1836.73</v>
+        <v>1785.71</v>
       </c>
       <c r="E77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E77),2)</f>
-        <v>3061.22</v>
+        <v>2976.19</v>
       </c>
       <c r="F77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F77),2)</f>
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G77),2)</f>
@@ -25996,7 +27241,7 @@
       </c>
       <c r="H77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H77),2)</f>
-        <v>-1.38</v>
+        <v>-1.93</v>
       </c>
       <c r="I77" s="5">
         <v>35</v>
@@ -26035,15 +27280,15 @@
       </c>
       <c r="D78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D78),2)</f>
-        <v>2742.86</v>
+        <v>2637.36</v>
       </c>
       <c r="E78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E78),2)</f>
-        <v>4571.43</v>
+        <v>4395.6000000000004</v>
       </c>
       <c r="F78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F78),2)</f>
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="G78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$P$115,9,0),weapon_components!G78),2)</f>
@@ -26051,7 +27296,7 @@
       </c>
       <c r="H78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H78),2)</f>
-        <v>-0.94</v>
+        <v>-1.58</v>
       </c>
       <c r="I78" s="5">
         <v>35</v>
@@ -26111,11 +27356,11 @@
       </c>
       <c r="D80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D80),2)</f>
-        <v>12.27</v>
+        <v>12.03</v>
       </c>
       <c r="E80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E80),2)</f>
-        <v>20.45</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="F80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F80),2)</f>
@@ -26127,7 +27372,7 @@
       </c>
       <c r="H80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H80),2)</f>
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="I80" s="5">
         <v>2</v>
@@ -26166,11 +27411,11 @@
       </c>
       <c r="D81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D81),2)</f>
-        <v>18.29</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="E81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E81),2)</f>
-        <v>30.48</v>
+        <v>29.91</v>
       </c>
       <c r="F81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F81),2)</f>
@@ -26182,7 +27427,7 @@
       </c>
       <c r="H81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H81),2)</f>
-        <v>4.2300000000000004</v>
+        <v>3.26</v>
       </c>
       <c r="I81" s="5">
         <v>2</v>
@@ -26221,11 +27466,11 @@
       </c>
       <c r="D82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D82),2)</f>
-        <v>24.39</v>
+        <v>23.92</v>
       </c>
       <c r="E82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E82),2)</f>
-        <v>40.65</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="F82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F82),2)</f>
@@ -26237,7 +27482,7 @@
       </c>
       <c r="H82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H82),2)</f>
-        <v>11.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I82" s="5">
         <v>2</v>
@@ -26276,11 +27521,11 @@
       </c>
       <c r="D83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D83),2)</f>
-        <v>18.11</v>
+        <v>17.61</v>
       </c>
       <c r="E83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E83),2)</f>
-        <v>30.18</v>
+        <v>29.34</v>
       </c>
       <c r="F83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F83),2)</f>
@@ -26292,7 +27537,7 @@
       </c>
       <c r="H83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H83),2)</f>
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="I83" s="5">
         <v>2</v>
@@ -26331,11 +27576,11 @@
       </c>
       <c r="D84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D84),2)</f>
-        <v>27</v>
+        <v>26.25</v>
       </c>
       <c r="E84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E84),2)</f>
-        <v>45</v>
+        <v>43.75</v>
       </c>
       <c r="F84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F84),2)</f>
@@ -26347,7 +27592,7 @@
       </c>
       <c r="H84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H84),2)</f>
-        <v>2.2200000000000002</v>
+        <v>2.63</v>
       </c>
       <c r="I84" s="5">
         <v>2</v>
@@ -26386,11 +27631,11 @@
       </c>
       <c r="D85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D85),2)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E85),2)</f>
-        <v>60</v>
+        <v>58.33</v>
       </c>
       <c r="F85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F85),2)</f>
@@ -26402,7 +27647,7 @@
       </c>
       <c r="H85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H85),2)</f>
-        <v>5.5</v>
+        <v>6.78</v>
       </c>
       <c r="I85" s="5">
         <v>2</v>
@@ -26441,11 +27686,11 @@
       </c>
       <c r="D86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D86),2)</f>
-        <v>25.35</v>
+        <v>24.38</v>
       </c>
       <c r="E86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E86),2)</f>
-        <v>42.26</v>
+        <v>40.630000000000003</v>
       </c>
       <c r="F86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F86),2)</f>
@@ -26457,7 +27702,7 @@
       </c>
       <c r="H86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H86),2)</f>
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="I86" s="5">
         <v>2</v>
@@ -26496,11 +27741,11 @@
       </c>
       <c r="D87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D87),2)</f>
-        <v>37.799999999999997</v>
+        <v>36.35</v>
       </c>
       <c r="E87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E87),2)</f>
-        <v>63</v>
+        <v>60.58</v>
       </c>
       <c r="F87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F87),2)</f>
@@ -26512,7 +27757,7 @@
       </c>
       <c r="H87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H87),2)</f>
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="I87" s="5">
         <v>2</v>
@@ -26551,11 +27796,11 @@
       </c>
       <c r="D88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Q$115,11,0),weapon_components!D88),2)</f>
-        <v>50.4</v>
+        <v>48.46</v>
       </c>
       <c r="E88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Q$115,12,0),weapon_components!E88),2)</f>
-        <v>84</v>
+        <v>80.77</v>
       </c>
       <c r="F88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$115,8,0),weapon_components!F88),2)</f>
@@ -26567,7 +27812,7 @@
       </c>
       <c r="H88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H88),2)</f>
-        <v>4</v>
+        <v>5.27</v>
       </c>
       <c r="I88" s="5">
         <v>2</v>
@@ -26770,7 +28015,7 @@
       </c>
       <c r="H93" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H93),2)</f>
-        <v>-1.67</v>
+        <v>-4</v>
       </c>
       <c r="I93" s="5">
         <v>20</v>
@@ -26825,7 +28070,7 @@
       </c>
       <c r="H94" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H94),2)</f>
-        <v>-3.61</v>
+        <v>-7.64</v>
       </c>
       <c r="I94" s="5">
         <v>20</v>
@@ -26880,7 +28125,7 @@
       </c>
       <c r="H95" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H95),2)</f>
-        <v>-5.22</v>
+        <v>-10.67</v>
       </c>
       <c r="I95" s="5">
         <v>20</v>
@@ -26935,7 +28180,7 @@
       </c>
       <c r="H96" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H96),2)</f>
-        <v>-1.3</v>
+        <v>-0.92</v>
       </c>
       <c r="I96" s="5">
         <v>20</v>
@@ -26990,7 +28235,7 @@
       </c>
       <c r="H97" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H97),2)</f>
-        <v>-2.11</v>
+        <v>-1.59</v>
       </c>
       <c r="I97" s="5">
         <v>20</v>
@@ -27045,7 +28290,7 @@
       </c>
       <c r="H98" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H98),2)</f>
-        <v>-2.79</v>
+        <v>-2.16</v>
       </c>
       <c r="I98" s="5">
         <v>20</v>
@@ -27100,7 +28345,7 @@
       </c>
       <c r="H99" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H99),2)</f>
-        <v>-1.33</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="I99" s="5">
         <v>20</v>
@@ -27155,7 +28400,7 @@
       </c>
       <c r="H100" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H100),2)</f>
-        <v>-1.85</v>
+        <v>-0.9</v>
       </c>
       <c r="I100" s="5">
         <v>20</v>
@@ -27210,7 +28455,7 @@
       </c>
       <c r="H101" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H101),2)</f>
-        <v>-2.29</v>
+        <v>-1.19</v>
       </c>
       <c r="I101" s="5">
         <v>20</v>
@@ -27265,7 +28510,7 @@
       </c>
       <c r="H102" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H102),2)</f>
-        <v>-0.42</v>
+        <v>-0.75</v>
       </c>
       <c r="I102" s="5">
         <v>20</v>
@@ -27320,7 +28565,7 @@
       </c>
       <c r="H103" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H103),2)</f>
-        <v>-0.64</v>
+        <v>-1.02</v>
       </c>
       <c r="I103" s="5">
         <v>20</v>
@@ -27375,7 +28620,7 @@
       </c>
       <c r="H104" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H104),2)</f>
-        <v>-0.83</v>
+        <v>-1.26</v>
       </c>
       <c r="I104" s="5">
         <v>20</v>
@@ -27430,7 +28675,7 @@
       </c>
       <c r="H105" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H105),2)</f>
-        <v>-0.31</v>
+        <v>-0.75</v>
       </c>
       <c r="I105" s="5">
         <v>20</v>
@@ -27485,7 +28730,7 @@
       </c>
       <c r="H106" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H106),2)</f>
-        <v>-0.47</v>
+        <v>-0.96</v>
       </c>
       <c r="I106" s="5">
         <v>20</v>
@@ -27540,7 +28785,7 @@
       </c>
       <c r="H107" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H107),2)</f>
-        <v>-0.6</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="I107" s="5">
         <v>20</v>
@@ -27802,7 +29047,7 @@
       </c>
       <c r="H113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H113),2)</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -27854,7 +29099,7 @@
       </c>
       <c r="H114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H114),2)</f>
-        <v>-1.08</v>
+        <v>-0.38</v>
       </c>
       <c r="I114">
         <v>2</v>
@@ -27906,7 +29151,7 @@
       </c>
       <c r="H115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H115),2)</f>
-        <v>-1.57</v>
+        <v>-0.71</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -27958,7 +29203,7 @@
       </c>
       <c r="H116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H116),2)</f>
-        <v>-0.04</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -28010,7 +29255,7 @@
       </c>
       <c r="H117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H117),2)</f>
-        <v>-0.28999999999999998</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -28062,7 +29307,7 @@
       </c>
       <c r="H118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H118),2)</f>
-        <v>-0.5</v>
+        <v>-0.85</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -28114,7 +29359,7 @@
       </c>
       <c r="H119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H119),2)</f>
-        <v>-0.03</v>
+        <v>-0.37</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -28166,7 +29411,7 @@
       </c>
       <c r="H120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H120),2)</f>
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="I120">
         <v>2</v>
@@ -28218,7 +29463,7 @@
       </c>
       <c r="H121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H121),2)</f>
-        <v>-0.35</v>
+        <v>-0.8</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -28283,7 +29528,7 @@
       </c>
       <c r="H123" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H123),2)</f>
-        <v>-0.64</v>
+        <v>-1.02</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -28335,7 +29580,7 @@
       </c>
       <c r="H124" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$115,7,0),weapon_components!H124),2)</f>
-        <v>-0.47</v>
+        <v>-0.96</v>
       </c>
       <c r="I124">
         <v>2</v>

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -1065,6 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,7 +1073,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20559,11 +20559,11 @@
       <c r="F8" s="12">
         <v>0.2</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8">
@@ -20795,7 +20795,7 @@
         <v>2.67225</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I11:J25" si="9">$F12*(INDEX($F$3:$F$5,I$9)+(($C12+($D12*$F$7))*INDEX($G$3:$G$5,I$9)))</f>
+        <f t="shared" ref="I12:J25" si="9">$F12*(INDEX($F$3:$F$5,I$9)+(($C12+($D12*$F$7))*INDEX($G$3:$G$5,I$9)))</f>
         <v>1.8323999999999998</v>
       </c>
       <c r="J12" s="2">
@@ -26684,7 +26684,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="K77" s="10">
-        <f t="shared" ref="K77:K124" ca="1" si="66">1-((1-(I77/(G77*R77)))/INDEX($P$2:$P$6,C77))</f>
+        <f t="shared" ref="K77:K122" ca="1" si="66">1-((1-(I77/(G77*R77)))/INDEX($P$2:$P$6,C77))</f>
         <v>3.7027155255156874</v>
       </c>
       <c r="L77" s="10">
@@ -30242,7 +30242,7 @@
         <v>8.7880441322300094</v>
       </c>
       <c r="L125" s="10">
-        <f t="shared" ref="L125:L149" si="94">(INDEX($Q$2:$Q$6,C125)/((1/INDEX($F$4:$F$6,J$123))-1))</f>
+        <f t="shared" ref="L125:L147" si="94">(INDEX($Q$2:$Q$6,C125)/((1/INDEX($F$4:$F$6,J$123))-1))</f>
         <v>8.8888888888888889E-3</v>
       </c>
       <c r="M125" s="10">
@@ -33817,7 +33817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -34208,19 +34208,19 @@
         <v>1</v>
       </c>
       <c r="J12" s="10">
-        <f>($P$6*$I12*B$5*B$11)/(($P$6*$I12*B$5*B$11)+60)</f>
+        <f t="shared" ref="J12:M16" si="8">($P$6*$I12*B$5*B$11)/(($P$6*$I12*B$5*B$11)+60)</f>
         <v>4.4117647058823539E-2</v>
       </c>
       <c r="K12" s="10">
-        <f>($P$6*$I12*C$5*C$11)/(($P$6*$I12*C$5*C$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="L12" s="10">
-        <f>($P$6*$I12*D$5*D$11)/(($P$6*$I12*D$5*D$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.20454545454545456</v>
       </c>
       <c r="M12" s="10">
-        <f>($P$6*$I12*E$5*E$11)/(($P$6*$I12*E$5*E$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
     </row>
@@ -34233,11 +34233,11 @@
         <v>13.846153846153847</v>
       </c>
       <c r="C13" s="27">
-        <f t="shared" ref="C13:D13" si="8">-(60*C12)/(C12-1)</f>
+        <f t="shared" ref="C13:D13" si="9">-(60*C12)/(C12-1)</f>
         <v>36</v>
       </c>
       <c r="D13" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77.142857142857139</v>
       </c>
       <c r="E13" s="27">
@@ -34248,19 +34248,19 @@
         <v>2</v>
       </c>
       <c r="J13" s="10">
-        <f>($P$6*$I13*B$5*B$11)/(($P$6*$I13*B$5*B$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>8.4507042253521139E-2</v>
       </c>
       <c r="K13" s="10">
-        <f>($P$6*$I13*C$5*C$11)/(($P$6*$I13*C$5*C$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.19354838709677419</v>
       </c>
       <c r="L13" s="10">
-        <f>($P$6*$I13*D$5*D$11)/(($P$6*$I13*D$5*D$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.339622641509434</v>
       </c>
       <c r="M13" s="10">
-        <f>($P$6*$I13*E$5*E$11)/(($P$6*$I13*E$5*E$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.54545454545454553</v>
       </c>
     </row>
@@ -34289,19 +34289,19 @@
         <v>3</v>
       </c>
       <c r="J14" s="10">
-        <f>($P$6*$I14*B$5*B$11)/(($P$6*$I14*B$5*B$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.12162162162162166</v>
       </c>
       <c r="K14" s="10">
-        <f>($P$6*$I14*C$5*C$11)/(($P$6*$I14*C$5*C$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.26470588235294124</v>
       </c>
       <c r="L14" s="10">
-        <f>($P$6*$I14*D$5*D$11)/(($P$6*$I14*D$5*D$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.43548387096774199</v>
       </c>
       <c r="M14" s="10">
-        <f>($P$6*$I14*E$5*E$11)/(($P$6*$I14*E$5*E$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -34314,11 +34314,11 @@
         <v>13.846153846153847</v>
       </c>
       <c r="C15" s="27">
-        <f t="shared" ref="C15:E15" si="9">-(60*(C12))/((C12)-1)</f>
+        <f t="shared" ref="C15:D15" si="10">-(60*(C12))/((C12)-1)</f>
         <v>36</v>
       </c>
       <c r="D15" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>77.142857142857139</v>
       </c>
       <c r="E15" s="27">
@@ -34329,19 +34329,19 @@
         <v>4</v>
       </c>
       <c r="J15" s="10">
-        <f>($P$6*$I15*B$5*B$11)/(($P$6*$I15*B$5*B$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.15584415584415587</v>
       </c>
       <c r="K15" s="10">
-        <f>($P$6*$I15*C$5*C$11)/(($P$6*$I15*C$5*C$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.32432432432432434</v>
       </c>
       <c r="L15" s="10">
-        <f>($P$6*$I15*D$5*D$11)/(($P$6*$I15*D$5*D$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.50704225352112675</v>
       </c>
       <c r="M15" s="10">
-        <f>($P$6*$I15*E$5*E$11)/(($P$6*$I15*E$5*E$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -34360,19 +34360,19 @@
         <v>5</v>
       </c>
       <c r="J16" s="10">
-        <f>($P$6*$I16*B$5*B$11)/(($P$6*$I16*B$5*B$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.1875</v>
       </c>
       <c r="K16" s="10">
-        <f>($P$6*$I16*C$5*C$11)/(($P$6*$I16*C$5*C$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.375</v>
       </c>
       <c r="L16" s="10">
-        <f>($P$6*$I16*D$5*D$11)/(($P$6*$I16*D$5*D$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="M16" s="10">
-        <f>($P$6*$I16*E$5*E$11)/(($P$6*$I16*E$5*E$11)+60)</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
     </row>
@@ -34421,7 +34421,7 @@
         <f ca="1">G6</f>
         <v>0.86852188974575439</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <f ca="1">B9</f>
         <v>0.7</v>
       </c>
@@ -34437,11 +34437,11 @@
         <v>0.16119340416507255</v>
       </c>
       <c r="K19" s="10">
-        <f t="shared" ref="K19:L23" ca="1" si="10">1-(($G$6-($I19*$N$5*C$5*C$7))/$G$6)</f>
+        <f t="shared" ref="K19:L23" ca="1" si="11">1-(($G$6-($I19*$N$5*C$5*C$7))/$G$6)</f>
         <v>0.1197436716654825</v>
       </c>
       <c r="L19" s="10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>8.059670208253622E-2</v>
       </c>
       <c r="M19" s="10">
@@ -34472,19 +34472,19 @@
         <v>2</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J22" ca="1" si="11">1-(($G$6-($N$5*B$5*$I20*(B$7)))/$G$6)</f>
+        <f t="shared" ref="J20:J22" ca="1" si="12">1-(($G$6-($N$5*B$5*$I20*(B$7)))/$G$6)</f>
         <v>0.3223868083301451</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.239487343330965</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.16119340416507255</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20:M22" ca="1" si="12">1-(($G$6-($I20*$N$5*E$5*E$7))/$G$6)</f>
+        <f t="shared" ref="M20:M22" ca="1" si="13">1-(($G$6-($I20*$N$5*E$5*E$7))/$G$6)</f>
         <v>7.8293939165892334E-2</v>
       </c>
     </row>
@@ -34493,19 +34493,19 @@
         <v>3</v>
       </c>
       <c r="J21" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.48358021249521765</v>
+      </c>
+      <c r="K21" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48358021249521765</v>
-      </c>
-      <c r="K21" s="10">
-        <f t="shared" ca="1" si="10"/>
         <v>0.35923101499644738</v>
       </c>
       <c r="L21" s="10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.24179010624760888</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.11744090874883861</v>
       </c>
     </row>
@@ -34514,19 +34514,19 @@
         <v>4</v>
       </c>
       <c r="J22" s="10">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.64477361666029021</v>
+      </c>
+      <c r="K22" s="10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.64477361666029021</v>
-      </c>
-      <c r="K22" s="10">
-        <f t="shared" ca="1" si="10"/>
         <v>0.47897468666192999</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.3223868083301451</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.15658787833178478</v>
       </c>
     </row>
@@ -34539,11 +34539,11 @@
         <v>0.80596702082536287</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.59871835832741249</v>
       </c>
       <c r="L23" s="10">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.40298351041268143</v>
       </c>
       <c r="M23" s="10">
@@ -34564,7 +34564,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E28" s="10">
-        <f ca="1">1-($G$6-(F28/100))/$G$6</f>
+        <f t="shared" ref="E28:E59" ca="1" si="14">1-($G$6-(F28/100))/$G$6</f>
         <v>1.1513814583219428E-2</v>
       </c>
       <c r="F28">
@@ -34577,3186 +34577,3186 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E29" s="10">
-        <f ca="1">1-($G$6-(F29/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>2.3027629166438968E-2</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" ref="G29:G92" si="13">F29/(F29+60)</f>
+        <f t="shared" ref="G29:G92" si="15">F29/(F29+60)</f>
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E30" s="10">
-        <f ca="1">1-($G$6-(F30/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>3.4541443749658396E-2</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E31" s="10">
-        <f ca="1">1-($G$6-(F31/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>4.6055258332877935E-2</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E32" s="10">
-        <f ca="1">1-($G$6-(F32/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>5.7569072916097364E-2</v>
       </c>
       <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="10">
-        <f ca="1">1-($G$6-(F33/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>6.9082887499316792E-2</v>
       </c>
       <c r="F33">
         <v>6</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" s="10">
-        <f ca="1">1-($G$6-(F34/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>8.059670208253622E-2</v>
       </c>
       <c r="F34">
         <v>7</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" s="10">
-        <f ca="1">1-($G$6-(F35/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>9.2110516665755759E-2</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" s="10">
-        <f ca="1">1-($G$6-(F36/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.10362433124897519</v>
       </c>
       <c r="F36">
         <v>9</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.13043478260869565</v>
       </c>
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E37" s="10">
-        <f ca="1">1-($G$6-(F37/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.11513814583219473</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E38" s="10">
-        <f ca="1">1-($G$6-(F38/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.12665196041541416</v>
       </c>
       <c r="F38" s="33">
         <v>11</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15492957746478872</v>
       </c>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E39" s="10">
-        <f ca="1">1-($G$6-(F39/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.13816577499863369</v>
       </c>
       <c r="F39" s="33">
         <v>12</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E40" s="10">
-        <f ca="1">1-($G$6-(F40/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.14967958958185312</v>
       </c>
       <c r="F40" s="33">
         <v>13</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.17808219178082191</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E41" s="10">
-        <f ca="1">1-($G$6-(F41/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.16119340416507255</v>
       </c>
       <c r="F41" s="33">
         <v>14</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" s="10">
-        <f ca="1">1-($G$6-(F42/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.17270721874829209</v>
       </c>
       <c r="F42" s="33">
         <v>15</v>
       </c>
       <c r="G42" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E43" s="10">
-        <f ca="1">1-($G$6-(F43/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.18422103333151152</v>
       </c>
       <c r="F43" s="33">
         <v>16</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.21052631578947367</v>
       </c>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E44" s="10">
-        <f ca="1">1-($G$6-(F44/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.19573484791473106</v>
       </c>
       <c r="F44" s="33">
         <v>17</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.22077922077922077</v>
       </c>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E45" s="10">
-        <f ca="1">1-($G$6-(F45/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.20724866249795049</v>
       </c>
       <c r="F45" s="33">
         <v>18</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E46" s="10">
-        <f ca="1">1-($G$6-(F46/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.21876247708117003</v>
       </c>
       <c r="F46" s="33">
         <v>19</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.24050632911392406</v>
       </c>
     </row>
     <row r="47" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E47" s="10">
-        <f ca="1">1-($G$6-(F47/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.23027629166438945</v>
       </c>
       <c r="F47" s="33">
         <v>20</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E48" s="10">
-        <f ca="1">1-($G$6-(F48/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.24179010624760888</v>
       </c>
       <c r="F48" s="33">
         <v>21</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.25925925925925924</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="10">
-        <f ca="1">1-($G$6-(F49/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.25330392083082831</v>
       </c>
       <c r="F49" s="33">
         <v>22</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26829268292682928</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="10">
-        <f ca="1">1-($G$6-(F50/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.26481773541404785</v>
       </c>
       <c r="F50" s="33">
         <v>23</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.27710843373493976</v>
       </c>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="10">
-        <f ca="1">1-($G$6-(F51/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.27633154999726728</v>
       </c>
       <c r="F51" s="33">
         <v>24</v>
       </c>
       <c r="G51" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="10">
-        <f ca="1">1-($G$6-(F52/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.28784536458048671</v>
       </c>
       <c r="F52" s="33">
         <v>25</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="10">
-        <f ca="1">1-($G$6-(F53/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.29935917916370625</v>
       </c>
       <c r="F53" s="33">
         <v>26</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.30232558139534882</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="10">
-        <f ca="1">1-($G$6-(F54/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.31087299374692567</v>
       </c>
       <c r="F54" s="33">
         <v>27</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.31034482758620691</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="10">
-        <f ca="1">1-($G$6-(F55/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.32238680833014521</v>
       </c>
       <c r="F55" s="33">
         <v>28</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.31818181818181818</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" s="10">
-        <f ca="1">1-($G$6-(F56/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.33390062291336453</v>
       </c>
       <c r="F56" s="33">
         <v>29</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.3258426966292135</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" s="10">
-        <f ca="1">1-($G$6-(F57/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.34541443749658407</v>
       </c>
       <c r="F57" s="33">
         <v>30</v>
       </c>
       <c r="G57" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" s="10">
-        <f ca="1">1-($G$6-(F58/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.3569282520798035</v>
       </c>
       <c r="F58" s="33">
         <v>31</v>
       </c>
       <c r="G58" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.34065934065934067</v>
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" s="10">
-        <f ca="1">1-($G$6-(F59/100))/$G$6</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0.36844206666302304</v>
       </c>
       <c r="F59" s="33">
         <v>32</v>
       </c>
       <c r="G59" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.34782608695652173</v>
       </c>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E60" s="10">
-        <f ca="1">1-($G$6-(F60/100))/$G$6</f>
+        <f t="shared" ref="E60:E91" ca="1" si="16">1-($G$6-(F60/100))/$G$6</f>
         <v>0.37995588124624247</v>
       </c>
       <c r="F60" s="33">
         <v>33</v>
       </c>
       <c r="G60" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.35483870967741937</v>
       </c>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E61" s="10">
-        <f ca="1">1-($G$6-(F61/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.39146969582946201</v>
       </c>
       <c r="F61" s="33">
         <v>34</v>
       </c>
       <c r="G61" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.36170212765957449</v>
       </c>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E62" s="10">
-        <f ca="1">1-($G$6-(F62/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.40298351041268143</v>
       </c>
       <c r="F62" s="33">
         <v>35</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
     <row r="63" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E63" s="10">
-        <f ca="1">1-($G$6-(F63/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.41449732499590097</v>
       </c>
       <c r="F63" s="33">
         <v>36</v>
       </c>
       <c r="G63" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="64" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E64" s="10">
-        <f ca="1">1-($G$6-(F64/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.4260111395791204</v>
       </c>
       <c r="F64" s="33">
         <v>37</v>
       </c>
       <c r="G64" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.38144329896907214</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E65" s="10">
-        <f ca="1">1-($G$6-(F65/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.43752495416233983</v>
       </c>
       <c r="F65" s="33">
         <v>38</v>
       </c>
       <c r="G65" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.38775510204081631</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E66" s="10">
-        <f ca="1">1-($G$6-(F66/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.44903876874555937</v>
       </c>
       <c r="F66" s="33">
         <v>39</v>
       </c>
       <c r="G66" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.39393939393939392</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E67" s="10">
-        <f ca="1">1-($G$6-(F67/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.4605525833287788</v>
       </c>
       <c r="F67" s="33">
         <v>40</v>
       </c>
       <c r="G67" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E68" s="10">
-        <f ca="1">1-($G$6-(F68/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.47206639791199823</v>
       </c>
       <c r="F68" s="33">
         <v>41</v>
       </c>
       <c r="G68" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.40594059405940597</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E69" s="10">
-        <f ca="1">1-($G$6-(F69/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.48358021249521776</v>
       </c>
       <c r="F69" s="33">
         <v>42</v>
       </c>
       <c r="G69" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.41176470588235292</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E70" s="10">
-        <f ca="1">1-($G$6-(F70/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.49509402707843719</v>
       </c>
       <c r="F70" s="33">
         <v>43</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.41747572815533979</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E71" s="10">
-        <f ca="1">1-($G$6-(F71/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.50660784166165662</v>
       </c>
       <c r="F71" s="33">
         <v>44</v>
       </c>
       <c r="G71" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E72" s="10">
-        <f ca="1">1-($G$6-(F72/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.51812165624487616</v>
       </c>
       <c r="F72" s="33">
         <v>45</v>
       </c>
       <c r="G72" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E73" s="10">
-        <f ca="1">1-($G$6-(F73/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.5296354708280957</v>
       </c>
       <c r="F73" s="33">
         <v>46</v>
       </c>
       <c r="G73" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.43396226415094341</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E74" s="10">
-        <f ca="1">1-($G$6-(F74/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.54114928541131513</v>
       </c>
       <c r="F74" s="33">
         <v>47</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.43925233644859812</v>
       </c>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E75" s="10">
-        <f ca="1">1-($G$6-(F75/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.55266309999453456</v>
       </c>
       <c r="F75" s="33">
         <v>48</v>
       </c>
       <c r="G75" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E76" s="10">
-        <f ca="1">1-($G$6-(F76/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.56417691457775399</v>
       </c>
       <c r="F76" s="33">
         <v>49</v>
       </c>
       <c r="G76" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.44954128440366975</v>
       </c>
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E77" s="10">
-        <f ca="1">1-($G$6-(F77/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.57569072916097352</v>
       </c>
       <c r="F77" s="33">
         <v>50</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E78" s="10">
-        <f ca="1">1-($G$6-(F78/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.58720454374419306</v>
       </c>
       <c r="F78" s="33">
         <v>51</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.45945945945945948</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E79" s="10">
-        <f ca="1">1-($G$6-(F79/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.59871835832741249</v>
       </c>
       <c r="F79" s="33">
         <v>52</v>
       </c>
       <c r="G79" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E80" s="10">
-        <f ca="1">1-($G$6-(F80/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.61023217291063192</v>
       </c>
       <c r="F80" s="33">
         <v>53</v>
       </c>
       <c r="G80" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.46902654867256638</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E81" s="10">
-        <f ca="1">1-($G$6-(F81/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.62174598749385146</v>
       </c>
       <c r="F81" s="33">
         <v>54</v>
       </c>
       <c r="G81" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.47368421052631576</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E82" s="10">
-        <f ca="1">1-($G$6-(F82/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.633259802077071</v>
       </c>
       <c r="F82" s="33">
         <v>55</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E83" s="10">
-        <f ca="1">1-($G$6-(F83/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.64477361666029043</v>
       </c>
       <c r="F83" s="33">
         <v>56</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.48275862068965519</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E84" s="10">
-        <f ca="1">1-($G$6-(F84/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.65628743124350974</v>
       </c>
       <c r="F84" s="33">
         <v>57</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.48717948717948717</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E85" s="10">
-        <f ca="1">1-($G$6-(F85/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.66780124582672928</v>
       </c>
       <c r="F85" s="33">
         <v>58</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.49152542372881358</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E86" s="10">
-        <f ca="1">1-($G$6-(F86/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.67931506040994871</v>
       </c>
       <c r="F86" s="33">
         <v>59</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.49579831932773111</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E87" s="10">
-        <f ca="1">1-($G$6-(F87/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.69082887499316814</v>
       </c>
       <c r="F87" s="33">
         <v>60</v>
       </c>
       <c r="G87" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E88" s="10">
-        <f ca="1">1-($G$6-(F88/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.70234268957638768</v>
       </c>
       <c r="F88" s="33">
         <v>61</v>
       </c>
       <c r="G88" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.50413223140495866</v>
       </c>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E89" s="10">
-        <f ca="1">1-($G$6-(F89/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.71385650415960722</v>
       </c>
       <c r="F89" s="33">
         <v>62</v>
       </c>
       <c r="G89" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.50819672131147542</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E90" s="10">
-        <f ca="1">1-($G$6-(F90/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.72537031874282665</v>
       </c>
       <c r="F90" s="33">
         <v>63</v>
       </c>
       <c r="G90" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.51219512195121952</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E91" s="10">
-        <f ca="1">1-($G$6-(F91/100))/$G$6</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0.73688413332604608</v>
       </c>
       <c r="F91" s="33">
         <v>64</v>
       </c>
       <c r="G91" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E92" s="10">
-        <f ca="1">1-($G$6-(F92/100))/$G$6</f>
+        <f t="shared" ref="E92:E123" ca="1" si="17">1-($G$6-(F92/100))/$G$6</f>
         <v>0.74839794790926562</v>
       </c>
       <c r="F92" s="33">
         <v>65</v>
       </c>
       <c r="G92" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.52</v>
       </c>
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E93" s="10">
-        <f ca="1">1-($G$6-(F93/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.75991176249248515</v>
       </c>
       <c r="F93" s="33">
         <v>66</v>
       </c>
       <c r="G93" s="10">
-        <f t="shared" ref="G93:G156" si="14">F93/(F93+60)</f>
+        <f t="shared" ref="G93:G156" si="18">F93/(F93+60)</f>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E94" s="10">
-        <f ca="1">1-($G$6-(F94/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.77142557707570458</v>
       </c>
       <c r="F94" s="33">
         <v>67</v>
       </c>
       <c r="G94" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.52755905511811019</v>
       </c>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E95" s="10">
-        <f ca="1">1-($G$6-(F95/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.78293939165892401</v>
       </c>
       <c r="F95" s="33">
         <v>68</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.53125</v>
       </c>
     </row>
     <row r="96" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E96" s="10">
-        <f ca="1">1-($G$6-(F96/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.79445320624214344</v>
       </c>
       <c r="F96" s="33">
         <v>69</v>
       </c>
       <c r="G96" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.53488372093023251</v>
       </c>
     </row>
     <row r="97" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E97" s="10">
-        <f ca="1">1-($G$6-(F97/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.80596702082536287</v>
       </c>
       <c r="F97" s="33">
         <v>70</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="98" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E98" s="10">
-        <f ca="1">1-($G$6-(F98/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.8174808354085823</v>
       </c>
       <c r="F98" s="33">
         <v>71</v>
       </c>
       <c r="G98" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.5419847328244275</v>
       </c>
     </row>
     <row r="99" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E99" s="10">
-        <f ca="1">1-($G$6-(F99/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.82899464999180184</v>
       </c>
       <c r="F99" s="33">
         <v>72</v>
       </c>
       <c r="G99" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="100" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E100" s="10">
-        <f ca="1">1-($G$6-(F100/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.84050846457502137</v>
       </c>
       <c r="F100" s="33">
         <v>73</v>
       </c>
       <c r="G100" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.54887218045112784</v>
       </c>
     </row>
     <row r="101" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E101" s="10">
-        <f ca="1">1-($G$6-(F101/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.8520222791582408</v>
       </c>
       <c r="F101" s="33">
         <v>74</v>
       </c>
       <c r="G101" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.55223880597014929</v>
       </c>
     </row>
     <row r="102" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E102" s="10">
-        <f ca="1">1-($G$6-(F102/100))/$G$6</f>
+        <f t="shared" ca="1" si="17"/>
         <v>0.86353609374146023</v>
       </c>
       <c r="F102" s="33">
         <v>75</v>
       </c>
       <c r="G102" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="103" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E103" s="10">
-        <f t="shared" ref="E103:E166" ca="1" si="15">1-($G$6-(F103/100))/$G$6</f>
+        <f t="shared" ref="E103:E166" ca="1" si="19">1-($G$6-(F103/100))/$G$6</f>
         <v>0.87504990832467977</v>
       </c>
       <c r="F103" s="33">
         <v>76</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.55882352941176472</v>
       </c>
     </row>
     <row r="104" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E104" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.8865637229078992</v>
       </c>
       <c r="F104" s="33">
         <v>77</v>
       </c>
       <c r="G104" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.56204379562043794</v>
       </c>
     </row>
     <row r="105" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E105" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.89807753749111874</v>
       </c>
       <c r="F105" s="33">
         <v>78</v>
       </c>
       <c r="G105" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="106" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E106" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.90959135207433817</v>
       </c>
       <c r="F106" s="33">
         <v>79</v>
       </c>
       <c r="G106" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.56834532374100721</v>
       </c>
     </row>
     <row r="107" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E107" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.92110516665755771</v>
       </c>
       <c r="F107" s="33">
         <v>80</v>
       </c>
       <c r="G107" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="108" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E108" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.93261898124077713</v>
       </c>
       <c r="F108" s="33">
         <v>81</v>
       </c>
       <c r="G108" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.57446808510638303</v>
       </c>
     </row>
     <row r="109" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E109" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.94413279582399656</v>
       </c>
       <c r="F109" s="33">
         <v>82</v>
       </c>
       <c r="G109" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.57746478873239437</v>
       </c>
     </row>
     <row r="110" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E110" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.95564661040721599</v>
       </c>
       <c r="F110" s="33">
         <v>83</v>
       </c>
       <c r="G110" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.58041958041958042</v>
       </c>
     </row>
     <row r="111" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E111" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.96716042499043553</v>
       </c>
       <c r="F111" s="33">
         <v>84</v>
       </c>
       <c r="G111" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="112" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E112" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.97867423957365496</v>
       </c>
       <c r="F112" s="33">
         <v>85</v>
       </c>
       <c r="G112" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.58620689655172409</v>
       </c>
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E113" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.9901880541568745</v>
       </c>
       <c r="F113" s="33">
         <v>86</v>
       </c>
       <c r="G113" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.58904109589041098</v>
       </c>
     </row>
     <row r="114" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E114" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0017018687400938</v>
       </c>
       <c r="F114" s="33">
         <v>87</v>
       </c>
       <c r="G114" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.59183673469387754</v>
       </c>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E115" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0132156833233135</v>
       </c>
       <c r="F115" s="33">
         <v>88</v>
       </c>
       <c r="G115" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.59459459459459463</v>
       </c>
     </row>
     <row r="116" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E116" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0247294979065329</v>
       </c>
       <c r="F116" s="33">
         <v>89</v>
       </c>
       <c r="G116" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.59731543624161076</v>
       </c>
     </row>
     <row r="117" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E117" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0362433124897523</v>
       </c>
       <c r="F117" s="33">
         <v>90</v>
       </c>
       <c r="G117" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="118" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E118" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0477571270729718</v>
       </c>
       <c r="F118" s="33">
         <v>91</v>
       </c>
       <c r="G118" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.60264900662251653</v>
       </c>
     </row>
     <row r="119" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E119" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0592709416561914</v>
       </c>
       <c r="F119" s="33">
         <v>92</v>
       </c>
       <c r="G119" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.60526315789473684</v>
       </c>
     </row>
     <row r="120" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E120" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0707847562394108</v>
       </c>
       <c r="F120" s="33">
         <v>93</v>
       </c>
       <c r="G120" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.60784313725490191</v>
       </c>
     </row>
     <row r="121" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E121" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0822985708226303</v>
       </c>
       <c r="F121" s="33">
         <v>94</v>
       </c>
       <c r="G121" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.61038961038961037</v>
       </c>
     </row>
     <row r="122" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E122" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.0938123854058497</v>
       </c>
       <c r="F122" s="33">
         <v>95</v>
       </c>
       <c r="G122" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.61290322580645162</v>
       </c>
     </row>
     <row r="123" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E123" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.1053261999890691</v>
       </c>
       <c r="F123" s="33">
         <v>96</v>
       </c>
       <c r="G123" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="124" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E124" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.1168400145722885</v>
       </c>
       <c r="F124" s="33">
         <v>97</v>
       </c>
       <c r="G124" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.61783439490445857</v>
       </c>
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E125" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.128353829155508</v>
       </c>
       <c r="F125" s="33">
         <v>98</v>
       </c>
       <c r="G125" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.620253164556962</v>
       </c>
     </row>
     <row r="126" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E126" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.1398676437387276</v>
       </c>
       <c r="F126" s="33">
         <v>99</v>
       </c>
       <c r="G126" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.62264150943396224</v>
       </c>
     </row>
     <row r="127" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E127" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.151381458321947</v>
       </c>
       <c r="F127" s="33">
         <v>100</v>
       </c>
       <c r="G127" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="128" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E128" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.1628952729051665</v>
       </c>
       <c r="F128" s="33">
         <v>101</v>
       </c>
       <c r="G128" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.62732919254658381</v>
       </c>
     </row>
     <row r="129" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E129" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.1744090874883861</v>
       </c>
       <c r="F129" s="33">
         <v>102</v>
       </c>
       <c r="G129" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.62962962962962965</v>
       </c>
     </row>
     <row r="130" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E130" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.1859229020716056</v>
       </c>
       <c r="F130" s="33">
         <v>103</v>
       </c>
       <c r="G130" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63190184049079756</v>
       </c>
     </row>
     <row r="131" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E131" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.197436716654825</v>
       </c>
       <c r="F131" s="33">
         <v>104</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63414634146341464</v>
       </c>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E132" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2089505312380444</v>
       </c>
       <c r="F132" s="33">
         <v>105</v>
       </c>
       <c r="G132" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="133" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E133" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2204643458212638</v>
       </c>
       <c r="F133" s="33">
         <v>106</v>
       </c>
       <c r="G133" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.63855421686746983</v>
       </c>
     </row>
     <row r="134" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E134" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2319781604044835</v>
       </c>
       <c r="F134" s="33">
         <v>107</v>
       </c>
       <c r="G134" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.64071856287425155</v>
       </c>
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E135" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2434919749877029</v>
       </c>
       <c r="F135" s="33">
         <v>108</v>
       </c>
       <c r="G135" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="136" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E136" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2550057895709223</v>
       </c>
       <c r="F136" s="33">
         <v>109</v>
       </c>
       <c r="G136" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.6449704142011834</v>
       </c>
     </row>
     <row r="137" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E137" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2665196041541418</v>
       </c>
       <c r="F137" s="33">
         <v>110</v>
       </c>
       <c r="G137" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="138" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E138" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2780334187373614</v>
       </c>
       <c r="F138" s="33">
         <v>111</v>
       </c>
       <c r="G138" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.64912280701754388</v>
       </c>
     </row>
     <row r="139" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E139" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.2895472333205809</v>
       </c>
       <c r="F139" s="33">
         <v>112</v>
       </c>
       <c r="G139" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.65116279069767447</v>
       </c>
     </row>
     <row r="140" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E140" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3010610479038001</v>
       </c>
       <c r="F140" s="33">
         <v>113</v>
       </c>
       <c r="G140" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.65317919075144504</v>
       </c>
     </row>
     <row r="141" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E141" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3125748624870195</v>
       </c>
       <c r="F141" s="33">
         <v>114</v>
       </c>
       <c r="G141" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.65517241379310343</v>
       </c>
     </row>
     <row r="142" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E142" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3240886770702389</v>
       </c>
       <c r="F142" s="33">
         <v>115</v>
       </c>
       <c r="G142" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.65714285714285714</v>
       </c>
     </row>
     <row r="143" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E143" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3356024916534586</v>
       </c>
       <c r="F143" s="33">
         <v>116</v>
       </c>
       <c r="G143" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.65909090909090906</v>
       </c>
     </row>
     <row r="144" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E144" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.347116306236678</v>
       </c>
       <c r="F144" s="33">
         <v>117</v>
       </c>
       <c r="G144" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.66101694915254239</v>
       </c>
     </row>
     <row r="145" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E145" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3586301208198974</v>
       </c>
       <c r="F145" s="33">
         <v>118</v>
       </c>
       <c r="G145" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.6629213483146067</v>
       </c>
     </row>
     <row r="146" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E146" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3701439354031169</v>
       </c>
       <c r="F146" s="33">
         <v>119</v>
       </c>
       <c r="G146" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.66480446927374304</v>
       </c>
     </row>
     <row r="147" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E147" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3816577499863363</v>
       </c>
       <c r="F147" s="33">
         <v>120</v>
       </c>
       <c r="G147" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="148" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E148" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.3931715645695559</v>
       </c>
       <c r="F148" s="33">
         <v>121</v>
       </c>
       <c r="G148" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.66850828729281764</v>
       </c>
     </row>
     <row r="149" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E149" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4046853791527754</v>
       </c>
       <c r="F149" s="33">
         <v>122</v>
       </c>
       <c r="G149" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.67032967032967028</v>
       </c>
     </row>
     <row r="150" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E150" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4161991937359948</v>
       </c>
       <c r="F150" s="33">
         <v>123</v>
       </c>
       <c r="G150" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.67213114754098358</v>
       </c>
     </row>
     <row r="151" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E151" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4277130083192144</v>
       </c>
       <c r="F151" s="33">
         <v>124</v>
       </c>
       <c r="G151" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.67391304347826086</v>
       </c>
     </row>
     <row r="152" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E152" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4392268229024339</v>
       </c>
       <c r="F152" s="33">
         <v>125</v>
       </c>
       <c r="G152" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.67567567567567566</v>
       </c>
     </row>
     <row r="153" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E153" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4507406374856533</v>
       </c>
       <c r="F153" s="33">
         <v>126</v>
       </c>
       <c r="G153" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.67741935483870963</v>
       </c>
     </row>
     <row r="154" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E154" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4622544520688727</v>
       </c>
       <c r="F154" s="33">
         <v>127</v>
       </c>
       <c r="G154" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.67914438502673802</v>
       </c>
     </row>
     <row r="155" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E155" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4737682666520922</v>
       </c>
       <c r="F155" s="33">
         <v>128</v>
       </c>
       <c r="G155" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.68085106382978722</v>
       </c>
     </row>
     <row r="156" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E156" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4852820812353118</v>
       </c>
       <c r="F156" s="33">
         <v>129</v>
       </c>
       <c r="G156" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.68253968253968256</v>
       </c>
     </row>
     <row r="157" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E157" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.4967958958185312</v>
       </c>
       <c r="F157" s="33">
         <v>130</v>
       </c>
       <c r="G157" s="10">
-        <f t="shared" ref="G157:G220" si="16">F157/(F157+60)</f>
+        <f t="shared" ref="G157:G220" si="20">F157/(F157+60)</f>
         <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="158" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E158" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5083097104017507</v>
       </c>
       <c r="F158" s="33">
         <v>131</v>
       </c>
       <c r="G158" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.68586387434554974</v>
       </c>
     </row>
     <row r="159" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E159" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5198235249849703</v>
       </c>
       <c r="F159" s="33">
         <v>132</v>
       </c>
       <c r="G159" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.6875</v>
       </c>
     </row>
     <row r="160" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E160" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5313373395681897</v>
       </c>
       <c r="F160" s="33">
         <v>133</v>
       </c>
       <c r="G160" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.68911917098445596</v>
       </c>
     </row>
     <row r="161" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E161" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5428511541514092</v>
       </c>
       <c r="F161" s="33">
         <v>134</v>
       </c>
       <c r="G161" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.69072164948453607</v>
       </c>
     </row>
     <row r="162" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E162" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5543649687346286</v>
       </c>
       <c r="F162" s="33">
         <v>135</v>
       </c>
       <c r="G162" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="163" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E163" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.565878783317848</v>
       </c>
       <c r="F163" s="33">
         <v>136</v>
       </c>
       <c r="G163" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.69387755102040816</v>
       </c>
     </row>
     <row r="164" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E164" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5773925979010675</v>
       </c>
       <c r="F164" s="33">
         <v>137</v>
       </c>
       <c r="G164" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.69543147208121825</v>
       </c>
     </row>
     <row r="165" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E165" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.5889064124842869</v>
       </c>
       <c r="F165" s="33">
         <v>138</v>
       </c>
       <c r="G165" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.69696969696969702</v>
       </c>
     </row>
     <row r="166" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E166" s="10">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1.6004202270675063</v>
       </c>
       <c r="F166" s="33">
         <v>139</v>
       </c>
       <c r="G166" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.69849246231155782</v>
       </c>
     </row>
     <row r="167" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E167" s="10">
-        <f t="shared" ref="E167:E230" ca="1" si="17">1-($G$6-(F167/100))/$G$6</f>
+        <f t="shared" ref="E167:E230" ca="1" si="21">1-($G$6-(F167/100))/$G$6</f>
         <v>1.6119340416507257</v>
       </c>
       <c r="F167" s="33">
         <v>140</v>
       </c>
       <c r="G167" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="168" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E168" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.6234478562339452</v>
       </c>
       <c r="F168" s="33">
         <v>141</v>
       </c>
       <c r="G168" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.70149253731343286</v>
       </c>
     </row>
     <row r="169" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E169" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.6349616708171646</v>
       </c>
       <c r="F169" s="33">
         <v>142</v>
       </c>
       <c r="G169" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.70297029702970293</v>
       </c>
     </row>
     <row r="170" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E170" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.6464754854003842</v>
       </c>
       <c r="F170" s="33">
         <v>143</v>
       </c>
       <c r="G170" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.70443349753694584</v>
       </c>
     </row>
     <row r="171" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E171" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.6579892999836037</v>
       </c>
       <c r="F171" s="33">
         <v>144</v>
       </c>
       <c r="G171" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="172" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E172" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.6695031145668233</v>
       </c>
       <c r="F172" s="33">
         <v>145</v>
       </c>
       <c r="G172" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.70731707317073167</v>
       </c>
     </row>
     <row r="173" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E173" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.6810169291500427</v>
       </c>
       <c r="F173" s="33">
         <v>146</v>
       </c>
       <c r="G173" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.70873786407766992</v>
       </c>
     </row>
     <row r="174" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E174" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.6925307437332622</v>
       </c>
       <c r="F174" s="33">
         <v>147</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.71014492753623193</v>
       </c>
     </row>
     <row r="175" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E175" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.7040445583164816</v>
       </c>
       <c r="F175" s="33">
         <v>148</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.71153846153846156</v>
       </c>
     </row>
     <row r="176" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E176" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.715558372899701</v>
       </c>
       <c r="F176" s="33">
         <v>149</v>
       </c>
       <c r="G176" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.71291866028708128</v>
       </c>
     </row>
     <row r="177" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E177" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.7270721874829205</v>
       </c>
       <c r="F177" s="33">
         <v>150</v>
       </c>
       <c r="G177" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="178" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E178" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.7385860020661399</v>
       </c>
       <c r="F178" s="33">
         <v>151</v>
       </c>
       <c r="G178" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.71563981042654023</v>
       </c>
     </row>
     <row r="179" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E179" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.7500998166493595</v>
       </c>
       <c r="F179" s="33">
         <v>152</v>
       </c>
       <c r="G179" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.71698113207547165</v>
       </c>
     </row>
     <row r="180" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E180" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.761613631232579</v>
       </c>
       <c r="F180" s="33">
         <v>153</v>
       </c>
       <c r="G180" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.71830985915492962</v>
       </c>
     </row>
     <row r="181" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E181" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.7731274458157986</v>
       </c>
       <c r="F181" s="33">
         <v>154</v>
       </c>
       <c r="G181" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.71962616822429903</v>
       </c>
     </row>
     <row r="182" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E182" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.784641260399018</v>
       </c>
       <c r="F182" s="33">
         <v>155</v>
       </c>
       <c r="G182" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72093023255813948</v>
       </c>
     </row>
     <row r="183" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E183" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.7961550749822375</v>
       </c>
       <c r="F183" s="33">
         <v>156</v>
       </c>
       <c r="G183" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="184" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E184" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8076688895654569</v>
       </c>
       <c r="F184" s="33">
         <v>157</v>
       </c>
       <c r="G184" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72350230414746541</v>
       </c>
     </row>
     <row r="185" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E185" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8191827041486763</v>
       </c>
       <c r="F185" s="33">
         <v>158</v>
       </c>
       <c r="G185" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72477064220183485</v>
       </c>
     </row>
     <row r="186" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E186" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8306965187318958</v>
       </c>
       <c r="F186" s="33">
         <v>159</v>
       </c>
       <c r="G186" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72602739726027399</v>
       </c>
     </row>
     <row r="187" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E187" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8422103333151154</v>
       </c>
       <c r="F187" s="33">
         <v>160</v>
       </c>
       <c r="G187" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="188" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E188" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8537241478983348</v>
       </c>
       <c r="F188" s="33">
         <v>161</v>
       </c>
       <c r="G188" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72850678733031671</v>
       </c>
     </row>
     <row r="189" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E189" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8652379624815545</v>
       </c>
       <c r="F189" s="33">
         <v>162</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.72972972972972971</v>
       </c>
     </row>
     <row r="190" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E190" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8767517770647735</v>
       </c>
       <c r="F190" s="33">
         <v>163</v>
       </c>
       <c r="G190" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73094170403587444</v>
       </c>
     </row>
     <row r="191" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E191" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8882655916479929</v>
       </c>
       <c r="F191" s="33">
         <v>164</v>
       </c>
       <c r="G191" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.7321428571428571</v>
       </c>
     </row>
     <row r="192" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E192" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.8997794062312126</v>
       </c>
       <c r="F192" s="33">
         <v>165</v>
       </c>
       <c r="G192" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="193" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E193" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.911293220814432</v>
       </c>
       <c r="F193" s="33">
         <v>166</v>
       </c>
       <c r="G193" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73451327433628322</v>
       </c>
     </row>
     <row r="194" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E194" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.9228070353976516</v>
       </c>
       <c r="F194" s="33">
         <v>167</v>
       </c>
       <c r="G194" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73568281938325997</v>
       </c>
     </row>
     <row r="195" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E195" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.9343208499808711</v>
       </c>
       <c r="F195" s="33">
         <v>168</v>
       </c>
       <c r="G195" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="196" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E196" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.9458346645640905</v>
       </c>
       <c r="F196" s="33">
         <v>169</v>
       </c>
       <c r="G196" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73799126637554591</v>
       </c>
     </row>
     <row r="197" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E197" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.9573484791473099</v>
       </c>
       <c r="F197" s="33">
         <v>170</v>
       </c>
       <c r="G197" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="198" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E198" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.9688622937305293</v>
       </c>
       <c r="F198" s="33">
         <v>171</v>
       </c>
       <c r="G198" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74025974025974028</v>
       </c>
     </row>
     <row r="199" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E199" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.9803761083137488</v>
       </c>
       <c r="F199" s="33">
         <v>172</v>
       </c>
       <c r="G199" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74137931034482762</v>
       </c>
     </row>
     <row r="200" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E200" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.9918899228969684</v>
       </c>
       <c r="F200" s="33">
         <v>173</v>
       </c>
       <c r="G200" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74248927038626611</v>
       </c>
     </row>
     <row r="201" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E201" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0034037374801876</v>
       </c>
       <c r="F201" s="33">
         <v>174</v>
       </c>
       <c r="G201" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74358974358974361</v>
       </c>
     </row>
     <row r="202" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E202" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0149175520634071</v>
       </c>
       <c r="F202" s="33">
         <v>175</v>
       </c>
       <c r="G202" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74468085106382975</v>
       </c>
     </row>
     <row r="203" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E203" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0264313666466265</v>
       </c>
       <c r="F203" s="33">
         <v>176</v>
       </c>
       <c r="G203" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74576271186440679</v>
       </c>
     </row>
     <row r="204" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E204" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0379451812298464</v>
       </c>
       <c r="F204" s="33">
         <v>177</v>
       </c>
       <c r="G204" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74683544303797467</v>
       </c>
     </row>
     <row r="205" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E205" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0494589958130658</v>
       </c>
       <c r="F205" s="33">
         <v>178</v>
       </c>
       <c r="G205" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.74789915966386555</v>
       </c>
     </row>
     <row r="206" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E206" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0609728103962852</v>
       </c>
       <c r="F206" s="33">
         <v>179</v>
       </c>
       <c r="G206" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.7489539748953975</v>
       </c>
     </row>
     <row r="207" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E207" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0724866249795046</v>
       </c>
       <c r="F207" s="33">
         <v>180</v>
       </c>
       <c r="G207" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="208" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E208" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0840004395627245</v>
       </c>
       <c r="F208" s="33">
         <v>181</v>
       </c>
       <c r="G208" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75103734439834025</v>
       </c>
     </row>
     <row r="209" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E209" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.0955142541459439</v>
       </c>
       <c r="F209" s="33">
         <v>182</v>
       </c>
       <c r="G209" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75206611570247939</v>
       </c>
     </row>
     <row r="210" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E210" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1070280687291634</v>
       </c>
       <c r="F210" s="33">
         <v>183</v>
       </c>
       <c r="G210" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75308641975308643</v>
       </c>
     </row>
     <row r="211" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E211" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1185418833123828</v>
       </c>
       <c r="F211" s="33">
         <v>184</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75409836065573765</v>
       </c>
     </row>
     <row r="212" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E212" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1300556978956022</v>
       </c>
       <c r="F212" s="33">
         <v>185</v>
       </c>
       <c r="G212" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75510204081632648</v>
       </c>
     </row>
     <row r="213" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E213" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1415695124788217</v>
       </c>
       <c r="F213" s="33">
         <v>186</v>
       </c>
       <c r="G213" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75609756097560976</v>
       </c>
     </row>
     <row r="214" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E214" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1530833270620411</v>
       </c>
       <c r="F214" s="33">
         <v>187</v>
       </c>
       <c r="G214" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75708502024291502</v>
       </c>
     </row>
     <row r="215" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E215" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1645971416452605</v>
       </c>
       <c r="F215" s="33">
         <v>188</v>
       </c>
       <c r="G215" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75806451612903225</v>
       </c>
     </row>
     <row r="216" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E216" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1761109562284799</v>
       </c>
       <c r="F216" s="33">
         <v>189</v>
       </c>
       <c r="G216" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75903614457831325</v>
       </c>
     </row>
     <row r="217" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E217" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1876247708116994</v>
       </c>
       <c r="F217" s="33">
         <v>190</v>
       </c>
       <c r="G217" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.76</v>
       </c>
     </row>
     <row r="218" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E218" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.1991385853949188</v>
       </c>
       <c r="F218" s="33">
         <v>191</v>
       </c>
       <c r="G218" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.76095617529880477</v>
       </c>
     </row>
     <row r="219" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E219" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2106523999781382</v>
       </c>
       <c r="F219" s="33">
         <v>192</v>
       </c>
       <c r="G219" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="220" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E220" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2221662145613577</v>
       </c>
       <c r="F220" s="33">
         <v>193</v>
       </c>
       <c r="G220" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.76284584980237158</v>
       </c>
     </row>
     <row r="221" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E221" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2336800291445771</v>
       </c>
       <c r="F221" s="33">
         <v>194</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" ref="G221:G284" si="18">F221/(F221+60)</f>
+        <f t="shared" ref="G221:G274" si="22">F221/(F221+60)</f>
         <v>0.76377952755905509</v>
       </c>
     </row>
     <row r="222" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E222" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2451938437277965</v>
       </c>
       <c r="F222" s="33">
         <v>195</v>
       </c>
       <c r="G222" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="223" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E223" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2567076583110164</v>
       </c>
       <c r="F223" s="33">
         <v>196</v>
       </c>
       <c r="G223" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.765625</v>
       </c>
     </row>
     <row r="224" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E224" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2682214728942354</v>
       </c>
       <c r="F224" s="33">
         <v>197</v>
       </c>
       <c r="G224" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.7665369649805448</v>
       </c>
     </row>
     <row r="225" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E225" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2797352874774552</v>
       </c>
       <c r="F225" s="33">
         <v>198</v>
       </c>
       <c r="G225" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="226" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E226" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.2912491020606742</v>
       </c>
       <c r="F226" s="33">
         <v>199</v>
       </c>
       <c r="G226" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.76833976833976836</v>
       </c>
     </row>
     <row r="227" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E227" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.3027629166438945</v>
       </c>
       <c r="F227" s="33">
         <v>200</v>
       </c>
       <c r="G227" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="228" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E228" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.3142767312271135</v>
       </c>
       <c r="F228" s="33">
         <v>201</v>
       </c>
       <c r="G228" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77011494252873558</v>
       </c>
     </row>
     <row r="229" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E229" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.3257905458103334</v>
       </c>
       <c r="F229" s="33">
         <v>202</v>
       </c>
       <c r="G229" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77099236641221369</v>
       </c>
     </row>
     <row r="230" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E230" s="10">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>2.3373043603935524</v>
       </c>
       <c r="F230" s="33">
         <v>203</v>
       </c>
       <c r="G230" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77186311787072248</v>
       </c>
     </row>
     <row r="231" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E231" s="10">
-        <f t="shared" ref="E231:E273" ca="1" si="19">1-($G$6-(F231/100))/$G$6</f>
+        <f t="shared" ref="E231:E273" ca="1" si="23">1-($G$6-(F231/100))/$G$6</f>
         <v>2.3488181749767723</v>
       </c>
       <c r="F231" s="33">
         <v>204</v>
       </c>
       <c r="G231" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="232" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E232" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.3603319895599917</v>
       </c>
       <c r="F232" s="33">
         <v>205</v>
       </c>
       <c r="G232" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77358490566037741</v>
       </c>
     </row>
     <row r="233" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E233" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.3718458041432111</v>
       </c>
       <c r="F233" s="33">
         <v>206</v>
       </c>
       <c r="G233" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77443609022556392</v>
       </c>
     </row>
     <row r="234" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E234" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.3833596187264305</v>
       </c>
       <c r="F234" s="33">
         <v>207</v>
       </c>
       <c r="G234" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.7752808988764045</v>
       </c>
     </row>
     <row r="235" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E235" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.39487343330965</v>
       </c>
       <c r="F235" s="33">
         <v>208</v>
       </c>
       <c r="G235" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77611940298507465</v>
       </c>
     </row>
     <row r="236" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E236" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.4063872478928694</v>
       </c>
       <c r="F236" s="33">
         <v>209</v>
       </c>
       <c r="G236" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77695167286245348</v>
       </c>
     </row>
     <row r="237" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E237" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.4179010624760888</v>
       </c>
       <c r="F237" s="33">
         <v>210</v>
       </c>
       <c r="G237" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="238" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E238" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.4294148770593083</v>
       </c>
       <c r="F238" s="33">
         <v>211</v>
       </c>
       <c r="G238" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77859778597785978</v>
       </c>
     </row>
     <row r="239" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E239" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.4409286916425277</v>
       </c>
       <c r="F239" s="33">
         <v>212</v>
       </c>
       <c r="G239" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.77941176470588236</v>
       </c>
     </row>
     <row r="240" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E240" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.4524425062257471</v>
       </c>
       <c r="F240" s="33">
         <v>213</v>
       </c>
       <c r="G240" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78021978021978022</v>
       </c>
     </row>
     <row r="241" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E241" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.463956320808967</v>
       </c>
       <c r="F241" s="33">
         <v>214</v>
       </c>
       <c r="G241" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78102189781021902</v>
       </c>
     </row>
     <row r="242" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E242" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.475470135392186</v>
       </c>
       <c r="F242" s="33">
         <v>215</v>
       </c>
       <c r="G242" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78181818181818186</v>
       </c>
     </row>
     <row r="243" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E243" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.4869839499754058</v>
       </c>
       <c r="F243" s="33">
         <v>216</v>
       </c>
       <c r="G243" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78260869565217395</v>
       </c>
     </row>
     <row r="244" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E244" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.4984977645586248</v>
       </c>
       <c r="F244" s="33">
         <v>217</v>
       </c>
       <c r="G244" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78339350180505418</v>
       </c>
     </row>
     <row r="245" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E245" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.5100115791418451</v>
       </c>
       <c r="F245" s="33">
         <v>218</v>
       </c>
       <c r="G245" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78417266187050361</v>
       </c>
     </row>
     <row r="246" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E246" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.5215253937250641</v>
       </c>
       <c r="F246" s="33">
         <v>219</v>
       </c>
       <c r="G246" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78494623655913975</v>
       </c>
     </row>
     <row r="247" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E247" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.533039208308284</v>
       </c>
       <c r="F247" s="33">
         <v>220</v>
       </c>
       <c r="G247" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="248" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E248" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.544553022891503</v>
       </c>
       <c r="F248" s="33">
         <v>221</v>
       </c>
       <c r="G248" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78647686832740216</v>
       </c>
     </row>
     <row r="249" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E249" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.5560668374747229</v>
       </c>
       <c r="F249" s="33">
         <v>222</v>
       </c>
       <c r="G249" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78723404255319152</v>
       </c>
     </row>
     <row r="250" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E250" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.5675806520579423</v>
       </c>
       <c r="F250" s="33">
         <v>223</v>
       </c>
       <c r="G250" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78798586572438167</v>
       </c>
     </row>
     <row r="251" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E251" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.5790944666411617</v>
       </c>
       <c r="F251" s="33">
         <v>224</v>
       </c>
       <c r="G251" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78873239436619713</v>
       </c>
     </row>
     <row r="252" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E252" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.5906082812243811</v>
       </c>
       <c r="F252" s="33">
         <v>225</v>
       </c>
       <c r="G252" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="253" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E253" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.6021220958076001</v>
       </c>
       <c r="F253" s="33">
         <v>226</v>
       </c>
       <c r="G253" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79020979020979021</v>
       </c>
     </row>
     <row r="254" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E254" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.61363591039082</v>
       </c>
       <c r="F254" s="33">
         <v>227</v>
       </c>
       <c r="G254" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.7909407665505227</v>
       </c>
     </row>
     <row r="255" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E255" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.6251497249740394</v>
       </c>
       <c r="F255" s="33">
         <v>228</v>
       </c>
       <c r="G255" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="256" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E256" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.6366635395572589</v>
       </c>
       <c r="F256" s="33">
         <v>229</v>
       </c>
       <c r="G256" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79238754325259519</v>
       </c>
     </row>
     <row r="257" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E257" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.6481773541404783</v>
       </c>
       <c r="F257" s="33">
         <v>230</v>
       </c>
       <c r="G257" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="258" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E258" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.6596911687236977</v>
       </c>
       <c r="F258" s="33">
         <v>231</v>
       </c>
       <c r="G258" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79381443298969068</v>
       </c>
     </row>
     <row r="259" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E259" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.6712049833069171</v>
       </c>
       <c r="F259" s="33">
         <v>232</v>
       </c>
       <c r="G259" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79452054794520544</v>
       </c>
     </row>
     <row r="260" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E260" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.6827187978901366</v>
       </c>
       <c r="F260" s="33">
         <v>233</v>
       </c>
       <c r="G260" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79522184300341292</v>
       </c>
     </row>
     <row r="261" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E261" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.694232612473356</v>
       </c>
       <c r="F261" s="33">
         <v>234</v>
       </c>
       <c r="G261" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79591836734693877</v>
       </c>
     </row>
     <row r="262" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E262" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.7057464270565759</v>
       </c>
       <c r="F262" s="33">
         <v>235</v>
       </c>
       <c r="G262" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79661016949152541</v>
       </c>
     </row>
     <row r="263" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E263" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.7172602416397948</v>
       </c>
       <c r="F263" s="33">
         <v>236</v>
       </c>
       <c r="G263" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79729729729729726</v>
       </c>
     </row>
     <row r="264" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E264" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.7287740562230147</v>
       </c>
       <c r="F264" s="33">
         <v>237</v>
       </c>
       <c r="G264" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79797979797979801</v>
       </c>
     </row>
     <row r="265" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E265" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.7402878708062337</v>
       </c>
       <c r="F265" s="33">
         <v>238</v>
       </c>
       <c r="G265" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79865771812080533</v>
       </c>
     </row>
     <row r="266" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E266" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.751801685389454</v>
       </c>
       <c r="F266" s="33">
         <v>239</v>
       </c>
       <c r="G266" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.79933110367892979</v>
       </c>
     </row>
     <row r="267" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E267" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.763315499972673</v>
       </c>
       <c r="F267" s="33">
         <v>240</v>
       </c>
       <c r="G267" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="268" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E268" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.7748293145558929</v>
       </c>
       <c r="F268" s="33">
         <v>241</v>
       </c>
       <c r="G268" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.80066445182724255</v>
       </c>
     </row>
     <row r="269" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E269" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.7863431291391119</v>
       </c>
       <c r="F269" s="33">
         <v>242</v>
       </c>
       <c r="G269" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.80132450331125826</v>
       </c>
     </row>
     <row r="270" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E270" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.7978569437223317</v>
       </c>
       <c r="F270" s="33">
         <v>243</v>
       </c>
       <c r="G270" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.80198019801980203</v>
       </c>
     </row>
     <row r="271" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E271" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.8093707583055512</v>
       </c>
       <c r="F271" s="33">
         <v>244</v>
       </c>
       <c r="G271" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.80263157894736847</v>
       </c>
     </row>
     <row r="272" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E272" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.8208845728887706</v>
       </c>
       <c r="F272" s="33">
         <v>245</v>
       </c>
       <c r="G272" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.80327868852459017</v>
       </c>
     </row>
     <row r="273" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E273" s="10">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.83239838747199</v>
       </c>
       <c r="F273" s="33">
         <v>246</v>
       </c>
       <c r="G273" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.80392156862745101</v>
       </c>
     </row>
@@ -37765,7 +37765,7 @@
         <v>247</v>
       </c>
       <c r="G274" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.80456026058631924</v>
       </c>
     </row>
@@ -38030,8 +38030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="P157" sqref="P157"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38133,7 +38133,7 @@
         <v>146</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="36"/>
+      <c r="P4" s="37"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -38162,7 +38162,7 @@
         <v>147</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="37"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -38211,7 +38211,7 @@
       <c r="O6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="37"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -38232,7 +38232,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="37"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -35396,7 +35396,7 @@
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E92" s="10">
-        <f t="shared" ref="E92:E123" ca="1" si="17">1-($G$6-(F92/100))/$G$6</f>
+        <f t="shared" ref="E92:E102" ca="1" si="17">1-($G$6-(F92/100))/$G$6</f>
         <v>0.74839794790926562</v>
       </c>
       <c r="F92" s="33">
@@ -38030,13 +38030,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38263,8 +38263,8 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H8),2)</f>
-        <v>-5.61</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H8),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H8),2))</f>
+        <v>-4</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
@@ -38319,8 +38319,8 @@
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H9),2)</f>
-        <v>-8.24</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H9),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H9),2))</f>
+        <v>-4</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -38375,8 +38375,8 @@
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H10),2)</f>
-        <v>-10.63</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H10),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H10),2))</f>
+        <v>-4</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -38431,7 +38431,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H11),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H11),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H11),2))</f>
         <v>-1.36</v>
       </c>
       <c r="I11" s="5">
@@ -38487,7 +38487,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H12),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H12),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H12),2))</f>
         <v>-1.84</v>
       </c>
       <c r="I12" s="5">
@@ -38543,7 +38543,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H13),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H13),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H13),2))</f>
         <v>-2.29</v>
       </c>
       <c r="I13" s="5">
@@ -38599,7 +38599,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H14),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H14),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H14),2))</f>
         <v>-0.86</v>
       </c>
       <c r="I14" s="5">
@@ -38655,7 +38655,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H15),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H15),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H15),2))</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="I15" s="5">
@@ -38711,7 +38711,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H16),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H16),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H16),2))</f>
         <v>-1.32</v>
       </c>
       <c r="I16" s="5">
@@ -38767,7 +38767,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H17),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H17),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H17),2))</f>
         <v>-1.06</v>
       </c>
       <c r="I17" s="5">
@@ -38823,7 +38823,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H18),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H18),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H18),2))</f>
         <v>-1.24</v>
       </c>
       <c r="I18" s="5">
@@ -38879,7 +38879,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H19),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H19),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H19),2))</f>
         <v>-1.41</v>
       </c>
       <c r="I19" s="5">
@@ -38935,7 +38935,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H20),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H20),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H20),2))</f>
         <v>-1.03</v>
       </c>
       <c r="I20" s="5">
@@ -38991,7 +38991,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H21),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H21),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H21),2))</f>
         <v>-1.1599999999999999</v>
       </c>
       <c r="I21" s="5">
@@ -39047,7 +39047,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H22),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H22),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H22),2))</f>
         <v>-1.27</v>
       </c>
       <c r="I22" s="5">
@@ -39124,7 +39124,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H24),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H24),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H24),2))</f>
         <v>0.5</v>
       </c>
       <c r="I24" s="5">
@@ -39180,7 +39180,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H25),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H25),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H25),2))</f>
         <v>0.5</v>
       </c>
       <c r="I25" s="5">
@@ -39236,7 +39236,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H26),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H26),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H26),2))</f>
         <v>0.5</v>
       </c>
       <c r="I26" s="5">
@@ -39313,7 +39313,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H28),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H28),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H28),2))</f>
         <v>3.25</v>
       </c>
       <c r="I28" s="5">
@@ -39369,7 +39369,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H29),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H29),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H29),2))</f>
         <v>3.13</v>
       </c>
       <c r="I29" s="5">
@@ -39446,7 +39446,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H31),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H31),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H31),2))</f>
         <v>1.82</v>
       </c>
       <c r="I31" s="5">
@@ -39502,7 +39502,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H32),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H32),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H32),2))</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="I32" s="5">
@@ -39558,7 +39558,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H33),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H33),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H33),2))</f>
         <v>3.21</v>
       </c>
       <c r="I33" s="5">
@@ -39614,7 +39614,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H34),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H34),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H34),2))</f>
         <v>1.93</v>
       </c>
       <c r="I34" s="5">
@@ -39670,7 +39670,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H35),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H35),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H35),2))</f>
         <v>2.52</v>
       </c>
       <c r="I35" s="5">
@@ -39726,7 +39726,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H36),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H36),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H36),2))</f>
         <v>3.25</v>
       </c>
       <c r="I36" s="5">
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H37),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H37),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H37),2))</f>
         <v>1.96</v>
       </c>
       <c r="I37" s="5">
@@ -39838,7 +39838,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H38),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H38),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H38),2))</f>
         <v>2.48</v>
       </c>
       <c r="I38" s="5">
@@ -39894,7 +39894,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H39),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H39),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H39),2))</f>
         <v>3.13</v>
       </c>
       <c r="I39" s="5">
@@ -39971,7 +39971,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H41),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H41),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H41),2))</f>
         <v>-1.41</v>
       </c>
       <c r="I41" s="5">
@@ -40027,7 +40027,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H42),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H42),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H42),2))</f>
         <v>-1.27</v>
       </c>
       <c r="I42" s="5">
@@ -40104,7 +40104,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H44),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H44),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H44),2))</f>
         <v>-1.78</v>
       </c>
       <c r="I44" s="5">
@@ -40160,7 +40160,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H45),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H45),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H45),2))</f>
         <v>-1.81</v>
       </c>
       <c r="I45" s="5">
@@ -40216,7 +40216,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H46),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H46),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H46),2))</f>
         <v>-1.86</v>
       </c>
       <c r="I46" s="5">
@@ -40272,7 +40272,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H47),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H47),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H47),2))</f>
         <v>-1.65</v>
       </c>
       <c r="I47" s="5">
@@ -40328,7 +40328,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H48),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H48),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H48),2))</f>
         <v>-1.69</v>
       </c>
       <c r="I48" s="5">
@@ -40384,7 +40384,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H49),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H49),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H49),2))</f>
         <v>-1.75</v>
       </c>
       <c r="I49" s="5">
@@ -40440,7 +40440,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H50),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H50),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H50),2))</f>
         <v>-1.37</v>
       </c>
       <c r="I50" s="5">
@@ -40496,7 +40496,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H51),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H51),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H51),2))</f>
         <v>-1.42</v>
       </c>
       <c r="I51" s="5">
@@ -40552,7 +40552,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H52),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H52),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H52),2))</f>
         <v>-1.48</v>
       </c>
       <c r="I52" s="5">
@@ -40629,7 +40629,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H54),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H54),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H54),2))</f>
         <v>-1.0900000000000001</v>
       </c>
       <c r="I54" s="5">
@@ -40685,7 +40685,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H55),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H55),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H55),2))</f>
         <v>-1.01</v>
       </c>
       <c r="I55" s="5">
@@ -40762,8 +40762,8 @@
         <v>1</v>
       </c>
       <c r="H57" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H57),2)</f>
-        <v>-18.32</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H57),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H57),2))</f>
+        <v>-4</v>
       </c>
       <c r="I57" s="5">
         <v>2</v>
@@ -40818,8 +40818,8 @@
         <v>1</v>
       </c>
       <c r="H58" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H58),2)</f>
-        <v>-13.48</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H58),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H58),2))</f>
+        <v>-4</v>
       </c>
       <c r="I58" s="5">
         <v>2</v>
@@ -40874,8 +40874,8 @@
         <v>1</v>
       </c>
       <c r="H59" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H59),2)</f>
-        <v>-6.83</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H59),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H59),2))</f>
+        <v>-4</v>
       </c>
       <c r="I59" s="5">
         <v>2</v>
@@ -40930,7 +40930,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H60),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H60),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H60),2))</f>
         <v>-3.4</v>
       </c>
       <c r="I60" s="5">
@@ -40986,7 +40986,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H61),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H61),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H61),2))</f>
         <v>-2.44</v>
       </c>
       <c r="I61" s="5">
@@ -41042,7 +41042,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H62),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H62),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H62),2))</f>
         <v>-1.17</v>
       </c>
       <c r="I62" s="5">
@@ -41098,7 +41098,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H63),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H63),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H63),2))</f>
         <v>-1.7</v>
       </c>
       <c r="I63" s="5">
@@ -41154,7 +41154,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H64),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H64),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H64),2))</f>
         <v>-1.18</v>
       </c>
       <c r="I64" s="5">
@@ -41210,7 +41210,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H65),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H65),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H65),2))</f>
         <v>-0.5</v>
       </c>
       <c r="I65" s="5">
@@ -41266,7 +41266,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H66),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H66),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H66),2))</f>
         <v>-1.56</v>
       </c>
       <c r="I66" s="5">
@@ -41322,7 +41322,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H67),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H67),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H67),2))</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="I67" s="5">
@@ -41378,7 +41378,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H68),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H68),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H68),2))</f>
         <v>-0.54</v>
       </c>
       <c r="I68" s="5">
@@ -41434,7 +41434,7 @@
         <v>1</v>
       </c>
       <c r="H69" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H69),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H69),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H69),2))</f>
         <v>-1.27</v>
       </c>
       <c r="I69" s="5">
@@ -41490,7 +41490,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H70),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H70),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H70),2))</f>
         <v>-0.92</v>
       </c>
       <c r="I70" s="5">
@@ -41546,7 +41546,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H71),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H71),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H71),2))</f>
         <v>-0.45</v>
       </c>
       <c r="I71" s="5">
@@ -41623,7 +41623,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H73),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H73),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H73),2))</f>
         <v>0</v>
       </c>
       <c r="I73" s="5">
@@ -41679,7 +41679,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H74),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H74),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H74),2))</f>
         <v>0</v>
       </c>
       <c r="I74" s="5">
@@ -41735,7 +41735,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H75),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H75),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H75),2))</f>
         <v>0</v>
       </c>
       <c r="I75" s="5">
@@ -41812,7 +41812,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H77),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H77),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H77),2))</f>
         <v>-1.91</v>
       </c>
       <c r="I77" s="5">
@@ -41868,7 +41868,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H78),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H78),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H78),2))</f>
         <v>-1.57</v>
       </c>
       <c r="I78" s="5">
@@ -41945,7 +41945,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H80),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H80),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H80),2))</f>
         <v>0.4</v>
       </c>
       <c r="I80" s="5">
@@ -42001,7 +42001,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H81),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H81),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H81),2))</f>
         <v>1.7</v>
       </c>
       <c r="I81" s="5">
@@ -42057,7 +42057,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H82),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H82),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H82),2))</f>
         <v>3.7</v>
       </c>
       <c r="I82" s="5">
@@ -42113,7 +42113,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H83),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H83),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H83),2))</f>
         <v>0.18</v>
       </c>
       <c r="I83" s="5">
@@ -42169,7 +42169,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H84),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H84),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H84),2))</f>
         <v>1.18</v>
       </c>
       <c r="I84" s="5">
@@ -42225,7 +42225,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H85),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H85),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H85),2))</f>
         <v>2.64</v>
       </c>
       <c r="I85" s="5">
@@ -42281,7 +42281,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H86),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H86),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H86),2))</f>
         <v>0.1</v>
       </c>
       <c r="I86" s="5">
@@ -42337,7 +42337,7 @@
         <v>1</v>
       </c>
       <c r="H87" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H87),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H87),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H87),2))</f>
         <v>0.84</v>
       </c>
       <c r="I87" s="5">
@@ -42393,7 +42393,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H88),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H88),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H88),2))</f>
         <v>1.87</v>
       </c>
       <c r="I88" s="5">
@@ -42468,7 +42468,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H90),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H90),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H90),2))</f>
         <v>-1.41</v>
       </c>
       <c r="I90" s="5">
@@ -42522,7 +42522,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H91),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H91),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H91),2))</f>
         <v>-1.27</v>
       </c>
       <c r="I91" s="5">
@@ -42599,7 +42599,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H93),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H93),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H93),2))</f>
         <v>-4</v>
       </c>
       <c r="I93" s="5">
@@ -42655,8 +42655,8 @@
         <v>1</v>
       </c>
       <c r="H94" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H94),2)</f>
-        <v>-6.86</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H94),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H94),2))</f>
+        <v>-4</v>
       </c>
       <c r="I94" s="5">
         <v>20</v>
@@ -42711,8 +42711,8 @@
         <v>1</v>
       </c>
       <c r="H95" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H95),2)</f>
-        <v>-9.4499999999999993</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H95),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H95),2))</f>
+        <v>-4</v>
       </c>
       <c r="I95" s="5">
         <v>20</v>
@@ -42767,7 +42767,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H96),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H96),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H96),2))</f>
         <v>-0.75</v>
       </c>
       <c r="I96" s="5">
@@ -42823,7 +42823,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H97),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H97),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H97),2))</f>
         <v>-1.32</v>
       </c>
       <c r="I97" s="5">
@@ -42879,7 +42879,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H98),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H98),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H98),2))</f>
         <v>-1.85</v>
       </c>
       <c r="I98" s="5">
@@ -42935,7 +42935,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H99),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H99),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H99),2))</f>
         <v>-0.39</v>
       </c>
       <c r="I99" s="5">
@@ -42991,7 +42991,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H100),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H100),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H100),2))</f>
         <v>-0.71</v>
       </c>
       <c r="I100" s="5">
@@ -43047,7 +43047,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H101),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H101),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H101),2))</f>
         <v>-1</v>
       </c>
       <c r="I101" s="5">
@@ -43103,7 +43103,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H102),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H102),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H102),2))</f>
         <v>-0.57999999999999996</v>
       </c>
       <c r="I102" s="5">
@@ -43159,7 +43159,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H103),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H103),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H103),2))</f>
         <v>-0.85</v>
       </c>
       <c r="I103" s="5">
@@ -43215,7 +43215,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H104),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H104),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H104),2))</f>
         <v>-1.0900000000000001</v>
       </c>
       <c r="I104" s="5">
@@ -43271,7 +43271,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H105),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H105),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H105),2))</f>
         <v>-0.6</v>
       </c>
       <c r="I105" s="5">
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H106),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H106),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H106),2))</f>
         <v>-0.81</v>
       </c>
       <c r="I106" s="5">
@@ -43383,7 +43383,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H107),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H107),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H107),2))</f>
         <v>-1.01</v>
       </c>
       <c r="I107" s="5">
@@ -43460,7 +43460,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H109),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H109),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H109),2))</f>
         <v>0</v>
       </c>
       <c r="I109" s="5">
@@ -43516,7 +43516,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H110),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H110),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H110),2))</f>
         <v>0</v>
       </c>
       <c r="I110" s="5">
@@ -43572,7 +43572,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H111),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H111),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H111),2))</f>
         <v>0</v>
       </c>
       <c r="I111" s="5">
@@ -43649,7 +43649,7 @@
         <v>0.76</v>
       </c>
       <c r="H113" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H113),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H113),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H113),2))</f>
         <v>0.21</v>
       </c>
       <c r="I113">
@@ -43702,7 +43702,7 @@
         <v>0.74</v>
       </c>
       <c r="H114" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H114),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H114),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H114),2))</f>
         <v>-0.13</v>
       </c>
       <c r="I114">
@@ -43755,7 +43755,7 @@
         <v>0.72</v>
       </c>
       <c r="H115" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H115),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H115),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H115),2))</f>
         <v>-0.44</v>
       </c>
       <c r="I115">
@@ -43808,7 +43808,7 @@
         <v>0.74</v>
       </c>
       <c r="H116" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H116),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H116),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H116),2))</f>
         <v>-0.04</v>
       </c>
       <c r="I116">
@@ -43861,7 +43861,7 @@
         <v>0.72</v>
       </c>
       <c r="H117" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H117),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H117),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H117),2))</f>
         <v>-0.33</v>
       </c>
       <c r="I117">
@@ -43914,7 +43914,7 @@
         <v>0.7</v>
       </c>
       <c r="H118" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H118),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H118),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H118),2))</f>
         <v>-0.6</v>
       </c>
       <c r="I118">
@@ -43967,7 +43967,7 @@
         <v>0.72</v>
       </c>
       <c r="H119" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H119),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H119),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H119),2))</f>
         <v>-0.16</v>
       </c>
       <c r="I119">
@@ -44020,7 +44020,7 @@
         <v>0.7</v>
       </c>
       <c r="H120" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H120),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H120),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H120),2))</f>
         <v>-0.39</v>
       </c>
       <c r="I120">
@@ -44073,7 +44073,7 @@
         <v>0.68</v>
       </c>
       <c r="H121" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H121),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H121),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H121),2))</f>
         <v>-0.6</v>
       </c>
       <c r="I121">
@@ -44140,7 +44140,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H123),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H123),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H123),2))</f>
         <v>-0.85</v>
       </c>
       <c r="I123">
@@ -44193,7 +44193,7 @@
         <v>1</v>
       </c>
       <c r="H124" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H124),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H124),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H124),2))</f>
         <v>-0.81</v>
       </c>
       <c r="I124">
@@ -44260,8 +44260,8 @@
         <v>0.2</v>
       </c>
       <c r="H126" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H126),2)</f>
-        <v>-5.61</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H126),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H126),2))</f>
+        <v>-4</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -44313,8 +44313,8 @@
         <v>0.18</v>
       </c>
       <c r="H127" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H127),2)</f>
-        <v>-8.24</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H127),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H127),2))</f>
+        <v>-4</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -44380,7 +44380,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H129),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H129),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H129),2))</f>
         <v>4.3899999999999997</v>
       </c>
       <c r="I129">
@@ -44433,7 +44433,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H130),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H130),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H130),2))</f>
         <v>8.7899999999999991</v>
       </c>
       <c r="I130">
@@ -44486,7 +44486,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H131),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H131),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H131),2))</f>
         <v>14.16</v>
       </c>
       <c r="I131">
@@ -44539,7 +44539,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H132),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H132),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H132),2))</f>
         <v>4.3899999999999997</v>
       </c>
       <c r="I132">
@@ -44592,7 +44592,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H133),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H133),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H133),2))</f>
         <v>8.7899999999999991</v>
       </c>
       <c r="I133">
@@ -44645,7 +44645,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H134),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H134),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H134),2))</f>
         <v>14.16</v>
       </c>
       <c r="I134">
@@ -44698,7 +44698,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H135),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H135),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H135),2))</f>
         <v>4.3899999999999997</v>
       </c>
       <c r="I135">
@@ -44751,7 +44751,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H136),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H136),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H136),2))</f>
         <v>8.7899999999999991</v>
       </c>
       <c r="I136">
@@ -44804,7 +44804,7 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H137),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H137),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H137),2))</f>
         <v>14.16</v>
       </c>
       <c r="I137">
@@ -44857,7 +44857,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H138),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H138),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H138),2))</f>
         <v>4.3899999999999997</v>
       </c>
       <c r="I138">
@@ -44910,7 +44910,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H139),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H139),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H139),2))</f>
         <v>8.7899999999999991</v>
       </c>
       <c r="I139">
@@ -44963,7 +44963,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H140),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H140),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H140),2))</f>
         <v>14.16</v>
       </c>
       <c r="I140">
@@ -45016,7 +45016,7 @@
         <v>0</v>
       </c>
       <c r="H141" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H141),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H141),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H141),2))</f>
         <v>2.06</v>
       </c>
       <c r="I141">
@@ -45069,7 +45069,7 @@
         <v>0</v>
       </c>
       <c r="H142" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H142),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H142),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H142),2))</f>
         <v>3.07</v>
       </c>
       <c r="I142">
@@ -45122,7 +45122,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H143),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H143),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H143),2))</f>
         <v>4.3</v>
       </c>
       <c r="I143">
@@ -45175,7 +45175,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H144),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H144),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H144),2))</f>
         <v>2.06</v>
       </c>
       <c r="I144">
@@ -45228,7 +45228,7 @@
         <v>0</v>
       </c>
       <c r="H145" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H145),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H145),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H145),2))</f>
         <v>3.07</v>
       </c>
       <c r="I145">
@@ -45281,7 +45281,7 @@
         <v>0</v>
       </c>
       <c r="H146" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H146),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H146),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H146),2))</f>
         <v>4.3</v>
       </c>
       <c r="I146">
@@ -45334,7 +45334,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H147),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H147),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H147),2))</f>
         <v>2.06</v>
       </c>
       <c r="I147">
@@ -45387,7 +45387,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H148),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H148),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H148),2))</f>
         <v>3.07</v>
       </c>
       <c r="I148">
@@ -45440,7 +45440,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H149),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H149),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H149),2))</f>
         <v>4.3</v>
       </c>
       <c r="I149">
@@ -45493,7 +45493,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H150),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H150),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H150),2))</f>
         <v>2.06</v>
       </c>
       <c r="I150">
@@ -45546,7 +45546,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H151),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H151),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H151),2))</f>
         <v>3.07</v>
       </c>
       <c r="I151">
@@ -45599,7 +45599,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H152),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H152),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H152),2))</f>
         <v>4.3</v>
       </c>
       <c r="I152">
@@ -45666,7 +45666,7 @@
         <v>0</v>
       </c>
       <c r="H154" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H154),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H154),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H154),2))</f>
         <v>-1.1599999999999999</v>
       </c>
       <c r="I154">
@@ -45719,8 +45719,8 @@
         <v>0</v>
       </c>
       <c r="H155" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H155),2)</f>
-        <v>-5.61</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H155),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H155),2))</f>
+        <v>-4</v>
       </c>
       <c r="I155">
         <v>2</v>
@@ -45772,8 +45772,8 @@
         <v>0</v>
       </c>
       <c r="H156" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H156),2)</f>
-        <v>-8.24</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H156),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H156),2))</f>
+        <v>-4</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -45825,8 +45825,8 @@
         <v>0</v>
       </c>
       <c r="H157" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H157),2)</f>
-        <v>-10.63</v>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H157),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H157),2))</f>
+        <v>-4</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -45879,7 +45879,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H158),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H158),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H158),2))</f>
         <v>0.01</v>
       </c>
       <c r="I158">
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H159),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H159),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H159),2))</f>
         <v>0.01</v>
       </c>
       <c r="I159">
@@ -45985,7 +45985,7 @@
         <v>0</v>
       </c>
       <c r="H160" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H160),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H160),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H160),2))</f>
         <v>2.06</v>
       </c>
       <c r="I160">
@@ -46038,7 +46038,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H161),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H161),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H161),2))</f>
         <v>3.07</v>
       </c>
       <c r="I161">
@@ -46105,7 +46105,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H163),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H163),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H163),2))</f>
         <v>0.78</v>
       </c>
       <c r="I163">
@@ -46158,7 +46158,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H164),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H164),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H164),2))</f>
         <v>0.45</v>
       </c>
       <c r="I164">
@@ -46211,7 +46211,7 @@
         <v>0</v>
       </c>
       <c r="H165" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H165),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H165),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H165),2))</f>
         <v>0.1</v>
       </c>
       <c r="I165">
@@ -46278,7 +46278,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H167),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H167),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H167),2))</f>
         <v>-0.6</v>
       </c>
       <c r="I167">
@@ -46331,7 +46331,7 @@
         <v>1</v>
       </c>
       <c r="H168" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H168),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H168),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H168),2))</f>
         <v>-0.81</v>
       </c>
       <c r="I168">
@@ -46384,7 +46384,7 @@
         <v>1</v>
       </c>
       <c r="H169" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H169),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H169),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H169),2))</f>
         <v>-1.01</v>
       </c>
       <c r="I169">
@@ -46437,7 +46437,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H170),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H170),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H170),2))</f>
         <v>-1.01</v>
       </c>
       <c r="I170">
@@ -46490,7 +46490,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H171),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H171),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H171),2))</f>
         <v>5.88</v>
       </c>
       <c r="I171">
@@ -46543,7 +46543,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H172),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H172),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H172),2))</f>
         <v>8.7100000000000009</v>
       </c>
       <c r="I172">
@@ -46610,7 +46610,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="5">
-        <f ca="1">ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H174),2)</f>
+        <f ca="1">IF(ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H174),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H174),2))</f>
         <v>3.13</v>
       </c>
       <c r="I174">
@@ -46676,7 +46676,7 @@
         <v>0</v>
       </c>
       <c r="H176" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H176),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H176),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H176),2))</f>
         <v>0</v>
       </c>
       <c r="I176">
@@ -46728,7 +46728,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H177),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H177),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H177),2))</f>
         <v>0</v>
       </c>
       <c r="I177">
@@ -46780,7 +46780,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H178),2)</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H178),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H178),2))</f>
         <v>0</v>
       </c>
       <c r="I178">

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -19,12 +19,12 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
     <sheet name="gen_weapon_components" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027" iterate="1" iterateCount="50"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="307">
   <si>
     <t># Lines starting with ”#” will be treated as comments.</t>
   </si>
@@ -943,6 +943,9 @@
   <si>
     <t>Pt</t>
   </si>
+  <si>
+    <t>#Manual</t>
+  </si>
 </sst>
 </file>
 
@@ -1029,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1066,6 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,76 +1410,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="91">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="92">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="93">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1490,274 +1494,274 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.333333333333333</c:v>
+                  <c:v>-3.3433333333333328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.6666666666666661</c:v>
+                  <c:v>-6.6866666666666656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.373333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.6666666666666661</c:v>
+                  <c:v>-6.6766666666666659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.706666666666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.343333333333332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.686666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.373333333333328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.676666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.343333333333327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.68666666666665</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.37333333333331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.41333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-426.66666666666663</c:v>
+                  <c:v>-426.74666666666661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.343333333333332</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.686666666666664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.373333333333328</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.676666666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.343333333333327</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.68666666666665</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.37333333333331</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.41333333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-426.66666666666663</c:v>
+                  <c:v>-426.74666666666661</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.343333333333332</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.686666666666664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.373333333333328</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.676666666666666</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.343333333333327</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.68666666666665</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.37333333333331</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.41333333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-426.66666666666663</c:v>
+                  <c:v>-426.74666666666661</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.333333333333333</c:v>
+                  <c:v>-3.3433333333333328</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-6.6666666666666661</c:v>
+                  <c:v>-6.6866666666666656</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.373333333333331</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.6666666666666661</c:v>
+                  <c:v>-6.6766666666666659</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.706666666666663</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.343333333333332</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.686666666666664</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.373333333333328</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.676666666666666</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.343333333333327</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.68666666666665</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.37333333333331</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.41333333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-426.66666666666663</c:v>
+                  <c:v>-426.74666666666661</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.343333333333332</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.686666666666664</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.373333333333328</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.676666666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.343333333333327</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.68666666666665</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.37333333333331</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.37333333333331</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-3.333333333333333</c:v>
+                  <c:v>-3.3433333333333328</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-6.6666666666666661</c:v>
+                  <c:v>-6.6866666666666656</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.373333333333331</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-6.6666666666666661</c:v>
+                  <c:v>-6.6766666666666659</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.706666666666663</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.343333333333332</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.686666666666664</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.373333333333328</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.676666666666666</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.343333333333327</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.68666666666665</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-213.33333333333331</c:v>
+                  <c:v>-213.37333333333331</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-13.333333333333332</c:v>
+                  <c:v>-13.343333333333332</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.686666666666664</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.373333333333328</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-26.666666666666664</c:v>
+                  <c:v>-26.676666666666666</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.353333333333332</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.70666666666666</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-53.333333333333329</c:v>
+                  <c:v>-53.343333333333327</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-106.66666666666666</c:v>
+                  <c:v>-106.68666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12693,7 +12697,7 @@
   <dimension ref="A1:Q178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="M183" sqref="M183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20157,10 +20161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP173"/>
+  <dimension ref="A1:AP178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20246,7 +20250,7 @@
         <v>2</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -20307,7 +20311,7 @@
         <v>4</v>
       </c>
       <c r="T3">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -20367,7 +20371,7 @@
         <v>0.6</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>2</v>
@@ -20427,7 +20431,7 @@
         <v>0.65</v>
       </c>
       <c r="T5">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -20483,7 +20487,7 @@
         <v>0.75</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>4</v>
@@ -20555,11 +20559,11 @@
       <c r="F8" s="12">
         <v>0.2</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8">
@@ -20758,7 +20762,7 @@
       </c>
       <c r="U11" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C11)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D11+2)*(1+'Weapon Formulas'!B11))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V11">
         <v>0.69</v>
@@ -20838,7 +20842,7 @@
       </c>
       <c r="U12" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C12)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D12+2)*(1+'Weapon Formulas'!B12))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V12">
         <v>0.8</v>
@@ -20918,7 +20922,7 @@
       </c>
       <c r="U13" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C13)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D13+2)*(1+'Weapon Formulas'!B13))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V13">
         <v>0.75</v>
@@ -20998,7 +21002,7 @@
       </c>
       <c r="U14" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C14)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D14+2)*(1+'Weapon Formulas'!B14))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V14">
         <v>0.82</v>
@@ -21078,7 +21082,7 @@
       </c>
       <c r="U15" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C15)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D15+2)*(1+'Weapon Formulas'!B15))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V15">
         <v>0.8</v>
@@ -21158,7 +21162,7 @@
       </c>
       <c r="U16" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C16)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D16+2)*(1+'Weapon Formulas'!B16))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.706666666666663</v>
       </c>
       <c r="V16">
         <v>0.75</v>
@@ -21238,7 +21242,7 @@
       </c>
       <c r="U17" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C17)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D17+2)*(1+'Weapon Formulas'!B17))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.343333333333332</v>
       </c>
       <c r="V17">
         <v>0.82</v>
@@ -21322,7 +21326,7 @@
       </c>
       <c r="U18" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C18)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D18+2)*(1+'Weapon Formulas'!B18))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.686666666666664</v>
       </c>
       <c r="V18">
         <v>0.8</v>
@@ -21402,7 +21406,7 @@
       </c>
       <c r="U19" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C19)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D19+2)*(1+'Weapon Formulas'!B19))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.373333333333328</v>
       </c>
       <c r="V19">
         <v>0.75</v>
@@ -21482,7 +21486,7 @@
       </c>
       <c r="U20" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C20)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D20+2)*(1+'Weapon Formulas'!B20))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V20">
         <v>0.82</v>
@@ -21564,7 +21568,7 @@
       </c>
       <c r="U21" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C21)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D21+2)*(1+'Weapon Formulas'!B21))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.353333333333332</v>
       </c>
       <c r="V21">
         <v>0.8</v>
@@ -21644,7 +21648,7 @@
       </c>
       <c r="U22" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C22)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D22+2)*(1+'Weapon Formulas'!B22))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V22">
         <v>0.75</v>
@@ -21724,7 +21728,7 @@
       </c>
       <c r="U23" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C23)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D23+2)*(1+'Weapon Formulas'!B23))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V23">
         <v>0.82</v>
@@ -21804,7 +21808,7 @@
       </c>
       <c r="U24" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C24)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D24+2)*(1+'Weapon Formulas'!B24))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V24">
         <v>0.8</v>
@@ -21884,7 +21888,7 @@
       </c>
       <c r="U25" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C25)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D25+2)*(1+'Weapon Formulas'!B25))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V25">
         <v>0.75</v>
@@ -22095,7 +22099,7 @@
       </c>
       <c r="U27" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C27)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D27+2)*(1+'Weapon Formulas'!B27))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.41333333333333</v>
       </c>
       <c r="V27">
         <v>0.9</v>
@@ -22257,7 +22261,7 @@
       </c>
       <c r="U28" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C28)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D28+2)*(1+'Weapon Formulas'!B28))</f>
-        <v>-426.66666666666663</v>
+        <v>-426.74666666666661</v>
       </c>
       <c r="V28">
         <v>0.9</v>
@@ -22540,7 +22544,7 @@
       </c>
       <c r="U30" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C30)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D30+2)*(1+'Weapon Formulas'!B30))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.343333333333332</v>
       </c>
       <c r="V30">
         <v>0.82</v>
@@ -22699,7 +22703,7 @@
       </c>
       <c r="U31" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C31)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D31+2)*(1+'Weapon Formulas'!B31))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.686666666666664</v>
       </c>
       <c r="V31">
         <v>0.8</v>
@@ -22858,7 +22862,7 @@
       </c>
       <c r="U32" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C32)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D32+2)*(1+'Weapon Formulas'!B32))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.373333333333328</v>
       </c>
       <c r="V32">
         <v>0.75</v>
@@ -23017,7 +23021,7 @@
       </c>
       <c r="U33" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C33)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D33+2)*(1+'Weapon Formulas'!B33))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V33">
         <v>0.82</v>
@@ -23176,7 +23180,7 @@
       </c>
       <c r="U34" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C34)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D34+2)*(1+'Weapon Formulas'!B34))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.353333333333332</v>
       </c>
       <c r="V34">
         <v>0.8</v>
@@ -23335,7 +23339,7 @@
       </c>
       <c r="U35" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C35)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D35+2)*(1+'Weapon Formulas'!B35))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V35">
         <v>0.75</v>
@@ -23494,7 +23498,7 @@
       </c>
       <c r="U36" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C36)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D36+2)*(1+'Weapon Formulas'!B36))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V36">
         <v>0.82</v>
@@ -23653,7 +23657,7 @@
       </c>
       <c r="U37" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C37)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D37+2)*(1+'Weapon Formulas'!B37))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V37">
         <v>0.8</v>
@@ -23812,7 +23816,7 @@
       </c>
       <c r="U38" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C38)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D38+2)*(1+'Weapon Formulas'!B38))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V38">
         <v>0.75</v>
@@ -23941,7 +23945,7 @@
       </c>
       <c r="U40" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C40)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D40+2)*(1+'Weapon Formulas'!B40))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.41333333333333</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -24025,7 +24029,7 @@
       </c>
       <c r="U41" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C41)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D41+2)*(1+'Weapon Formulas'!B41))</f>
-        <v>-426.66666666666663</v>
+        <v>-426.74666666666661</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -24151,7 +24155,7 @@
       </c>
       <c r="U43" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C43)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D43)*(1+'Weapon Formulas'!B43))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.343333333333332</v>
       </c>
       <c r="V43">
         <v>0.82</v>
@@ -24232,7 +24236,7 @@
       </c>
       <c r="U44" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C44)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D44)*(1+'Weapon Formulas'!B44))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.686666666666664</v>
       </c>
       <c r="V44">
         <v>0.8</v>
@@ -24313,7 +24317,7 @@
       </c>
       <c r="U45" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C45)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D45)*(1+'Weapon Formulas'!B45))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.373333333333328</v>
       </c>
       <c r="V45">
         <v>0.75</v>
@@ -24394,7 +24398,7 @@
       </c>
       <c r="U46" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C46)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D46)*(1+'Weapon Formulas'!B46))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V46">
         <v>0.82</v>
@@ -24475,7 +24479,7 @@
       </c>
       <c r="U47" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C47)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D47)*(1+'Weapon Formulas'!B47))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.353333333333332</v>
       </c>
       <c r="V47">
         <v>0.8</v>
@@ -24556,7 +24560,7 @@
       </c>
       <c r="U48" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C48)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D48)*(1+'Weapon Formulas'!B48))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V48">
         <v>0.75</v>
@@ -24636,7 +24640,7 @@
       </c>
       <c r="U49" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C49)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D49)*(1+'Weapon Formulas'!B49))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V49">
         <v>0.82</v>
@@ -24716,7 +24720,7 @@
       </c>
       <c r="U50" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C50)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D50)*(1+'Weapon Formulas'!B50))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V50">
         <v>0.8</v>
@@ -24796,7 +24800,7 @@
       </c>
       <c r="U51" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C51)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D51)*(1+'Weapon Formulas'!B51))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V51">
         <v>0.75</v>
@@ -24924,7 +24928,7 @@
       </c>
       <c r="U53" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C53)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D53+2)*(1+'Weapon Formulas'!B53))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.41333333333333</v>
       </c>
       <c r="V53">
         <v>0.95</v>
@@ -25007,7 +25011,7 @@
       </c>
       <c r="U54" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C54)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D54+2)*(1+'Weapon Formulas'!B54))</f>
-        <v>-426.66666666666663</v>
+        <v>-426.74666666666661</v>
       </c>
       <c r="V54">
         <v>0.95</v>
@@ -25130,7 +25134,7 @@
       </c>
       <c r="U56" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C56)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D56+2)*(1+'Weapon Formulas'!B56))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V56">
         <v>0.76</v>
@@ -25209,7 +25213,7 @@
       </c>
       <c r="U57" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C57)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D57+2)*(1+'Weapon Formulas'!B57))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V57">
         <v>0.72</v>
@@ -25288,7 +25292,7 @@
       </c>
       <c r="U58" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C58)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D58+2)*(1+'Weapon Formulas'!B58))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V58">
         <v>0.67</v>
@@ -25367,7 +25371,7 @@
       </c>
       <c r="U59" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C59)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D59+2)*(1+'Weapon Formulas'!B59))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V59">
         <v>0.76</v>
@@ -25446,7 +25450,7 @@
       </c>
       <c r="U60" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C60)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D60+2)*(1+'Weapon Formulas'!B60))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V60">
         <v>0.72</v>
@@ -25525,7 +25529,7 @@
       </c>
       <c r="U61" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C61)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D61+2)*(1+'Weapon Formulas'!B61))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.706666666666663</v>
       </c>
       <c r="V61">
         <v>0.67</v>
@@ -25604,7 +25608,7 @@
       </c>
       <c r="U62" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C62)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D62+2)*(1+'Weapon Formulas'!B62))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.343333333333332</v>
       </c>
       <c r="V62">
         <v>0.76</v>
@@ -25683,7 +25687,7 @@
       </c>
       <c r="U63" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C63)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D63+2)*(1+'Weapon Formulas'!B63))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.686666666666664</v>
       </c>
       <c r="V63">
         <v>0.72</v>
@@ -25763,7 +25767,7 @@
       </c>
       <c r="U64" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C64)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D64+2)*(1+'Weapon Formulas'!B64))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.373333333333328</v>
       </c>
       <c r="V64">
         <v>0.67</v>
@@ -25842,7 +25846,7 @@
       </c>
       <c r="U65" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C65)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D65+2)*(1+'Weapon Formulas'!B65))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V65">
         <v>0.76</v>
@@ -25921,7 +25925,7 @@
       </c>
       <c r="U66" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C66)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D66+2)*(1+'Weapon Formulas'!B66))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.353333333333332</v>
       </c>
       <c r="V66">
         <v>0.72</v>
@@ -26000,7 +26004,7 @@
       </c>
       <c r="U67" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C67)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D67+2)*(1+'Weapon Formulas'!B67))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V67">
         <v>0.67</v>
@@ -26079,7 +26083,7 @@
       </c>
       <c r="U68" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C68)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D68+2)*(1+'Weapon Formulas'!B68))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V68">
         <v>0.76</v>
@@ -26158,7 +26162,7 @@
       </c>
       <c r="U69" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C69)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D69+2)*(1+'Weapon Formulas'!B69))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V69">
         <v>0.72</v>
@@ -26237,7 +26241,7 @@
       </c>
       <c r="U70" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C70)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D70+2)*(1+'Weapon Formulas'!B70))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V70">
         <v>0.67</v>
@@ -26363,7 +26367,7 @@
       </c>
       <c r="U72" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C72)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D72+2)*(1+'Weapon Formulas'!B72))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.41333333333333</v>
       </c>
       <c r="V72">
         <v>0.7</v>
@@ -26445,7 +26449,7 @@
       </c>
       <c r="U73" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C73)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D73+2)*(1+'Weapon Formulas'!B73))</f>
-        <v>-426.66666666666663</v>
+        <v>-426.74666666666661</v>
       </c>
       <c r="V73">
         <v>0.7</v>
@@ -26564,7 +26568,7 @@
       </c>
       <c r="U75" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C75)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D75+2)*(1+'Weapon Formulas'!B75))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.343333333333332</v>
       </c>
       <c r="V75">
         <v>0.82</v>
@@ -26643,7 +26647,7 @@
       </c>
       <c r="U76" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C76)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D76+2)*(1+'Weapon Formulas'!B76))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.686666666666664</v>
       </c>
       <c r="V76">
         <v>0.8</v>
@@ -26722,7 +26726,7 @@
       </c>
       <c r="U77" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C77)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D77+2)*(1+'Weapon Formulas'!B77))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.373333333333328</v>
       </c>
       <c r="V77">
         <v>0.75</v>
@@ -26801,7 +26805,7 @@
       </c>
       <c r="U78" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C78)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D78+2)*(1+'Weapon Formulas'!B78))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V78">
         <v>0.82</v>
@@ -26880,7 +26884,7 @@
       </c>
       <c r="U79" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C79)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D79+2)*(1+'Weapon Formulas'!B79))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.353333333333332</v>
       </c>
       <c r="V79">
         <v>0.8</v>
@@ -26959,7 +26963,7 @@
       </c>
       <c r="U80" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C80)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D80+2)*(1+'Weapon Formulas'!B80))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V80">
         <v>0.75</v>
@@ -27038,7 +27042,7 @@
       </c>
       <c r="U81" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C81)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D81+2)*(1+'Weapon Formulas'!B81))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V81">
         <v>0.82</v>
@@ -27117,7 +27121,7 @@
       </c>
       <c r="U82" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C82)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D82+2)*(1+'Weapon Formulas'!B82))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V82">
         <v>0.8</v>
@@ -27196,7 +27200,7 @@
       </c>
       <c r="U83" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C83)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D83+2)*(1+'Weapon Formulas'!B83))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V83">
         <v>0.75</v>
@@ -27315,7 +27319,7 @@
       </c>
       <c r="U85" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C85)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D85+2)*(1+'Weapon Formulas'!B85))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V85">
         <v>0.8</v>
@@ -27395,7 +27399,7 @@
       </c>
       <c r="U86" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C86)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D86+2)*(1+'Weapon Formulas'!B86))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V86">
         <v>0.8</v>
@@ -27516,11 +27520,11 @@
       </c>
       <c r="T88" s="2">
         <f>INDEX($T$2:$T$6,C88)</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="U88" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C88)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D88+2)*(1+'Weapon Formulas'!B88))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V88">
         <v>1</v>
@@ -27596,11 +27600,11 @@
       </c>
       <c r="T89" s="2">
         <f t="shared" ref="T89:T115" si="72">INDEX($T$2:$T$6,C89)</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="U89" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C89)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D89+2)*(1+'Weapon Formulas'!B89))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V89">
         <v>1</v>
@@ -27676,11 +27680,11 @@
       </c>
       <c r="T90" s="2">
         <f t="shared" si="72"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="U90" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C90)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D90+2)*(1+'Weapon Formulas'!B90))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -27756,11 +27760,11 @@
       </c>
       <c r="T91" s="2">
         <f t="shared" si="72"/>
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="U91" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C91)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D91+2)*(1+'Weapon Formulas'!B91))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V91">
         <v>1</v>
@@ -27836,11 +27840,11 @@
       </c>
       <c r="T92" s="2">
         <f t="shared" si="72"/>
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="U92" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C92)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D92+2)*(1+'Weapon Formulas'!B92))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V92">
         <v>1</v>
@@ -27916,11 +27920,11 @@
       </c>
       <c r="T93" s="2">
         <f t="shared" si="72"/>
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="U93" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C93)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D93+2)*(1+'Weapon Formulas'!B93))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.706666666666663</v>
       </c>
       <c r="V93">
         <v>1</v>
@@ -27996,11 +28000,11 @@
       </c>
       <c r="T94" s="2">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U94" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C94)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D94+2)*(1+'Weapon Formulas'!B94))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.343333333333332</v>
       </c>
       <c r="V94">
         <v>1</v>
@@ -28076,11 +28080,11 @@
       </c>
       <c r="T95" s="2">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U95" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C95)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D95+2)*(1+'Weapon Formulas'!B95))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.686666666666664</v>
       </c>
       <c r="V95">
         <v>1</v>
@@ -28156,11 +28160,11 @@
       </c>
       <c r="T96" s="2">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U96" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C96)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D96+2)*(1+'Weapon Formulas'!B96))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.373333333333328</v>
       </c>
       <c r="V96">
         <v>1</v>
@@ -28236,11 +28240,11 @@
       </c>
       <c r="T97" s="2">
         <f t="shared" si="72"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="U97" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C97)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D97+2)*(1+'Weapon Formulas'!B97))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V97">
         <v>1</v>
@@ -28316,11 +28320,11 @@
       </c>
       <c r="T98" s="2">
         <f t="shared" si="72"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="U98" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C98)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D98+2)*(1+'Weapon Formulas'!B98))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.353333333333332</v>
       </c>
       <c r="V98">
         <v>1</v>
@@ -28396,11 +28400,11 @@
       </c>
       <c r="T99" s="2">
         <f t="shared" si="72"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="U99" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C99)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D99+2)*(1+'Weapon Formulas'!B99))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V99">
         <v>1</v>
@@ -28476,11 +28480,11 @@
       </c>
       <c r="T100" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U100" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C100)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D100+2)*(1+'Weapon Formulas'!B100))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V100">
         <v>1</v>
@@ -28556,11 +28560,11 @@
       </c>
       <c r="T101" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U101" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C101)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D101+2)*(1+'Weapon Formulas'!B101))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V101">
         <v>1</v>
@@ -28636,11 +28640,11 @@
       </c>
       <c r="T102" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U102" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C102)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D102+2)*(1+'Weapon Formulas'!B102))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V102">
         <v>1</v>
@@ -28761,11 +28765,11 @@
       </c>
       <c r="T104" s="2">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U104" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C104)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D104+2)*(1+'Weapon Formulas'!B104))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.343333333333332</v>
       </c>
       <c r="V104">
         <v>1</v>
@@ -28842,11 +28846,11 @@
       </c>
       <c r="T105" s="2">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U105" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C105)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D105+2)*(1+'Weapon Formulas'!B105))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.686666666666664</v>
       </c>
       <c r="V105">
         <v>1</v>
@@ -28923,11 +28927,11 @@
       </c>
       <c r="T106" s="2">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U106" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C106)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D106+2)*(1+'Weapon Formulas'!B106))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.373333333333328</v>
       </c>
       <c r="V106">
         <v>1</v>
@@ -29004,11 +29008,11 @@
       </c>
       <c r="T107" s="2">
         <f t="shared" si="72"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="U107" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C107)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D107+2)*(1+'Weapon Formulas'!B107))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V107">
         <v>1</v>
@@ -29085,11 +29089,11 @@
       </c>
       <c r="T108" s="2">
         <f t="shared" si="72"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="U108" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C108)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D108+2)*(1+'Weapon Formulas'!B108))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.353333333333332</v>
       </c>
       <c r="V108">
         <v>1</v>
@@ -29166,11 +29170,11 @@
       </c>
       <c r="T109" s="2">
         <f t="shared" si="72"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="U109" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C109)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D109+2)*(1+'Weapon Formulas'!B109))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V109">
         <v>1</v>
@@ -29247,11 +29251,11 @@
       </c>
       <c r="T110" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U110" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C110)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D110+2)*(1+'Weapon Formulas'!B110))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V110">
         <v>1</v>
@@ -29328,11 +29332,11 @@
       </c>
       <c r="T111" s="2">
         <f>INDEX($T$2:$T$6,C111)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U111" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C111)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D111+2)*(1+'Weapon Formulas'!B111))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V111">
         <v>1</v>
@@ -29409,11 +29413,11 @@
       </c>
       <c r="T112" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U112" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C112)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D112+2)*(1+'Weapon Formulas'!B112))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V112">
         <v>1</v>
@@ -29535,11 +29539,11 @@
       </c>
       <c r="T114" s="2">
         <f t="shared" si="72"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="U114" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C114)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D114+2)*(1+'Weapon Formulas'!B114))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V114">
         <v>1</v>
@@ -29618,11 +29622,11 @@
       </c>
       <c r="T115" s="2">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U115" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C115)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D115+2)*(1+'Weapon Formulas'!B115))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V115">
         <v>1</v>
@@ -29745,7 +29749,7 @@
       </c>
       <c r="U117" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C117)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D117+2)*(1+'Weapon Formulas'!B117))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.74666666666666</v>
       </c>
       <c r="V117">
         <v>0.75</v>
@@ -29825,7 +29829,7 @@
       </c>
       <c r="U118" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C118)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D118+2)*(1+'Weapon Formulas'!B118))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.41333333333333</v>
       </c>
       <c r="V118">
         <v>0.75</v>
@@ -29905,7 +29909,7 @@
       </c>
       <c r="U119" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C119)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D119+2)*(1+'Weapon Formulas'!B119))</f>
-        <v>-426.66666666666663</v>
+        <v>-426.74666666666661</v>
       </c>
       <c r="V119">
         <v>0.75</v>
@@ -30031,7 +30035,7 @@
       </c>
       <c r="U121" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C121)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D121+2)*(1+'Weapon Formulas'!B121))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V121" s="32">
         <v>0.75</v>
@@ -30107,7 +30111,7 @@
       </c>
       <c r="U122" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C122)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D122+2)*(1+'Weapon Formulas'!B122))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V122" s="32">
         <v>0.75</v>
@@ -30209,7 +30213,7 @@
       </c>
       <c r="U124" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C124)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D124+2)*(1+'Weapon Formulas'!B124))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V124" s="32">
         <v>0.75</v>
@@ -30285,7 +30289,7 @@
       </c>
       <c r="U125" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C125)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D125+2)*(1+'Weapon Formulas'!B125))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V125" s="32">
         <v>1.75</v>
@@ -30361,7 +30365,7 @@
       </c>
       <c r="U126" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C126)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D126+2)*(1+'Weapon Formulas'!B126))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V126" s="32">
         <v>2.75</v>
@@ -30437,7 +30441,7 @@
       </c>
       <c r="U127" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C127)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D127+2)*(1+'Weapon Formulas'!B127))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V127" s="32">
         <v>3.75</v>
@@ -30513,7 +30517,7 @@
       </c>
       <c r="U128" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C128)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D128+2)*(1+'Weapon Formulas'!B128))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V128" s="32">
         <v>4.75</v>
@@ -30589,7 +30593,7 @@
       </c>
       <c r="U129" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C129)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D129+2)*(1+'Weapon Formulas'!B129))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V129" s="32">
         <v>5.75</v>
@@ -30665,7 +30669,7 @@
       </c>
       <c r="U130" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C130)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D130+2)*(1+'Weapon Formulas'!B130))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V130" s="32">
         <v>6.75</v>
@@ -30741,7 +30745,7 @@
       </c>
       <c r="U131" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C131)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D131+2)*(1+'Weapon Formulas'!B131))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V131" s="32">
         <v>7.75</v>
@@ -30817,7 +30821,7 @@
       </c>
       <c r="U132" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C132)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D132+2)*(1+'Weapon Formulas'!B132))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V132" s="32">
         <v>8.75</v>
@@ -30893,7 +30897,7 @@
       </c>
       <c r="U133" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C133)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D133+2)*(1+'Weapon Formulas'!B133))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V133" s="32">
         <v>9.75</v>
@@ -30969,7 +30973,7 @@
       </c>
       <c r="U134" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C134)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D134+2)*(1+'Weapon Formulas'!B134))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V134" s="32">
         <v>10.75</v>
@@ -31045,7 +31049,7 @@
       </c>
       <c r="U135" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C135)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D135+2)*(1+'Weapon Formulas'!B135))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V135" s="32">
         <v>11.75</v>
@@ -31121,7 +31125,7 @@
       </c>
       <c r="U136" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C136)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D136+2)*(1+'Weapon Formulas'!B136))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V136" s="32">
         <v>12.75</v>
@@ -31197,7 +31201,7 @@
       </c>
       <c r="U137" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C137)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D137+2)*(1+'Weapon Formulas'!B137))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V137" s="32">
         <v>13.75</v>
@@ -31273,7 +31277,7 @@
       </c>
       <c r="U138" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C138)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D138+2)*(1+'Weapon Formulas'!B138))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.706666666666663</v>
       </c>
       <c r="V138" s="32">
         <v>14.75</v>
@@ -31349,7 +31353,7 @@
       </c>
       <c r="U139" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C139)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D139+2)*(1+'Weapon Formulas'!B139))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V139" s="32">
         <v>15.75</v>
@@ -31425,7 +31429,7 @@
       </c>
       <c r="U140" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C140)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D140+2)*(1+'Weapon Formulas'!B140))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V140" s="32">
         <v>16.75</v>
@@ -31501,7 +31505,7 @@
       </c>
       <c r="U141" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C141)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D141+2)*(1+'Weapon Formulas'!B141))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.706666666666663</v>
       </c>
       <c r="V141" s="32">
         <v>17.75</v>
@@ -31577,7 +31581,7 @@
       </c>
       <c r="U142" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C142)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D142+2)*(1+'Weapon Formulas'!B142))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V142" s="32">
         <v>18.75</v>
@@ -31653,7 +31657,7 @@
       </c>
       <c r="U143" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C143)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D143+2)*(1+'Weapon Formulas'!B143))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V143" s="32">
         <v>19.75</v>
@@ -31729,7 +31733,7 @@
       </c>
       <c r="U144" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C144)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D144+2)*(1+'Weapon Formulas'!B144))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.706666666666663</v>
       </c>
       <c r="V144" s="32">
         <v>20.75</v>
@@ -31805,7 +31809,7 @@
       </c>
       <c r="U145" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C145)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D145+2)*(1+'Weapon Formulas'!B145))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V145" s="32">
         <v>21.75</v>
@@ -31881,7 +31885,7 @@
       </c>
       <c r="U146" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C146)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D146+2)*(1+'Weapon Formulas'!B146))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V146" s="32">
         <v>22.75</v>
@@ -31957,7 +31961,7 @@
       </c>
       <c r="U147" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C147)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D147+2)*(1+'Weapon Formulas'!B147))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.706666666666663</v>
       </c>
       <c r="V147" s="32">
         <v>23.75</v>
@@ -32068,7 +32072,7 @@
       </c>
       <c r="U149" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C149)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D149+2)*(1+'Weapon Formulas'!B149))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V149" s="32">
         <v>25.75</v>
@@ -32144,7 +32148,7 @@
       </c>
       <c r="U150" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C150)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D150+2)*(1+'Weapon Formulas'!B150))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V150" s="32">
         <v>26.75</v>
@@ -32220,7 +32224,7 @@
       </c>
       <c r="U151" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C151)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D151+2)*(1+'Weapon Formulas'!B151))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V151" s="32">
         <v>27.75</v>
@@ -32328,11 +32332,11 @@
       </c>
       <c r="T153" s="32">
         <f>INDEX($T$2:$T$6,C153)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U153" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C153)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D153+2)*(1+'Weapon Formulas'!B153))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V153" s="32">
         <v>29.75</v>
@@ -32404,11 +32408,11 @@
       </c>
       <c r="T154" s="32">
         <f t="shared" ref="T154:T156" si="111">INDEX($T$2:$T$6,C154)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U154" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C154)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D154+2)*(1+'Weapon Formulas'!B154))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V154" s="32">
         <v>30.75</v>
@@ -32480,11 +32484,11 @@
       </c>
       <c r="T155" s="32">
         <f t="shared" si="111"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U155" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C155)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D155+2)*(1+'Weapon Formulas'!B155))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V155" s="32">
         <v>31.75</v>
@@ -32556,11 +32560,11 @@
       </c>
       <c r="T156" s="32">
         <f t="shared" si="111"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U156" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C156)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D156+2)*(1+'Weapon Formulas'!B156))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V156" s="32">
         <v>32.75</v>
@@ -32650,7 +32654,7 @@
       </c>
       <c r="U158" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C158)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D158+2)*(1+'Weapon Formulas'!B158))</f>
-        <v>-53.333333333333329</v>
+        <v>-53.343333333333327</v>
       </c>
       <c r="V158" s="32">
         <v>33.75</v>
@@ -32726,7 +32730,7 @@
       </c>
       <c r="U159" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C159)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D159+2)*(1+'Weapon Formulas'!B159))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V159" s="32">
         <v>34.75</v>
@@ -32837,7 +32841,7 @@
       </c>
       <c r="U161" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C161)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D161+2)*(1+'Weapon Formulas'!B161))</f>
-        <v>-213.33333333333331</v>
+        <v>-213.37333333333331</v>
       </c>
       <c r="V161" s="32">
         <v>36.75</v>
@@ -32946,7 +32950,7 @@
       </c>
       <c r="U163" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C163)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D163+2)*(1+'Weapon Formulas'!B163))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.68666666666665</v>
       </c>
       <c r="V163" s="32">
         <v>38.75</v>
@@ -33036,7 +33040,7 @@
       </c>
       <c r="U165" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C165)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D165+2)*(1+'Weapon Formulas'!B165))</f>
-        <v>-3.333333333333333</v>
+        <v>-3.3433333333333328</v>
       </c>
       <c r="V165" s="32">
         <v>39.75</v>
@@ -33112,7 +33116,7 @@
       </c>
       <c r="U166" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C166)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D166+2)*(1+'Weapon Formulas'!B166))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6866666666666656</v>
       </c>
       <c r="V166" s="32">
         <v>41.75</v>
@@ -33188,7 +33192,7 @@
       </c>
       <c r="U167" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C167)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D167+2)*(1+'Weapon Formulas'!B167))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.373333333333331</v>
       </c>
       <c r="V167" s="32">
         <v>42.75</v>
@@ -33279,7 +33283,7 @@
       </c>
       <c r="U169" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C169)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D169+2)*(1+'Weapon Formulas'!B169))</f>
-        <v>-26.666666666666664</v>
+        <v>-26.676666666666666</v>
       </c>
       <c r="V169" s="32">
         <v>43.75</v>
@@ -33355,7 +33359,7 @@
       </c>
       <c r="U170" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C170)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D170+2)*(1+'Weapon Formulas'!B170))</f>
-        <v>-106.66666666666666</v>
+        <v>-106.70666666666666</v>
       </c>
       <c r="V170" s="32">
         <v>44.75</v>
@@ -33456,7 +33460,7 @@
       </c>
       <c r="U172" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C172)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D172+2)*(1+'Weapon Formulas'!B172))</f>
-        <v>-6.6666666666666661</v>
+        <v>-6.6766666666666659</v>
       </c>
       <c r="V172" s="32">
         <v>44.75</v>
@@ -33532,10 +33536,212 @@
       </c>
       <c r="U173" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C173)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D173+2)*(1+'Weapon Formulas'!B173))</f>
-        <v>-13.333333333333332</v>
+        <v>-13.353333333333332</v>
       </c>
       <c r="V173" s="32">
         <v>48.75</v>
+      </c>
+    </row>
+    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E174" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G174" s="36"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
+      <c r="L174" s="36"/>
+      <c r="M174" s="36"/>
+      <c r="N174" s="36"/>
+      <c r="O174" s="36"/>
+      <c r="P174" s="36"/>
+      <c r="Q174" s="36"/>
+      <c r="R174" s="36"/>
+      <c r="S174" s="36"/>
+      <c r="T174" s="36"/>
+      <c r="U174" s="36"/>
+    </row>
+    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E175" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36">
+        <v>0</v>
+      </c>
+      <c r="L175" s="36">
+        <v>1</v>
+      </c>
+      <c r="M175" s="36">
+        <v>0</v>
+      </c>
+      <c r="N175" s="36">
+        <v>0</v>
+      </c>
+      <c r="O175" s="36">
+        <v>2</v>
+      </c>
+      <c r="P175" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q175" s="36">
+        <f>(AVERAGE(VLOOKUP(E175,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E175,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E175,weapon_components!$A$8:$M$178,11,0))/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="R175" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="S175" s="36">
+        <v>2</v>
+      </c>
+      <c r="T175" s="36"/>
+      <c r="U175" s="36">
+        <v>-3.3330000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E176" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36">
+        <v>0</v>
+      </c>
+      <c r="L176" s="36">
+        <v>1</v>
+      </c>
+      <c r="M176" s="36">
+        <v>0</v>
+      </c>
+      <c r="N176" s="36">
+        <v>0</v>
+      </c>
+      <c r="O176" s="36">
+        <v>2</v>
+      </c>
+      <c r="P176" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q176" s="36">
+        <f>(AVERAGE(VLOOKUP(E176,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E176,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E176,weapon_components!$A$8:$M$178,11,0))/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="R176" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="S176" s="36">
+        <v>2</v>
+      </c>
+      <c r="T176" s="36"/>
+      <c r="U176" s="36">
+        <v>-6.6669999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E177" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="36">
+        <v>0</v>
+      </c>
+      <c r="L177" s="36">
+        <v>1</v>
+      </c>
+      <c r="M177" s="36">
+        <v>0</v>
+      </c>
+      <c r="N177" s="36">
+        <v>2</v>
+      </c>
+      <c r="O177" s="36">
+        <v>2</v>
+      </c>
+      <c r="P177" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q177" s="36">
+        <f>(AVERAGE(VLOOKUP(E177,weapon_components!$A$8:$M$178,9,0),VLOOKUP(E177,weapon_components!$A$8:$M$178,10,0))+VLOOKUP(E177,weapon_components!$A$8:$M$178,11,0))/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="R177" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="S177" s="14">
+        <v>2</v>
+      </c>
+      <c r="T177" s="36"/>
+      <c r="U177" s="36">
+        <v>-13.333</v>
+      </c>
+    </row>
+    <row r="178" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F178" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H178" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K178" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L178" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M178" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N178" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="O178" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="P178" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q178" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="R178" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S178" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="T178" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="U178" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="V178" s="36" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -33826,7 +34032,7 @@
   <dimension ref="A1:S286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K2" sqref="K2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33835,6 +34041,7 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -33889,8 +34096,8 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <f>2/3*J2</f>
-        <v>3.333333333333333</v>
+        <f>(2/3*J2)+0.01</f>
+        <v>3.3433333333333328</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -33925,9 +34132,9 @@
         <f>J2*2</f>
         <v>10</v>
       </c>
-      <c r="K3" s="22">
-        <f t="shared" ref="K3:K6" si="0">2/3*J3</f>
-        <v>6.6666666666666661</v>
+      <c r="K3" s="36">
+        <f t="shared" ref="K3:K6" si="0">(2/3*J3)+0.01</f>
+        <v>6.6766666666666659</v>
       </c>
       <c r="N3">
         <v>0.14000000000000001</v>
@@ -33970,9 +34177,9 @@
         <f t="shared" ref="J4:J6" si="2">J3*2</f>
         <v>20</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="36">
         <f t="shared" si="0"/>
-        <v>13.333333333333332</v>
+        <v>13.343333333333332</v>
       </c>
       <c r="M4" t="s">
         <v>265</v>
@@ -34017,9 +34224,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="36">
         <f t="shared" si="0"/>
-        <v>26.666666666666664</v>
+        <v>26.676666666666666</v>
       </c>
       <c r="N5" s="24">
         <f>(N6/B5)/5</f>
@@ -34062,9 +34269,9 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="36">
         <f t="shared" si="0"/>
-        <v>53.333333333333329</v>
+        <v>53.343333333333327</v>
       </c>
       <c r="N6">
         <v>0.81</v>
@@ -38048,8 +38255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="A1:O178"/>
+    <sheetView topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S165" sqref="S165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38151,7 +38358,7 @@
         <v>146</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="37"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -38180,7 +38387,7 @@
         <v>147</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="38"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -38229,7 +38436,7 @@
       <c r="O6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="38"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -38250,7 +38457,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="38"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -38261,8 +38468,8 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C8),2)</f>
-        <v>-3.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C8),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D8" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D8),2)</f>
@@ -38281,7 +38488,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H8),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H8),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H8),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H8),1))</f>
         <v>-4</v>
       </c>
       <c r="I8" s="5">
@@ -38294,7 +38501,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L8),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L8),0)</f>
         <v>24</v>
       </c>
       <c r="M8" s="2">
@@ -38317,8 +38524,8 @@
         <v>5</v>
       </c>
       <c r="C9" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C9),2)</f>
-        <v>-6.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C9),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D9" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D9),2)</f>
@@ -38337,7 +38544,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H9),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H9),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H9),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H9),1))</f>
         <v>-4</v>
       </c>
       <c r="I9" s="5">
@@ -38350,7 +38557,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L9),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L9),0)</f>
         <v>30</v>
       </c>
       <c r="M9" s="32">
@@ -38373,8 +38580,8 @@
         <v>10</v>
       </c>
       <c r="C10" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C10),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C10),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D10" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D10),2)</f>
@@ -38393,7 +38600,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H10),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H10),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H10),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H10),1))</f>
         <v>-4</v>
       </c>
       <c r="I10" s="5">
@@ -38406,7 +38613,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L10),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L10),0)</f>
         <v>36</v>
       </c>
       <c r="M10" s="32">
@@ -38429,8 +38636,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C11),2)</f>
-        <v>-6.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C11),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D11" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D11),2)</f>
@@ -38449,8 +38656,8 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H11),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H11),2))</f>
-        <v>-1.36</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H11),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H11),1))</f>
+        <v>-1.4</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -38462,8 +38669,8 @@
         <v>25</v>
       </c>
       <c r="L11" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L11),1)</f>
-        <v>26.9</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L11),0)</f>
+        <v>27</v>
       </c>
       <c r="M11" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M11),2)</f>
@@ -38485,8 +38692,8 @@
         <v>10</v>
       </c>
       <c r="C12" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C12),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C12),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D12" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D12),2)</f>
@@ -38505,8 +38712,8 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H12),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H12),2))</f>
-        <v>-1.85</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H12),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H12),1))</f>
+        <v>-1.8</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -38518,8 +38725,8 @@
         <v>25</v>
       </c>
       <c r="L12" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L12),1)</f>
-        <v>33.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L12),0)</f>
+        <v>34</v>
       </c>
       <c r="M12" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M12),2)</f>
@@ -38541,8 +38748,8 @@
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C13),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C13),2)</f>
+        <v>-26.71</v>
       </c>
       <c r="D13" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D13),2)</f>
@@ -38561,8 +38768,8 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H13),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H13),2))</f>
-        <v>-2.29</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H13),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H13),1))</f>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -38574,8 +38781,8 @@
         <v>25</v>
       </c>
       <c r="L13" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L13),1)</f>
-        <v>40.299999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L13),0)</f>
+        <v>40</v>
       </c>
       <c r="M13" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M13),2)</f>
@@ -38597,8 +38804,8 @@
         <v>7.5</v>
       </c>
       <c r="C14" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C14),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C14),2)</f>
+        <v>-13.34</v>
       </c>
       <c r="D14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D14),2)</f>
@@ -38617,8 +38824,8 @@
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H14),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H14),2))</f>
-        <v>-0.87</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H14),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H14),1))</f>
+        <v>-0.9</v>
       </c>
       <c r="I14" s="5">
         <v>2</v>
@@ -38630,8 +38837,8 @@
         <v>25</v>
       </c>
       <c r="L14" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L14),1)</f>
-        <v>29.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L14),0)</f>
+        <v>30</v>
       </c>
       <c r="M14" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M14),2)</f>
@@ -38653,8 +38860,8 @@
         <v>15</v>
       </c>
       <c r="C15" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C15),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C15),2)</f>
+        <v>-26.69</v>
       </c>
       <c r="D15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D15),2)</f>
@@ -38673,7 +38880,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H15),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H15),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H15),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H15),1))</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="I15" s="5">
@@ -38686,8 +38893,8 @@
         <v>25</v>
       </c>
       <c r="L15" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L15),1)</f>
-        <v>37.200000000000003</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L15),0)</f>
+        <v>37</v>
       </c>
       <c r="M15" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M15),2)</f>
@@ -38709,8 +38916,8 @@
         <v>30</v>
       </c>
       <c r="C16" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C16),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C16),2)</f>
+        <v>-53.37</v>
       </c>
       <c r="D16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D16),2)</f>
@@ -38729,8 +38936,8 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H16),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H16),2))</f>
-        <v>-1.32</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H16),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H16),1))</f>
+        <v>-1.3</v>
       </c>
       <c r="I16" s="5">
         <v>2</v>
@@ -38742,8 +38949,8 @@
         <v>25</v>
       </c>
       <c r="L16" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L16),1)</f>
-        <v>44.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L16),0)</f>
+        <v>45</v>
       </c>
       <c r="M16" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M16),2)</f>
@@ -38765,8 +38972,8 @@
         <v>10</v>
       </c>
       <c r="C17" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C17),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C17),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D17),2)</f>
@@ -38785,8 +38992,8 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H17),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H17),2))</f>
-        <v>-1.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H17),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H17),1))</f>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I17" s="5">
         <v>2</v>
@@ -38798,8 +39005,8 @@
         <v>25</v>
       </c>
       <c r="L17" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L17),1)</f>
-        <v>32.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L17),0)</f>
+        <v>33</v>
       </c>
       <c r="M17" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M17),2)</f>
@@ -38821,8 +39028,8 @@
         <v>20</v>
       </c>
       <c r="C18" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C18),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C18),2)</f>
+        <v>-53.35</v>
       </c>
       <c r="D18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D18),2)</f>
@@ -38841,8 +39048,8 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H18),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H18),2))</f>
-        <v>-1.24</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H18),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H18),1))</f>
+        <v>-1.2</v>
       </c>
       <c r="I18" s="5">
         <v>2</v>
@@ -38854,8 +39061,8 @@
         <v>25</v>
       </c>
       <c r="L18" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L18),1)</f>
-        <v>40.799999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L18),0)</f>
+        <v>41</v>
       </c>
       <c r="M18" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M18),2)</f>
@@ -38877,8 +39084,8 @@
         <v>40</v>
       </c>
       <c r="C19" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C19),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C19),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D19),2)</f>
@@ -38897,8 +39104,8 @@
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H19),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H19),2))</f>
-        <v>-1.41</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H19),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H19),1))</f>
+        <v>-1.4</v>
       </c>
       <c r="I19" s="5">
         <v>2</v>
@@ -38910,7 +39117,7 @@
         <v>25</v>
       </c>
       <c r="L19" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L19),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L19),0)</f>
         <v>49</v>
       </c>
       <c r="M19" s="32">
@@ -38933,8 +39140,8 @@
         <v>12.5</v>
       </c>
       <c r="C20" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C20),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C20),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D20),2)</f>
@@ -38953,8 +39160,8 @@
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H20),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H20),2))</f>
-        <v>-1.03</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H20),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H20),1))</f>
+        <v>-1</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -38966,8 +39173,8 @@
         <v>25</v>
       </c>
       <c r="L20" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L20),1)</f>
-        <v>35.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L20),0)</f>
+        <v>36</v>
       </c>
       <c r="M20" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M20),2)</f>
@@ -38989,8 +39196,8 @@
         <v>25</v>
       </c>
       <c r="C21" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C21),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C21),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D21),2)</f>
@@ -39009,8 +39216,8 @@
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H21),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H21),2))</f>
-        <v>-1.1599999999999999</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H21),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H21),1))</f>
+        <v>-1.2</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
@@ -39022,8 +39229,8 @@
         <v>25</v>
       </c>
       <c r="L21" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L21),1)</f>
-        <v>44.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L21),0)</f>
+        <v>44</v>
       </c>
       <c r="M21" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M21),2)</f>
@@ -39045,8 +39252,8 @@
         <v>50</v>
       </c>
       <c r="C22" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C22),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C22),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D22),2)</f>
@@ -39065,8 +39272,8 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H22),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H22),2))</f>
-        <v>-1.28</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H22),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H22),1))</f>
+        <v>-1.3</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>
@@ -39078,8 +39285,8 @@
         <v>25</v>
       </c>
       <c r="L22" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L22),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L22),0)</f>
+        <v>53</v>
       </c>
       <c r="M22" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M22),2)</f>
@@ -39122,7 +39329,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C24),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C24),2)</f>
         <v>0</v>
       </c>
       <c r="D24" s="5">
@@ -39142,7 +39349,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H24),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H24),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H24),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H24),1))</f>
         <v>0.5</v>
       </c>
       <c r="I24" s="5">
@@ -39155,7 +39362,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L24),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A24,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L24),0)</f>
         <v>15</v>
       </c>
       <c r="M24" s="32">
@@ -39178,7 +39385,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C25),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C25),2)</f>
         <v>0</v>
       </c>
       <c r="D25" s="5">
@@ -39198,7 +39405,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H25),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H25),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H25),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H25),1))</f>
         <v>0.5</v>
       </c>
       <c r="I25" s="5">
@@ -39211,7 +39418,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L25),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A25,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L25),0)</f>
         <v>25</v>
       </c>
       <c r="M25" s="32">
@@ -39234,7 +39441,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C26),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C26),2)</f>
         <v>0</v>
       </c>
       <c r="D26" s="5">
@@ -39254,7 +39461,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H26),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H26),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H26),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H26),1))</f>
         <v>0.5</v>
       </c>
       <c r="I26" s="5">
@@ -39267,7 +39474,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L26),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A26,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L26),0)</f>
         <v>35</v>
       </c>
       <c r="M26" s="32">
@@ -39311,8 +39518,8 @@
         <v>100</v>
       </c>
       <c r="C28" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C28),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C28),2)</f>
+        <v>-213.41</v>
       </c>
       <c r="D28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D28),2)</f>
@@ -39331,8 +39538,8 @@
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H28),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H28),2))</f>
-        <v>3.24</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H28),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H28),1))</f>
+        <v>3.2</v>
       </c>
       <c r="I28" s="5">
         <v>22</v>
@@ -39344,7 +39551,7 @@
         <v>60</v>
       </c>
       <c r="L28" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L28),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L28),0)</f>
         <v>49</v>
       </c>
       <c r="M28" s="32">
@@ -39367,8 +39574,8 @@
         <v>120</v>
       </c>
       <c r="C29" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C29),2)</f>
-        <v>-426.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C29),2)</f>
+        <v>-426.75</v>
       </c>
       <c r="D29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D29),2)</f>
@@ -39387,8 +39594,8 @@
         <v>0</v>
       </c>
       <c r="H29" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H29),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H29),2))</f>
-        <v>3.11</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H29),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H29),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I29" s="5">
         <v>22</v>
@@ -39400,8 +39607,8 @@
         <v>60</v>
       </c>
       <c r="L29" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L29),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L29),0)</f>
+        <v>53</v>
       </c>
       <c r="M29" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M29),2)</f>
@@ -39444,8 +39651,8 @@
         <v>7.5</v>
       </c>
       <c r="C31" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C31),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C31),2)</f>
+        <v>-13.34</v>
       </c>
       <c r="D31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D31),2)</f>
@@ -39464,8 +39671,8 @@
         <v>0</v>
       </c>
       <c r="H31" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H31),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H31),2))</f>
-        <v>1.82</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H31),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H31),1))</f>
+        <v>1.8</v>
       </c>
       <c r="I31" s="5">
         <v>2</v>
@@ -39477,8 +39684,8 @@
         <v>30</v>
       </c>
       <c r="L31" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L31),1)</f>
-        <v>29.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L31),0)</f>
+        <v>30</v>
       </c>
       <c r="M31" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M31),2)</f>
@@ -39500,8 +39707,8 @@
         <v>15</v>
       </c>
       <c r="C32" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C32),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C32),2)</f>
+        <v>-26.69</v>
       </c>
       <c r="D32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D32),2)</f>
@@ -39520,8 +39727,8 @@
         <v>0</v>
       </c>
       <c r="H32" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H32),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H32),2))</f>
-        <v>2.44</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H32),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H32),1))</f>
+        <v>2.4</v>
       </c>
       <c r="I32" s="5">
         <v>2</v>
@@ -39533,8 +39740,8 @@
         <v>30</v>
       </c>
       <c r="L32" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L32),1)</f>
-        <v>37.200000000000003</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L32),0)</f>
+        <v>37</v>
       </c>
       <c r="M32" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M32),2)</f>
@@ -39556,8 +39763,8 @@
         <v>30</v>
       </c>
       <c r="C33" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C33),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C33),2)</f>
+        <v>-53.37</v>
       </c>
       <c r="D33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D33),2)</f>
@@ -39576,7 +39783,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H33),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H33),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H33),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H33),1))</f>
         <v>3.2</v>
       </c>
       <c r="I33" s="5">
@@ -39589,8 +39796,8 @@
         <v>30</v>
       </c>
       <c r="L33" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L33),1)</f>
-        <v>44.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L33),0)</f>
+        <v>45</v>
       </c>
       <c r="M33" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M33),2)</f>
@@ -39612,8 +39819,8 @@
         <v>10</v>
       </c>
       <c r="C34" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C34),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C34),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D34),2)</f>
@@ -39632,8 +39839,8 @@
         <v>0</v>
       </c>
       <c r="H34" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H34),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H34),2))</f>
-        <v>1.93</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H34),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H34),1))</f>
+        <v>1.9</v>
       </c>
       <c r="I34" s="5">
         <v>2</v>
@@ -39645,8 +39852,8 @@
         <v>30</v>
       </c>
       <c r="L34" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L34),1)</f>
-        <v>32.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L34),0)</f>
+        <v>33</v>
       </c>
       <c r="M34" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M34),2)</f>
@@ -39668,8 +39875,8 @@
         <v>20</v>
       </c>
       <c r="C35" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C35),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C35),2)</f>
+        <v>-53.35</v>
       </c>
       <c r="D35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D35),2)</f>
@@ -39688,8 +39895,8 @@
         <v>0</v>
       </c>
       <c r="H35" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H35),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H35),2))</f>
-        <v>2.52</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H35),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H35),1))</f>
+        <v>2.5</v>
       </c>
       <c r="I35" s="5">
         <v>2</v>
@@ -39701,8 +39908,8 @@
         <v>30</v>
       </c>
       <c r="L35" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L35),1)</f>
-        <v>40.799999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L35),0)</f>
+        <v>41</v>
       </c>
       <c r="M35" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M35),2)</f>
@@ -39724,8 +39931,8 @@
         <v>40</v>
       </c>
       <c r="C36" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C36),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C36),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D36),2)</f>
@@ -39744,8 +39951,8 @@
         <v>0</v>
       </c>
       <c r="H36" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H36),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H36),2))</f>
-        <v>3.24</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H36),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H36),1))</f>
+        <v>3.2</v>
       </c>
       <c r="I36" s="5">
         <v>2</v>
@@ -39757,7 +39964,7 @@
         <v>30</v>
       </c>
       <c r="L36" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L36),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L36),0)</f>
         <v>49</v>
       </c>
       <c r="M36" s="32">
@@ -39780,8 +39987,8 @@
         <v>12.5</v>
       </c>
       <c r="C37" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C37),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C37),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D37),2)</f>
@@ -39800,8 +40007,8 @@
         <v>0</v>
       </c>
       <c r="H37" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H37),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H37),2))</f>
-        <v>1.95</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H37),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H37),1))</f>
+        <v>1.9</v>
       </c>
       <c r="I37" s="5">
         <v>2</v>
@@ -39813,8 +40020,8 @@
         <v>30</v>
       </c>
       <c r="L37" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L37),1)</f>
-        <v>35.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L37),0)</f>
+        <v>36</v>
       </c>
       <c r="M37" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M37),2)</f>
@@ -39836,8 +40043,8 @@
         <v>25</v>
       </c>
       <c r="C38" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C38),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C38),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D38),2)</f>
@@ -39856,8 +40063,8 @@
         <v>0</v>
       </c>
       <c r="H38" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H38),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H38),2))</f>
-        <v>2.4700000000000002</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H38),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H38),1))</f>
+        <v>2.5</v>
       </c>
       <c r="I38" s="5">
         <v>2</v>
@@ -39869,8 +40076,8 @@
         <v>30</v>
       </c>
       <c r="L38" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L38),1)</f>
-        <v>44.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L38),0)</f>
+        <v>44</v>
       </c>
       <c r="M38" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M38),2)</f>
@@ -39892,8 +40099,8 @@
         <v>50</v>
       </c>
       <c r="C39" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C39),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C39),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D39),2)</f>
@@ -39912,8 +40119,8 @@
         <v>0</v>
       </c>
       <c r="H39" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H39),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H39),2))</f>
-        <v>3.11</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H39),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H39),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I39" s="5">
         <v>2</v>
@@ -39925,8 +40132,8 @@
         <v>30</v>
       </c>
       <c r="L39" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L39),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L39),0)</f>
+        <v>53</v>
       </c>
       <c r="M39" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M39),2)</f>
@@ -39969,8 +40176,8 @@
         <v>100</v>
       </c>
       <c r="C41" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C41),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C41),2)</f>
+        <v>-213.41</v>
       </c>
       <c r="D41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D41),2)</f>
@@ -39989,8 +40196,8 @@
         <v>0</v>
       </c>
       <c r="H41" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H41),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H41),2))</f>
-        <v>-1.41</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H41),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H41),1))</f>
+        <v>-1.4</v>
       </c>
       <c r="I41" s="5">
         <v>22</v>
@@ -40002,7 +40209,7 @@
         <v>40</v>
       </c>
       <c r="L41" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L41),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L41),0)</f>
         <v>49</v>
       </c>
       <c r="M41" s="32">
@@ -40025,8 +40232,8 @@
         <v>120</v>
       </c>
       <c r="C42" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C42),2)</f>
-        <v>-426.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C42),2)</f>
+        <v>-426.75</v>
       </c>
       <c r="D42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D42),2)</f>
@@ -40045,8 +40252,8 @@
         <v>0</v>
       </c>
       <c r="H42" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H42),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H42),2))</f>
-        <v>-1.28</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H42),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H42),1))</f>
+        <v>-1.3</v>
       </c>
       <c r="I42" s="5">
         <v>22</v>
@@ -40058,8 +40265,8 @@
         <v>40</v>
       </c>
       <c r="L42" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L42),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L42),0)</f>
+        <v>53</v>
       </c>
       <c r="M42" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M42),2)</f>
@@ -40102,8 +40309,8 @@
         <v>7.5</v>
       </c>
       <c r="C44" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C44),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C44),2)</f>
+        <v>-13.34</v>
       </c>
       <c r="D44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D44),2)</f>
@@ -40122,8 +40329,8 @@
         <v>0</v>
       </c>
       <c r="H44" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H44),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H44),2))</f>
-        <v>-1.78</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H44),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H44),1))</f>
+        <v>-1.8</v>
       </c>
       <c r="I44" s="5">
         <v>2</v>
@@ -40135,8 +40342,8 @@
         <v>25</v>
       </c>
       <c r="L44" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L44),1)</f>
-        <v>22.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L44),0)</f>
+        <v>22</v>
       </c>
       <c r="M44" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M44),2)</f>
@@ -40158,8 +40365,8 @@
         <v>15</v>
       </c>
       <c r="C45" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C45),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C45),2)</f>
+        <v>-26.69</v>
       </c>
       <c r="D45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D45),2)</f>
@@ -40178,8 +40385,8 @@
         <v>0</v>
       </c>
       <c r="H45" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H45),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H45),2))</f>
-        <v>-1.81</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H45),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H45),1))</f>
+        <v>-1.8</v>
       </c>
       <c r="I45" s="5">
         <v>2</v>
@@ -40191,7 +40398,7 @@
         <v>25</v>
       </c>
       <c r="L45" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L45),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L45),0)</f>
         <v>26</v>
       </c>
       <c r="M45" s="32">
@@ -40214,8 +40421,8 @@
         <v>30</v>
       </c>
       <c r="C46" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C46),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C46),2)</f>
+        <v>-53.37</v>
       </c>
       <c r="D46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D46),2)</f>
@@ -40234,8 +40441,8 @@
         <v>0</v>
       </c>
       <c r="H46" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H46),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H46),2))</f>
-        <v>-1.86</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H46),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H46),1))</f>
+        <v>-1.9</v>
       </c>
       <c r="I46" s="5">
         <v>2</v>
@@ -40247,8 +40454,8 @@
         <v>25</v>
       </c>
       <c r="L46" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L46),1)</f>
-        <v>29.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L46),0)</f>
+        <v>30</v>
       </c>
       <c r="M46" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M46),2)</f>
@@ -40270,8 +40477,8 @@
         <v>10</v>
       </c>
       <c r="C47" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C47),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C47),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D47),2)</f>
@@ -40290,8 +40497,8 @@
         <v>0</v>
       </c>
       <c r="H47" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H47),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H47),2))</f>
-        <v>-1.65</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H47),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H47),1))</f>
+        <v>-1.7</v>
       </c>
       <c r="I47" s="5">
         <v>2</v>
@@ -40303,8 +40510,8 @@
         <v>25</v>
       </c>
       <c r="L47" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L47),1)</f>
-        <v>24.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L47),0)</f>
+        <v>24</v>
       </c>
       <c r="M47" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M47),2)</f>
@@ -40326,8 +40533,8 @@
         <v>20</v>
       </c>
       <c r="C48" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C48),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C48),2)</f>
+        <v>-53.35</v>
       </c>
       <c r="D48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D48),2)</f>
@@ -40346,8 +40553,8 @@
         <v>0</v>
       </c>
       <c r="H48" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H48),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H48),2))</f>
-        <v>-1.69</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H48),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H48),1))</f>
+        <v>-1.7</v>
       </c>
       <c r="I48" s="5">
         <v>2</v>
@@ -40359,8 +40566,8 @@
         <v>25</v>
       </c>
       <c r="L48" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L48),1)</f>
-        <v>28.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L48),0)</f>
+        <v>29</v>
       </c>
       <c r="M48" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M48),2)</f>
@@ -40382,8 +40589,8 @@
         <v>40</v>
       </c>
       <c r="C49" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C49),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C49),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D49),2)</f>
@@ -40402,8 +40609,8 @@
         <v>0</v>
       </c>
       <c r="H49" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H49),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H49),2))</f>
-        <v>-1.75</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H49),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H49),1))</f>
+        <v>-1.7</v>
       </c>
       <c r="I49" s="5">
         <v>2</v>
@@ -40415,8 +40622,8 @@
         <v>25</v>
       </c>
       <c r="L49" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L49),1)</f>
-        <v>32.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L49),0)</f>
+        <v>33</v>
       </c>
       <c r="M49" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M49),2)</f>
@@ -40438,8 +40645,8 @@
         <v>12.5</v>
       </c>
       <c r="C50" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C50),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C50),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D50),2)</f>
@@ -40458,8 +40665,8 @@
         <v>0</v>
       </c>
       <c r="H50" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H50),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H50),2))</f>
-        <v>-1.37</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H50),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H50),1))</f>
+        <v>-1.4</v>
       </c>
       <c r="I50" s="5">
         <v>2</v>
@@ -40471,8 +40678,8 @@
         <v>25</v>
       </c>
       <c r="L50" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L50),1)</f>
-        <v>26.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L50),0)</f>
+        <v>27</v>
       </c>
       <c r="M50" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M50),2)</f>
@@ -40494,8 +40701,8 @@
         <v>25</v>
       </c>
       <c r="C51" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C51),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C51),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D51),2)</f>
@@ -40514,8 +40721,8 @@
         <v>0</v>
       </c>
       <c r="H51" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H51),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H51),2))</f>
-        <v>-1.42</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H51),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H51),1))</f>
+        <v>-1.4</v>
       </c>
       <c r="I51" s="5">
         <v>2</v>
@@ -40527,8 +40734,8 @@
         <v>25</v>
       </c>
       <c r="L51" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L51),1)</f>
-        <v>31.1</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L51),0)</f>
+        <v>31</v>
       </c>
       <c r="M51" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M51),2)</f>
@@ -40550,8 +40757,8 @@
         <v>50</v>
       </c>
       <c r="C52" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C52),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C52),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D52),2)</f>
@@ -40570,8 +40777,8 @@
         <v>0</v>
       </c>
       <c r="H52" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H52),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H52),2))</f>
-        <v>-1.48</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H52),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H52),1))</f>
+        <v>-1.5</v>
       </c>
       <c r="I52" s="5">
         <v>2</v>
@@ -40583,8 +40790,8 @@
         <v>25</v>
       </c>
       <c r="L52" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L52),1)</f>
-        <v>35.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L52),0)</f>
+        <v>36</v>
       </c>
       <c r="M52" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M52),2)</f>
@@ -40627,8 +40834,8 @@
         <v>100</v>
       </c>
       <c r="C54" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C54),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C54),2)</f>
+        <v>-213.41</v>
       </c>
       <c r="D54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D54),2)</f>
@@ -40647,8 +40854,8 @@
         <v>0</v>
       </c>
       <c r="H54" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H54),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H54),2))</f>
-        <v>-1.0900000000000001</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H54),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H54),1))</f>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I54" s="5">
         <v>2</v>
@@ -40660,8 +40867,8 @@
         <v>55</v>
       </c>
       <c r="L54" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L54),1)</f>
-        <v>97.9</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L54),0)</f>
+        <v>98</v>
       </c>
       <c r="M54" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M54),2)</f>
@@ -40683,8 +40890,8 @@
         <v>120</v>
       </c>
       <c r="C55" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C55),2)</f>
-        <v>-426.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C55),2)</f>
+        <v>-426.75</v>
       </c>
       <c r="D55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D55),2)</f>
@@ -40703,8 +40910,8 @@
         <v>0</v>
       </c>
       <c r="H55" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H55),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H55),2))</f>
-        <v>-1.01</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H55),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H55),1))</f>
+        <v>-1</v>
       </c>
       <c r="I55" s="5">
         <v>2</v>
@@ -40716,8 +40923,8 @@
         <v>55</v>
       </c>
       <c r="L55" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L55),1)</f>
-        <v>106.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L55),0)</f>
+        <v>107</v>
       </c>
       <c r="M55" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M55),2)</f>
@@ -40760,8 +40967,8 @@
         <v>2.5</v>
       </c>
       <c r="C57" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C57),2)</f>
-        <v>-3.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C57),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D57),2)</f>
@@ -40780,7 +40987,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H57),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H57),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H57),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H57),1))</f>
         <v>-4</v>
       </c>
       <c r="I57" s="5">
@@ -40793,7 +41000,7 @@
         <v>25</v>
       </c>
       <c r="L57" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L57),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L57),0)</f>
         <v>36</v>
       </c>
       <c r="M57" s="32">
@@ -40816,8 +41023,8 @@
         <v>5</v>
       </c>
       <c r="C58" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C58),2)</f>
-        <v>-6.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C58),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D58),2)</f>
@@ -40836,7 +41043,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H58),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H58),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H58),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H58),1))</f>
         <v>-4</v>
       </c>
       <c r="I58" s="5">
@@ -40849,7 +41056,7 @@
         <v>25</v>
       </c>
       <c r="L58" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L58),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L58),0)</f>
         <v>45</v>
       </c>
       <c r="M58" s="32">
@@ -40872,8 +41079,8 @@
         <v>10</v>
       </c>
       <c r="C59" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C59),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C59),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D59),2)</f>
@@ -40892,7 +41099,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H59),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H59),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H59),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H59),1))</f>
         <v>-4</v>
       </c>
       <c r="I59" s="5">
@@ -40905,7 +41112,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L59),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L59),0)</f>
         <v>54</v>
       </c>
       <c r="M59" s="32">
@@ -40928,8 +41135,8 @@
         <v>5</v>
       </c>
       <c r="C60" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C60),2)</f>
-        <v>-6.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C60),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D60),2)</f>
@@ -40948,7 +41155,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H60),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H60),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H60),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H60),1))</f>
         <v>-3.4</v>
       </c>
       <c r="I60" s="5">
@@ -40961,8 +41168,8 @@
         <v>25</v>
       </c>
       <c r="L60" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L60),1)</f>
-        <v>40.299999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L60),0)</f>
+        <v>40</v>
       </c>
       <c r="M60" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M60),2)</f>
@@ -40984,8 +41191,8 @@
         <v>10</v>
       </c>
       <c r="C61" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C61),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C61),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D61),2)</f>
@@ -41004,8 +41211,8 @@
         <v>1</v>
       </c>
       <c r="H61" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H61),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H61),2))</f>
-        <v>-2.44</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H61),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H61),1))</f>
+        <v>-2.4</v>
       </c>
       <c r="I61" s="5">
         <v>2</v>
@@ -41017,8 +41224,8 @@
         <v>25</v>
       </c>
       <c r="L61" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L61),1)</f>
-        <v>50.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L61),0)</f>
+        <v>50</v>
       </c>
       <c r="M61" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M61),2)</f>
@@ -41040,8 +41247,8 @@
         <v>20</v>
       </c>
       <c r="C62" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C62),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C62),2)</f>
+        <v>-26.71</v>
       </c>
       <c r="D62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D62),2)</f>
@@ -41060,8 +41267,8 @@
         <v>1</v>
       </c>
       <c r="H62" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H62),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H62),2))</f>
-        <v>-1.17</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H62),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H62),1))</f>
+        <v>-1.2</v>
       </c>
       <c r="I62" s="5">
         <v>2</v>
@@ -41073,8 +41280,8 @@
         <v>25</v>
       </c>
       <c r="L62" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L62),1)</f>
-        <v>60.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L62),0)</f>
+        <v>60</v>
       </c>
       <c r="M62" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M62),2)</f>
@@ -41096,8 +41303,8 @@
         <v>7.5</v>
       </c>
       <c r="C63" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C63),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C63),2)</f>
+        <v>-13.34</v>
       </c>
       <c r="D63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D63),2)</f>
@@ -41116,7 +41323,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H63),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H63),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H63),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H63),1))</f>
         <v>-1.7</v>
       </c>
       <c r="I63" s="5">
@@ -41129,8 +41336,8 @@
         <v>25</v>
       </c>
       <c r="L63" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L63),1)</f>
-        <v>44.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L63),0)</f>
+        <v>45</v>
       </c>
       <c r="M63" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M63),2)</f>
@@ -41152,8 +41359,8 @@
         <v>15</v>
       </c>
       <c r="C64" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C64),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C64),2)</f>
+        <v>-26.69</v>
       </c>
       <c r="D64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D64),2)</f>
@@ -41172,8 +41379,8 @@
         <v>1</v>
       </c>
       <c r="H64" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H64),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H64),2))</f>
-        <v>-1.18</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H64),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H64),1))</f>
+        <v>-1.2</v>
       </c>
       <c r="I64" s="5">
         <v>2</v>
@@ -41185,8 +41392,8 @@
         <v>25</v>
       </c>
       <c r="L64" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L64),1)</f>
-        <v>55.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L64),0)</f>
+        <v>56</v>
       </c>
       <c r="M64" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M64),2)</f>
@@ -41208,8 +41415,8 @@
         <v>30</v>
       </c>
       <c r="C65" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C65),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C65),2)</f>
+        <v>-53.37</v>
       </c>
       <c r="D65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D65),2)</f>
@@ -41228,8 +41435,8 @@
         <v>1</v>
       </c>
       <c r="H65" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H65),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H65),2))</f>
-        <v>-0.51</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H65),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H65),1))</f>
+        <v>-0.5</v>
       </c>
       <c r="I65" s="5">
         <v>2</v>
@@ -41241,7 +41448,7 @@
         <v>25</v>
       </c>
       <c r="L65" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L65),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L65),0)</f>
         <v>67</v>
       </c>
       <c r="M65" s="32">
@@ -41264,8 +41471,8 @@
         <v>10</v>
       </c>
       <c r="C66" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C66),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C66),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D66),2)</f>
@@ -41284,8 +41491,8 @@
         <v>1</v>
       </c>
       <c r="H66" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H66),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H66),2))</f>
-        <v>-1.56</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H66),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H66),1))</f>
+        <v>-1.6</v>
       </c>
       <c r="I66" s="5">
         <v>2</v>
@@ -41297,7 +41504,7 @@
         <v>25</v>
       </c>
       <c r="L66" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L66),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L66),0)</f>
         <v>49</v>
       </c>
       <c r="M66" s="32">
@@ -41320,8 +41527,8 @@
         <v>20</v>
       </c>
       <c r="C67" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C67),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C67),2)</f>
+        <v>-53.35</v>
       </c>
       <c r="D67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D67),2)</f>
@@ -41340,7 +41547,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H67),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H67),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H67),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H67),1))</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="I67" s="5">
@@ -41353,8 +41560,8 @@
         <v>25</v>
       </c>
       <c r="L67" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L67),1)</f>
-        <v>61.2</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L67),0)</f>
+        <v>61</v>
       </c>
       <c r="M67" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M67),2)</f>
@@ -41376,8 +41583,8 @@
         <v>40</v>
       </c>
       <c r="C68" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C68),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C68),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D68),2)</f>
@@ -41396,8 +41603,8 @@
         <v>1</v>
       </c>
       <c r="H68" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H68),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H68),2))</f>
-        <v>-0.55000000000000004</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H68),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H68),1))</f>
+        <v>-0.5</v>
       </c>
       <c r="I68" s="5">
         <v>2</v>
@@ -41409,8 +41616,8 @@
         <v>25</v>
       </c>
       <c r="L68" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L68),1)</f>
-        <v>73.400000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L68),0)</f>
+        <v>73</v>
       </c>
       <c r="M68" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M68),2)</f>
@@ -41432,8 +41639,8 @@
         <v>12.5</v>
       </c>
       <c r="C69" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C69),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C69),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D69),2)</f>
@@ -41452,8 +41659,8 @@
         <v>1</v>
       </c>
       <c r="H69" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H69),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H69),2))</f>
-        <v>-1.27</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H69),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H69),1))</f>
+        <v>-1.3</v>
       </c>
       <c r="I69" s="5">
         <v>2</v>
@@ -41465,8 +41672,8 @@
         <v>25</v>
       </c>
       <c r="L69" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L69),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L69),0)</f>
+        <v>53</v>
       </c>
       <c r="M69" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M69),2)</f>
@@ -41488,8 +41695,8 @@
         <v>25</v>
       </c>
       <c r="C70" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C70),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C70),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D70),2)</f>
@@ -41508,8 +41715,8 @@
         <v>1</v>
       </c>
       <c r="H70" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H70),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H70),2))</f>
-        <v>-0.92</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H70),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H70),1))</f>
+        <v>-0.9</v>
       </c>
       <c r="I70" s="5">
         <v>2</v>
@@ -41521,8 +41728,8 @@
         <v>25</v>
       </c>
       <c r="L70" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L70),1)</f>
-        <v>66.599999999999994</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L70),0)</f>
+        <v>67</v>
       </c>
       <c r="M70" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M70),2)</f>
@@ -41544,8 +41751,8 @@
         <v>50</v>
       </c>
       <c r="C71" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C71),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C71),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D71),2)</f>
@@ -41564,8 +41771,8 @@
         <v>1</v>
       </c>
       <c r="H71" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H71),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H71),2))</f>
-        <v>-0.45</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H71),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H71),1))</f>
+        <v>-0.5</v>
       </c>
       <c r="I71" s="5">
         <v>2</v>
@@ -41577,8 +41784,8 @@
         <v>25</v>
       </c>
       <c r="L71" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L71),1)</f>
-        <v>79.900000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L71),0)</f>
+        <v>80</v>
       </c>
       <c r="M71" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M71),2)</f>
@@ -41621,7 +41828,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C73),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C73),2)</f>
         <v>0</v>
       </c>
       <c r="D73" s="5">
@@ -41654,7 +41861,7 @@
         <v>25</v>
       </c>
       <c r="L73" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L73),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A73,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L73),0)</f>
         <v>20</v>
       </c>
       <c r="M73" s="32">
@@ -41677,7 +41884,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C74),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C74),2)</f>
         <v>0</v>
       </c>
       <c r="D74" s="5">
@@ -41710,7 +41917,7 @@
         <v>25</v>
       </c>
       <c r="L74" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L74),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A74,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L74),0)</f>
         <v>30</v>
       </c>
       <c r="M74" s="32">
@@ -41733,7 +41940,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C75),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C75),2)</f>
         <v>0</v>
       </c>
       <c r="D75" s="5">
@@ -41766,7 +41973,7 @@
         <v>25</v>
       </c>
       <c r="L75" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L75),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A75,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L75),0)</f>
         <v>40</v>
       </c>
       <c r="M75" s="32">
@@ -41810,8 +42017,8 @@
         <v>100</v>
       </c>
       <c r="C77" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C77),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C77),2)</f>
+        <v>-213.41</v>
       </c>
       <c r="D77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D77),2)</f>
@@ -41830,8 +42037,8 @@
         <v>0</v>
       </c>
       <c r="H77" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H77),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H77),2))</f>
-        <v>-1.91</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H77),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H77),1))</f>
+        <v>-1.9</v>
       </c>
       <c r="I77" s="5">
         <v>35</v>
@@ -41843,8 +42050,8 @@
         <v>30</v>
       </c>
       <c r="L77" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L77),1)</f>
-        <v>114.2</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L77),0)</f>
+        <v>114</v>
       </c>
       <c r="M77" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M77),2)</f>
@@ -41866,8 +42073,8 @@
         <v>120</v>
       </c>
       <c r="C78" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C78),2)</f>
-        <v>-426.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C78),2)</f>
+        <v>-426.75</v>
       </c>
       <c r="D78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D78),2)</f>
@@ -41886,8 +42093,8 @@
         <v>0</v>
       </c>
       <c r="H78" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H78),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H78),2))</f>
-        <v>-1.57</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H78),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H78),1))</f>
+        <v>-1.6</v>
       </c>
       <c r="I78" s="5">
         <v>35</v>
@@ -41899,8 +42106,8 @@
         <v>30</v>
       </c>
       <c r="L78" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L78),1)</f>
-        <v>124.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L78),0)</f>
+        <v>124</v>
       </c>
       <c r="M78" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M78),2)</f>
@@ -41943,8 +42150,8 @@
         <v>5</v>
       </c>
       <c r="C80" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C80),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C80),2)</f>
+        <v>-13.34</v>
       </c>
       <c r="D80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D80),2)</f>
@@ -41963,7 +42170,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H80),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H80),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H80),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H80),1))</f>
         <v>0.4</v>
       </c>
       <c r="I80" s="5">
@@ -41976,8 +42183,8 @@
         <v>18</v>
       </c>
       <c r="L80" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L80),1)</f>
-        <v>44.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L80),0)</f>
+        <v>45</v>
       </c>
       <c r="M80" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M80),2)</f>
@@ -41999,8 +42206,8 @@
         <v>10</v>
       </c>
       <c r="C81" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C81),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C81),2)</f>
+        <v>-26.69</v>
       </c>
       <c r="D81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D81),2)</f>
@@ -42019,8 +42226,8 @@
         <v>1</v>
       </c>
       <c r="H81" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H81),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H81),2))</f>
-        <v>1.69</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H81),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H81),1))</f>
+        <v>1.7</v>
       </c>
       <c r="I81" s="5">
         <v>2</v>
@@ -42032,8 +42239,8 @@
         <v>18</v>
       </c>
       <c r="L81" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L81),1)</f>
-        <v>55.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L81),0)</f>
+        <v>56</v>
       </c>
       <c r="M81" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M81),2)</f>
@@ -42055,8 +42262,8 @@
         <v>20</v>
       </c>
       <c r="C82" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C82),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C82),2)</f>
+        <v>-53.37</v>
       </c>
       <c r="D82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D82),2)</f>
@@ -42075,8 +42282,8 @@
         <v>1</v>
       </c>
       <c r="H82" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H82),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H82),2))</f>
-        <v>3.69</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H82),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H82),1))</f>
+        <v>3.7</v>
       </c>
       <c r="I82" s="5">
         <v>2</v>
@@ -42088,7 +42295,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L82),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L82),0)</f>
         <v>67</v>
       </c>
       <c r="M82" s="32">
@@ -42111,8 +42318,8 @@
         <v>7.5</v>
       </c>
       <c r="C83" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C83),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C83),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D83),2)</f>
@@ -42131,8 +42338,8 @@
         <v>1</v>
       </c>
       <c r="H83" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H83),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H83),2))</f>
-        <v>0.18</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H83),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H83),1))</f>
+        <v>0.2</v>
       </c>
       <c r="I83" s="5">
         <v>2</v>
@@ -42144,7 +42351,7 @@
         <v>18</v>
       </c>
       <c r="L83" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L83),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L83),0)</f>
         <v>49</v>
       </c>
       <c r="M83" s="32">
@@ -42167,8 +42374,8 @@
         <v>15</v>
       </c>
       <c r="C84" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C84),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C84),2)</f>
+        <v>-53.35</v>
       </c>
       <c r="D84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D84),2)</f>
@@ -42187,8 +42394,8 @@
         <v>1</v>
       </c>
       <c r="H84" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H84),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H84),2))</f>
-        <v>1.17</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H84),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H84),1))</f>
+        <v>1.2</v>
       </c>
       <c r="I84" s="5">
         <v>2</v>
@@ -42200,8 +42407,8 @@
         <v>18</v>
       </c>
       <c r="L84" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L84),1)</f>
-        <v>61.2</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L84),0)</f>
+        <v>61</v>
       </c>
       <c r="M84" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M84),2)</f>
@@ -42223,8 +42430,8 @@
         <v>30</v>
       </c>
       <c r="C85" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C85),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C85),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D85),2)</f>
@@ -42243,8 +42450,8 @@
         <v>1</v>
       </c>
       <c r="H85" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H85),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H85),2))</f>
-        <v>2.62</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H85),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H85),1))</f>
+        <v>2.6</v>
       </c>
       <c r="I85" s="5">
         <v>2</v>
@@ -42256,8 +42463,8 @@
         <v>18</v>
       </c>
       <c r="L85" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L85),1)</f>
-        <v>73.400000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L85),0)</f>
+        <v>73</v>
       </c>
       <c r="M85" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M85),2)</f>
@@ -42279,8 +42486,8 @@
         <v>10</v>
       </c>
       <c r="C86" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C86),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C86),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D86),2)</f>
@@ -42299,7 +42506,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H86),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H86),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H86),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H86),1))</f>
         <v>0.1</v>
       </c>
       <c r="I86" s="5">
@@ -42312,8 +42519,8 @@
         <v>18</v>
       </c>
       <c r="L86" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L86),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L86),0)</f>
+        <v>53</v>
       </c>
       <c r="M86" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M86),2)</f>
@@ -42335,8 +42542,8 @@
         <v>20</v>
       </c>
       <c r="C87" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C87),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C87),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D87),2)</f>
@@ -42355,8 +42562,8 @@
         <v>1</v>
       </c>
       <c r="H87" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H87),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H87),2))</f>
-        <v>0.83</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H87),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H87),1))</f>
+        <v>0.8</v>
       </c>
       <c r="I87" s="5">
         <v>2</v>
@@ -42368,8 +42575,8 @@
         <v>18</v>
       </c>
       <c r="L87" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L87),1)</f>
-        <v>66.599999999999994</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L87),0)</f>
+        <v>67</v>
       </c>
       <c r="M87" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M87),2)</f>
@@ -42391,8 +42598,8 @@
         <v>40</v>
       </c>
       <c r="C88" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C88),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C88),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D88),2)</f>
@@ -42411,8 +42618,8 @@
         <v>1</v>
       </c>
       <c r="H88" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H88),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H88),2))</f>
-        <v>1.86</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H88),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H88),1))</f>
+        <v>1.9</v>
       </c>
       <c r="I88" s="5">
         <v>2</v>
@@ -42424,8 +42631,8 @@
         <v>18</v>
       </c>
       <c r="L88" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L88),1)</f>
-        <v>79.900000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L88),0)</f>
+        <v>80</v>
       </c>
       <c r="M88" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M88),2)</f>
@@ -42468,8 +42675,8 @@
         <v>50</v>
       </c>
       <c r="C90" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C90),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C90),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D90" s="5">
         <v>2</v>
@@ -42486,8 +42693,8 @@
         <v>0</v>
       </c>
       <c r="H90" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H90),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H90),2))</f>
-        <v>-1.41</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H90),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H90),1))</f>
+        <v>-1.4</v>
       </c>
       <c r="I90" s="5">
         <v>2</v>
@@ -42499,7 +42706,7 @@
         <v>10</v>
       </c>
       <c r="L90" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L90),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L90),0)</f>
         <v>15</v>
       </c>
       <c r="M90" s="32">
@@ -42522,8 +42729,8 @@
         <v>60</v>
       </c>
       <c r="C91" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C91),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C91),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D91" s="5">
         <v>2</v>
@@ -42540,8 +42747,8 @@
         <v>0</v>
       </c>
       <c r="H91" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H91),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H91),2))</f>
-        <v>-1.28</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H91),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H91),1))</f>
+        <v>-1.3</v>
       </c>
       <c r="I91" s="5">
         <v>2</v>
@@ -42553,7 +42760,7 @@
         <v>10</v>
       </c>
       <c r="L91" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L91),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L91),0)</f>
         <v>20</v>
       </c>
       <c r="M91" s="32">
@@ -42597,8 +42804,8 @@
         <v>2.5</v>
       </c>
       <c r="C93" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C93),2)</f>
-        <v>-3.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C93),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D93" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D93),2)</f>
@@ -42617,7 +42824,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H93),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H93),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H93),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H93),1))</f>
         <v>-4</v>
       </c>
       <c r="I93" s="5">
@@ -42630,7 +42837,7 @@
         <v>30</v>
       </c>
       <c r="L93" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L93),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L93),0)</f>
         <v>48</v>
       </c>
       <c r="M93" s="32">
@@ -42639,7 +42846,7 @@
       </c>
       <c r="N93" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N93),2)</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="O93" s="5"/>
       <c r="P93" s="6"/>
@@ -42653,8 +42860,8 @@
         <v>5</v>
       </c>
       <c r="C94" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C94),2)</f>
-        <v>-6.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C94),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D94" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D94),2)</f>
@@ -42673,7 +42880,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H94),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H94),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H94),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H94),1))</f>
         <v>-4</v>
       </c>
       <c r="I94" s="5">
@@ -42686,7 +42893,7 @@
         <v>30</v>
       </c>
       <c r="L94" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L94),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L94),0)</f>
         <v>60</v>
       </c>
       <c r="M94" s="32">
@@ -42695,7 +42902,7 @@
       </c>
       <c r="N94" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N94),2)</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="O94" s="5"/>
       <c r="P94" s="6"/>
@@ -42709,8 +42916,8 @@
         <v>10</v>
       </c>
       <c r="C95" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C95),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C95),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D95" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D95),2)</f>
@@ -42729,7 +42936,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H95),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H95),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H95),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H95),1))</f>
         <v>-4</v>
       </c>
       <c r="I95" s="5">
@@ -42742,7 +42949,7 @@
         <v>30</v>
       </c>
       <c r="L95" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L95),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L95),0)</f>
         <v>72</v>
       </c>
       <c r="M95" s="32">
@@ -42751,7 +42958,7 @@
       </c>
       <c r="N95" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N95),2)</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="6"/>
@@ -42765,8 +42972,8 @@
         <v>5</v>
       </c>
       <c r="C96" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C96),2)</f>
-        <v>-6.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C96),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D96" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D96),2)</f>
@@ -42785,8 +42992,8 @@
         <v>1</v>
       </c>
       <c r="H96" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H96),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H96),2))</f>
-        <v>-0.75</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H96),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H96),1))</f>
+        <v>-0.7</v>
       </c>
       <c r="I96" s="5">
         <v>20</v>
@@ -42798,8 +43005,8 @@
         <v>30</v>
       </c>
       <c r="L96" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L96),1)</f>
-        <v>53.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L96),0)</f>
+        <v>54</v>
       </c>
       <c r="M96" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M96),2)</f>
@@ -42807,7 +43014,7 @@
       </c>
       <c r="N96" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N96),2)</f>
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O96" s="5"/>
       <c r="P96" s="6"/>
@@ -42821,8 +43028,8 @@
         <v>10</v>
       </c>
       <c r="C97" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C97),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C97),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D97" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D97),2)</f>
@@ -42841,8 +43048,8 @@
         <v>1</v>
       </c>
       <c r="H97" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H97),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H97),2))</f>
-        <v>-1.32</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H97),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H97),1))</f>
+        <v>-1.3</v>
       </c>
       <c r="I97" s="5">
         <v>20</v>
@@ -42854,8 +43061,8 @@
         <v>30</v>
       </c>
       <c r="L97" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L97),1)</f>
-        <v>67.2</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L97),0)</f>
+        <v>67</v>
       </c>
       <c r="M97" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M97),2)</f>
@@ -42863,7 +43070,7 @@
       </c>
       <c r="N97" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N97),2)</f>
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O97" s="5"/>
       <c r="P97" s="6"/>
@@ -42877,8 +43084,8 @@
         <v>20</v>
       </c>
       <c r="C98" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C98),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C98),2)</f>
+        <v>-26.71</v>
       </c>
       <c r="D98" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D98),2)</f>
@@ -42897,8 +43104,8 @@
         <v>1</v>
       </c>
       <c r="H98" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H98),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H98),2))</f>
-        <v>-1.85</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H98),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H98),1))</f>
+        <v>-1.9</v>
       </c>
       <c r="I98" s="5">
         <v>20</v>
@@ -42910,8 +43117,8 @@
         <v>30</v>
       </c>
       <c r="L98" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L98),1)</f>
-        <v>80.599999999999994</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L98),0)</f>
+        <v>81</v>
       </c>
       <c r="M98" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M98),2)</f>
@@ -42919,7 +43126,7 @@
       </c>
       <c r="N98" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N98),2)</f>
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="O98" s="5"/>
       <c r="P98" s="6"/>
@@ -42933,8 +43140,8 @@
         <v>7.5</v>
       </c>
       <c r="C99" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C99),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C99),2)</f>
+        <v>-13.34</v>
       </c>
       <c r="D99" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D99),2)</f>
@@ -42953,8 +43160,8 @@
         <v>1</v>
       </c>
       <c r="H99" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H99),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H99),2))</f>
-        <v>-0.39</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H99),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H99),1))</f>
+        <v>-0.4</v>
       </c>
       <c r="I99" s="5">
         <v>20</v>
@@ -42966,8 +43173,8 @@
         <v>30</v>
       </c>
       <c r="L99" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L99),1)</f>
-        <v>59.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L99),0)</f>
+        <v>60</v>
       </c>
       <c r="M99" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M99),2)</f>
@@ -42975,7 +43182,7 @@
       </c>
       <c r="N99" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N99),2)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O99" s="5"/>
       <c r="P99" s="6"/>
@@ -42989,8 +43196,8 @@
         <v>15</v>
       </c>
       <c r="C100" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C100),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C100),2)</f>
+        <v>-26.69</v>
       </c>
       <c r="D100" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D100),2)</f>
@@ -43009,8 +43216,8 @@
         <v>1</v>
       </c>
       <c r="H100" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H100),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H100),2))</f>
-        <v>-0.71</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H100),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H100),1))</f>
+        <v>-0.7</v>
       </c>
       <c r="I100" s="5">
         <v>20</v>
@@ -43022,8 +43229,8 @@
         <v>30</v>
       </c>
       <c r="L100" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L100),1)</f>
-        <v>74.400000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L100),0)</f>
+        <v>74</v>
       </c>
       <c r="M100" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M100),2)</f>
@@ -43031,7 +43238,7 @@
       </c>
       <c r="N100" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N100),2)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="6"/>
@@ -43045,8 +43252,8 @@
         <v>30</v>
       </c>
       <c r="C101" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C101),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C101),2)</f>
+        <v>-53.37</v>
       </c>
       <c r="D101" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D101),2)</f>
@@ -43065,7 +43272,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H101),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H101),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H101),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H101),1))</f>
         <v>-1</v>
       </c>
       <c r="I101" s="5">
@@ -43078,8 +43285,8 @@
         <v>30</v>
       </c>
       <c r="L101" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L101),1)</f>
-        <v>89.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L101),0)</f>
+        <v>89</v>
       </c>
       <c r="M101" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M101),2)</f>
@@ -43087,7 +43294,7 @@
       </c>
       <c r="N101" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N101),2)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O101" s="5"/>
       <c r="P101" s="6"/>
@@ -43101,8 +43308,8 @@
         <v>10</v>
       </c>
       <c r="C102" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C102),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C102),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D102" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D102),2)</f>
@@ -43121,8 +43328,8 @@
         <v>1</v>
       </c>
       <c r="H102" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H102),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H102),2))</f>
-        <v>-0.57999999999999996</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H102),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H102),1))</f>
+        <v>-0.6</v>
       </c>
       <c r="I102" s="5">
         <v>20</v>
@@ -43134,8 +43341,8 @@
         <v>30</v>
       </c>
       <c r="L102" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L102),1)</f>
-        <v>65.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L102),0)</f>
+        <v>65</v>
       </c>
       <c r="M102" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M102),2)</f>
@@ -43143,7 +43350,7 @@
       </c>
       <c r="N102" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N102),2)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O102" s="5"/>
       <c r="P102" s="6"/>
@@ -43157,8 +43364,8 @@
         <v>20</v>
       </c>
       <c r="C103" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C103),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C103),2)</f>
+        <v>-53.35</v>
       </c>
       <c r="D103" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D103),2)</f>
@@ -43177,8 +43384,8 @@
         <v>1</v>
       </c>
       <c r="H103" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H103),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H103),2))</f>
-        <v>-0.85</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H103),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H103),1))</f>
+        <v>-0.8</v>
       </c>
       <c r="I103" s="5">
         <v>20</v>
@@ -43190,8 +43397,8 @@
         <v>30</v>
       </c>
       <c r="L103" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L103),1)</f>
-        <v>81.599999999999994</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L103),0)</f>
+        <v>82</v>
       </c>
       <c r="M103" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M103),2)</f>
@@ -43199,7 +43406,7 @@
       </c>
       <c r="N103" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N103),2)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
@@ -43213,8 +43420,8 @@
         <v>40</v>
       </c>
       <c r="C104" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C104),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C104),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D104" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D104),2)</f>
@@ -43233,8 +43440,8 @@
         <v>1</v>
       </c>
       <c r="H104" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H104),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H104),2))</f>
-        <v>-1.0900000000000001</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H104),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H104),1))</f>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I104" s="5">
         <v>20</v>
@@ -43246,8 +43453,8 @@
         <v>30</v>
       </c>
       <c r="L104" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L104),1)</f>
-        <v>97.9</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L104),0)</f>
+        <v>98</v>
       </c>
       <c r="M104" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M104),2)</f>
@@ -43255,7 +43462,7 @@
       </c>
       <c r="N104" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N104),2)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O104" s="5"/>
       <c r="P104" s="6"/>
@@ -43269,8 +43476,8 @@
         <v>12.5</v>
       </c>
       <c r="C105" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C105),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C105),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D105" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D105),2)</f>
@@ -43289,7 +43496,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H105),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H105),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H105),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H105),1))</f>
         <v>-0.6</v>
       </c>
       <c r="I105" s="5">
@@ -43302,7 +43509,7 @@
         <v>30</v>
       </c>
       <c r="L105" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L105),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L105),0)</f>
         <v>71</v>
       </c>
       <c r="M105" s="32">
@@ -43311,7 +43518,7 @@
       </c>
       <c r="N105" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N105),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O105" s="5"/>
       <c r="P105" s="6"/>
@@ -43325,8 +43532,8 @@
         <v>25</v>
       </c>
       <c r="C106" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C106),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C106),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D106" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D106),2)</f>
@@ -43345,8 +43552,8 @@
         <v>1</v>
       </c>
       <c r="H106" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H106),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H106),2))</f>
-        <v>-0.81</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H106),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H106),1))</f>
+        <v>-0.8</v>
       </c>
       <c r="I106" s="5">
         <v>20</v>
@@ -43358,8 +43565,8 @@
         <v>30</v>
       </c>
       <c r="L106" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L106),1)</f>
-        <v>88.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L106),0)</f>
+        <v>89</v>
       </c>
       <c r="M106" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M106),2)</f>
@@ -43367,7 +43574,7 @@
       </c>
       <c r="N106" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N106),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O106" s="5"/>
       <c r="P106" s="6"/>
@@ -43381,8 +43588,8 @@
         <v>50</v>
       </c>
       <c r="C107" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C107),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C107),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D107" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D107),2)</f>
@@ -43401,8 +43608,8 @@
         <v>1</v>
       </c>
       <c r="H107" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H107),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H107),2))</f>
-        <v>-1.01</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H107),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H107),1))</f>
+        <v>-1</v>
       </c>
       <c r="I107" s="5">
         <v>20</v>
@@ -43414,8 +43621,8 @@
         <v>30</v>
       </c>
       <c r="L107" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L107),1)</f>
-        <v>106.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L107),0)</f>
+        <v>107</v>
       </c>
       <c r="M107" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M107),2)</f>
@@ -43423,7 +43630,7 @@
       </c>
       <c r="N107" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N107),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O107" s="5"/>
       <c r="P107" s="6"/>
@@ -43458,7 +43665,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C109),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C109),2)</f>
         <v>0</v>
       </c>
       <c r="D109" s="5">
@@ -43478,7 +43685,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H109),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H109),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H109),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A109,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H109),1))</f>
         <v>0</v>
       </c>
       <c r="I109" s="5">
@@ -43514,7 +43721,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C110),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C110),2)</f>
         <v>0</v>
       </c>
       <c r="D110" s="5">
@@ -43534,7 +43741,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H110),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H110),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H110),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A110,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H110),1))</f>
         <v>0</v>
       </c>
       <c r="I110" s="5">
@@ -43570,7 +43777,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C111),2)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C111),2)</f>
         <v>0</v>
       </c>
       <c r="D111" s="5">
@@ -43590,7 +43797,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H111),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H111),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H111),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A111,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H111),1))</f>
         <v>0</v>
       </c>
       <c r="I111" s="5">
@@ -43647,8 +43854,8 @@
         <v>7.5</v>
       </c>
       <c r="C113" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C113),2)</f>
-        <v>-13.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C113),2)</f>
+        <v>-13.34</v>
       </c>
       <c r="D113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D113),2)</f>
@@ -43667,8 +43874,8 @@
         <v>0.76</v>
       </c>
       <c r="H113" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H113),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H113),2))</f>
-        <v>0.21</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H113),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H113),1))</f>
+        <v>0.2</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -43680,8 +43887,8 @@
         <v>75</v>
       </c>
       <c r="L113" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L113),1)</f>
-        <v>59.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L113),0)</f>
+        <v>60</v>
       </c>
       <c r="M113" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M113),2)</f>
@@ -43689,7 +43896,7 @@
       </c>
       <c r="N113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N113),2)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -43700,8 +43907,8 @@
         <v>15</v>
       </c>
       <c r="C114" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C114),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C114),2)</f>
+        <v>-26.69</v>
       </c>
       <c r="D114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D114),2)</f>
@@ -43720,8 +43927,8 @@
         <v>0.74</v>
       </c>
       <c r="H114" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H114),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H114),2))</f>
-        <v>-0.13</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H114),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H114),1))</f>
+        <v>-0.1</v>
       </c>
       <c r="I114">
         <v>2</v>
@@ -43733,8 +43940,8 @@
         <v>75</v>
       </c>
       <c r="L114" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L114),1)</f>
-        <v>74.400000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L114),0)</f>
+        <v>74</v>
       </c>
       <c r="M114" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M114),2)</f>
@@ -43742,7 +43949,7 @@
       </c>
       <c r="N114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N114),2)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -43753,8 +43960,8 @@
         <v>30</v>
       </c>
       <c r="C115" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C115),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C115),2)</f>
+        <v>-53.37</v>
       </c>
       <c r="D115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D115),2)</f>
@@ -43773,8 +43980,8 @@
         <v>0.72</v>
       </c>
       <c r="H115" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H115),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H115),2))</f>
-        <v>-0.44</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H115),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H115),1))</f>
+        <v>-0.4</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -43786,8 +43993,8 @@
         <v>75</v>
       </c>
       <c r="L115" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L115),1)</f>
-        <v>89.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L115),0)</f>
+        <v>89</v>
       </c>
       <c r="M115" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M115),2)</f>
@@ -43795,7 +44002,7 @@
       </c>
       <c r="N115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N115),2)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -43806,8 +44013,8 @@
         <v>10</v>
       </c>
       <c r="C116" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C116),2)</f>
-        <v>-26.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C116),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D116),2)</f>
@@ -43826,8 +44033,8 @@
         <v>0.74</v>
       </c>
       <c r="H116" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H116),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H116),2))</f>
-        <v>-0.04</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H116),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H116),1))</f>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -43839,8 +44046,8 @@
         <v>75</v>
       </c>
       <c r="L116" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L116),1)</f>
-        <v>65.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L116),0)</f>
+        <v>65</v>
       </c>
       <c r="M116" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M116),2)</f>
@@ -43848,7 +44055,7 @@
       </c>
       <c r="N116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N116),2)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -43859,8 +44066,8 @@
         <v>20</v>
       </c>
       <c r="C117" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C117),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C117),2)</f>
+        <v>-53.35</v>
       </c>
       <c r="D117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D117),2)</f>
@@ -43879,8 +44086,8 @@
         <v>0.72</v>
       </c>
       <c r="H117" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H117),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H117),2))</f>
-        <v>-0.33</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H117),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H117),1))</f>
+        <v>-0.3</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -43892,8 +44099,8 @@
         <v>75</v>
       </c>
       <c r="L117" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L117),1)</f>
-        <v>81.599999999999994</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L117),0)</f>
+        <v>82</v>
       </c>
       <c r="M117" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M117),2)</f>
@@ -43901,7 +44108,7 @@
       </c>
       <c r="N117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N117),2)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -43912,8 +44119,8 @@
         <v>40</v>
       </c>
       <c r="C118" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C118),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C118),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D118),2)</f>
@@ -43932,7 +44139,7 @@
         <v>0.7</v>
       </c>
       <c r="H118" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H118),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H118),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H118),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H118),1))</f>
         <v>-0.6</v>
       </c>
       <c r="I118">
@@ -43945,8 +44152,8 @@
         <v>75</v>
       </c>
       <c r="L118" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L118),1)</f>
-        <v>97.9</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L118),0)</f>
+        <v>98</v>
       </c>
       <c r="M118" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M118),2)</f>
@@ -43954,7 +44161,7 @@
       </c>
       <c r="N118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N118),2)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -43965,8 +44172,8 @@
         <v>12.5</v>
       </c>
       <c r="C119" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C119),2)</f>
-        <v>-53.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C119),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D119),2)</f>
@@ -43985,8 +44192,8 @@
         <v>0.72</v>
       </c>
       <c r="H119" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H119),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H119),2))</f>
-        <v>-0.16</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H119),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H119),1))</f>
+        <v>-0.2</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -43998,7 +44205,7 @@
         <v>75</v>
       </c>
       <c r="L119" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L119),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L119),0)</f>
         <v>71</v>
       </c>
       <c r="M119" s="32">
@@ -44007,7 +44214,7 @@
       </c>
       <c r="N119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N119),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -44018,8 +44225,8 @@
         <v>25</v>
       </c>
       <c r="C120" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C120),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C120),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D120),2)</f>
@@ -44038,8 +44245,8 @@
         <v>0.7</v>
       </c>
       <c r="H120" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H120),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H120),2))</f>
-        <v>-0.39</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H120),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H120),1))</f>
+        <v>-0.4</v>
       </c>
       <c r="I120">
         <v>2</v>
@@ -44051,8 +44258,8 @@
         <v>75</v>
       </c>
       <c r="L120" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L120),1)</f>
-        <v>88.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L120),0)</f>
+        <v>89</v>
       </c>
       <c r="M120" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M120),2)</f>
@@ -44060,7 +44267,7 @@
       </c>
       <c r="N120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N120),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -44071,8 +44278,8 @@
         <v>50</v>
       </c>
       <c r="C121" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C121),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C121),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D121),2)</f>
@@ -44091,7 +44298,7 @@
         <v>0.68</v>
       </c>
       <c r="H121" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H121),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H121),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H121),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H121),1))</f>
         <v>-0.6</v>
       </c>
       <c r="I121">
@@ -44104,8 +44311,8 @@
         <v>75</v>
       </c>
       <c r="L121" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L121),1)</f>
-        <v>106.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L121),0)</f>
+        <v>107</v>
       </c>
       <c r="M121" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M121),2)</f>
@@ -44113,7 +44320,7 @@
       </c>
       <c r="N121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N121),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -44138,8 +44345,8 @@
         <v>40</v>
       </c>
       <c r="C123" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C123),2)</f>
-        <v>-106.67</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C123),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D123" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D123),2)</f>
@@ -44158,8 +44365,8 @@
         <v>1</v>
       </c>
       <c r="H123" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H123),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H123),2))</f>
-        <v>-0.85</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H123),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H123),1))</f>
+        <v>-0.8</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -44171,8 +44378,8 @@
         <v>20</v>
       </c>
       <c r="L123" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L123),1)</f>
-        <v>81.599999999999994</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L123),0)</f>
+        <v>82</v>
       </c>
       <c r="M123" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M123),2)</f>
@@ -44180,7 +44387,7 @@
       </c>
       <c r="N123" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N123),2)</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -44191,8 +44398,8 @@
         <v>50</v>
       </c>
       <c r="C124" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C124),2)</f>
-        <v>-213.33</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C124),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D124" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D124),2)</f>
@@ -44211,8 +44418,8 @@
         <v>1</v>
       </c>
       <c r="H124" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H124),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H124),2))</f>
-        <v>-0.81</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H124),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H124),1))</f>
+        <v>-0.8</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -44224,8 +44431,8 @@
         <v>20</v>
       </c>
       <c r="L124" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L124),1)</f>
-        <v>88.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L124),0)</f>
+        <v>89</v>
       </c>
       <c r="M124" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M124),2)</f>
@@ -44233,7 +44440,7 @@
       </c>
       <c r="N124" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N124),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -44258,8 +44465,8 @@
         <v>5</v>
       </c>
       <c r="C126" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C126),2)</f>
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C126),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D126" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D126),2)</f>
@@ -44291,7 +44498,7 @@
         <v>30</v>
       </c>
       <c r="L126" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L126),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L126),0)</f>
         <v>36</v>
       </c>
       <c r="M126" s="32">
@@ -44311,8 +44518,8 @@
         <v>20</v>
       </c>
       <c r="C127" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C127),2)</f>
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C127),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D127" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D127),2)</f>
@@ -44344,7 +44551,7 @@
         <v>30</v>
       </c>
       <c r="L127" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L127),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L127),0)</f>
         <v>45</v>
       </c>
       <c r="M127" s="32">
@@ -44378,8 +44585,8 @@
         <v>2.5</v>
       </c>
       <c r="C129" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C129),2)</f>
-        <v>-2.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C129),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D129" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D129),2)</f>
@@ -44398,8 +44605,8 @@
         <v>0</v>
       </c>
       <c r="H129" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H129),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H129),2))</f>
-        <v>4.38</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H129),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H129),1))</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -44411,7 +44618,7 @@
         <v>30</v>
       </c>
       <c r="L129" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L129),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L129),0)</f>
         <v>36</v>
       </c>
       <c r="M129" s="32">
@@ -44431,8 +44638,8 @@
         <v>5</v>
       </c>
       <c r="C130" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C130),2)</f>
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C130),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D130" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D130),2)</f>
@@ -44451,8 +44658,8 @@
         <v>0</v>
       </c>
       <c r="H130" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H130),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H130),2))</f>
-        <v>8.77</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H130),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H130),1))</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -44464,7 +44671,7 @@
         <v>30</v>
       </c>
       <c r="L130" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L130),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L130),0)</f>
         <v>45</v>
       </c>
       <c r="M130" s="32">
@@ -44484,8 +44691,8 @@
         <v>10</v>
       </c>
       <c r="C131" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C131),2)</f>
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C131),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D131" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D131),2)</f>
@@ -44504,8 +44711,8 @@
         <v>0</v>
       </c>
       <c r="H131" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H131),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H131),2))</f>
-        <v>14.14</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H131),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H131),1))</f>
+        <v>14.1</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -44517,7 +44724,7 @@
         <v>30</v>
       </c>
       <c r="L131" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L131),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L131),0)</f>
         <v>54</v>
       </c>
       <c r="M131" s="32">
@@ -44537,8 +44744,8 @@
         <v>5</v>
       </c>
       <c r="C132" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C132),2)</f>
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C132),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D132" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D132),2)</f>
@@ -44557,8 +44764,8 @@
         <v>0</v>
       </c>
       <c r="H132" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H132),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H132),2))</f>
-        <v>4.38</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H132),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H132),1))</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -44570,7 +44777,7 @@
         <v>30</v>
       </c>
       <c r="L132" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L132),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L132),0)</f>
         <v>36</v>
       </c>
       <c r="M132" s="32">
@@ -44590,8 +44797,8 @@
         <v>10</v>
       </c>
       <c r="C133" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C133),2)</f>
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C133),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D133" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D133),2)</f>
@@ -44610,8 +44817,8 @@
         <v>0</v>
       </c>
       <c r="H133" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H133),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H133),2))</f>
-        <v>8.77</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H133),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H133),1))</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -44623,7 +44830,7 @@
         <v>30</v>
       </c>
       <c r="L133" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L133),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L133),0)</f>
         <v>45</v>
       </c>
       <c r="M133" s="32">
@@ -44643,8 +44850,8 @@
         <v>20</v>
       </c>
       <c r="C134" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C134),2)</f>
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C134),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D134" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D134),2)</f>
@@ -44663,8 +44870,8 @@
         <v>0</v>
       </c>
       <c r="H134" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H134),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H134),2))</f>
-        <v>14.14</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H134),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H134),1))</f>
+        <v>14.1</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -44676,7 +44883,7 @@
         <v>30</v>
       </c>
       <c r="L134" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L134),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L134),0)</f>
         <v>54</v>
       </c>
       <c r="M134" s="32">
@@ -44696,8 +44903,8 @@
         <v>7.5</v>
       </c>
       <c r="C135" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C135),2)</f>
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C135),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D135" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D135),2)</f>
@@ -44716,8 +44923,8 @@
         <v>0</v>
       </c>
       <c r="H135" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H135),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H135),2))</f>
-        <v>4.38</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H135),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H135),1))</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -44729,7 +44936,7 @@
         <v>30</v>
       </c>
       <c r="L135" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L135),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L135),0)</f>
         <v>36</v>
       </c>
       <c r="M135" s="32">
@@ -44749,8 +44956,8 @@
         <v>15</v>
       </c>
       <c r="C136" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C136),2)</f>
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C136),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D136" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D136),2)</f>
@@ -44769,8 +44976,8 @@
         <v>0</v>
       </c>
       <c r="H136" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H136),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H136),2))</f>
-        <v>8.77</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H136),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H136),1))</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -44782,7 +44989,7 @@
         <v>30</v>
       </c>
       <c r="L136" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L136),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L136),0)</f>
         <v>45</v>
       </c>
       <c r="M136" s="32">
@@ -44802,8 +45009,8 @@
         <v>30</v>
       </c>
       <c r="C137" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C137),2)</f>
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C137),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D137" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D137),2)</f>
@@ -44822,8 +45029,8 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H137),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H137),2))</f>
-        <v>14.14</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H137),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H137),1))</f>
+        <v>14.1</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -44835,7 +45042,7 @@
         <v>30</v>
       </c>
       <c r="L137" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L137),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L137),0)</f>
         <v>54</v>
       </c>
       <c r="M137" s="32">
@@ -44855,8 +45062,8 @@
         <v>10</v>
       </c>
       <c r="C138" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C138),2)</f>
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C138),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D138" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D138),2)</f>
@@ -44875,8 +45082,8 @@
         <v>0</v>
       </c>
       <c r="H138" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H138),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H138),2))</f>
-        <v>4.38</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H138),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H138),1))</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I138">
         <v>2</v>
@@ -44888,7 +45095,7 @@
         <v>30</v>
       </c>
       <c r="L138" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L138),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L138),0)</f>
         <v>36</v>
       </c>
       <c r="M138" s="32">
@@ -44908,8 +45115,8 @@
         <v>20</v>
       </c>
       <c r="C139" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C139),2)</f>
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C139),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D139" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D139),2)</f>
@@ -44928,8 +45135,8 @@
         <v>0</v>
       </c>
       <c r="H139" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H139),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H139),2))</f>
-        <v>8.77</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H139),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H139),1))</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I139">
         <v>2</v>
@@ -44941,7 +45148,7 @@
         <v>30</v>
       </c>
       <c r="L139" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L139),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L139),0)</f>
         <v>45</v>
       </c>
       <c r="M139" s="32">
@@ -44961,8 +45168,8 @@
         <v>40</v>
       </c>
       <c r="C140" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C140),2)</f>
-        <v>-40</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C140),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D140" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D140),2)</f>
@@ -44981,8 +45188,8 @@
         <v>0</v>
       </c>
       <c r="H140" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H140),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H140),2))</f>
-        <v>14.14</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H140),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H140),1))</f>
+        <v>14.1</v>
       </c>
       <c r="I140">
         <v>2</v>
@@ -44994,7 +45201,7 @@
         <v>30</v>
       </c>
       <c r="L140" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L140),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L140),0)</f>
         <v>54</v>
       </c>
       <c r="M140" s="32">
@@ -45014,8 +45221,8 @@
         <v>2.5</v>
       </c>
       <c r="C141" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C141),2)</f>
-        <v>-2.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C141),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D141" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D141),2)</f>
@@ -45034,8 +45241,8 @@
         <v>0</v>
       </c>
       <c r="H141" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H141),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H141),2))</f>
-        <v>2.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H141),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H141),1))</f>
+        <v>2.1</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -45047,8 +45254,8 @@
         <v>30</v>
       </c>
       <c r="L141" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L141),1)</f>
-        <v>40.299999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L141),0)</f>
+        <v>40</v>
       </c>
       <c r="M141" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M141),2)</f>
@@ -45067,8 +45274,8 @@
         <v>5</v>
       </c>
       <c r="C142" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C142),2)</f>
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C142),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D142" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D142),2)</f>
@@ -45087,8 +45294,8 @@
         <v>0</v>
       </c>
       <c r="H142" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H142),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H142),2))</f>
-        <v>3.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H142),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H142),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -45100,8 +45307,8 @@
         <v>30</v>
       </c>
       <c r="L142" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L142),1)</f>
-        <v>50.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L142),0)</f>
+        <v>50</v>
       </c>
       <c r="M142" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M142),2)</f>
@@ -45120,8 +45327,8 @@
         <v>10</v>
       </c>
       <c r="C143" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C143),2)</f>
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C143),2)</f>
+        <v>-26.71</v>
       </c>
       <c r="D143" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D143),2)</f>
@@ -45140,8 +45347,8 @@
         <v>0</v>
       </c>
       <c r="H143" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H143),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H143),2))</f>
-        <v>4.29</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H143),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H143),1))</f>
+        <v>4.3</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -45153,8 +45360,8 @@
         <v>30</v>
       </c>
       <c r="L143" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L143),1)</f>
-        <v>60.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L143),0)</f>
+        <v>60</v>
       </c>
       <c r="M143" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M143),2)</f>
@@ -45173,8 +45380,8 @@
         <v>5</v>
       </c>
       <c r="C144" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C144),2)</f>
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C144),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D144" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D144),2)</f>
@@ -45193,8 +45400,8 @@
         <v>0</v>
       </c>
       <c r="H144" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H144),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H144),2))</f>
-        <v>2.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H144),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H144),1))</f>
+        <v>2.1</v>
       </c>
       <c r="I144">
         <v>2</v>
@@ -45206,8 +45413,8 @@
         <v>30</v>
       </c>
       <c r="L144" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L144),1)</f>
-        <v>40.299999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L144),0)</f>
+        <v>40</v>
       </c>
       <c r="M144" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M144),2)</f>
@@ -45226,8 +45433,8 @@
         <v>10</v>
       </c>
       <c r="C145" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C145),2)</f>
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C145),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D145" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D145),2)</f>
@@ -45246,8 +45453,8 @@
         <v>0</v>
       </c>
       <c r="H145" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H145),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H145),2))</f>
-        <v>3.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H145),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H145),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I145">
         <v>2</v>
@@ -45259,8 +45466,8 @@
         <v>30</v>
       </c>
       <c r="L145" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L145),1)</f>
-        <v>50.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L145),0)</f>
+        <v>50</v>
       </c>
       <c r="M145" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M145),2)</f>
@@ -45279,8 +45486,8 @@
         <v>20</v>
       </c>
       <c r="C146" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C146),2)</f>
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C146),2)</f>
+        <v>-26.71</v>
       </c>
       <c r="D146" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D146),2)</f>
@@ -45299,8 +45506,8 @@
         <v>0</v>
       </c>
       <c r="H146" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H146),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H146),2))</f>
-        <v>4.29</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H146),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H146),1))</f>
+        <v>4.3</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -45312,8 +45519,8 @@
         <v>30</v>
       </c>
       <c r="L146" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L146),1)</f>
-        <v>60.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L146),0)</f>
+        <v>60</v>
       </c>
       <c r="M146" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M146),2)</f>
@@ -45332,8 +45539,8 @@
         <v>7.5</v>
       </c>
       <c r="C147" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C147),2)</f>
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C147),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D147" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D147),2)</f>
@@ -45352,8 +45559,8 @@
         <v>0</v>
       </c>
       <c r="H147" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H147),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H147),2))</f>
-        <v>2.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H147),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H147),1))</f>
+        <v>2.1</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -45365,8 +45572,8 @@
         <v>30</v>
       </c>
       <c r="L147" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L147),1)</f>
-        <v>40.299999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L147),0)</f>
+        <v>40</v>
       </c>
       <c r="M147" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M147),2)</f>
@@ -45385,8 +45592,8 @@
         <v>15</v>
       </c>
       <c r="C148" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C148),2)</f>
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C148),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D148" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D148),2)</f>
@@ -45405,8 +45612,8 @@
         <v>0</v>
       </c>
       <c r="H148" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H148),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H148),2))</f>
-        <v>3.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H148),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H148),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I148">
         <v>2</v>
@@ -45418,8 +45625,8 @@
         <v>30</v>
       </c>
       <c r="L148" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L148),1)</f>
-        <v>50.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L148),0)</f>
+        <v>50</v>
       </c>
       <c r="M148" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M148),2)</f>
@@ -45438,8 +45645,8 @@
         <v>30</v>
       </c>
       <c r="C149" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C149),2)</f>
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C149),2)</f>
+        <v>-26.71</v>
       </c>
       <c r="D149" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D149),2)</f>
@@ -45458,8 +45665,8 @@
         <v>0</v>
       </c>
       <c r="H149" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H149),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H149),2))</f>
-        <v>4.29</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H149),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H149),1))</f>
+        <v>4.3</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -45471,8 +45678,8 @@
         <v>30</v>
       </c>
       <c r="L149" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L149),1)</f>
-        <v>60.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L149),0)</f>
+        <v>60</v>
       </c>
       <c r="M149" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M149),2)</f>
@@ -45491,8 +45698,8 @@
         <v>10</v>
       </c>
       <c r="C150" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C150),2)</f>
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C150),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D150" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D150),2)</f>
@@ -45511,8 +45718,8 @@
         <v>0</v>
       </c>
       <c r="H150" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H150),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H150),2))</f>
-        <v>2.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H150),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H150),1))</f>
+        <v>2.1</v>
       </c>
       <c r="I150">
         <v>2</v>
@@ -45524,8 +45731,8 @@
         <v>30</v>
       </c>
       <c r="L150" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L150),1)</f>
-        <v>40.299999999999997</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L150),0)</f>
+        <v>40</v>
       </c>
       <c r="M150" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M150),2)</f>
@@ -45544,8 +45751,8 @@
         <v>20</v>
       </c>
       <c r="C151" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C151),2)</f>
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C151),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D151" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D151),2)</f>
@@ -45564,8 +45771,8 @@
         <v>0</v>
       </c>
       <c r="H151" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H151),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H151),2))</f>
-        <v>3.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H151),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H151),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -45577,8 +45784,8 @@
         <v>30</v>
       </c>
       <c r="L151" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L151),1)</f>
-        <v>50.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L151),0)</f>
+        <v>50</v>
       </c>
       <c r="M151" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M151),2)</f>
@@ -45597,8 +45804,8 @@
         <v>40</v>
       </c>
       <c r="C152" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C152),2)</f>
-        <v>-40</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C152),2)</f>
+        <v>-26.71</v>
       </c>
       <c r="D152" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D152),2)</f>
@@ -45617,8 +45824,8 @@
         <v>0</v>
       </c>
       <c r="H152" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H152),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H152),2))</f>
-        <v>4.29</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H152),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H152),1))</f>
+        <v>4.3</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -45630,8 +45837,8 @@
         <v>30</v>
       </c>
       <c r="L152" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L152),1)</f>
-        <v>60.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L152),0)</f>
+        <v>60</v>
       </c>
       <c r="M152" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M152),2)</f>
@@ -45664,8 +45871,8 @@
         <v>15</v>
       </c>
       <c r="C154" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C154),2)</f>
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C154),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D154" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D154),2)</f>
@@ -45684,8 +45891,8 @@
         <v>0</v>
       </c>
       <c r="H154" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H154),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H154),2))</f>
-        <v>-1.1599999999999999</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H154),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H154),1))</f>
+        <v>-1.2</v>
       </c>
       <c r="I154">
         <v>2</v>
@@ -45697,8 +45904,8 @@
         <v>30</v>
       </c>
       <c r="L154" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L154),1)</f>
-        <v>66.599999999999994</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L154),0)</f>
+        <v>67</v>
       </c>
       <c r="M154" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M154),2)</f>
@@ -45717,8 +45924,8 @@
         <v>5</v>
       </c>
       <c r="C155" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C155),2)</f>
-        <v>-5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C155),2)</f>
+        <v>-3.34</v>
       </c>
       <c r="D155" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D155),2)</f>
@@ -45737,7 +45944,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H155),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H155),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H155),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H155),1))</f>
         <v>-4</v>
       </c>
       <c r="I155">
@@ -45750,8 +45957,8 @@
         <v>30</v>
       </c>
       <c r="L155" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L155),1)</f>
-        <v>31.7</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L155),0)</f>
+        <v>32</v>
       </c>
       <c r="M155" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M155),2)</f>
@@ -45770,8 +45977,8 @@
         <v>10</v>
       </c>
       <c r="C156" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C156),2)</f>
-        <v>-10</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C156),2)</f>
+        <v>-6.69</v>
       </c>
       <c r="D156" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D156),2)</f>
@@ -45790,7 +45997,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H156),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H156),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H156),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H156),1))</f>
         <v>-4</v>
       </c>
       <c r="I156">
@@ -45803,7 +46010,7 @@
         <v>30</v>
       </c>
       <c r="L156" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L156),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L156),0)</f>
         <v>45</v>
       </c>
       <c r="M156" s="32">
@@ -45823,8 +46030,8 @@
         <v>20</v>
       </c>
       <c r="C157" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C157),2)</f>
-        <v>-20</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C157),2)</f>
+        <v>-13.37</v>
       </c>
       <c r="D157" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D157),2)</f>
@@ -45843,7 +46050,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H157),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H157),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H157),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H157),1))</f>
         <v>-4</v>
       </c>
       <c r="I157">
@@ -45856,7 +46063,7 @@
         <v>30</v>
       </c>
       <c r="L157" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L157),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L157),0)</f>
         <v>54</v>
       </c>
       <c r="M157" s="32">
@@ -45877,8 +46084,8 @@
         <v>7.5</v>
       </c>
       <c r="C158" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C158),2)</f>
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C158),2)</f>
+        <v>-26.68</v>
       </c>
       <c r="D158" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D158),2)</f>
@@ -45897,7 +46104,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H158),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H158),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H158),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H158),1))</f>
         <v>0</v>
       </c>
       <c r="I158">
@@ -45910,8 +46117,8 @@
         <v>30</v>
       </c>
       <c r="L158" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L158),1)</f>
-        <v>31.7</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L158),0)</f>
+        <v>32</v>
       </c>
       <c r="M158" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M158),2)</f>
@@ -45930,8 +46137,8 @@
         <v>15</v>
       </c>
       <c r="C159" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C159),2)</f>
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C159),2)</f>
+        <v>-106.71</v>
       </c>
       <c r="D159" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D159),2)</f>
@@ -45950,7 +46157,7 @@
         <v>0</v>
       </c>
       <c r="H159" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H159),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H159),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H159),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H159),1))</f>
         <v>0</v>
       </c>
       <c r="I159">
@@ -45963,8 +46170,8 @@
         <v>30</v>
       </c>
       <c r="L159" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L159),1)</f>
-        <v>73.400000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L159),0)</f>
+        <v>73</v>
       </c>
       <c r="M159" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M159),2)</f>
@@ -45983,8 +46190,8 @@
         <v>7.5</v>
       </c>
       <c r="C160" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C160),2)</f>
-        <v>-7.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C160),2)</f>
+        <v>-6.68</v>
       </c>
       <c r="D160" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D160),2)</f>
@@ -46003,8 +46210,8 @@
         <v>0</v>
       </c>
       <c r="H160" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H160),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H160),2))</f>
-        <v>2.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H160),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H160),1))</f>
+        <v>2.1</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -46016,8 +46223,8 @@
         <v>30</v>
       </c>
       <c r="L160" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L160),1)</f>
-        <v>31.7</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L160),0)</f>
+        <v>32</v>
       </c>
       <c r="M160" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M160),2)</f>
@@ -46036,8 +46243,8 @@
         <v>15</v>
       </c>
       <c r="C161" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C161),2)</f>
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C161),2)</f>
+        <v>-13.35</v>
       </c>
       <c r="D161" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D161),2)</f>
@@ -46056,8 +46263,8 @@
         <v>0</v>
       </c>
       <c r="H161" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H161),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H161),2))</f>
-        <v>3.06</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H161),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H161),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -46069,8 +46276,8 @@
         <v>30</v>
       </c>
       <c r="L161" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L161),1)</f>
-        <v>50.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L161),0)</f>
+        <v>50</v>
       </c>
       <c r="M161" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M161),2)</f>
@@ -46103,8 +46310,8 @@
         <v>15</v>
       </c>
       <c r="C163" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C163),2)</f>
-        <v>-15</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C163),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D163" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D163),2)</f>
@@ -46123,8 +46330,8 @@
         <v>0</v>
       </c>
       <c r="H163" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H163),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H163),2))</f>
-        <v>0.77</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H163),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H163),1))</f>
+        <v>0.8</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -46136,7 +46343,7 @@
         <v>25</v>
       </c>
       <c r="L163" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L163),1)</f>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L163),0)</f>
         <v>71</v>
       </c>
       <c r="M163" s="32">
@@ -46156,8 +46363,8 @@
         <v>30</v>
       </c>
       <c r="C164" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C164),2)</f>
-        <v>-30</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C164),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D164" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D164),2)</f>
@@ -46176,8 +46383,8 @@
         <v>0</v>
       </c>
       <c r="H164" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H164),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H164),2))</f>
-        <v>0.45</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H164),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H164),1))</f>
+        <v>0.4</v>
       </c>
       <c r="I164">
         <v>2</v>
@@ -46189,8 +46396,8 @@
         <v>25</v>
       </c>
       <c r="L164" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L164),1)</f>
-        <v>88.8</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L164),0)</f>
+        <v>89</v>
       </c>
       <c r="M164" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M164),2)</f>
@@ -46209,8 +46416,8 @@
         <v>60</v>
       </c>
       <c r="C165" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C165),2)</f>
-        <v>-60</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C165),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D165" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D165),2)</f>
@@ -46229,8 +46436,8 @@
         <v>0</v>
       </c>
       <c r="H165" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H165),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H165),2))</f>
-        <v>0.09</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H165),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H165),1))</f>
+        <v>0.1</v>
       </c>
       <c r="I165">
         <v>2</v>
@@ -46242,8 +46449,8 @@
         <v>25</v>
       </c>
       <c r="L165" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L165),1)</f>
-        <v>106.6</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L165),0)</f>
+        <v>107</v>
       </c>
       <c r="M165" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M165),2)</f>
@@ -46276,8 +46483,8 @@
         <v>0</v>
       </c>
       <c r="C167" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C167),2)</f>
-        <v>0</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C167),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D167" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D167),2)</f>
@@ -46296,7 +46503,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H167),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H167),2))</f>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H167),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H167),1))</f>
         <v>-0.6</v>
       </c>
       <c r="I167">
@@ -46309,8 +46516,8 @@
         <v>40</v>
       </c>
       <c r="L167" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L167),1)</f>
-        <v>35.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L167),0)</f>
+        <v>36</v>
       </c>
       <c r="M167" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M167),2)</f>
@@ -46318,7 +46525,7 @@
       </c>
       <c r="N167" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N167),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -46329,8 +46536,8 @@
         <v>0</v>
       </c>
       <c r="C168" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C168),2)</f>
-        <v>0</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C168),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D168" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D168),2)</f>
@@ -46349,8 +46556,8 @@
         <v>1</v>
       </c>
       <c r="H168" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H168),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H168),2))</f>
-        <v>-0.81</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H168),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H168),1))</f>
+        <v>-0.8</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -46362,8 +46569,8 @@
         <v>40</v>
       </c>
       <c r="L168" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L168),1)</f>
-        <v>44.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L168),0)</f>
+        <v>44</v>
       </c>
       <c r="M168" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M168),2)</f>
@@ -46371,7 +46578,7 @@
       </c>
       <c r="N168" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N168),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -46382,8 +46589,8 @@
         <v>0</v>
       </c>
       <c r="C169" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C169),2)</f>
-        <v>0</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C169),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D169" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D169),2)</f>
@@ -46402,8 +46609,8 @@
         <v>1</v>
       </c>
       <c r="H169" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H169),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H169),2))</f>
-        <v>-1.01</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H169),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H169),1))</f>
+        <v>-1</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -46415,8 +46622,8 @@
         <v>40</v>
       </c>
       <c r="L169" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L169),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L169),0)</f>
+        <v>53</v>
       </c>
       <c r="M169" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M169),2)</f>
@@ -46424,7 +46631,7 @@
       </c>
       <c r="N169" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N169),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -46435,8 +46642,8 @@
         <v>50</v>
       </c>
       <c r="C170" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C170),2)</f>
-        <v>-50</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C170),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D170" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D170),2)</f>
@@ -46455,8 +46662,8 @@
         <v>1</v>
       </c>
       <c r="H170" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H170),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H170),2))</f>
-        <v>-1.01</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H170),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H170),1))</f>
+        <v>-1</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -46468,8 +46675,8 @@
         <v>40</v>
       </c>
       <c r="L170" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L170),1)</f>
-        <v>53.3</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L170),0)</f>
+        <v>53</v>
       </c>
       <c r="M170" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M170),2)</f>
@@ -46477,7 +46684,7 @@
       </c>
       <c r="N170" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N170),2)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -46488,8 +46695,8 @@
         <v>12.5</v>
       </c>
       <c r="C171" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C171),2)</f>
-        <v>-12.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C171),2)</f>
+        <v>-53.34</v>
       </c>
       <c r="D171" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D171),2)</f>
@@ -46508,8 +46715,8 @@
         <v>0</v>
       </c>
       <c r="H171" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H171),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H171),2))</f>
-        <v>5.87</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H171),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H171),1))</f>
+        <v>5.9</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -46521,8 +46728,8 @@
         <v>30</v>
       </c>
       <c r="L171" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L171),1)</f>
-        <v>35.5</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L171),0)</f>
+        <v>36</v>
       </c>
       <c r="M171" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M171),2)</f>
@@ -46541,8 +46748,8 @@
         <v>25</v>
       </c>
       <c r="C172" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C172),2)</f>
-        <v>-25</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C172),2)</f>
+        <v>-106.69</v>
       </c>
       <c r="D172" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D172),2)</f>
@@ -46561,8 +46768,8 @@
         <v>0</v>
       </c>
       <c r="H172" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H172),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H172),2))</f>
-        <v>8.69</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H172),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H172),1))</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -46574,8 +46781,8 @@
         <v>30</v>
       </c>
       <c r="L172" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L172),1)</f>
-        <v>44.4</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L172),0)</f>
+        <v>44</v>
       </c>
       <c r="M172" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M172),2)</f>
@@ -46608,8 +46815,8 @@
         <v>0</v>
       </c>
       <c r="C174" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$V$115,17,0),weapon_components!C174),2)</f>
-        <v>0</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C174),2)</f>
+        <v>-213.37</v>
       </c>
       <c r="D174" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D174),2)</f>
@@ -46628,8 +46835,8 @@
         <v>0</v>
       </c>
       <c r="H174" s="5">
-        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H174),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H174),2))</f>
-        <v>3.11</v>
+        <f>IF(ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H174),2)&lt;-4,-4,ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$L$300,7,0),weapon_components!H174),1))</f>
+        <v>3.1</v>
       </c>
       <c r="I174">
         <v>2</v>
@@ -46641,8 +46848,8 @@
         <v>100</v>
       </c>
       <c r="L174" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L174),1)</f>
-        <v>79.900000000000006</v>
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L174),0)</f>
+        <v>80</v>
       </c>
       <c r="M174" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M174),2)</f>
@@ -46698,21 +46905,21 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L176),2)</f>
         <v>2</v>
-      </c>
-      <c r="L176" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L176),0)</f>
-        <v>8</v>
       </c>
       <c r="M176" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M176),2)</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N176" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A176,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N176),2)</f>
@@ -46731,11 +46938,11 @@
       </c>
       <c r="D177" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D177),2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$Q$300,12,0),weapon_components!E177),2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F177" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$L$300,8,0),weapon_components!F177),2)</f>
@@ -46750,21 +46957,21 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L177),2)</f>
         <v>2</v>
-      </c>
-      <c r="L177" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L177),0)</f>
-        <v>8</v>
       </c>
       <c r="M177" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M177),2)</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N177" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A177,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N177),2)</f>
@@ -46783,11 +46990,11 @@
       </c>
       <c r="D178" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D178),2)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E178" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$Q$300,12,0),weapon_components!E178),2)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F178" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$L$300,8,0),weapon_components!F178),2)</f>
@@ -46802,21 +47009,21 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178" s="5">
+        <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L178),2)</f>
         <v>2</v>
-      </c>
-      <c r="L178" s="5">
-        <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$Z$300,15,0),weapon_components!L178),0)</f>
-        <v>8</v>
       </c>
       <c r="M178" s="32">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$Z$300,14,0),weapon_components!M178),2)</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N178" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A178,'Weapon Formulas'!$E$10:$W$300,16,0),weapon_components!N178),2)</f>

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1069,6 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1494,274 +1495,274 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.3433333333333328</c:v>
+                  <c:v>-3.3233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.6866666666666656</c:v>
+                  <c:v>-6.6466666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-13.373333333333331</c:v>
+                  <c:v>-13.293333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.6766666666666659</c:v>
+                  <c:v>-6.6566666666666663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-13.353333333333332</c:v>
+                  <c:v>-13.313333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-26.706666666666663</c:v>
+                  <c:v>-26.626666666666665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13.343333333333332</c:v>
+                  <c:v>-13.323333333333332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-26.686666666666664</c:v>
+                  <c:v>-26.646666666666665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-53.373333333333328</c:v>
+                  <c:v>-53.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-26.676666666666666</c:v>
+                  <c:v>-26.656666666666663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-53.353333333333332</c:v>
+                  <c:v>-53.313333333333325</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-53.343333333333327</c:v>
+                  <c:v>-53.323333333333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-106.68666666666665</c:v>
+                  <c:v>-106.64666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-213.37333333333331</c:v>
+                  <c:v>-213.29333333333332</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-213.41333333333333</c:v>
+                  <c:v>-213.2533333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-426.74666666666661</c:v>
+                  <c:v>-426.58666666666664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-13.343333333333332</c:v>
+                  <c:v>-13.323333333333332</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-26.686666666666664</c:v>
+                  <c:v>-26.646666666666665</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-53.373333333333328</c:v>
+                  <c:v>-53.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-26.676666666666666</c:v>
+                  <c:v>-26.656666666666663</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-53.353333333333332</c:v>
+                  <c:v>-53.313333333333325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-53.343333333333327</c:v>
+                  <c:v>-53.323333333333331</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-106.68666666666665</c:v>
+                  <c:v>-106.64666666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-213.37333333333331</c:v>
+                  <c:v>-213.29333333333332</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-213.41333333333333</c:v>
+                  <c:v>-213.2533333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-426.74666666666661</c:v>
+                  <c:v>-426.58666666666664</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-13.343333333333332</c:v>
+                  <c:v>-13.323333333333332</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-26.686666666666664</c:v>
+                  <c:v>-26.646666666666665</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-53.373333333333328</c:v>
+                  <c:v>-53.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-26.676666666666666</c:v>
+                  <c:v>-26.656666666666663</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-53.353333333333332</c:v>
+                  <c:v>-53.313333333333325</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-53.343333333333327</c:v>
+                  <c:v>-53.323333333333331</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-106.68666666666665</c:v>
+                  <c:v>-106.64666666666666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-213.37333333333331</c:v>
+                  <c:v>-213.29333333333332</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-213.41333333333333</c:v>
+                  <c:v>-213.2533333333333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-426.74666666666661</c:v>
+                  <c:v>-426.58666666666664</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.3433333333333328</c:v>
+                  <c:v>-3.3233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-6.6866666666666656</c:v>
+                  <c:v>-6.6466666666666665</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-13.373333333333331</c:v>
+                  <c:v>-13.293333333333333</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-6.6766666666666659</c:v>
+                  <c:v>-6.6566666666666663</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-13.353333333333332</c:v>
+                  <c:v>-13.313333333333333</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-26.706666666666663</c:v>
+                  <c:v>-26.626666666666665</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-13.343333333333332</c:v>
+                  <c:v>-13.323333333333332</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-26.686666666666664</c:v>
+                  <c:v>-26.646666666666665</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-53.373333333333328</c:v>
+                  <c:v>-53.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-26.676666666666666</c:v>
+                  <c:v>-26.656666666666663</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-53.353333333333332</c:v>
+                  <c:v>-53.313333333333325</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-53.343333333333327</c:v>
+                  <c:v>-53.323333333333331</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-106.68666666666665</c:v>
+                  <c:v>-106.64666666666666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-213.37333333333331</c:v>
+                  <c:v>-213.29333333333332</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-213.41333333333333</c:v>
+                  <c:v>-213.2533333333333</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-426.74666666666661</c:v>
+                  <c:v>-426.58666666666664</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-13.343333333333332</c:v>
+                  <c:v>-13.323333333333332</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-26.686666666666664</c:v>
+                  <c:v>-26.646666666666665</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-53.373333333333328</c:v>
+                  <c:v>-53.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-26.676666666666666</c:v>
+                  <c:v>-26.656666666666663</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-53.353333333333332</c:v>
+                  <c:v>-53.313333333333325</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-53.343333333333327</c:v>
+                  <c:v>-53.323333333333331</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-106.68666666666665</c:v>
+                  <c:v>-106.64666666666666</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-213.37333333333331</c:v>
+                  <c:v>-213.29333333333332</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-213.37333333333331</c:v>
+                  <c:v>-213.29333333333332</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-3.3433333333333328</c:v>
+                  <c:v>-3.3233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-6.6866666666666656</c:v>
+                  <c:v>-6.6466666666666665</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-13.373333333333331</c:v>
+                  <c:v>-13.293333333333333</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-6.6766666666666659</c:v>
+                  <c:v>-6.6566666666666663</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-13.353333333333332</c:v>
+                  <c:v>-13.313333333333333</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-26.706666666666663</c:v>
+                  <c:v>-26.626666666666665</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-13.343333333333332</c:v>
+                  <c:v>-13.323333333333332</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-26.686666666666664</c:v>
+                  <c:v>-26.646666666666665</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-53.373333333333328</c:v>
+                  <c:v>-53.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-26.676666666666666</c:v>
+                  <c:v>-26.656666666666663</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-53.353333333333332</c:v>
+                  <c:v>-53.313333333333325</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-53.343333333333327</c:v>
+                  <c:v>-53.323333333333331</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-106.68666666666665</c:v>
+                  <c:v>-106.64666666666666</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-213.37333333333331</c:v>
+                  <c:v>-213.29333333333332</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-13.343333333333332</c:v>
+                  <c:v>-13.323333333333332</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-26.686666666666664</c:v>
+                  <c:v>-26.646666666666665</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-53.373333333333328</c:v>
+                  <c:v>-53.293333333333329</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-26.676666666666666</c:v>
+                  <c:v>-26.656666666666663</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-53.353333333333332</c:v>
+                  <c:v>-53.313333333333325</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-106.70666666666666</c:v>
+                  <c:v>-106.62666666666665</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-53.343333333333327</c:v>
+                  <c:v>-53.323333333333331</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-106.68666666666665</c:v>
+                  <c:v>-106.64666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20163,8 +20164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20559,11 +20560,11 @@
       <c r="F8" s="12">
         <v>0.2</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="W8">
@@ -20762,10 +20763,14 @@
       </c>
       <c r="U11" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C11)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D11+2)*(1+'Weapon Formulas'!B11))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V11">
         <v>0.69</v>
+      </c>
+      <c r="X11">
+        <f>6.67*3</f>
+        <v>20.009999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -20842,7 +20847,7 @@
       </c>
       <c r="U12" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C12)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D12+2)*(1+'Weapon Formulas'!B12))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V12">
         <v>0.8</v>
@@ -20922,7 +20927,7 @@
       </c>
       <c r="U13" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C13)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D13+2)*(1+'Weapon Formulas'!B13))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V13">
         <v>0.75</v>
@@ -21002,7 +21007,7 @@
       </c>
       <c r="U14" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C14)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D14+2)*(1+'Weapon Formulas'!B14))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V14">
         <v>0.82</v>
@@ -21082,7 +21087,7 @@
       </c>
       <c r="U15" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C15)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D15+2)*(1+'Weapon Formulas'!B15))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V15">
         <v>0.8</v>
@@ -21162,7 +21167,7 @@
       </c>
       <c r="U16" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C16)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D16+2)*(1+'Weapon Formulas'!B16))</f>
-        <v>-26.706666666666663</v>
+        <v>-26.626666666666665</v>
       </c>
       <c r="V16">
         <v>0.75</v>
@@ -21242,7 +21247,7 @@
       </c>
       <c r="U17" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C17)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D17+2)*(1+'Weapon Formulas'!B17))</f>
-        <v>-13.343333333333332</v>
+        <v>-13.323333333333332</v>
       </c>
       <c r="V17">
         <v>0.82</v>
@@ -21326,7 +21331,7 @@
       </c>
       <c r="U18" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C18)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D18+2)*(1+'Weapon Formulas'!B18))</f>
-        <v>-26.686666666666664</v>
+        <v>-26.646666666666665</v>
       </c>
       <c r="V18">
         <v>0.8</v>
@@ -21406,7 +21411,7 @@
       </c>
       <c r="U19" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C19)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D19+2)*(1+'Weapon Formulas'!B19))</f>
-        <v>-53.373333333333328</v>
+        <v>-53.293333333333329</v>
       </c>
       <c r="V19">
         <v>0.75</v>
@@ -21486,7 +21491,7 @@
       </c>
       <c r="U20" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C20)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D20+2)*(1+'Weapon Formulas'!B20))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V20">
         <v>0.82</v>
@@ -21568,7 +21573,7 @@
       </c>
       <c r="U21" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C21)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D21+2)*(1+'Weapon Formulas'!B21))</f>
-        <v>-53.353333333333332</v>
+        <v>-53.313333333333325</v>
       </c>
       <c r="V21">
         <v>0.8</v>
@@ -21648,7 +21653,7 @@
       </c>
       <c r="U22" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C22)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D22+2)*(1+'Weapon Formulas'!B22))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V22">
         <v>0.75</v>
@@ -21728,7 +21733,7 @@
       </c>
       <c r="U23" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C23)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D23+2)*(1+'Weapon Formulas'!B23))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V23">
         <v>0.82</v>
@@ -21808,7 +21813,7 @@
       </c>
       <c r="U24" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C24)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D24+2)*(1+'Weapon Formulas'!B24))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V24">
         <v>0.8</v>
@@ -21888,7 +21893,7 @@
       </c>
       <c r="U25" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C25)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D25+2)*(1+'Weapon Formulas'!B25))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V25">
         <v>0.75</v>
@@ -22099,7 +22104,7 @@
       </c>
       <c r="U27" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C27)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D27+2)*(1+'Weapon Formulas'!B27))</f>
-        <v>-213.41333333333333</v>
+        <v>-213.2533333333333</v>
       </c>
       <c r="V27">
         <v>0.9</v>
@@ -22261,7 +22266,7 @@
       </c>
       <c r="U28" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C28)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D28+2)*(1+'Weapon Formulas'!B28))</f>
-        <v>-426.74666666666661</v>
+        <v>-426.58666666666664</v>
       </c>
       <c r="V28">
         <v>0.9</v>
@@ -22544,7 +22549,7 @@
       </c>
       <c r="U30" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C30)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D30+2)*(1+'Weapon Formulas'!B30))</f>
-        <v>-13.343333333333332</v>
+        <v>-13.323333333333332</v>
       </c>
       <c r="V30">
         <v>0.82</v>
@@ -22703,7 +22708,7 @@
       </c>
       <c r="U31" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C31)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D31+2)*(1+'Weapon Formulas'!B31))</f>
-        <v>-26.686666666666664</v>
+        <v>-26.646666666666665</v>
       </c>
       <c r="V31">
         <v>0.8</v>
@@ -22862,7 +22867,7 @@
       </c>
       <c r="U32" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C32)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D32+2)*(1+'Weapon Formulas'!B32))</f>
-        <v>-53.373333333333328</v>
+        <v>-53.293333333333329</v>
       </c>
       <c r="V32">
         <v>0.75</v>
@@ -23021,7 +23026,7 @@
       </c>
       <c r="U33" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C33)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D33+2)*(1+'Weapon Formulas'!B33))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V33">
         <v>0.82</v>
@@ -23180,7 +23185,7 @@
       </c>
       <c r="U34" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C34)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D34+2)*(1+'Weapon Formulas'!B34))</f>
-        <v>-53.353333333333332</v>
+        <v>-53.313333333333325</v>
       </c>
       <c r="V34">
         <v>0.8</v>
@@ -23339,7 +23344,7 @@
       </c>
       <c r="U35" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C35)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D35+2)*(1+'Weapon Formulas'!B35))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V35">
         <v>0.75</v>
@@ -23498,7 +23503,7 @@
       </c>
       <c r="U36" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C36)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D36+2)*(1+'Weapon Formulas'!B36))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V36">
         <v>0.82</v>
@@ -23657,7 +23662,7 @@
       </c>
       <c r="U37" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C37)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D37+2)*(1+'Weapon Formulas'!B37))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V37">
         <v>0.8</v>
@@ -23816,7 +23821,7 @@
       </c>
       <c r="U38" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C38)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D38+2)*(1+'Weapon Formulas'!B38))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V38">
         <v>0.75</v>
@@ -23945,7 +23950,7 @@
       </c>
       <c r="U40" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C40)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D40+2)*(1+'Weapon Formulas'!B40))</f>
-        <v>-213.41333333333333</v>
+        <v>-213.2533333333333</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -24029,7 +24034,7 @@
       </c>
       <c r="U41" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C41)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D41+2)*(1+'Weapon Formulas'!B41))</f>
-        <v>-426.74666666666661</v>
+        <v>-426.58666666666664</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -24155,7 +24160,7 @@
       </c>
       <c r="U43" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C43)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D43)*(1+'Weapon Formulas'!B43))</f>
-        <v>-13.343333333333332</v>
+        <v>-13.323333333333332</v>
       </c>
       <c r="V43">
         <v>0.82</v>
@@ -24236,7 +24241,7 @@
       </c>
       <c r="U44" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C44)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D44)*(1+'Weapon Formulas'!B44))</f>
-        <v>-26.686666666666664</v>
+        <v>-26.646666666666665</v>
       </c>
       <c r="V44">
         <v>0.8</v>
@@ -24317,7 +24322,7 @@
       </c>
       <c r="U45" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C45)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D45)*(1+'Weapon Formulas'!B45))</f>
-        <v>-53.373333333333328</v>
+        <v>-53.293333333333329</v>
       </c>
       <c r="V45">
         <v>0.75</v>
@@ -24398,7 +24403,7 @@
       </c>
       <c r="U46" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C46)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D46)*(1+'Weapon Formulas'!B46))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V46">
         <v>0.82</v>
@@ -24479,7 +24484,7 @@
       </c>
       <c r="U47" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C47)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D47)*(1+'Weapon Formulas'!B47))</f>
-        <v>-53.353333333333332</v>
+        <v>-53.313333333333325</v>
       </c>
       <c r="V47">
         <v>0.8</v>
@@ -24560,7 +24565,7 @@
       </c>
       <c r="U48" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C48)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D48)*(1+'Weapon Formulas'!B48))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V48">
         <v>0.75</v>
@@ -24640,7 +24645,7 @@
       </c>
       <c r="U49" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C49)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D49)*(1+'Weapon Formulas'!B49))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V49">
         <v>0.82</v>
@@ -24720,7 +24725,7 @@
       </c>
       <c r="U50" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C50)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D50)*(1+'Weapon Formulas'!B50))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V50">
         <v>0.8</v>
@@ -24800,7 +24805,7 @@
       </c>
       <c r="U51" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C51)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D51)*(1+'Weapon Formulas'!B51))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V51">
         <v>0.75</v>
@@ -24928,7 +24933,7 @@
       </c>
       <c r="U53" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C53)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D53+2)*(1+'Weapon Formulas'!B53))</f>
-        <v>-213.41333333333333</v>
+        <v>-213.2533333333333</v>
       </c>
       <c r="V53">
         <v>0.95</v>
@@ -25011,7 +25016,7 @@
       </c>
       <c r="U54" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C54)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D54+2)*(1+'Weapon Formulas'!B54))</f>
-        <v>-426.74666666666661</v>
+        <v>-426.58666666666664</v>
       </c>
       <c r="V54">
         <v>0.95</v>
@@ -25134,7 +25139,7 @@
       </c>
       <c r="U56" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C56)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D56+2)*(1+'Weapon Formulas'!B56))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V56">
         <v>0.76</v>
@@ -25213,7 +25218,7 @@
       </c>
       <c r="U57" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C57)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D57+2)*(1+'Weapon Formulas'!B57))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V57">
         <v>0.72</v>
@@ -25292,7 +25297,7 @@
       </c>
       <c r="U58" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C58)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D58+2)*(1+'Weapon Formulas'!B58))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V58">
         <v>0.67</v>
@@ -25371,7 +25376,7 @@
       </c>
       <c r="U59" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C59)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D59+2)*(1+'Weapon Formulas'!B59))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V59">
         <v>0.76</v>
@@ -25450,7 +25455,7 @@
       </c>
       <c r="U60" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C60)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D60+2)*(1+'Weapon Formulas'!B60))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V60">
         <v>0.72</v>
@@ -25529,7 +25534,7 @@
       </c>
       <c r="U61" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C61)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D61+2)*(1+'Weapon Formulas'!B61))</f>
-        <v>-26.706666666666663</v>
+        <v>-26.626666666666665</v>
       </c>
       <c r="V61">
         <v>0.67</v>
@@ -25608,7 +25613,7 @@
       </c>
       <c r="U62" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C62)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D62+2)*(1+'Weapon Formulas'!B62))</f>
-        <v>-13.343333333333332</v>
+        <v>-13.323333333333332</v>
       </c>
       <c r="V62">
         <v>0.76</v>
@@ -25687,7 +25692,7 @@
       </c>
       <c r="U63" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C63)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D63+2)*(1+'Weapon Formulas'!B63))</f>
-        <v>-26.686666666666664</v>
+        <v>-26.646666666666665</v>
       </c>
       <c r="V63">
         <v>0.72</v>
@@ -25767,7 +25772,7 @@
       </c>
       <c r="U64" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C64)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D64+2)*(1+'Weapon Formulas'!B64))</f>
-        <v>-53.373333333333328</v>
+        <v>-53.293333333333329</v>
       </c>
       <c r="V64">
         <v>0.67</v>
@@ -25846,7 +25851,7 @@
       </c>
       <c r="U65" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C65)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D65+2)*(1+'Weapon Formulas'!B65))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V65">
         <v>0.76</v>
@@ -25925,7 +25930,7 @@
       </c>
       <c r="U66" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C66)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D66+2)*(1+'Weapon Formulas'!B66))</f>
-        <v>-53.353333333333332</v>
+        <v>-53.313333333333325</v>
       </c>
       <c r="V66">
         <v>0.72</v>
@@ -26004,7 +26009,7 @@
       </c>
       <c r="U67" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C67)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D67+2)*(1+'Weapon Formulas'!B67))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V67">
         <v>0.67</v>
@@ -26083,7 +26088,7 @@
       </c>
       <c r="U68" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C68)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D68+2)*(1+'Weapon Formulas'!B68))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V68">
         <v>0.76</v>
@@ -26162,7 +26167,7 @@
       </c>
       <c r="U69" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C69)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D69+2)*(1+'Weapon Formulas'!B69))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V69">
         <v>0.72</v>
@@ -26241,7 +26246,7 @@
       </c>
       <c r="U70" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C70)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D70+2)*(1+'Weapon Formulas'!B70))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V70">
         <v>0.67</v>
@@ -26367,7 +26372,7 @@
       </c>
       <c r="U72" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C72)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D72+2)*(1+'Weapon Formulas'!B72))</f>
-        <v>-213.41333333333333</v>
+        <v>-213.2533333333333</v>
       </c>
       <c r="V72">
         <v>0.7</v>
@@ -26449,7 +26454,7 @@
       </c>
       <c r="U73" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C73)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D73+2)*(1+'Weapon Formulas'!B73))</f>
-        <v>-426.74666666666661</v>
+        <v>-426.58666666666664</v>
       </c>
       <c r="V73">
         <v>0.7</v>
@@ -26568,7 +26573,7 @@
       </c>
       <c r="U75" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C75)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D75+2)*(1+'Weapon Formulas'!B75))</f>
-        <v>-13.343333333333332</v>
+        <v>-13.323333333333332</v>
       </c>
       <c r="V75">
         <v>0.82</v>
@@ -26647,7 +26652,7 @@
       </c>
       <c r="U76" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C76)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D76+2)*(1+'Weapon Formulas'!B76))</f>
-        <v>-26.686666666666664</v>
+        <v>-26.646666666666665</v>
       </c>
       <c r="V76">
         <v>0.8</v>
@@ -26726,7 +26731,7 @@
       </c>
       <c r="U77" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C77)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D77+2)*(1+'Weapon Formulas'!B77))</f>
-        <v>-53.373333333333328</v>
+        <v>-53.293333333333329</v>
       </c>
       <c r="V77">
         <v>0.75</v>
@@ -26805,7 +26810,7 @@
       </c>
       <c r="U78" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C78)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D78+2)*(1+'Weapon Formulas'!B78))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V78">
         <v>0.82</v>
@@ -26884,7 +26889,7 @@
       </c>
       <c r="U79" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C79)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D79+2)*(1+'Weapon Formulas'!B79))</f>
-        <v>-53.353333333333332</v>
+        <v>-53.313333333333325</v>
       </c>
       <c r="V79">
         <v>0.8</v>
@@ -26963,7 +26968,7 @@
       </c>
       <c r="U80" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C80)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D80+2)*(1+'Weapon Formulas'!B80))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V80">
         <v>0.75</v>
@@ -27042,7 +27047,7 @@
       </c>
       <c r="U81" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C81)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D81+2)*(1+'Weapon Formulas'!B81))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V81">
         <v>0.82</v>
@@ -27121,7 +27126,7 @@
       </c>
       <c r="U82" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C82)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D82+2)*(1+'Weapon Formulas'!B82))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V82">
         <v>0.8</v>
@@ -27200,7 +27205,7 @@
       </c>
       <c r="U83" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C83)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D83+2)*(1+'Weapon Formulas'!B83))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V83">
         <v>0.75</v>
@@ -27319,7 +27324,7 @@
       </c>
       <c r="U85" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C85)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D85+2)*(1+'Weapon Formulas'!B85))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V85">
         <v>0.8</v>
@@ -27399,7 +27404,7 @@
       </c>
       <c r="U86" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C86)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D86+2)*(1+'Weapon Formulas'!B86))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V86">
         <v>0.8</v>
@@ -27524,7 +27529,7 @@
       </c>
       <c r="U88" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C88)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D88+2)*(1+'Weapon Formulas'!B88))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V88">
         <v>1</v>
@@ -27604,7 +27609,7 @@
       </c>
       <c r="U89" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C89)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D89+2)*(1+'Weapon Formulas'!B89))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V89">
         <v>1</v>
@@ -27684,7 +27689,7 @@
       </c>
       <c r="U90" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C90)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D90+2)*(1+'Weapon Formulas'!B90))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V90">
         <v>1</v>
@@ -27764,7 +27769,7 @@
       </c>
       <c r="U91" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C91)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D91+2)*(1+'Weapon Formulas'!B91))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V91">
         <v>1</v>
@@ -27844,7 +27849,7 @@
       </c>
       <c r="U92" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C92)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D92+2)*(1+'Weapon Formulas'!B92))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V92">
         <v>1</v>
@@ -27924,7 +27929,7 @@
       </c>
       <c r="U93" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C93)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D93+2)*(1+'Weapon Formulas'!B93))</f>
-        <v>-26.706666666666663</v>
+        <v>-26.626666666666665</v>
       </c>
       <c r="V93">
         <v>1</v>
@@ -28004,7 +28009,7 @@
       </c>
       <c r="U94" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C94)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D94+2)*(1+'Weapon Formulas'!B94))</f>
-        <v>-13.343333333333332</v>
+        <v>-13.323333333333332</v>
       </c>
       <c r="V94">
         <v>1</v>
@@ -28084,7 +28089,7 @@
       </c>
       <c r="U95" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C95)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D95+2)*(1+'Weapon Formulas'!B95))</f>
-        <v>-26.686666666666664</v>
+        <v>-26.646666666666665</v>
       </c>
       <c r="V95">
         <v>1</v>
@@ -28164,7 +28169,7 @@
       </c>
       <c r="U96" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C96)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D96+2)*(1+'Weapon Formulas'!B96))</f>
-        <v>-53.373333333333328</v>
+        <v>-53.293333333333329</v>
       </c>
       <c r="V96">
         <v>1</v>
@@ -28244,7 +28249,7 @@
       </c>
       <c r="U97" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C97)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D97+2)*(1+'Weapon Formulas'!B97))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V97">
         <v>1</v>
@@ -28324,7 +28329,7 @@
       </c>
       <c r="U98" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C98)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D98+2)*(1+'Weapon Formulas'!B98))</f>
-        <v>-53.353333333333332</v>
+        <v>-53.313333333333325</v>
       </c>
       <c r="V98">
         <v>1</v>
@@ -28404,7 +28409,7 @@
       </c>
       <c r="U99" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C99)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D99+2)*(1+'Weapon Formulas'!B99))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V99">
         <v>1</v>
@@ -28484,7 +28489,7 @@
       </c>
       <c r="U100" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C100)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D100+2)*(1+'Weapon Formulas'!B100))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V100">
         <v>1</v>
@@ -28564,7 +28569,7 @@
       </c>
       <c r="U101" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C101)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D101+2)*(1+'Weapon Formulas'!B101))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V101">
         <v>1</v>
@@ -28644,7 +28649,7 @@
       </c>
       <c r="U102" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C102)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D102+2)*(1+'Weapon Formulas'!B102))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V102">
         <v>1</v>
@@ -28769,7 +28774,7 @@
       </c>
       <c r="U104" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C104)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D104+2)*(1+'Weapon Formulas'!B104))</f>
-        <v>-13.343333333333332</v>
+        <v>-13.323333333333332</v>
       </c>
       <c r="V104">
         <v>1</v>
@@ -28850,7 +28855,7 @@
       </c>
       <c r="U105" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C105)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D105+2)*(1+'Weapon Formulas'!B105))</f>
-        <v>-26.686666666666664</v>
+        <v>-26.646666666666665</v>
       </c>
       <c r="V105">
         <v>1</v>
@@ -28931,7 +28936,7 @@
       </c>
       <c r="U106" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C106)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D106+2)*(1+'Weapon Formulas'!B106))</f>
-        <v>-53.373333333333328</v>
+        <v>-53.293333333333329</v>
       </c>
       <c r="V106">
         <v>1</v>
@@ -29012,7 +29017,7 @@
       </c>
       <c r="U107" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C107)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D107+2)*(1+'Weapon Formulas'!B107))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V107">
         <v>1</v>
@@ -29093,7 +29098,7 @@
       </c>
       <c r="U108" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C108)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D108+2)*(1+'Weapon Formulas'!B108))</f>
-        <v>-53.353333333333332</v>
+        <v>-53.313333333333325</v>
       </c>
       <c r="V108">
         <v>1</v>
@@ -29174,7 +29179,7 @@
       </c>
       <c r="U109" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C109)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D109+2)*(1+'Weapon Formulas'!B109))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V109">
         <v>1</v>
@@ -29255,7 +29260,7 @@
       </c>
       <c r="U110" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C110)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D110+2)*(1+'Weapon Formulas'!B110))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V110">
         <v>1</v>
@@ -29336,7 +29341,7 @@
       </c>
       <c r="U111" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C111)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D111+2)*(1+'Weapon Formulas'!B111))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V111">
         <v>1</v>
@@ -29417,7 +29422,7 @@
       </c>
       <c r="U112" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C112)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D112+2)*(1+'Weapon Formulas'!B112))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V112">
         <v>1</v>
@@ -29543,7 +29548,7 @@
       </c>
       <c r="U114" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C114)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D114+2)*(1+'Weapon Formulas'!B114))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V114">
         <v>1</v>
@@ -29626,7 +29631,7 @@
       </c>
       <c r="U115" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C115)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D115+2)*(1+'Weapon Formulas'!B115))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V115">
         <v>1</v>
@@ -29749,7 +29754,7 @@
       </c>
       <c r="U117" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C117)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D117+2)*(1+'Weapon Formulas'!B117))</f>
-        <v>-106.74666666666666</v>
+        <v>-106.58666666666666</v>
       </c>
       <c r="V117">
         <v>0.75</v>
@@ -29829,7 +29834,7 @@
       </c>
       <c r="U118" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C118)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D118+2)*(1+'Weapon Formulas'!B118))</f>
-        <v>-213.41333333333333</v>
+        <v>-213.2533333333333</v>
       </c>
       <c r="V118">
         <v>0.75</v>
@@ -29909,7 +29914,7 @@
       </c>
       <c r="U119" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C119)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D119+2)*(1+'Weapon Formulas'!B119))</f>
-        <v>-426.74666666666661</v>
+        <v>-426.58666666666664</v>
       </c>
       <c r="V119">
         <v>0.75</v>
@@ -30035,7 +30040,7 @@
       </c>
       <c r="U121" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C121)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D121+2)*(1+'Weapon Formulas'!B121))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V121" s="32">
         <v>0.75</v>
@@ -30111,7 +30116,7 @@
       </c>
       <c r="U122" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C122)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D122+2)*(1+'Weapon Formulas'!B122))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V122" s="32">
         <v>0.75</v>
@@ -30213,7 +30218,7 @@
       </c>
       <c r="U124" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C124)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D124+2)*(1+'Weapon Formulas'!B124))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V124" s="32">
         <v>0.75</v>
@@ -30289,7 +30294,7 @@
       </c>
       <c r="U125" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C125)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D125+2)*(1+'Weapon Formulas'!B125))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V125" s="32">
         <v>1.75</v>
@@ -30365,7 +30370,7 @@
       </c>
       <c r="U126" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C126)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D126+2)*(1+'Weapon Formulas'!B126))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V126" s="32">
         <v>2.75</v>
@@ -30441,7 +30446,7 @@
       </c>
       <c r="U127" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C127)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D127+2)*(1+'Weapon Formulas'!B127))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V127" s="32">
         <v>3.75</v>
@@ -30517,7 +30522,7 @@
       </c>
       <c r="U128" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C128)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D128+2)*(1+'Weapon Formulas'!B128))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V128" s="32">
         <v>4.75</v>
@@ -30593,7 +30598,7 @@
       </c>
       <c r="U129" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C129)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D129+2)*(1+'Weapon Formulas'!B129))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V129" s="32">
         <v>5.75</v>
@@ -30669,7 +30674,7 @@
       </c>
       <c r="U130" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C130)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D130+2)*(1+'Weapon Formulas'!B130))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V130" s="32">
         <v>6.75</v>
@@ -30745,7 +30750,7 @@
       </c>
       <c r="U131" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C131)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D131+2)*(1+'Weapon Formulas'!B131))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V131" s="32">
         <v>7.75</v>
@@ -30821,7 +30826,7 @@
       </c>
       <c r="U132" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C132)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D132+2)*(1+'Weapon Formulas'!B132))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V132" s="32">
         <v>8.75</v>
@@ -30897,7 +30902,7 @@
       </c>
       <c r="U133" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C133)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D133+2)*(1+'Weapon Formulas'!B133))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V133" s="32">
         <v>9.75</v>
@@ -30973,7 +30978,7 @@
       </c>
       <c r="U134" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C134)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D134+2)*(1+'Weapon Formulas'!B134))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V134" s="32">
         <v>10.75</v>
@@ -31049,7 +31054,7 @@
       </c>
       <c r="U135" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C135)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D135+2)*(1+'Weapon Formulas'!B135))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V135" s="32">
         <v>11.75</v>
@@ -31125,7 +31130,7 @@
       </c>
       <c r="U136" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C136)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D136+2)*(1+'Weapon Formulas'!B136))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V136" s="32">
         <v>12.75</v>
@@ -31201,7 +31206,7 @@
       </c>
       <c r="U137" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C137)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D137+2)*(1+'Weapon Formulas'!B137))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V137" s="32">
         <v>13.75</v>
@@ -31277,7 +31282,7 @@
       </c>
       <c r="U138" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C138)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D138+2)*(1+'Weapon Formulas'!B138))</f>
-        <v>-26.706666666666663</v>
+        <v>-26.626666666666665</v>
       </c>
       <c r="V138" s="32">
         <v>14.75</v>
@@ -31353,7 +31358,7 @@
       </c>
       <c r="U139" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C139)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D139+2)*(1+'Weapon Formulas'!B139))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V139" s="32">
         <v>15.75</v>
@@ -31429,7 +31434,7 @@
       </c>
       <c r="U140" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C140)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D140+2)*(1+'Weapon Formulas'!B140))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V140" s="32">
         <v>16.75</v>
@@ -31505,7 +31510,7 @@
       </c>
       <c r="U141" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C141)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D141+2)*(1+'Weapon Formulas'!B141))</f>
-        <v>-26.706666666666663</v>
+        <v>-26.626666666666665</v>
       </c>
       <c r="V141" s="32">
         <v>17.75</v>
@@ -31581,7 +31586,7 @@
       </c>
       <c r="U142" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C142)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D142+2)*(1+'Weapon Formulas'!B142))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V142" s="32">
         <v>18.75</v>
@@ -31657,7 +31662,7 @@
       </c>
       <c r="U143" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C143)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D143+2)*(1+'Weapon Formulas'!B143))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V143" s="32">
         <v>19.75</v>
@@ -31733,7 +31738,7 @@
       </c>
       <c r="U144" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C144)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D144+2)*(1+'Weapon Formulas'!B144))</f>
-        <v>-26.706666666666663</v>
+        <v>-26.626666666666665</v>
       </c>
       <c r="V144" s="32">
         <v>20.75</v>
@@ -31809,7 +31814,7 @@
       </c>
       <c r="U145" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C145)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D145+2)*(1+'Weapon Formulas'!B145))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V145" s="32">
         <v>21.75</v>
@@ -31885,7 +31890,7 @@
       </c>
       <c r="U146" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C146)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D146+2)*(1+'Weapon Formulas'!B146))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V146" s="32">
         <v>22.75</v>
@@ -31961,7 +31966,7 @@
       </c>
       <c r="U147" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C147)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D147+2)*(1+'Weapon Formulas'!B147))</f>
-        <v>-26.706666666666663</v>
+        <v>-26.626666666666665</v>
       </c>
       <c r="V147" s="32">
         <v>23.75</v>
@@ -32072,7 +32077,7 @@
       </c>
       <c r="U149" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C149)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D149+2)*(1+'Weapon Formulas'!B149))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V149" s="32">
         <v>25.75</v>
@@ -32148,7 +32153,7 @@
       </c>
       <c r="U150" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C150)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D150+2)*(1+'Weapon Formulas'!B150))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V150" s="32">
         <v>26.75</v>
@@ -32224,7 +32229,7 @@
       </c>
       <c r="U151" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C151)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D151+2)*(1+'Weapon Formulas'!B151))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V151" s="32">
         <v>27.75</v>
@@ -32336,7 +32341,7 @@
       </c>
       <c r="U153" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C153)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D153+2)*(1+'Weapon Formulas'!B153))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V153" s="32">
         <v>29.75</v>
@@ -32412,7 +32417,7 @@
       </c>
       <c r="U154" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C154)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D154+2)*(1+'Weapon Formulas'!B154))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V154" s="32">
         <v>30.75</v>
@@ -32488,7 +32493,7 @@
       </c>
       <c r="U155" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C155)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D155+2)*(1+'Weapon Formulas'!B155))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V155" s="32">
         <v>31.75</v>
@@ -32564,7 +32569,7 @@
       </c>
       <c r="U156" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C156)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D156+2)*(1+'Weapon Formulas'!B156))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V156" s="32">
         <v>32.75</v>
@@ -32654,7 +32659,7 @@
       </c>
       <c r="U158" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C158)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D158+2)*(1+'Weapon Formulas'!B158))</f>
-        <v>-53.343333333333327</v>
+        <v>-53.323333333333331</v>
       </c>
       <c r="V158" s="32">
         <v>33.75</v>
@@ -32730,7 +32735,7 @@
       </c>
       <c r="U159" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C159)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D159+2)*(1+'Weapon Formulas'!B159))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V159" s="32">
         <v>34.75</v>
@@ -32841,7 +32846,7 @@
       </c>
       <c r="U161" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C161)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D161+2)*(1+'Weapon Formulas'!B161))</f>
-        <v>-213.37333333333331</v>
+        <v>-213.29333333333332</v>
       </c>
       <c r="V161" s="32">
         <v>36.75</v>
@@ -32950,7 +32955,7 @@
       </c>
       <c r="U163" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C163)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D163+2)*(1+'Weapon Formulas'!B163))</f>
-        <v>-106.68666666666665</v>
+        <v>-106.64666666666666</v>
       </c>
       <c r="V163" s="32">
         <v>38.75</v>
@@ -33040,7 +33045,7 @@
       </c>
       <c r="U165" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C165)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D165+2)*(1+'Weapon Formulas'!B165))</f>
-        <v>-3.3433333333333328</v>
+        <v>-3.3233333333333333</v>
       </c>
       <c r="V165" s="32">
         <v>39.75</v>
@@ -33116,7 +33121,7 @@
       </c>
       <c r="U166" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C166)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D166+2)*(1+'Weapon Formulas'!B166))</f>
-        <v>-6.6866666666666656</v>
+        <v>-6.6466666666666665</v>
       </c>
       <c r="V166" s="32">
         <v>41.75</v>
@@ -33192,7 +33197,7 @@
       </c>
       <c r="U167" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C167)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D167+2)*(1+'Weapon Formulas'!B167))</f>
-        <v>-13.373333333333331</v>
+        <v>-13.293333333333333</v>
       </c>
       <c r="V167" s="32">
         <v>42.75</v>
@@ -33283,7 +33288,7 @@
       </c>
       <c r="U169" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C169)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D169+2)*(1+'Weapon Formulas'!B169))</f>
-        <v>-26.676666666666666</v>
+        <v>-26.656666666666663</v>
       </c>
       <c r="V169" s="32">
         <v>43.75</v>
@@ -33359,7 +33364,7 @@
       </c>
       <c r="U170" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C170)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D170+2)*(1+'Weapon Formulas'!B170))</f>
-        <v>-106.70666666666666</v>
+        <v>-106.62666666666665</v>
       </c>
       <c r="V170" s="32">
         <v>44.75</v>
@@ -33460,7 +33465,7 @@
       </c>
       <c r="U172" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C172)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D172+2)*(1+'Weapon Formulas'!B172))</f>
-        <v>-6.6766666666666659</v>
+        <v>-6.6566666666666663</v>
       </c>
       <c r="V172" s="32">
         <v>44.75</v>
@@ -33536,7 +33541,7 @@
       </c>
       <c r="U173" s="14">
         <f>-INDEX('Ship Design Balancing'!$K$2:$K$6,'Weapon Formulas'!C173)*(INDEX('Weapon Formulas'!$R$1:$R$3,'Weapon Formulas'!D173+2)*(1+'Weapon Formulas'!B173))</f>
-        <v>-13.353333333333332</v>
+        <v>-13.313333333333333</v>
       </c>
       <c r="V173" s="32">
         <v>48.75</v>
@@ -34096,8 +34101,8 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <f>(2/3*J2)+0.01</f>
-        <v>3.3433333333333328</v>
+        <f>(2/3*J2)-0.01</f>
+        <v>3.3233333333333333</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -34132,9 +34137,9 @@
         <f>J2*2</f>
         <v>10</v>
       </c>
-      <c r="K3" s="36">
-        <f t="shared" ref="K3:K6" si="0">(2/3*J3)+0.01</f>
-        <v>6.6766666666666659</v>
+      <c r="K3" s="37">
+        <f t="shared" ref="K3:K6" si="0">(2/3*J3)-0.01</f>
+        <v>6.6566666666666663</v>
       </c>
       <c r="N3">
         <v>0.14000000000000001</v>
@@ -34177,9 +34182,9 @@
         <f t="shared" ref="J4:J6" si="2">J3*2</f>
         <v>20</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="37">
         <f t="shared" si="0"/>
-        <v>13.343333333333332</v>
+        <v>13.323333333333332</v>
       </c>
       <c r="M4" t="s">
         <v>265</v>
@@ -34224,9 +34229,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="37">
         <f t="shared" si="0"/>
-        <v>26.676666666666666</v>
+        <v>26.656666666666663</v>
       </c>
       <c r="N5" s="24">
         <f>(N6/B5)/5</f>
@@ -34269,9 +34274,9 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="37">
         <f t="shared" si="0"/>
-        <v>53.343333333333327</v>
+        <v>53.323333333333331</v>
       </c>
       <c r="N6">
         <v>0.81</v>
@@ -38255,8 +38260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S165" sqref="S165"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38358,7 +38363,7 @@
         <v>146</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4" s="38"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -38387,7 +38392,7 @@
         <v>147</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="39"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -38436,7 +38441,7 @@
       <c r="O6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P6" s="39"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -38457,7 +38462,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="39"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -38469,7 +38474,7 @@
       </c>
       <c r="C8" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C8),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D8" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A8,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D8),2)</f>
@@ -38525,7 +38530,7 @@
       </c>
       <c r="C9" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C9),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D9" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A9,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D9),2)</f>
@@ -38581,7 +38586,7 @@
       </c>
       <c r="C10" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C10),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D10" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A10,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D10),2)</f>
@@ -38637,7 +38642,7 @@
       </c>
       <c r="C11" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C11),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D11" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A11,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D11),2)</f>
@@ -38693,7 +38698,7 @@
       </c>
       <c r="C12" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C12),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D12" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A12,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D12),2)</f>
@@ -38749,7 +38754,7 @@
       </c>
       <c r="C13" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C13),2)</f>
-        <v>-26.71</v>
+        <v>-26.63</v>
       </c>
       <c r="D13" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A13,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D13),2)</f>
@@ -38805,7 +38810,7 @@
       </c>
       <c r="C14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C14),2)</f>
-        <v>-13.34</v>
+        <v>-13.32</v>
       </c>
       <c r="D14" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A14,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D14),2)</f>
@@ -38861,7 +38866,7 @@
       </c>
       <c r="C15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C15),2)</f>
-        <v>-26.69</v>
+        <v>-26.65</v>
       </c>
       <c r="D15" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A15,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D15),2)</f>
@@ -38917,7 +38922,7 @@
       </c>
       <c r="C16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C16),2)</f>
-        <v>-53.37</v>
+        <v>-53.29</v>
       </c>
       <c r="D16" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A16,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D16),2)</f>
@@ -38973,7 +38978,7 @@
       </c>
       <c r="C17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C17),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D17" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A17,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D17),2)</f>
@@ -39029,7 +39034,7 @@
       </c>
       <c r="C18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C18),2)</f>
-        <v>-53.35</v>
+        <v>-53.31</v>
       </c>
       <c r="D18" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A18,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D18),2)</f>
@@ -39085,7 +39090,7 @@
       </c>
       <c r="C19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C19),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D19" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A19,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D19),2)</f>
@@ -39141,7 +39146,7 @@
       </c>
       <c r="C20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C20),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D20" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A20,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D20),2)</f>
@@ -39197,7 +39202,7 @@
       </c>
       <c r="C21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C21),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D21" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A21,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D21),2)</f>
@@ -39253,7 +39258,7 @@
       </c>
       <c r="C22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C22),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D22" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A22,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D22),2)</f>
@@ -39519,7 +39524,7 @@
       </c>
       <c r="C28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C28),2)</f>
-        <v>-213.41</v>
+        <v>-213.25</v>
       </c>
       <c r="D28" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A28,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D28),2)</f>
@@ -39575,7 +39580,7 @@
       </c>
       <c r="C29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C29),2)</f>
-        <v>-426.75</v>
+        <v>-426.59</v>
       </c>
       <c r="D29" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A29,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D29),2)</f>
@@ -39652,7 +39657,7 @@
       </c>
       <c r="C31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C31),2)</f>
-        <v>-13.34</v>
+        <v>-13.32</v>
       </c>
       <c r="D31" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A31,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D31),2)</f>
@@ -39708,7 +39713,7 @@
       </c>
       <c r="C32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C32),2)</f>
-        <v>-26.69</v>
+        <v>-26.65</v>
       </c>
       <c r="D32" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A32,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D32),2)</f>
@@ -39764,7 +39769,7 @@
       </c>
       <c r="C33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C33),2)</f>
-        <v>-53.37</v>
+        <v>-53.29</v>
       </c>
       <c r="D33" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A33,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D33),2)</f>
@@ -39820,7 +39825,7 @@
       </c>
       <c r="C34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C34),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D34" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A34,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D34),2)</f>
@@ -39876,7 +39881,7 @@
       </c>
       <c r="C35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C35),2)</f>
-        <v>-53.35</v>
+        <v>-53.31</v>
       </c>
       <c r="D35" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A35,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D35),2)</f>
@@ -39932,7 +39937,7 @@
       </c>
       <c r="C36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C36),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D36" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A36,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D36),2)</f>
@@ -39988,7 +39993,7 @@
       </c>
       <c r="C37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C37),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D37" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A37,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D37),2)</f>
@@ -40044,7 +40049,7 @@
       </c>
       <c r="C38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C38),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D38" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A38,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D38),2)</f>
@@ -40100,7 +40105,7 @@
       </c>
       <c r="C39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C39),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D39" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A39,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D39),2)</f>
@@ -40177,7 +40182,7 @@
       </c>
       <c r="C41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C41),2)</f>
-        <v>-213.41</v>
+        <v>-213.25</v>
       </c>
       <c r="D41" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A41,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D41),2)</f>
@@ -40233,7 +40238,7 @@
       </c>
       <c r="C42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C42),2)</f>
-        <v>-426.75</v>
+        <v>-426.59</v>
       </c>
       <c r="D42" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A42,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D42),2)</f>
@@ -40310,7 +40315,7 @@
       </c>
       <c r="C44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C44),2)</f>
-        <v>-13.34</v>
+        <v>-13.32</v>
       </c>
       <c r="D44" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A44,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D44),2)</f>
@@ -40366,7 +40371,7 @@
       </c>
       <c r="C45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C45),2)</f>
-        <v>-26.69</v>
+        <v>-26.65</v>
       </c>
       <c r="D45" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A45,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D45),2)</f>
@@ -40422,7 +40427,7 @@
       </c>
       <c r="C46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C46),2)</f>
-        <v>-53.37</v>
+        <v>-53.29</v>
       </c>
       <c r="D46" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A46,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D46),2)</f>
@@ -40478,7 +40483,7 @@
       </c>
       <c r="C47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C47),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D47" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A47,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D47),2)</f>
@@ -40534,7 +40539,7 @@
       </c>
       <c r="C48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C48),2)</f>
-        <v>-53.35</v>
+        <v>-53.31</v>
       </c>
       <c r="D48" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A48,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D48),2)</f>
@@ -40590,7 +40595,7 @@
       </c>
       <c r="C49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C49),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D49" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A49,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D49),2)</f>
@@ -40646,7 +40651,7 @@
       </c>
       <c r="C50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C50),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D50" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A50,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D50),2)</f>
@@ -40702,7 +40707,7 @@
       </c>
       <c r="C51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C51),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D51" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A51,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D51),2)</f>
@@ -40758,7 +40763,7 @@
       </c>
       <c r="C52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C52),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D52" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A52,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D52),2)</f>
@@ -40835,7 +40840,7 @@
       </c>
       <c r="C54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C54),2)</f>
-        <v>-213.41</v>
+        <v>-213.25</v>
       </c>
       <c r="D54" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A54,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D54),2)</f>
@@ -40891,7 +40896,7 @@
       </c>
       <c r="C55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C55),2)</f>
-        <v>-426.75</v>
+        <v>-426.59</v>
       </c>
       <c r="D55" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A55,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D55),2)</f>
@@ -40968,7 +40973,7 @@
       </c>
       <c r="C57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C57),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D57" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A57,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D57),2)</f>
@@ -41024,7 +41029,7 @@
       </c>
       <c r="C58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C58),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D58" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A58,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D58),2)</f>
@@ -41080,7 +41085,7 @@
       </c>
       <c r="C59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C59),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D59" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A59,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D59),2)</f>
@@ -41136,7 +41141,7 @@
       </c>
       <c r="C60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C60),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D60" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A60,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D60),2)</f>
@@ -41192,7 +41197,7 @@
       </c>
       <c r="C61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C61),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D61" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A61,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D61),2)</f>
@@ -41248,7 +41253,7 @@
       </c>
       <c r="C62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C62),2)</f>
-        <v>-26.71</v>
+        <v>-26.63</v>
       </c>
       <c r="D62" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A62,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D62),2)</f>
@@ -41304,7 +41309,7 @@
       </c>
       <c r="C63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C63),2)</f>
-        <v>-13.34</v>
+        <v>-13.32</v>
       </c>
       <c r="D63" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A63,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D63),2)</f>
@@ -41360,7 +41365,7 @@
       </c>
       <c r="C64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C64),2)</f>
-        <v>-26.69</v>
+        <v>-26.65</v>
       </c>
       <c r="D64" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A64,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D64),2)</f>
@@ -41416,7 +41421,7 @@
       </c>
       <c r="C65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C65),2)</f>
-        <v>-53.37</v>
+        <v>-53.29</v>
       </c>
       <c r="D65" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A65,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D65),2)</f>
@@ -41472,7 +41477,7 @@
       </c>
       <c r="C66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C66),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D66" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A66,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D66),2)</f>
@@ -41528,7 +41533,7 @@
       </c>
       <c r="C67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C67),2)</f>
-        <v>-53.35</v>
+        <v>-53.31</v>
       </c>
       <c r="D67" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A67,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D67),2)</f>
@@ -41584,7 +41589,7 @@
       </c>
       <c r="C68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C68),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D68" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A68,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D68),2)</f>
@@ -41640,7 +41645,7 @@
       </c>
       <c r="C69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C69),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D69" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A69,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D69),2)</f>
@@ -41696,7 +41701,7 @@
       </c>
       <c r="C70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C70),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D70" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A70,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D70),2)</f>
@@ -41752,7 +41757,7 @@
       </c>
       <c r="C71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C71),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D71" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A71,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D71),2)</f>
@@ -42018,7 +42023,7 @@
       </c>
       <c r="C77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C77),2)</f>
-        <v>-213.41</v>
+        <v>-213.25</v>
       </c>
       <c r="D77" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A77,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D77),2)</f>
@@ -42074,7 +42079,7 @@
       </c>
       <c r="C78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C78),2)</f>
-        <v>-426.75</v>
+        <v>-426.59</v>
       </c>
       <c r="D78" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A78,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D78),2)</f>
@@ -42151,7 +42156,7 @@
       </c>
       <c r="C80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C80),2)</f>
-        <v>-13.34</v>
+        <v>-13.32</v>
       </c>
       <c r="D80" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A80,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D80),2)</f>
@@ -42207,7 +42212,7 @@
       </c>
       <c r="C81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C81),2)</f>
-        <v>-26.69</v>
+        <v>-26.65</v>
       </c>
       <c r="D81" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A81,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D81),2)</f>
@@ -42263,7 +42268,7 @@
       </c>
       <c r="C82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C82),2)</f>
-        <v>-53.37</v>
+        <v>-53.29</v>
       </c>
       <c r="D82" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A82,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D82),2)</f>
@@ -42319,7 +42324,7 @@
       </c>
       <c r="C83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C83),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D83" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A83,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D83),2)</f>
@@ -42375,7 +42380,7 @@
       </c>
       <c r="C84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C84),2)</f>
-        <v>-53.35</v>
+        <v>-53.31</v>
       </c>
       <c r="D84" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A84,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D84),2)</f>
@@ -42431,7 +42436,7 @@
       </c>
       <c r="C85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C85),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D85" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A85,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D85),2)</f>
@@ -42487,7 +42492,7 @@
       </c>
       <c r="C86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C86),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D86" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A86,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D86),2)</f>
@@ -42543,7 +42548,7 @@
       </c>
       <c r="C87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C87),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D87" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A87,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D87),2)</f>
@@ -42599,7 +42604,7 @@
       </c>
       <c r="C88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C88),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D88" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A88,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D88),2)</f>
@@ -42676,7 +42681,7 @@
       </c>
       <c r="C90" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A90,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C90),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D90" s="5">
         <v>2</v>
@@ -42730,7 +42735,7 @@
       </c>
       <c r="C91" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A91,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C91),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D91" s="5">
         <v>2</v>
@@ -42805,7 +42810,7 @@
       </c>
       <c r="C93" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C93),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D93" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A93,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D93),2)</f>
@@ -42861,7 +42866,7 @@
       </c>
       <c r="C94" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C94),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D94" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A94,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D94),2)</f>
@@ -42917,7 +42922,7 @@
       </c>
       <c r="C95" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C95),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D95" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A95,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D95),2)</f>
@@ -42973,7 +42978,7 @@
       </c>
       <c r="C96" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C96),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D96" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A96,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D96),2)</f>
@@ -43029,7 +43034,7 @@
       </c>
       <c r="C97" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C97),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D97" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A97,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D97),2)</f>
@@ -43085,7 +43090,7 @@
       </c>
       <c r="C98" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C98),2)</f>
-        <v>-26.71</v>
+        <v>-26.63</v>
       </c>
       <c r="D98" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A98,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D98),2)</f>
@@ -43141,7 +43146,7 @@
       </c>
       <c r="C99" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C99),2)</f>
-        <v>-13.34</v>
+        <v>-13.32</v>
       </c>
       <c r="D99" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A99,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D99),2)</f>
@@ -43197,7 +43202,7 @@
       </c>
       <c r="C100" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C100),2)</f>
-        <v>-26.69</v>
+        <v>-26.65</v>
       </c>
       <c r="D100" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A100,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D100),2)</f>
@@ -43253,7 +43258,7 @@
       </c>
       <c r="C101" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C101),2)</f>
-        <v>-53.37</v>
+        <v>-53.29</v>
       </c>
       <c r="D101" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A101,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D101),2)</f>
@@ -43309,7 +43314,7 @@
       </c>
       <c r="C102" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C102),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D102" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A102,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D102),2)</f>
@@ -43365,7 +43370,7 @@
       </c>
       <c r="C103" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C103),2)</f>
-        <v>-53.35</v>
+        <v>-53.31</v>
       </c>
       <c r="D103" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A103,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D103),2)</f>
@@ -43421,7 +43426,7 @@
       </c>
       <c r="C104" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C104),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D104" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A104,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D104),2)</f>
@@ -43477,7 +43482,7 @@
       </c>
       <c r="C105" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C105),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D105" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A105,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D105),2)</f>
@@ -43533,7 +43538,7 @@
       </c>
       <c r="C106" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C106),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D106" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A106,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D106),2)</f>
@@ -43589,7 +43594,7 @@
       </c>
       <c r="C107" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C107),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D107" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A107,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D107),2)</f>
@@ -43855,7 +43860,7 @@
       </c>
       <c r="C113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C113),2)</f>
-        <v>-13.34</v>
+        <v>-13.32</v>
       </c>
       <c r="D113" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A113,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D113),2)</f>
@@ -43908,7 +43913,7 @@
       </c>
       <c r="C114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C114),2)</f>
-        <v>-26.69</v>
+        <v>-26.65</v>
       </c>
       <c r="D114" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A114,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D114),2)</f>
@@ -43961,7 +43966,7 @@
       </c>
       <c r="C115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C115),2)</f>
-        <v>-53.37</v>
+        <v>-53.29</v>
       </c>
       <c r="D115" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A115,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D115),2)</f>
@@ -44014,7 +44019,7 @@
       </c>
       <c r="C116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C116),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D116" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A116,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D116),2)</f>
@@ -44067,7 +44072,7 @@
       </c>
       <c r="C117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C117),2)</f>
-        <v>-53.35</v>
+        <v>-53.31</v>
       </c>
       <c r="D117" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A117,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D117),2)</f>
@@ -44120,7 +44125,7 @@
       </c>
       <c r="C118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C118),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D118" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A118,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D118),2)</f>
@@ -44173,7 +44178,7 @@
       </c>
       <c r="C119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C119),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D119" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A119,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D119),2)</f>
@@ -44226,7 +44231,7 @@
       </c>
       <c r="C120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C120),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D120" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A120,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D120),2)</f>
@@ -44279,7 +44284,7 @@
       </c>
       <c r="C121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C121),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D121" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A121,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D121),2)</f>
@@ -44346,7 +44351,7 @@
       </c>
       <c r="C123" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C123),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D123" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A123,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D123),2)</f>
@@ -44399,7 +44404,7 @@
       </c>
       <c r="C124" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C124),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D124" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A124,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D124),2)</f>
@@ -44466,7 +44471,7 @@
       </c>
       <c r="C126" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C126),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D126" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A126,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D126),2)</f>
@@ -44519,7 +44524,7 @@
       </c>
       <c r="C127" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C127),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D127" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A127,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D127),2)</f>
@@ -44586,7 +44591,7 @@
       </c>
       <c r="C129" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C129),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D129" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A129,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D129),2)</f>
@@ -44639,7 +44644,7 @@
       </c>
       <c r="C130" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C130),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D130" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A130,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D130),2)</f>
@@ -44692,7 +44697,7 @@
       </c>
       <c r="C131" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C131),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D131" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A131,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D131),2)</f>
@@ -44745,7 +44750,7 @@
       </c>
       <c r="C132" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C132),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D132" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A132,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D132),2)</f>
@@ -44798,7 +44803,7 @@
       </c>
       <c r="C133" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C133),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D133" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A133,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D133),2)</f>
@@ -44851,7 +44856,7 @@
       </c>
       <c r="C134" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C134),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D134" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A134,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D134),2)</f>
@@ -44904,7 +44909,7 @@
       </c>
       <c r="C135" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C135),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D135" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A135,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D135),2)</f>
@@ -44957,7 +44962,7 @@
       </c>
       <c r="C136" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C136),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D136" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A136,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D136),2)</f>
@@ -45010,7 +45015,7 @@
       </c>
       <c r="C137" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C137),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D137" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A137,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D137),2)</f>
@@ -45063,7 +45068,7 @@
       </c>
       <c r="C138" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C138),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D138" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A138,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D138),2)</f>
@@ -45116,7 +45121,7 @@
       </c>
       <c r="C139" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C139),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D139" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A139,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D139),2)</f>
@@ -45169,7 +45174,7 @@
       </c>
       <c r="C140" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C140),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D140" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A140,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D140),2)</f>
@@ -45222,7 +45227,7 @@
       </c>
       <c r="C141" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C141),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D141" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A141,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D141),2)</f>
@@ -45275,7 +45280,7 @@
       </c>
       <c r="C142" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C142),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D142" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A142,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D142),2)</f>
@@ -45328,7 +45333,7 @@
       </c>
       <c r="C143" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C143),2)</f>
-        <v>-26.71</v>
+        <v>-26.63</v>
       </c>
       <c r="D143" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A143,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D143),2)</f>
@@ -45381,7 +45386,7 @@
       </c>
       <c r="C144" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C144),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D144" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A144,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D144),2)</f>
@@ -45434,7 +45439,7 @@
       </c>
       <c r="C145" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C145),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D145" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A145,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D145),2)</f>
@@ -45487,7 +45492,7 @@
       </c>
       <c r="C146" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C146),2)</f>
-        <v>-26.71</v>
+        <v>-26.63</v>
       </c>
       <c r="D146" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A146,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D146),2)</f>
@@ -45540,7 +45545,7 @@
       </c>
       <c r="C147" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C147),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D147" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A147,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D147),2)</f>
@@ -45593,7 +45598,7 @@
       </c>
       <c r="C148" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C148),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D148" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A148,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D148),2)</f>
@@ -45646,7 +45651,7 @@
       </c>
       <c r="C149" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C149),2)</f>
-        <v>-26.71</v>
+        <v>-26.63</v>
       </c>
       <c r="D149" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A149,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D149),2)</f>
@@ -45699,7 +45704,7 @@
       </c>
       <c r="C150" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C150),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D150" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A150,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D150),2)</f>
@@ -45752,7 +45757,7 @@
       </c>
       <c r="C151" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C151),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D151" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A151,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D151),2)</f>
@@ -45805,7 +45810,7 @@
       </c>
       <c r="C152" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C152),2)</f>
-        <v>-26.71</v>
+        <v>-26.63</v>
       </c>
       <c r="D152" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A152,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D152),2)</f>
@@ -45872,7 +45877,7 @@
       </c>
       <c r="C154" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C154),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D154" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A154,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D154),2)</f>
@@ -45925,7 +45930,7 @@
       </c>
       <c r="C155" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C155),2)</f>
-        <v>-3.34</v>
+        <v>-3.32</v>
       </c>
       <c r="D155" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A155,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D155),2)</f>
@@ -45978,7 +45983,7 @@
       </c>
       <c r="C156" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C156),2)</f>
-        <v>-6.69</v>
+        <v>-6.65</v>
       </c>
       <c r="D156" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A156,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D156),2)</f>
@@ -46031,7 +46036,7 @@
       </c>
       <c r="C157" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C157),2)</f>
-        <v>-13.37</v>
+        <v>-13.29</v>
       </c>
       <c r="D157" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A157,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D157),2)</f>
@@ -46085,7 +46090,7 @@
       </c>
       <c r="C158" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C158),2)</f>
-        <v>-26.68</v>
+        <v>-26.66</v>
       </c>
       <c r="D158" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A158,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D158),2)</f>
@@ -46138,7 +46143,7 @@
       </c>
       <c r="C159" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C159),2)</f>
-        <v>-106.71</v>
+        <v>-106.63</v>
       </c>
       <c r="D159" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A159,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D159),2)</f>
@@ -46191,7 +46196,7 @@
       </c>
       <c r="C160" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C160),2)</f>
-        <v>-6.68</v>
+        <v>-6.66</v>
       </c>
       <c r="D160" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A160,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D160),2)</f>
@@ -46244,7 +46249,7 @@
       </c>
       <c r="C161" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C161),2)</f>
-        <v>-13.35</v>
+        <v>-13.31</v>
       </c>
       <c r="D161" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A161,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D161),2)</f>
@@ -46311,7 +46316,7 @@
       </c>
       <c r="C163" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C163),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D163" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A163,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D163),2)</f>
@@ -46364,7 +46369,7 @@
       </c>
       <c r="C164" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C164),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D164" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A164,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D164),2)</f>
@@ -46417,7 +46422,7 @@
       </c>
       <c r="C165" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C165),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D165" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A165,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D165),2)</f>
@@ -46484,7 +46489,7 @@
       </c>
       <c r="C167" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C167),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D167" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A167,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D167),2)</f>
@@ -46537,7 +46542,7 @@
       </c>
       <c r="C168" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C168),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D168" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A168,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D168),2)</f>
@@ -46590,7 +46595,7 @@
       </c>
       <c r="C169" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C169),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D169" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A169,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D169),2)</f>
@@ -46643,7 +46648,7 @@
       </c>
       <c r="C170" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C170),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D170" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A170,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D170),2)</f>
@@ -46696,7 +46701,7 @@
       </c>
       <c r="C171" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C171),2)</f>
-        <v>-53.34</v>
+        <v>-53.32</v>
       </c>
       <c r="D171" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A171,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D171),2)</f>
@@ -46749,7 +46754,7 @@
       </c>
       <c r="C172" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C172),2)</f>
-        <v>-106.69</v>
+        <v>-106.65</v>
       </c>
       <c r="D172" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A172,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D172),2)</f>
@@ -46816,7 +46821,7 @@
       </c>
       <c r="C174" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$V$300,17,0),weapon_components!C174),2)</f>
-        <v>-213.37</v>
+        <v>-213.29</v>
       </c>
       <c r="D174" s="5">
         <f>ROUND(_xlfn.IFNA(VLOOKUP(A174,'Weapon Formulas'!$E$10:$Q$300,11,0),weapon_components!D174),2)</f>

--- a/Stellaris Rebalance.xlsx
+++ b/Stellaris Rebalance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" tabRatio="737" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components" sheetId="4" r:id="rId1"/>
@@ -20168,8 +20168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP178"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S113" sqref="S113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20880,7 +20880,7 @@
         <v>1.8277475516866157</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" ref="H12:H25" si="14">$F13*(INDEX($F$3:$F$5,H$9)+(($C13+($D13*$F$7))*INDEX($G$3:$G$5,H$9)))</f>
+        <f t="shared" ref="H13:H25" si="14">$F13*(INDEX($F$3:$F$5,H$9)+(($C13+($D13*$F$7))*INDEX($G$3:$G$5,H$9)))</f>
         <v>1.6797</v>
       </c>
       <c r="I13" s="2">
@@ -31506,7 +31506,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="R141" s="38">
-        <f t="shared" ref="R141:R175" si="99">IF((F141*INDEX($O$2:$O$6,$C141))/((F141-H141)+0.001)&gt;1,1,IF((F141*INDEX($O$2:$O$6,$C141))/((F141-H141)+0.001)&lt;0,1,(F141*INDEX($O$2:$O$6,$C141))/((F141-H141)+0.001)))</f>
+        <f t="shared" ref="R141:R173" si="99">IF((F141*INDEX($O$2:$O$6,$C141))/((F141-H141)+0.001)&gt;1,1,IF((F141*INDEX($O$2:$O$6,$C141))/((F141-H141)+0.001)&lt;0,1,(F141*INDEX($O$2:$O$6,$C141))/((F141-H141)+0.001)))</f>
         <v>0.39950678175092486</v>
       </c>
       <c r="S141" s="32">
@@ -34354,7 +34354,7 @@
         <v>0.6</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" ref="C9:E9" si="6">(VLOOKUP(D10,$E$28:$F$102,2,1)/100)</f>
+        <f t="shared" ref="D9:E9" si="6">(VLOOKUP(D10,$E$28:$F$102,2,1)/100)</f>
         <v>0.4</v>
       </c>
       <c r="E9" s="12">
@@ -38279,8 +38279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="A1:O178"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
